--- a/cbreader2X/nav/simple_nav.xlsx
+++ b/cbreader2X/nav/simple_nav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cbwork\bin\cbreader2X\nav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AE57ED1F-CA78-4739-A9CC-5DB5073BA006}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50098F13-B1F6-4A38-8569-DACFE2BDDB80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="96" windowWidth="19392" windowHeight="9192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple" sheetId="1" r:id="rId1"/>
@@ -12643,24 +12643,6 @@
     <t>專書</t>
   </si>
   <si>
-    <t>help\other\Y\index\Y0035-C2P_index.htm 中文索引</t>
-  </si>
-  <si>
-    <t>help\other\Y\index\Y0035-P2C_index.htm 梵巴藏歐文索引</t>
-  </si>
-  <si>
-    <t>help\other\Y\index\Y0036-C2P_index.htm 中文索引</t>
-  </si>
-  <si>
-    <t>help\other\Y\index\Y0036-P2C_index.htm 梵巴藏歐文索引</t>
-  </si>
-  <si>
-    <t>help\other\Y\index\Y0037-C2P_index.htm 中文索引</t>
-  </si>
-  <si>
-    <t>help\other\Y\index\Y0037-P2C_index.htm 梵巴藏歐文索引</t>
-  </si>
-  <si>
     <t>附錄</t>
   </si>
   <si>
@@ -13475,6 +13457,24 @@
   <si>
     <t>印順法師佛學著作集</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>help/other/Y/index/Y0035-C2P_index.htm 中文索引</t>
+  </si>
+  <si>
+    <t>help/other/Y/index/Y0035-P2C_index.htm 梵巴藏歐文索引</t>
+  </si>
+  <si>
+    <t>help/other/Y/index/Y0036-C2P_index.htm 中文索引</t>
+  </si>
+  <si>
+    <t>help/other/Y/index/Y0036-P2C_index.htm 梵巴藏歐文索引</t>
+  </si>
+  <si>
+    <t>help/other/Y/index/Y0037-C2P_index.htm 中文索引</t>
+  </si>
+  <si>
+    <t>help/other/Y/index/Y0037-P2C_index.htm 梵巴藏歐文索引</t>
   </si>
 </sst>
 </file>
@@ -14453,8 +14453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4608" workbookViewId="0">
-      <selection activeCell="B4626" sqref="B4626"/>
+    <sheetView tabSelected="1" topLeftCell="A4656" workbookViewId="0">
+      <selection activeCell="Q4661" sqref="Q4661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -14471,7 +14471,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>4218</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -14481,7 +14481,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>4219</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -14491,7 +14491,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>4220</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -14501,7 +14501,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>4221</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -14511,7 +14511,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>4222</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -14526,7 +14526,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>4223</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -14536,7 +14536,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>4224</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -14556,7 +14556,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>4225</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
@@ -14566,7 +14566,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>4226</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
@@ -14576,7 +14576,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>4227</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
@@ -14591,7 +14591,7 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>4228</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
@@ -14601,12 +14601,12 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>4229</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>4230</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
@@ -14616,7 +14616,7 @@
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>4231</v>
+        <v>4225</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
@@ -14626,7 +14626,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>4232</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
@@ -14651,7 +14651,7 @@
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>4233</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
@@ -14661,7 +14661,7 @@
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>4234</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
@@ -14671,17 +14671,17 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>4235</v>
+        <v>4229</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>4236</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>4237</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
@@ -14696,12 +14696,12 @@
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>4238</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>4239</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
@@ -14716,7 +14716,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>4240</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
@@ -14726,7 +14726,7 @@
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>4241</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
@@ -14741,7 +14741,7 @@
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>4242</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
@@ -14751,7 +14751,7 @@
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
-        <v>4243</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
@@ -14771,7 +14771,7 @@
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
-        <v>4244</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
@@ -14781,7 +14781,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
-        <v>4245</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -31631,7 +31631,7 @@
     </row>
     <row r="3435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3435" t="s">
-        <v>4477</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="3436" spans="1:5" x14ac:dyDescent="0.3">
@@ -35796,37 +35796,37 @@
     </row>
     <row r="4268" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4268" t="s">
-        <v>4246</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="4269" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4269" t="s">
-        <v>4247</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="4270" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4270" t="s">
-        <v>4248</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="4271" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4271" t="s">
-        <v>4249</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="4272" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4272" t="s">
-        <v>4250</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="4273" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4273" t="s">
-        <v>4251</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="4274" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4274" t="s">
-        <v>4252</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="4275" spans="3:4" x14ac:dyDescent="0.3">
@@ -35841,82 +35841,82 @@
     </row>
     <row r="4277" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4277" t="s">
-        <v>4253</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="4278" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4278" t="s">
-        <v>4254</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="4279" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4279" t="s">
-        <v>4255</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="4280" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4280" t="s">
-        <v>4256</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="4281" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4281" t="s">
-        <v>4257</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="4282" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4282" t="s">
-        <v>4258</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="4283" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4283" t="s">
-        <v>4259</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="4284" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4284" t="s">
-        <v>4260</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="4285" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4285" t="s">
-        <v>4261</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="4286" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4286" t="s">
-        <v>4262</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="4287" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4287" t="s">
-        <v>4263</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="4288" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4288" t="s">
-        <v>4264</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="4289" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4289" t="s">
-        <v>4265</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="4290" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4290" t="s">
-        <v>4266</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="4291" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4291" t="s">
-        <v>4267</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="4292" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4292" t="s">
-        <v>4268</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="4293" spans="3:4" x14ac:dyDescent="0.3">
@@ -35931,22 +35931,22 @@
     </row>
     <row r="4295" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4295" t="s">
-        <v>4269</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="4296" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4296" t="s">
-        <v>4270</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="4297" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4297" t="s">
-        <v>4271</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="4298" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4298" t="s">
-        <v>4272</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="4299" spans="3:4" x14ac:dyDescent="0.3">
@@ -35961,92 +35961,92 @@
     </row>
     <row r="4301" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4301" t="s">
-        <v>4273</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="4302" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4302" t="s">
-        <v>4274</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="4303" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4303" t="s">
-        <v>4275</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="4304" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4304" t="s">
-        <v>4276</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="4305" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4305" t="s">
-        <v>4277</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="4306" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4306" t="s">
-        <v>4278</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="4307" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4307" t="s">
-        <v>4279</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="4308" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4308" t="s">
-        <v>4280</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="4309" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4309" t="s">
-        <v>4281</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="4310" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4310" t="s">
-        <v>4282</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="4311" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4311" t="s">
-        <v>4283</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="4312" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4312" t="s">
-        <v>4284</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="4313" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4313" t="s">
-        <v>4285</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="4314" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4314" t="s">
-        <v>4286</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="4315" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4315" t="s">
-        <v>4287</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="4316" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4316" t="s">
-        <v>4288</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="4317" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4317" t="s">
-        <v>4289</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="4318" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4318" t="s">
-        <v>4290</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="4319" spans="3:4" x14ac:dyDescent="0.3">
@@ -36061,107 +36061,107 @@
     </row>
     <row r="4321" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4321" t="s">
-        <v>4291</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="4322" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4322" t="s">
-        <v>4292</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="4323" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4323" t="s">
-        <v>4293</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="4324" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4324" t="s">
-        <v>4294</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="4325" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4325" t="s">
-        <v>4295</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="4326" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4326" t="s">
-        <v>4296</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="4327" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4327" t="s">
-        <v>4297</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="4328" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4328" t="s">
-        <v>4298</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="4329" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4329" t="s">
-        <v>4299</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="4330" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4330" t="s">
-        <v>4300</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="4331" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4331" t="s">
-        <v>4301</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="4332" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4332" t="s">
-        <v>4302</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="4333" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4333" t="s">
-        <v>4303</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="4334" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4334" t="s">
-        <v>4304</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="4335" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4335" t="s">
-        <v>4305</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="4336" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4336" t="s">
-        <v>4306</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="4337" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4337" t="s">
-        <v>4307</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="4338" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4338" t="s">
-        <v>4308</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="4339" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4339" t="s">
-        <v>4309</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="4340" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4340" t="s">
-        <v>4310</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="4341" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4341" t="s">
-        <v>4311</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="4342" spans="3:4" x14ac:dyDescent="0.3">
@@ -36176,42 +36176,42 @@
     </row>
     <row r="4344" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4344" t="s">
-        <v>4312</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="4345" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4345" t="s">
-        <v>4313</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="4346" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4346" t="s">
-        <v>4314</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="4347" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4347" t="s">
-        <v>4315</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="4348" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4348" t="s">
-        <v>4316</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="4349" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4349" t="s">
-        <v>4317</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="4350" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4350" t="s">
-        <v>4318</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="4351" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4351" t="s">
-        <v>4319</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="4352" spans="3:4" x14ac:dyDescent="0.3">
@@ -36226,12 +36226,12 @@
     </row>
     <row r="4354" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4354" t="s">
-        <v>4320</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="4355" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4355" t="s">
-        <v>4321</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="4356" spans="3:5" x14ac:dyDescent="0.3">
@@ -36246,7 +36246,7 @@
     </row>
     <row r="4358" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4358" t="s">
-        <v>4322</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="4359" spans="3:5" x14ac:dyDescent="0.3">
@@ -36256,7 +36256,7 @@
     </row>
     <row r="4360" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4360" t="s">
-        <v>4323</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="4361" spans="3:5" x14ac:dyDescent="0.3">
@@ -36271,12 +36271,12 @@
     </row>
     <row r="4363" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4363" t="s">
-        <v>4324</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="4364" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4364" t="s">
-        <v>4325</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="4365" spans="3:5" x14ac:dyDescent="0.3">
@@ -36291,22 +36291,22 @@
     </row>
     <row r="4367" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4367" t="s">
-        <v>4326</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="4368" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4368" t="s">
-        <v>4327</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="4369" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4369" t="s">
-        <v>4328</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="4370" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4370" t="s">
-        <v>4329</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="4371" spans="3:4" x14ac:dyDescent="0.3">
@@ -36341,32 +36341,32 @@
     </row>
     <row r="4377" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4377" t="s">
-        <v>4330</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="4378" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4378" t="s">
-        <v>4331</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="4379" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4379" t="s">
-        <v>4332</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="4380" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4380" t="s">
-        <v>4333</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="4381" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4381" t="s">
-        <v>4334</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="4382" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4382" t="s">
-        <v>4335</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="4383" spans="3:4" x14ac:dyDescent="0.3">
@@ -36381,27 +36381,27 @@
     </row>
     <row r="4385" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4385" t="s">
-        <v>4336</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="4386" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4386" t="s">
-        <v>4337</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="4387" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4387" t="s">
-        <v>4338</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="4388" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4388" t="s">
-        <v>4339</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="4389" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4389" t="s">
-        <v>4340</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="4390" spans="3:5" x14ac:dyDescent="0.3">
@@ -36416,7 +36416,7 @@
     </row>
     <row r="4392" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4392" t="s">
-        <v>4341</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="4393" spans="3:5" x14ac:dyDescent="0.3">
@@ -36446,7 +36446,7 @@
     </row>
     <row r="4398" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4398" t="s">
-        <v>4342</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="4399" spans="3:5" x14ac:dyDescent="0.3">
@@ -36591,7 +36591,7 @@
     </row>
     <row r="4427" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4427" t="s">
-        <v>4343</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="4428" spans="3:5" x14ac:dyDescent="0.3">
@@ -36606,17 +36606,17 @@
     </row>
     <row r="4430" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4430" t="s">
-        <v>4344</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="4431" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4431" t="s">
-        <v>4345</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="4432" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4432" t="s">
-        <v>4346</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="4433" spans="3:5" x14ac:dyDescent="0.3">
@@ -36766,17 +36766,17 @@
     </row>
     <row r="4462" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4462" t="s">
-        <v>4347</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="4463" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4463" t="s">
-        <v>4348</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="4464" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4464" t="s">
-        <v>4349</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="4465" spans="3:5" x14ac:dyDescent="0.3">
@@ -36801,17 +36801,17 @@
     </row>
     <row r="4469" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4469" t="s">
-        <v>4350</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="4470" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4470" t="s">
-        <v>4351</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="4471" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4471" t="s">
-        <v>4352</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="4472" spans="3:5" x14ac:dyDescent="0.3">
@@ -36821,22 +36821,22 @@
     </row>
     <row r="4473" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4473" t="s">
-        <v>4353</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="4474" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4474" t="s">
-        <v>4354</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="4475" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4475" t="s">
-        <v>4355</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="4476" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4476" t="s">
-        <v>4356</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="4477" spans="3:5" x14ac:dyDescent="0.3">
@@ -36851,22 +36851,22 @@
     </row>
     <row r="4479" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4479" t="s">
-        <v>4357</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="4480" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4480" t="s">
-        <v>4358</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="4481" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4481" t="s">
-        <v>4359</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="4482" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4482" t="s">
-        <v>4360</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="4483" spans="3:5" x14ac:dyDescent="0.3">
@@ -36881,22 +36881,22 @@
     </row>
     <row r="4485" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4485" t="s">
-        <v>4361</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="4486" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4486" t="s">
-        <v>4362</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="4487" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4487" t="s">
-        <v>4363</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="4488" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4488" t="s">
-        <v>4364</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="4489" spans="3:5" x14ac:dyDescent="0.3">
@@ -36926,17 +36926,17 @@
     </row>
     <row r="4494" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4494" t="s">
-        <v>4365</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="4495" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4495" t="s">
-        <v>4366</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="4496" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4496" t="s">
-        <v>4367</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="4497" spans="3:5" x14ac:dyDescent="0.3">
@@ -36961,27 +36961,27 @@
     </row>
     <row r="4501" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4501" t="s">
-        <v>4368</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="4502" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4502" t="s">
-        <v>4369</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="4503" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4503" t="s">
-        <v>4370</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="4504" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4504" t="s">
-        <v>4371</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="4505" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4505" t="s">
-        <v>4372</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="4506" spans="3:5" x14ac:dyDescent="0.3">
@@ -36996,12 +36996,12 @@
     </row>
     <row r="4508" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4508" t="s">
-        <v>4373</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="4509" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4509" t="s">
-        <v>4374</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="4510" spans="3:5" x14ac:dyDescent="0.3">
@@ -37026,7 +37026,7 @@
     </row>
     <row r="4514" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4514" t="s">
-        <v>4375</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="4515" spans="3:5" x14ac:dyDescent="0.3">
@@ -37091,12 +37091,12 @@
     </row>
     <row r="4527" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4527" t="s">
-        <v>4376</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="4528" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4528" t="s">
-        <v>4377</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="4529" spans="3:4" x14ac:dyDescent="0.3">
@@ -37111,87 +37111,87 @@
     </row>
     <row r="4531" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4531" t="s">
-        <v>4378</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="4532" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4532" t="s">
-        <v>4379</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="4533" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4533" t="s">
-        <v>4380</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="4534" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4534" t="s">
-        <v>4381</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="4535" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4535" t="s">
-        <v>4382</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="4536" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4536" t="s">
-        <v>4383</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="4537" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4537" t="s">
-        <v>4384</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="4538" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4538" t="s">
-        <v>4385</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="4539" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4539" t="s">
-        <v>4386</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="4540" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4540" t="s">
-        <v>4387</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="4541" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4541" t="s">
-        <v>4388</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="4542" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4542" t="s">
-        <v>4389</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="4543" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4543" t="s">
-        <v>4390</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="4544" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4544" t="s">
-        <v>4391</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="4545" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4545" t="s">
-        <v>4392</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="4546" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4546" t="s">
-        <v>4393</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="4547" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4547" t="s">
-        <v>4394</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="4548" spans="3:5" x14ac:dyDescent="0.3">
@@ -37206,17 +37206,17 @@
     </row>
     <row r="4550" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4550" t="s">
-        <v>4395</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="4551" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4551" t="s">
-        <v>4396</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="4552" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4552" t="s">
-        <v>4397</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="4553" spans="3:5" x14ac:dyDescent="0.3">
@@ -37231,7 +37231,7 @@
     </row>
     <row r="4555" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4555" t="s">
-        <v>4398</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="4556" spans="3:5" x14ac:dyDescent="0.3">
@@ -37251,7 +37251,7 @@
     </row>
     <row r="4559" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4559" t="s">
-        <v>4399</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="4560" spans="3:5" x14ac:dyDescent="0.3">
@@ -37266,17 +37266,17 @@
     </row>
     <row r="4562" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4562" t="s">
-        <v>4400</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="4563" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4563" t="s">
-        <v>4401</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="4564" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4564" t="s">
-        <v>4402</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="4565" spans="2:4" x14ac:dyDescent="0.3">
@@ -37291,12 +37291,12 @@
     </row>
     <row r="4567" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4567" t="s">
-        <v>4403</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="4568" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4568" t="s">
-        <v>4404</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="4569" spans="2:4" x14ac:dyDescent="0.3">
@@ -37321,7 +37321,7 @@
     </row>
     <row r="4573" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4573" t="s">
-        <v>4405</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="4574" spans="2:4" x14ac:dyDescent="0.3">
@@ -37331,7 +37331,7 @@
     </row>
     <row r="4575" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4575" t="s">
-        <v>4406</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="4576" spans="2:4" x14ac:dyDescent="0.3">
@@ -37341,7 +37341,7 @@
     </row>
     <row r="4577" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4577" t="s">
-        <v>4407</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="4578" spans="4:4" x14ac:dyDescent="0.3">
@@ -37351,7 +37351,7 @@
     </row>
     <row r="4579" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4579" t="s">
-        <v>4408</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="4580" spans="4:4" x14ac:dyDescent="0.3">
@@ -37361,7 +37361,7 @@
     </row>
     <row r="4581" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4581" t="s">
-        <v>4409</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="4582" spans="4:4" x14ac:dyDescent="0.3">
@@ -37371,7 +37371,7 @@
     </row>
     <row r="4583" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4583" t="s">
-        <v>4410</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="4584" spans="4:4" x14ac:dyDescent="0.3">
@@ -37391,7 +37391,7 @@
     </row>
     <row r="4587" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4587" t="s">
-        <v>4411</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="4588" spans="4:4" x14ac:dyDescent="0.3">
@@ -37411,7 +37411,7 @@
     </row>
     <row r="4591" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4591" t="s">
-        <v>4412</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="4592" spans="4:4" x14ac:dyDescent="0.3">
@@ -37421,7 +37421,7 @@
     </row>
     <row r="4593" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4593" t="s">
-        <v>4413</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="4594" spans="4:4" x14ac:dyDescent="0.3">
@@ -37431,7 +37431,7 @@
     </row>
     <row r="4595" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4595" t="s">
-        <v>4414</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="4596" spans="4:4" x14ac:dyDescent="0.3">
@@ -37441,67 +37441,67 @@
     </row>
     <row r="4597" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4597" t="s">
-        <v>4415</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="4598" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4598" t="s">
-        <v>4416</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="4599" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4599" t="s">
-        <v>4417</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="4600" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4600" t="s">
-        <v>4418</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="4601" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4601" t="s">
-        <v>4419</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="4602" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4602" t="s">
-        <v>4420</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="4603" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4603" t="s">
-        <v>4421</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="4604" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4604" t="s">
-        <v>4422</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="4605" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4605" t="s">
-        <v>4423</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="4606" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4606" t="s">
-        <v>4424</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="4607" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4607" t="s">
-        <v>4425</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="4608" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4608" t="s">
-        <v>4426</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="4609" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4609" t="s">
-        <v>4427</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="4610" spans="3:4" x14ac:dyDescent="0.3">
@@ -37516,7 +37516,7 @@
     </row>
     <row r="4612" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4612" t="s">
-        <v>4428</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="4613" spans="3:4" x14ac:dyDescent="0.3">
@@ -37526,7 +37526,7 @@
     </row>
     <row r="4614" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4614" t="s">
-        <v>4429</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="4615" spans="3:4" x14ac:dyDescent="0.3">
@@ -37536,22 +37536,22 @@
     </row>
     <row r="4616" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4616" t="s">
-        <v>4430</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="4617" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4617" t="s">
-        <v>4431</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="4618" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4618" t="s">
-        <v>4432</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="4619" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4619" t="s">
-        <v>4433</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="4620" spans="3:4" x14ac:dyDescent="0.3">
@@ -37561,7 +37561,7 @@
     </row>
     <row r="4621" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4621" t="s">
-        <v>4434</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="4622" spans="3:4" x14ac:dyDescent="0.3">
@@ -37581,12 +37581,12 @@
     </row>
     <row r="4625" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D4625" t="s">
-        <v>4481</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="4626" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4626" t="s">
-        <v>4482</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="4627" spans="2:5" x14ac:dyDescent="0.3">
@@ -37596,147 +37596,147 @@
     </row>
     <row r="4628" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D4628" t="s">
-        <v>4478</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="4629" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E4629" t="s">
-        <v>4435</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="4630" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E4630" t="s">
-        <v>4436</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="4631" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E4631" t="s">
-        <v>4437</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="4632" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E4632" t="s">
-        <v>4438</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="4633" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E4633" t="s">
-        <v>4439</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="4634" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E4634" t="s">
-        <v>4440</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="4635" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E4635" t="s">
-        <v>4441</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="4636" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D4636" t="s">
-        <v>4479</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="4637" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E4637" t="s">
-        <v>4442</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="4638" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E4638" t="s">
-        <v>4443</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="4639" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E4639" t="s">
-        <v>4444</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="4640" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E4640" t="s">
-        <v>4445</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="4641" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4641" t="s">
-        <v>4446</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="4642" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4642" t="s">
-        <v>4447</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="4643" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4643" t="s">
-        <v>4448</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="4644" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D4644" t="s">
-        <v>4480</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="4645" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4645" t="s">
-        <v>4449</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="4646" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4646" t="s">
-        <v>4450</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="4647" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4647" t="s">
-        <v>4451</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="4648" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4648" t="s">
-        <v>4452</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="4649" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4649" t="s">
-        <v>4453</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="4650" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4650" t="s">
-        <v>4454</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="4651" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4651" t="s">
-        <v>4455</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="4652" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4652" t="s">
-        <v>4456</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="4653" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4653" t="s">
-        <v>4457</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="4654" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4654" t="s">
-        <v>4458</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="4655" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4655" t="s">
-        <v>4459</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="4656" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4656" t="s">
-        <v>4460</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="4657" spans="3:4" x14ac:dyDescent="0.3">
@@ -37746,27 +37746,27 @@
     </row>
     <row r="4658" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4658" t="s">
-        <v>4461</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="4659" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4659" t="s">
-        <v>4462</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="4660" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4660" t="s">
-        <v>4463</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="4661" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4661" t="s">
-        <v>4464</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="4662" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4662" t="s">
-        <v>4465</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="4663" spans="3:4" x14ac:dyDescent="0.3">
@@ -37776,112 +37776,112 @@
     </row>
     <row r="4664" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4664" t="s">
-        <v>4466</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="4665" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4665" t="s">
-        <v>4467</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="4666" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4666" t="s">
-        <v>4468</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="4667" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4667" t="s">
-        <v>4469</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="4668" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4668" t="s">
-        <v>4470</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="4669" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4669" t="s">
-        <v>4471</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="4670" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4670" t="s">
-        <v>4207</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="4671" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4671" t="s">
-        <v>4208</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="4672" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4672" t="s">
-        <v>4472</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="4673" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4673" t="s">
-        <v>4209</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="4674" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4674" t="s">
-        <v>4210</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="4675" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4675" t="s">
-        <v>4473</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="4676" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4676" t="s">
-        <v>4211</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="4677" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4677" t="s">
-        <v>4212</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="4678" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4678" t="s">
-        <v>4474</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="4679" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4679" t="s">
-        <v>4475</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="4680" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4680" t="s">
-        <v>4476</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="4681" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4681" t="s">
-        <v>4213</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="4682" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4682" t="s">
-        <v>4214</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="4683" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4683" t="s">
-        <v>4215</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="4684" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4684" t="s">
-        <v>4216</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="4685" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4685" t="s">
-        <v>4217</v>
+        <v>4211</v>
       </c>
     </row>
   </sheetData>

--- a/cbreader2X/nav/simple_nav.xlsx
+++ b/cbreader2X/nav/simple_nav.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cbwork\bin\cbreader2X\nav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50098F13-B1F6-4A38-8569-DACFE2BDDB80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E855397-3A4A-4D1F-B379-357CF0C6D1B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4685" uniqueCount="4483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4687" uniqueCount="4485">
   <si>
     <t>大正新脩大藏經</t>
   </si>
@@ -13475,6 +13475,14 @@
   </si>
   <si>
     <t>help/other/Y/index/Y0037-P2C_index.htm 梵巴藏歐文索引</t>
+  </si>
+  <si>
+    <t>呂澂佛學著作集</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC0007 經論講要</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -14451,10 +14459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4685"/>
+  <dimension ref="A1:F4687"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4656" workbookViewId="0">
-      <selection activeCell="Q4661" sqref="Q4661"/>
+    <sheetView tabSelected="1" topLeftCell="A4662" workbookViewId="0">
+      <selection activeCell="C4687" sqref="C4687"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -37819,69 +37827,79 @@
         <v>4466</v>
       </c>
     </row>
-    <row r="4673" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4673" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4673" t="s">
         <v>4479</v>
       </c>
     </row>
-    <row r="4674" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4674" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4674" t="s">
         <v>4480</v>
       </c>
     </row>
-    <row r="4675" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4675" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4675" t="s">
         <v>4467</v>
       </c>
     </row>
-    <row r="4676" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4676" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4676" t="s">
         <v>4481</v>
       </c>
     </row>
-    <row r="4677" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4677" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4677" t="s">
         <v>4482</v>
       </c>
     </row>
-    <row r="4678" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4678" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4678" t="s">
         <v>4468</v>
       </c>
     </row>
-    <row r="4679" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4679" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4679" t="s">
         <v>4469</v>
       </c>
     </row>
-    <row r="4680" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4680" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4680" t="s">
         <v>4470</v>
       </c>
     </row>
-    <row r="4681" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4681" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C4681" t="s">
         <v>4207</v>
       </c>
     </row>
-    <row r="4682" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4682" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4682" t="s">
         <v>4208</v>
       </c>
     </row>
-    <row r="4683" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4683" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4683" t="s">
         <v>4209</v>
       </c>
     </row>
-    <row r="4684" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4684" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4684" t="s">
         <v>4210</v>
       </c>
     </row>
-    <row r="4685" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4685" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4685" t="s">
         <v>4211</v>
+      </c>
+    </row>
+    <row r="4686" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4686" t="s">
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="4687" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C4687" t="s">
+        <v>4484</v>
       </c>
     </row>
   </sheetData>

--- a/cbreader2X/nav/simple_nav.xlsx
+++ b/cbreader2X/nav/simple_nav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cbwork\bin\cbreader2X\nav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E855397-3A4A-4D1F-B379-357CF0C6D1B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6AF1F0-9EFE-4D33-A16B-33BAC5FA14D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="21516" windowHeight="11136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple" sheetId="1" r:id="rId1"/>
@@ -13481,7 +13481,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>LC0007 經論講要</t>
+    <t>LC</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -14461,8 +14461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4687"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4662" workbookViewId="0">
-      <selection activeCell="C4687" sqref="C4687"/>
+    <sheetView tabSelected="1" topLeftCell="A4673" workbookViewId="0">
+      <selection activeCell="D4686" sqref="D4686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/cbreader2X/nav/simple_nav.xlsx
+++ b/cbreader2X/nav/simple_nav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cbwork\bin\cbreader2X\nav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6AF1F0-9EFE-4D33-A16B-33BAC5FA14D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70991C6B-A693-4F1E-81F3-2073174A1D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="21516" windowHeight="11136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple" sheetId="1" r:id="rId1"/>
@@ -12295,9 +12295,6 @@
     <t>help/other/B/B13-1.html 釋氏六帖解題</t>
   </si>
   <si>
-    <t>help/other/B/B13-1.html 大唐西域記解題</t>
-  </si>
-  <si>
     <t>help/other/B/B14.html 編輯說明</t>
   </si>
   <si>
@@ -13482,6 +13479,10 @@
   </si>
   <si>
     <t>LC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>help/other/B/B13-2.html 大唐西域記解題</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -14461,8 +14462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4687"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4673" workbookViewId="0">
-      <selection activeCell="D4686" sqref="D4686"/>
+    <sheetView tabSelected="1" topLeftCell="A4345" workbookViewId="0">
+      <selection activeCell="F4360" sqref="F4360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -14479,7 +14480,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>4212</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -14489,7 +14490,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -14499,7 +14500,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>4214</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -14509,7 +14510,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>4215</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -14519,7 +14520,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>4216</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -14534,7 +14535,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>4217</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -14544,7 +14545,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>4218</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -14564,7 +14565,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>4219</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
@@ -14574,7 +14575,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>4220</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
@@ -14584,7 +14585,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
@@ -14599,7 +14600,7 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
@@ -14609,12 +14610,12 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>4223</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>4224</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
@@ -14624,7 +14625,7 @@
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>4225</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
@@ -14634,7 +14635,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>4226</v>
+        <v>4225</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
@@ -14659,7 +14660,7 @@
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>4227</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
@@ -14669,7 +14670,7 @@
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
@@ -14679,17 +14680,17 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>4229</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>4230</v>
+        <v>4229</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>4231</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
@@ -14704,12 +14705,12 @@
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>4232</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>4233</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
@@ -14724,7 +14725,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>4234</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
@@ -14734,7 +14735,7 @@
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>4235</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
@@ -14749,7 +14750,7 @@
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>4236</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
@@ -14759,7 +14760,7 @@
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
-        <v>4237</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
@@ -14779,7 +14780,7 @@
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
@@ -14789,7 +14790,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -31639,7 +31640,7 @@
     </row>
     <row r="3435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3435" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="3436" spans="1:5" x14ac:dyDescent="0.3">
@@ -35804,37 +35805,37 @@
     </row>
     <row r="4268" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4268" t="s">
-        <v>4240</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="4269" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4269" t="s">
-        <v>4241</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="4270" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4270" t="s">
-        <v>4242</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="4271" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4271" t="s">
-        <v>4243</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="4272" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4272" t="s">
-        <v>4244</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="4273" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4273" t="s">
-        <v>4245</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="4274" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4274" t="s">
-        <v>4246</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="4275" spans="3:4" x14ac:dyDescent="0.3">
@@ -35849,82 +35850,82 @@
     </row>
     <row r="4277" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4277" t="s">
-        <v>4247</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="4278" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4278" t="s">
-        <v>4248</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="4279" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4279" t="s">
-        <v>4249</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="4280" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4280" t="s">
-        <v>4250</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="4281" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4281" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="4282" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4282" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="4283" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4283" t="s">
-        <v>4253</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="4284" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4284" t="s">
-        <v>4254</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="4285" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4285" t="s">
-        <v>4255</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="4286" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4286" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="4287" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4287" t="s">
-        <v>4257</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="4288" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4288" t="s">
-        <v>4258</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="4289" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4289" t="s">
-        <v>4259</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="4290" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4290" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="4291" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4291" t="s">
-        <v>4261</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="4292" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4292" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="4293" spans="3:4" x14ac:dyDescent="0.3">
@@ -35939,22 +35940,22 @@
     </row>
     <row r="4295" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4295" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="4296" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4296" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="4297" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4297" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="4298" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4298" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="4299" spans="3:4" x14ac:dyDescent="0.3">
@@ -35969,92 +35970,92 @@
     </row>
     <row r="4301" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4301" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="4302" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4302" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="4303" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4303" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="4304" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4304" t="s">
-        <v>4270</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="4305" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4305" t="s">
-        <v>4271</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="4306" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4306" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="4307" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4307" t="s">
-        <v>4273</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="4308" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4308" t="s">
-        <v>4274</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="4309" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4309" t="s">
-        <v>4275</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="4310" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4310" t="s">
-        <v>4276</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="4311" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4311" t="s">
-        <v>4277</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="4312" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4312" t="s">
-        <v>4278</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="4313" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4313" t="s">
-        <v>4279</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="4314" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4314" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="4315" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4315" t="s">
-        <v>4281</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="4316" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4316" t="s">
-        <v>4282</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="4317" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4317" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="4318" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4318" t="s">
-        <v>4284</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="4319" spans="3:4" x14ac:dyDescent="0.3">
@@ -36069,107 +36070,107 @@
     </row>
     <row r="4321" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4321" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="4322" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4322" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="4323" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4323" t="s">
-        <v>4287</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="4324" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4324" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="4325" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4325" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="4326" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4326" t="s">
-        <v>4290</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="4327" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4327" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="4328" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4328" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="4329" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4329" t="s">
-        <v>4293</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="4330" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4330" t="s">
-        <v>4294</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="4331" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4331" t="s">
-        <v>4295</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="4332" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4332" t="s">
-        <v>4296</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="4333" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4333" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="4334" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4334" t="s">
-        <v>4298</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="4335" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4335" t="s">
-        <v>4299</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="4336" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4336" t="s">
-        <v>4300</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="4337" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4337" t="s">
-        <v>4301</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="4338" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4338" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="4339" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4339" t="s">
-        <v>4303</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="4340" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4340" t="s">
-        <v>4304</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="4341" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4341" t="s">
-        <v>4305</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="4342" spans="3:4" x14ac:dyDescent="0.3">
@@ -36184,42 +36185,42 @@
     </row>
     <row r="4344" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4344" t="s">
-        <v>4306</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="4345" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4345" t="s">
-        <v>4307</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="4346" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4346" t="s">
-        <v>4308</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="4347" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4347" t="s">
-        <v>4309</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="4348" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4348" t="s">
-        <v>4310</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="4349" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4349" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="4350" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4350" t="s">
-        <v>4312</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="4351" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4351" t="s">
-        <v>4313</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="4352" spans="3:4" x14ac:dyDescent="0.3">
@@ -36234,12 +36235,12 @@
     </row>
     <row r="4354" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4354" t="s">
-        <v>4314</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="4355" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4355" t="s">
-        <v>4315</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="4356" spans="3:5" x14ac:dyDescent="0.3">
@@ -36254,17 +36255,17 @@
     </row>
     <row r="4358" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4358" t="s">
-        <v>4316</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="4359" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4359" t="s">
-        <v>4091</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="4360" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4360" t="s">
-        <v>4317</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="4361" spans="3:5" x14ac:dyDescent="0.3">
@@ -36274,22 +36275,22 @@
     </row>
     <row r="4362" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4362" t="s">
-        <v>4092</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="4363" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4363" t="s">
-        <v>4318</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="4364" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4364" t="s">
-        <v>4319</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="4365" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4365" t="s">
-        <v>4093</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="4366" spans="3:5" x14ac:dyDescent="0.3">
@@ -36299,42 +36300,42 @@
     </row>
     <row r="4367" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4367" t="s">
-        <v>4320</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="4368" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4368" t="s">
-        <v>4321</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="4369" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4369" t="s">
-        <v>4322</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="4370" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4370" t="s">
-        <v>4323</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="4371" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4371" t="s">
-        <v>4094</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="4372" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4372" t="s">
-        <v>4095</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="4373" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4373" t="s">
-        <v>4096</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="4374" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4374" t="s">
-        <v>4097</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="4375" spans="3:4" x14ac:dyDescent="0.3">
@@ -36344,37 +36345,37 @@
     </row>
     <row r="4376" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4376" t="s">
-        <v>4098</v>
+        <v>4097</v>
       </c>
     </row>
     <row r="4377" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4377" t="s">
-        <v>4324</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="4378" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4378" t="s">
-        <v>4325</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="4379" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4379" t="s">
-        <v>4326</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="4380" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4380" t="s">
-        <v>4327</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="4381" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4381" t="s">
-        <v>4328</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="4382" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4382" t="s">
-        <v>4329</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="4383" spans="3:4" x14ac:dyDescent="0.3">
@@ -36384,52 +36385,52 @@
     </row>
     <row r="4384" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4384" t="s">
-        <v>4099</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="4385" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4385" t="s">
-        <v>4330</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="4386" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4386" t="s">
-        <v>4331</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="4387" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4387" t="s">
-        <v>4332</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="4388" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4388" t="s">
-        <v>4333</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="4389" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4389" t="s">
-        <v>4334</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="4390" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4390" t="s">
-        <v>4100</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="4391" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4391" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="4392" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4392" t="s">
-        <v>4335</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="4393" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4393" t="s">
-        <v>4102</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="4394" spans="3:5" x14ac:dyDescent="0.3">
@@ -36444,17 +36445,17 @@
     </row>
     <row r="4396" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4396" t="s">
-        <v>4103</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="4397" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4397" t="s">
-        <v>4104</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="4398" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4398" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="4399" spans="3:5" x14ac:dyDescent="0.3">
@@ -36464,12 +36465,12 @@
     </row>
     <row r="4400" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4400" t="s">
-        <v>4105</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="4401" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4401" t="s">
-        <v>4106</v>
+        <v>4105</v>
       </c>
     </row>
     <row r="4402" spans="3:5" x14ac:dyDescent="0.3">
@@ -36479,7 +36480,7 @@
     </row>
     <row r="4403" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4403" t="s">
-        <v>4107</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="4404" spans="3:5" x14ac:dyDescent="0.3">
@@ -36489,7 +36490,7 @@
     </row>
     <row r="4405" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4405" t="s">
-        <v>4108</v>
+        <v>4107</v>
       </c>
     </row>
     <row r="4406" spans="3:5" x14ac:dyDescent="0.3">
@@ -36499,7 +36500,7 @@
     </row>
     <row r="4407" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4407" t="s">
-        <v>4109</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="4408" spans="3:5" x14ac:dyDescent="0.3">
@@ -36509,7 +36510,7 @@
     </row>
     <row r="4409" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4409" t="s">
-        <v>4110</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="4410" spans="3:5" x14ac:dyDescent="0.3">
@@ -36524,12 +36525,12 @@
     </row>
     <row r="4412" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4412" t="s">
-        <v>4111</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="4413" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4413" t="s">
-        <v>4112</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="4414" spans="3:5" x14ac:dyDescent="0.3">
@@ -36539,7 +36540,7 @@
     </row>
     <row r="4415" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4415" t="s">
-        <v>4113</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="4416" spans="3:5" x14ac:dyDescent="0.3">
@@ -36549,7 +36550,7 @@
     </row>
     <row r="4417" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4417" t="s">
-        <v>4114</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="4418" spans="3:5" x14ac:dyDescent="0.3">
@@ -36559,7 +36560,7 @@
     </row>
     <row r="4419" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4419" t="s">
-        <v>4115</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="4420" spans="3:5" x14ac:dyDescent="0.3">
@@ -36569,7 +36570,7 @@
     </row>
     <row r="4421" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4421" t="s">
-        <v>4116</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="4422" spans="3:5" x14ac:dyDescent="0.3">
@@ -36579,7 +36580,7 @@
     </row>
     <row r="4423" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4423" t="s">
-        <v>4117</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="4424" spans="3:5" x14ac:dyDescent="0.3">
@@ -36589,7 +36590,7 @@
     </row>
     <row r="4425" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4425" t="s">
-        <v>4118</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="4426" spans="3:5" x14ac:dyDescent="0.3">
@@ -36599,7 +36600,7 @@
     </row>
     <row r="4427" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4427" t="s">
-        <v>4337</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="4428" spans="3:5" x14ac:dyDescent="0.3">
@@ -36609,22 +36610,22 @@
     </row>
     <row r="4429" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4429" t="s">
-        <v>4119</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="4430" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4430" t="s">
-        <v>4338</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="4431" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4431" t="s">
-        <v>4339</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="4432" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4432" t="s">
-        <v>4340</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="4433" spans="3:5" x14ac:dyDescent="0.3">
@@ -36634,112 +36635,112 @@
     </row>
     <row r="4434" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4434" t="s">
-        <v>4120</v>
+        <v>4119</v>
       </c>
     </row>
     <row r="4435" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4435" t="s">
-        <v>4121</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="4436" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4436" t="s">
-        <v>4122</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="4437" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4437" t="s">
-        <v>4123</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="4438" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4438" t="s">
-        <v>4124</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="4439" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4439" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="4440" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4440" t="s">
-        <v>4126</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="4441" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4441" t="s">
-        <v>4127</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="4442" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4442" t="s">
-        <v>4128</v>
+        <v>4127</v>
       </c>
     </row>
     <row r="4443" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4443" t="s">
-        <v>4129</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="4444" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4444" t="s">
-        <v>4130</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="4445" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4445" t="s">
-        <v>4131</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="4446" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4446" t="s">
-        <v>4132</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="4447" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4447" t="s">
-        <v>4133</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="4448" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4448" t="s">
-        <v>4134</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="4449" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4449" t="s">
-        <v>4135</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="4450" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4450" t="s">
-        <v>4136</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="4451" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4451" t="s">
-        <v>4137</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="4452" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4452" t="s">
-        <v>4138</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="4453" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4453" t="s">
-        <v>4139</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="4454" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4454" t="s">
-        <v>4140</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="4455" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4455" t="s">
-        <v>4141</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="4456" spans="3:5" x14ac:dyDescent="0.3">
@@ -36759,7 +36760,7 @@
     </row>
     <row r="4459" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4459" t="s">
-        <v>4142</v>
+        <v>4141</v>
       </c>
     </row>
     <row r="4460" spans="3:5" x14ac:dyDescent="0.3">
@@ -36769,27 +36770,27 @@
     </row>
     <row r="4461" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4461" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="4462" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4462" t="s">
-        <v>4341</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="4463" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4463" t="s">
-        <v>4342</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="4464" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4464" t="s">
-        <v>4343</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="4465" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4465" t="s">
-        <v>4144</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="4466" spans="3:5" x14ac:dyDescent="0.3">
@@ -36799,52 +36800,52 @@
     </row>
     <row r="4467" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4467" t="s">
-        <v>4145</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="4468" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4468" t="s">
-        <v>4146</v>
+        <v>4145</v>
       </c>
     </row>
     <row r="4469" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4469" t="s">
-        <v>4344</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="4470" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4470" t="s">
-        <v>4345</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="4471" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4471" t="s">
-        <v>4346</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="4472" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4472" t="s">
-        <v>4147</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="4473" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4473" t="s">
-        <v>4347</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="4474" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4474" t="s">
-        <v>4348</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="4475" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4475" t="s">
-        <v>4349</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="4476" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4476" t="s">
-        <v>4350</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="4477" spans="3:5" x14ac:dyDescent="0.3">
@@ -36854,27 +36855,27 @@
     </row>
     <row r="4478" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4478" t="s">
-        <v>4148</v>
+        <v>4147</v>
       </c>
     </row>
     <row r="4479" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4479" t="s">
-        <v>4351</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="4480" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4480" t="s">
-        <v>4352</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="4481" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4481" t="s">
-        <v>4353</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="4482" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4482" t="s">
-        <v>4354</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="4483" spans="3:5" x14ac:dyDescent="0.3">
@@ -36884,32 +36885,32 @@
     </row>
     <row r="4484" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4484" t="s">
-        <v>4149</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="4485" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4485" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="4486" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4486" t="s">
-        <v>4356</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="4487" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4487" t="s">
-        <v>4357</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="4488" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4488" t="s">
-        <v>4358</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="4489" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4489" t="s">
-        <v>4150</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="4490" spans="3:5" x14ac:dyDescent="0.3">
@@ -36919,7 +36920,7 @@
     </row>
     <row r="4491" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4491" t="s">
-        <v>4151</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="4492" spans="3:5" x14ac:dyDescent="0.3">
@@ -36929,22 +36930,22 @@
     </row>
     <row r="4493" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4493" t="s">
-        <v>4152</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="4494" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4494" t="s">
-        <v>4359</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="4495" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4495" t="s">
-        <v>4360</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="4496" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4496" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="4497" spans="3:5" x14ac:dyDescent="0.3">
@@ -36954,12 +36955,12 @@
     </row>
     <row r="4498" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4498" t="s">
-        <v>4153</v>
+        <v>4152</v>
       </c>
     </row>
     <row r="4499" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4499" t="s">
-        <v>4154</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="4500" spans="3:5" x14ac:dyDescent="0.3">
@@ -36969,27 +36970,27 @@
     </row>
     <row r="4501" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4501" t="s">
-        <v>4362</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="4502" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4502" t="s">
-        <v>4363</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="4503" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4503" t="s">
-        <v>4364</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="4504" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4504" t="s">
-        <v>4365</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="4505" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4505" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="4506" spans="3:5" x14ac:dyDescent="0.3">
@@ -36999,27 +37000,27 @@
     </row>
     <row r="4507" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4507" t="s">
-        <v>4155</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="4508" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4508" t="s">
-        <v>4367</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="4509" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4509" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="4510" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4510" t="s">
-        <v>4156</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="4511" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4511" t="s">
-        <v>4157</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="4512" spans="3:5" x14ac:dyDescent="0.3">
@@ -37029,62 +37030,62 @@
     </row>
     <row r="4513" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4513" t="s">
-        <v>4158</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="4514" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4514" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="4515" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4515" t="s">
-        <v>4159</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="4516" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4516" t="s">
-        <v>4160</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="4517" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4517" t="s">
-        <v>4161</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="4518" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4518" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="4519" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4519" t="s">
-        <v>4163</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="4520" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4520" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="4521" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4521" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="4522" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4522" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="4523" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4523" t="s">
-        <v>4167</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="4524" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4524" t="s">
-        <v>4168</v>
+        <v>4167</v>
       </c>
     </row>
     <row r="4525" spans="3:5" x14ac:dyDescent="0.3">
@@ -37094,17 +37095,17 @@
     </row>
     <row r="4526" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4526" t="s">
-        <v>4169</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="4527" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4527" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="4528" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4528" t="s">
-        <v>4371</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="4529" spans="3:4" x14ac:dyDescent="0.3">
@@ -37114,117 +37115,117 @@
     </row>
     <row r="4530" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4530" t="s">
-        <v>4170</v>
+        <v>4169</v>
       </c>
     </row>
     <row r="4531" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4531" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="4532" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4532" t="s">
-        <v>4373</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="4533" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4533" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="4534" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4534" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="4535" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4535" t="s">
-        <v>4376</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="4536" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4536" t="s">
-        <v>4377</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="4537" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4537" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="4538" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4538" t="s">
-        <v>4379</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="4539" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4539" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="4540" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4540" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="4541" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4541" t="s">
-        <v>4382</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="4542" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4542" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="4543" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4543" t="s">
-        <v>4384</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="4544" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4544" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="4545" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4545" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="4546" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4546" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="4547" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4547" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="4548" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4548" t="s">
-        <v>4171</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="4549" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E4549" t="s">
-        <v>4172</v>
+        <v>4171</v>
       </c>
     </row>
     <row r="4550" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4550" t="s">
-        <v>4389</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="4551" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4551" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="4552" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4552" t="s">
-        <v>4391</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="4553" spans="3:5" x14ac:dyDescent="0.3">
@@ -37234,12 +37235,12 @@
     </row>
     <row r="4554" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4554" t="s">
-        <v>4173</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="4555" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4555" t="s">
-        <v>4392</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="4556" spans="3:5" x14ac:dyDescent="0.3">
@@ -37249,17 +37250,17 @@
     </row>
     <row r="4557" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4557" t="s">
-        <v>4174</v>
+        <v>4173</v>
       </c>
     </row>
     <row r="4558" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4558" t="s">
-        <v>4175</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="4559" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4559" t="s">
-        <v>4393</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="4560" spans="3:5" x14ac:dyDescent="0.3">
@@ -37269,22 +37270,22 @@
     </row>
     <row r="4561" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4561" t="s">
-        <v>4176</v>
+        <v>4175</v>
       </c>
     </row>
     <row r="4562" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4562" t="s">
-        <v>4394</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="4563" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4563" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="4564" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4564" t="s">
-        <v>4396</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="4565" spans="2:4" x14ac:dyDescent="0.3">
@@ -37294,612 +37295,612 @@
     </row>
     <row r="4566" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4566" t="s">
-        <v>4177</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="4567" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4567" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="4568" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4568" t="s">
-        <v>4398</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="4569" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4569" t="s">
-        <v>4178</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="4570" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C4570" t="s">
-        <v>4179</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="4571" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C4571" t="s">
-        <v>4180</v>
+        <v>4179</v>
       </c>
     </row>
     <row r="4572" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4572" t="s">
-        <v>4181</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="4573" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4573" t="s">
-        <v>4399</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="4574" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4574" t="s">
-        <v>4182</v>
+        <v>4181</v>
       </c>
     </row>
     <row r="4575" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4575" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="4576" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4576" t="s">
-        <v>4183</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="4577" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4577" t="s">
-        <v>4401</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="4578" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4578" t="s">
-        <v>4184</v>
+        <v>4183</v>
       </c>
     </row>
     <row r="4579" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4579" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="4580" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4580" t="s">
-        <v>4185</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="4581" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4581" t="s">
-        <v>4403</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="4582" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4582" t="s">
-        <v>4186</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="4583" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4583" t="s">
-        <v>4404</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="4584" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4584" t="s">
-        <v>4187</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="4585" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4585" t="s">
-        <v>4188</v>
+        <v>4187</v>
       </c>
     </row>
     <row r="4586" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4586" t="s">
-        <v>4189</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="4587" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4587" t="s">
-        <v>4405</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="4588" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4588" t="s">
-        <v>4190</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="4589" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4589" t="s">
-        <v>4191</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="4590" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4590" t="s">
-        <v>4192</v>
+        <v>4191</v>
       </c>
     </row>
     <row r="4591" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4591" t="s">
-        <v>4406</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="4592" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4592" t="s">
-        <v>4193</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="4593" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4593" t="s">
-        <v>4407</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="4594" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4594" t="s">
-        <v>4194</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="4595" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4595" t="s">
-        <v>4408</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="4596" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4596" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="4597" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4597" t="s">
-        <v>4409</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="4598" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4598" t="s">
-        <v>4410</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="4599" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4599" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="4600" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4600" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="4601" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4601" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="4602" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4602" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="4603" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4603" t="s">
-        <v>4415</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="4604" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4604" t="s">
-        <v>4416</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="4605" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4605" t="s">
-        <v>4417</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="4606" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4606" t="s">
-        <v>4418</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="4607" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4607" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="4608" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D4608" t="s">
-        <v>4420</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="4609" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4609" t="s">
-        <v>4421</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="4610" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4610" t="s">
-        <v>4196</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="4611" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4611" t="s">
-        <v>4197</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="4612" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4612" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="4613" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4613" t="s">
-        <v>4198</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="4614" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4614" t="s">
-        <v>4423</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="4615" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4615" t="s">
-        <v>4199</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="4616" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4616" t="s">
-        <v>4424</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="4617" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4617" t="s">
-        <v>4425</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="4618" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4618" t="s">
-        <v>4426</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="4619" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4619" t="s">
-        <v>4427</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="4620" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4620" t="s">
-        <v>4200</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="4621" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4621" t="s">
-        <v>4428</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="4622" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4622" t="s">
-        <v>4201</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="4623" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4623" t="s">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="4624" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4624" t="s">
-        <v>4203</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="4625" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D4625" t="s">
-        <v>4475</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="4626" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4626" t="s">
-        <v>4476</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="4627" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C4627" t="s">
-        <v>4204</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="4628" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D4628" t="s">
-        <v>4472</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="4629" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E4629" t="s">
-        <v>4429</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="4630" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E4630" t="s">
-        <v>4430</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="4631" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E4631" t="s">
-        <v>4431</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="4632" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E4632" t="s">
-        <v>4432</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="4633" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E4633" t="s">
-        <v>4433</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="4634" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E4634" t="s">
-        <v>4434</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="4635" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E4635" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="4636" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D4636" t="s">
-        <v>4473</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="4637" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E4637" t="s">
-        <v>4436</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="4638" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E4638" t="s">
-        <v>4437</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="4639" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E4639" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="4640" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E4640" t="s">
-        <v>4439</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="4641" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4641" t="s">
-        <v>4440</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="4642" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4642" t="s">
-        <v>4441</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="4643" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4643" t="s">
-        <v>4442</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="4644" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D4644" t="s">
-        <v>4474</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="4645" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4645" t="s">
-        <v>4443</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="4646" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4646" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="4647" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4647" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="4648" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4648" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="4649" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4649" t="s">
-        <v>4447</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="4650" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4650" t="s">
-        <v>4448</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="4651" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4651" t="s">
-        <v>4449</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="4652" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4652" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="4653" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4653" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="4654" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4654" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="4655" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4655" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="4656" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E4656" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="4657" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4657" t="s">
-        <v>4205</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="4658" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4658" t="s">
-        <v>4455</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="4659" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4659" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="4660" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4660" t="s">
-        <v>4457</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="4661" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4661" t="s">
-        <v>4458</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="4662" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4662" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="4663" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4663" t="s">
-        <v>4206</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="4664" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4664" t="s">
-        <v>4460</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="4665" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4665" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="4666" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4666" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="4667" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4667" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="4668" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4668" t="s">
-        <v>4464</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="4669" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4669" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="4670" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4670" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="4671" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4671" t="s">
-        <v>4478</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="4672" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D4672" t="s">
-        <v>4466</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="4673" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4673" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="4674" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4674" t="s">
-        <v>4480</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="4675" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4675" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="4676" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4676" t="s">
-        <v>4481</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="4677" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4677" t="s">
-        <v>4482</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="4678" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4678" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="4679" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4679" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="4680" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4680" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="4681" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C4681" t="s">
-        <v>4207</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="4682" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4682" t="s">
-        <v>4208</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="4683" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4683" t="s">
-        <v>4209</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="4684" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4684" t="s">
-        <v>4210</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="4685" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D4685" t="s">
-        <v>4211</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="4686" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4686" t="s">
-        <v>4483</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="4687" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C4687" t="s">
-        <v>4484</v>
+        <v>4483</v>
       </c>
     </row>
   </sheetData>

--- a/cbreader2X/nav/simple_nav.xlsx
+++ b/cbreader2X/nav/simple_nav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cbwork\bin\cbreader2X\nav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633059A2-A85C-456F-B06D-6188AD704D10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BD582C-2141-4D21-8B06-4CC927F0CCA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1524" yWindow="1536" windowWidth="21516" windowHeight="11136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4713" uniqueCount="4511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4751" uniqueCount="4541">
   <si>
     <t>大正新脩大藏經</t>
   </si>
@@ -13578,15 +13578,135 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ZWa072 徵稿啓事</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ZWa073 《藏外佛教文獻》總目錄（第一輯～第十二輯）</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ZWa074 鳴謝</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa075 目錄</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa076 卷首語</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa077 錄文校勘體例</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0089 讚禮地藏菩薩懺悔發願法</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0090 如來九觀（擬）</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0091 金剛峻經金剛頂一切如來深妙秘密金剛界大三昧耶修行四十二種壇法經作用威儀法則　大毘盧遮那佛金剛心地法門密法戒壇法儀則</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0092 金剛峻經金剛頂一切如來深妙秘密金剛界大三昧耶修行四十九種壇法經作用威儀法則　大毘盧遮那佛金剛心地法門密法戒壇法儀則</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0093 佛說佛名經（二十卷本）</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0094 敦煌本《壇經》校釋疏義</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0095 日本的漢文大藏經收藏及其特色——以刻本大藏經為中心</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0096 論《高麗再雕藏》中所見的《契丹藏》</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa078 徵稿啟事</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa079 《藏外佛教文獻》總目錄（第一輯～第十二輯）</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa080 鳴謝</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十一輯</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>三階教資料</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa072 徵稿啟事</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十二輯</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa081 目錄</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa082 卷首語</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa083 錄文校勘體例</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>三藏論疏</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0097 金剛般若經義疏卷二,方廣錩整理</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0098 圓通三慧大齋道場儀,宋 侯溥作　侯沖整理</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0099 佛說佛名經（二十卷本——卷第八～卷第十）,張麗．張磊整理</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0100 敦煌本《壇經》校釋疏義（第六章～第八章）,張麗．張磊整理　研讀班集體討論</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0101 關於《佛說孝順子修行成佛經》的若干新資料,方廣錩</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0102 關於宮內廳書陵部所藏福州版大藏經中的混合冊與印章,日本 宮內廳書陵部 中村一紀</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW0103 漢文大藏經研究要重視文獻價值的判別,熊國禎</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa084 徵稿啟事</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa085 《藏外佛教文獻》總目錄（第一輯～第十二輯）</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -14588,10 +14708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4713"/>
+  <dimension ref="A1:F4751"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4052" workbookViewId="0">
-      <selection activeCell="A4043" sqref="A4043:XFD4068"/>
+    <sheetView tabSelected="1" topLeftCell="A4081" workbookViewId="0">
+      <selection activeCell="A4089" sqref="A4089:XFD4106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -34927,3249 +35047,3469 @@
         <v>4506</v>
       </c>
     </row>
-    <row r="4065" spans="2:5" s="1" customFormat="1">
+    <row r="4065" spans="3:5" s="1" customFormat="1">
       <c r="D4065" s="2"/>
       <c r="E4065" s="1" t="s">
         <v>4507</v>
       </c>
     </row>
-    <row r="4066" spans="2:5" s="1" customFormat="1">
+    <row r="4066" spans="3:5" s="1" customFormat="1">
       <c r="D4066" s="2" t="s">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="4067" spans="3:5" s="1" customFormat="1">
+      <c r="D4067" s="2" t="s">
         <v>4508</v>
       </c>
     </row>
-    <row r="4067" spans="2:5" s="1" customFormat="1">
-      <c r="D4067" s="2" t="s">
+    <row r="4068" spans="3:5" s="1" customFormat="1">
+      <c r="D4068" s="2" t="s">
         <v>4509</v>
       </c>
     </row>
-    <row r="4068" spans="2:5" s="1" customFormat="1">
-      <c r="D4068" s="2" t="s">
+    <row r="4069" spans="3:5" s="1" customFormat="1">
+      <c r="C4069" t="s">
+        <v>4524</v>
+      </c>
+      <c r="D4069" s="2"/>
+    </row>
+    <row r="4070" spans="3:5" s="1" customFormat="1">
+      <c r="D4070" s="2" t="s">
         <v>4510</v>
       </c>
-    </row>
-    <row r="4069" spans="2:5">
-      <c r="B4069" t="s">
+      <c r="E4070" s="2"/>
+    </row>
+    <row r="4071" spans="3:5" s="1" customFormat="1">
+      <c r="D4071" s="2" t="s">
+        <v>4511</v>
+      </c>
+      <c r="E4071" s="2"/>
+    </row>
+    <row r="4072" spans="3:5" s="1" customFormat="1">
+      <c r="D4072" s="2" t="s">
+        <v>4512</v>
+      </c>
+      <c r="E4072" s="2"/>
+    </row>
+    <row r="4073" spans="3:5" s="1" customFormat="1">
+      <c r="D4073" s="2" t="s">
+        <v>4525</v>
+      </c>
+      <c r="E4073" s="2"/>
+    </row>
+    <row r="4074" spans="3:5" s="1" customFormat="1">
+      <c r="E4074" s="2" t="s">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="4075" spans="3:5" s="1" customFormat="1">
+      <c r="D4075" s="2" t="s">
+        <v>4498</v>
+      </c>
+      <c r="E4075" s="2"/>
+    </row>
+    <row r="4076" spans="3:5" s="1" customFormat="1">
+      <c r="E4076" s="2" t="s">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="4077" spans="3:5" s="1" customFormat="1">
+      <c r="E4077" s="2" t="s">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="4078" spans="3:5" s="1" customFormat="1">
+      <c r="E4078" s="2" t="s">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="4079" spans="3:5" s="1" customFormat="1">
+      <c r="D4079" s="2" t="s">
+        <v>4500</v>
+      </c>
+      <c r="E4079" s="2"/>
+    </row>
+    <row r="4080" spans="3:5" s="1" customFormat="1">
+      <c r="E4080" s="2" t="s">
+        <v>4517</v>
+      </c>
+    </row>
+    <row r="4081" spans="3:5" s="1" customFormat="1">
+      <c r="D4081" s="2" t="s">
+        <v>4503</v>
+      </c>
+      <c r="E4081" s="2"/>
+    </row>
+    <row r="4082" spans="3:5" s="1" customFormat="1">
+      <c r="E4082" s="2" t="s">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="4083" spans="3:5" s="1" customFormat="1">
+      <c r="D4083" s="2" t="s">
+        <v>4505</v>
+      </c>
+      <c r="E4083" s="2"/>
+    </row>
+    <row r="4084" spans="3:5" s="1" customFormat="1">
+      <c r="E4084" s="2" t="s">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="4085" spans="3:5" s="1" customFormat="1">
+      <c r="E4085" s="2" t="s">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="4086" spans="3:5" s="1" customFormat="1">
+      <c r="D4086" s="2" t="s">
+        <v>4521</v>
+      </c>
+      <c r="E4086" s="2"/>
+    </row>
+    <row r="4087" spans="3:5" s="1" customFormat="1">
+      <c r="D4087" s="2" t="s">
+        <v>4522</v>
+      </c>
+      <c r="E4087" s="2"/>
+    </row>
+    <row r="4088" spans="3:5" s="1" customFormat="1">
+      <c r="D4088" s="2" t="s">
+        <v>4523</v>
+      </c>
+      <c r="E4088" s="2"/>
+    </row>
+    <row r="4089" spans="3:5" s="1" customFormat="1">
+      <c r="C4089" t="s">
+        <v>4527</v>
+      </c>
+      <c r="D4089" s="2"/>
+    </row>
+    <row r="4090" spans="3:5" s="1" customFormat="1">
+      <c r="D4090" s="2" t="s">
+        <v>4528</v>
+      </c>
+      <c r="E4090" s="2"/>
+    </row>
+    <row r="4091" spans="3:5" s="1" customFormat="1">
+      <c r="D4091" s="2" t="s">
+        <v>4529</v>
+      </c>
+      <c r="E4091" s="2"/>
+    </row>
+    <row r="4092" spans="3:5" s="1" customFormat="1">
+      <c r="D4092" s="2" t="s">
+        <v>4530</v>
+      </c>
+      <c r="E4092" s="2"/>
+    </row>
+    <row r="4093" spans="3:5" s="1" customFormat="1">
+      <c r="D4093" s="2" t="s">
+        <v>4531</v>
+      </c>
+      <c r="E4093" s="2"/>
+    </row>
+    <row r="4094" spans="3:5" s="1" customFormat="1">
+      <c r="D4094" s="2"/>
+      <c r="E4094" s="2" t="s">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="4095" spans="3:5" s="1" customFormat="1">
+      <c r="D4095" s="2" t="s">
+        <v>4498</v>
+      </c>
+      <c r="E4095" s="2"/>
+    </row>
+    <row r="4096" spans="3:5" s="1" customFormat="1">
+      <c r="D4096" s="2"/>
+      <c r="E4096" s="2" t="s">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="4097" spans="2:5" s="1" customFormat="1">
+      <c r="D4097" s="2" t="s">
+        <v>4500</v>
+      </c>
+      <c r="E4097" s="2"/>
+    </row>
+    <row r="4098" spans="2:5" s="1" customFormat="1">
+      <c r="D4098" s="2"/>
+      <c r="E4098" s="2" t="s">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="4099" spans="2:5" s="1" customFormat="1">
+      <c r="D4099" s="2" t="s">
+        <v>4503</v>
+      </c>
+      <c r="E4099" s="2"/>
+    </row>
+    <row r="4100" spans="2:5" s="1" customFormat="1">
+      <c r="D4100" s="2"/>
+      <c r="E4100" s="2" t="s">
+        <v>4535</v>
+      </c>
+    </row>
+    <row r="4101" spans="2:5" s="1" customFormat="1">
+      <c r="D4101" s="2" t="s">
+        <v>4505</v>
+      </c>
+      <c r="E4101" s="2"/>
+    </row>
+    <row r="4102" spans="2:5" s="1" customFormat="1">
+      <c r="D4102" s="2"/>
+      <c r="E4102" s="2" t="s">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="4103" spans="2:5" s="1" customFormat="1">
+      <c r="D4103" s="2"/>
+      <c r="E4103" s="2" t="s">
+        <v>4537</v>
+      </c>
+    </row>
+    <row r="4104" spans="2:5" s="1" customFormat="1">
+      <c r="D4104" s="2"/>
+      <c r="E4104" s="2" t="s">
+        <v>4538</v>
+      </c>
+    </row>
+    <row r="4105" spans="2:5" s="1" customFormat="1">
+      <c r="D4105" s="2" t="s">
+        <v>4539</v>
+      </c>
+      <c r="E4105" s="2"/>
+    </row>
+    <row r="4106" spans="2:5" s="1" customFormat="1">
+      <c r="D4106" s="2" t="s">
+        <v>4540</v>
+      </c>
+      <c r="E4106" s="2"/>
+    </row>
+    <row r="4107" spans="2:5">
+      <c r="B4107" t="s">
         <v>3958</v>
       </c>
     </row>
-    <row r="4070" spans="2:5">
-      <c r="C4070" t="s">
+    <row r="4108" spans="2:5">
+      <c r="C4108" t="s">
         <v>3959</v>
       </c>
     </row>
-    <row r="4071" spans="2:5">
-      <c r="C4071" t="s">
+    <row r="4109" spans="2:5">
+      <c r="C4109" t="s">
         <v>3960</v>
       </c>
     </row>
-    <row r="4072" spans="2:5">
-      <c r="C4072" t="s">
+    <row r="4110" spans="2:5">
+      <c r="C4110" t="s">
         <v>3961</v>
       </c>
     </row>
-    <row r="4073" spans="2:5">
-      <c r="C4073" t="s">
+    <row r="4111" spans="2:5">
+      <c r="C4111" t="s">
         <v>3962</v>
       </c>
     </row>
-    <row r="4074" spans="2:5">
-      <c r="C4074" t="s">
+    <row r="4112" spans="2:5">
+      <c r="C4112" t="s">
         <v>3963</v>
       </c>
     </row>
-    <row r="4075" spans="2:5">
-      <c r="B4075" t="s">
+    <row r="4113" spans="2:5">
+      <c r="B4113" t="s">
         <v>3964</v>
       </c>
     </row>
-    <row r="4076" spans="2:5">
-      <c r="C4076" t="s">
+    <row r="4114" spans="2:5">
+      <c r="C4114" t="s">
         <v>3965</v>
       </c>
     </row>
-    <row r="4077" spans="2:5">
-      <c r="C4077" t="s">
+    <row r="4115" spans="2:5">
+      <c r="C4115" t="s">
         <v>3966</v>
       </c>
     </row>
-    <row r="4078" spans="2:5">
-      <c r="D4078" t="s">
+    <row r="4116" spans="2:5">
+      <c r="D4116" t="s">
         <v>3967</v>
       </c>
     </row>
-    <row r="4079" spans="2:5">
-      <c r="E4079" t="s">
+    <row r="4117" spans="2:5">
+      <c r="E4117" t="s">
         <v>3968</v>
       </c>
     </row>
-    <row r="4080" spans="2:5">
-      <c r="E4080" t="s">
+    <row r="4118" spans="2:5">
+      <c r="E4118" t="s">
         <v>3969</v>
       </c>
     </row>
-    <row r="4081" spans="5:5">
-      <c r="E4081" t="s">
+    <row r="4119" spans="2:5">
+      <c r="E4119" t="s">
         <v>3970</v>
       </c>
     </row>
-    <row r="4082" spans="5:5">
-      <c r="E4082" t="s">
+    <row r="4120" spans="2:5">
+      <c r="E4120" t="s">
         <v>3971</v>
       </c>
     </row>
-    <row r="4083" spans="5:5">
-      <c r="E4083" t="s">
+    <row r="4121" spans="2:5">
+      <c r="E4121" t="s">
         <v>3972</v>
       </c>
     </row>
-    <row r="4084" spans="5:5">
-      <c r="E4084" t="s">
+    <row r="4122" spans="2:5">
+      <c r="E4122" t="s">
         <v>3973</v>
       </c>
     </row>
-    <row r="4085" spans="5:5">
-      <c r="E4085" t="s">
+    <row r="4123" spans="2:5">
+      <c r="E4123" t="s">
         <v>3974</v>
       </c>
     </row>
-    <row r="4086" spans="5:5">
-      <c r="E4086" t="s">
+    <row r="4124" spans="2:5">
+      <c r="E4124" t="s">
         <v>3975</v>
       </c>
     </row>
-    <row r="4087" spans="5:5">
-      <c r="E4087" t="s">
+    <row r="4125" spans="2:5">
+      <c r="E4125" t="s">
         <v>3976</v>
       </c>
     </row>
-    <row r="4088" spans="5:5">
-      <c r="E4088" t="s">
+    <row r="4126" spans="2:5">
+      <c r="E4126" t="s">
         <v>3977</v>
       </c>
     </row>
-    <row r="4089" spans="5:5">
-      <c r="E4089" t="s">
+    <row r="4127" spans="2:5">
+      <c r="E4127" t="s">
         <v>3978</v>
       </c>
     </row>
-    <row r="4090" spans="5:5">
-      <c r="E4090" t="s">
+    <row r="4128" spans="2:5">
+      <c r="E4128" t="s">
         <v>3979</v>
       </c>
     </row>
-    <row r="4091" spans="5:5">
-      <c r="E4091" t="s">
+    <row r="4129" spans="5:5">
+      <c r="E4129" t="s">
         <v>3980</v>
       </c>
     </row>
-    <row r="4092" spans="5:5">
-      <c r="E4092" t="s">
+    <row r="4130" spans="5:5">
+      <c r="E4130" t="s">
         <v>3981</v>
       </c>
     </row>
-    <row r="4093" spans="5:5">
-      <c r="E4093" t="s">
+    <row r="4131" spans="5:5">
+      <c r="E4131" t="s">
         <v>3982</v>
       </c>
     </row>
-    <row r="4094" spans="5:5">
-      <c r="E4094" t="s">
+    <row r="4132" spans="5:5">
+      <c r="E4132" t="s">
         <v>3983</v>
       </c>
     </row>
-    <row r="4095" spans="5:5">
-      <c r="E4095" t="s">
+    <row r="4133" spans="5:5">
+      <c r="E4133" t="s">
         <v>3984</v>
       </c>
     </row>
-    <row r="4096" spans="5:5">
-      <c r="E4096" t="s">
+    <row r="4134" spans="5:5">
+      <c r="E4134" t="s">
         <v>3985</v>
       </c>
     </row>
-    <row r="4097" spans="4:5">
-      <c r="E4097" t="s">
+    <row r="4135" spans="5:5">
+      <c r="E4135" t="s">
         <v>3986</v>
       </c>
     </row>
-    <row r="4098" spans="4:5">
-      <c r="E4098" t="s">
+    <row r="4136" spans="5:5">
+      <c r="E4136" t="s">
         <v>3987</v>
       </c>
     </row>
-    <row r="4099" spans="4:5">
-      <c r="E4099" t="s">
+    <row r="4137" spans="5:5">
+      <c r="E4137" t="s">
         <v>3988</v>
       </c>
     </row>
-    <row r="4100" spans="4:5">
-      <c r="E4100" t="s">
+    <row r="4138" spans="5:5">
+      <c r="E4138" t="s">
         <v>3989</v>
       </c>
     </row>
-    <row r="4101" spans="4:5">
-      <c r="E4101" t="s">
+    <row r="4139" spans="5:5">
+      <c r="E4139" t="s">
         <v>3990</v>
       </c>
     </row>
-    <row r="4102" spans="4:5">
-      <c r="E4102" t="s">
+    <row r="4140" spans="5:5">
+      <c r="E4140" t="s">
         <v>3991</v>
       </c>
     </row>
-    <row r="4103" spans="4:5">
-      <c r="E4103" t="s">
+    <row r="4141" spans="5:5">
+      <c r="E4141" t="s">
         <v>3992</v>
       </c>
     </row>
-    <row r="4104" spans="4:5">
-      <c r="E4104" t="s">
+    <row r="4142" spans="5:5">
+      <c r="E4142" t="s">
         <v>3993</v>
       </c>
     </row>
-    <row r="4105" spans="4:5">
-      <c r="E4105" t="s">
+    <row r="4143" spans="5:5">
+      <c r="E4143" t="s">
         <v>3994</v>
       </c>
     </row>
-    <row r="4106" spans="4:5">
-      <c r="E4106" t="s">
+    <row r="4144" spans="5:5">
+      <c r="E4144" t="s">
         <v>3995</v>
       </c>
     </row>
-    <row r="4107" spans="4:5">
-      <c r="E4107" t="s">
+    <row r="4145" spans="4:5">
+      <c r="E4145" t="s">
         <v>3996</v>
       </c>
     </row>
-    <row r="4108" spans="4:5">
-      <c r="E4108" t="s">
+    <row r="4146" spans="4:5">
+      <c r="E4146" t="s">
         <v>3997</v>
       </c>
     </row>
-    <row r="4109" spans="4:5">
-      <c r="E4109" t="s">
+    <row r="4147" spans="4:5">
+      <c r="E4147" t="s">
         <v>3998</v>
       </c>
     </row>
-    <row r="4110" spans="4:5">
-      <c r="E4110" t="s">
+    <row r="4148" spans="4:5">
+      <c r="E4148" t="s">
         <v>3999</v>
       </c>
     </row>
-    <row r="4111" spans="4:5">
-      <c r="E4111" t="s">
+    <row r="4149" spans="4:5">
+      <c r="E4149" t="s">
         <v>4000</v>
       </c>
     </row>
-    <row r="4112" spans="4:5">
-      <c r="D4112" t="s">
+    <row r="4150" spans="4:5">
+      <c r="D4150" t="s">
         <v>4001</v>
       </c>
     </row>
-    <row r="4113" spans="4:5">
-      <c r="E4113" t="s">
+    <row r="4151" spans="4:5">
+      <c r="E4151" t="s">
         <v>4002</v>
       </c>
     </row>
-    <row r="4114" spans="4:5">
-      <c r="E4114" t="s">
+    <row r="4152" spans="4:5">
+      <c r="E4152" t="s">
         <v>4003</v>
       </c>
     </row>
-    <row r="4115" spans="4:5">
-      <c r="E4115" t="s">
+    <row r="4153" spans="4:5">
+      <c r="E4153" t="s">
         <v>4004</v>
       </c>
     </row>
-    <row r="4116" spans="4:5">
-      <c r="E4116" t="s">
+    <row r="4154" spans="4:5">
+      <c r="E4154" t="s">
         <v>4005</v>
       </c>
     </row>
-    <row r="4117" spans="4:5">
-      <c r="E4117" t="s">
+    <row r="4155" spans="4:5">
+      <c r="E4155" t="s">
         <v>4006</v>
       </c>
     </row>
-    <row r="4118" spans="4:5">
-      <c r="E4118" t="s">
+    <row r="4156" spans="4:5">
+      <c r="E4156" t="s">
         <v>4007</v>
       </c>
     </row>
-    <row r="4119" spans="4:5">
-      <c r="E4119" t="s">
+    <row r="4157" spans="4:5">
+      <c r="E4157" t="s">
         <v>4008</v>
       </c>
     </row>
-    <row r="4120" spans="4:5">
-      <c r="E4120" t="s">
+    <row r="4158" spans="4:5">
+      <c r="E4158" t="s">
         <v>4009</v>
       </c>
     </row>
-    <row r="4121" spans="4:5">
-      <c r="E4121" t="s">
+    <row r="4159" spans="4:5">
+      <c r="E4159" t="s">
         <v>4010</v>
       </c>
     </row>
-    <row r="4122" spans="4:5">
-      <c r="E4122" t="s">
+    <row r="4160" spans="4:5">
+      <c r="E4160" t="s">
         <v>4011</v>
       </c>
     </row>
-    <row r="4123" spans="4:5">
-      <c r="E4123" t="s">
+    <row r="4161" spans="4:5">
+      <c r="E4161" t="s">
         <v>4012</v>
       </c>
     </row>
-    <row r="4124" spans="4:5">
-      <c r="E4124" t="s">
+    <row r="4162" spans="4:5">
+      <c r="E4162" t="s">
         <v>4013</v>
       </c>
     </row>
-    <row r="4125" spans="4:5">
-      <c r="E4125" t="s">
+    <row r="4163" spans="4:5">
+      <c r="E4163" t="s">
         <v>4014</v>
       </c>
     </row>
-    <row r="4126" spans="4:5">
-      <c r="D4126" t="s">
+    <row r="4164" spans="4:5">
+      <c r="D4164" t="s">
         <v>4015</v>
       </c>
     </row>
-    <row r="4127" spans="4:5">
-      <c r="E4127" t="s">
+    <row r="4165" spans="4:5">
+      <c r="E4165" t="s">
         <v>4016</v>
       </c>
     </row>
-    <row r="4128" spans="4:5">
-      <c r="E4128" t="s">
+    <row r="4166" spans="4:5">
+      <c r="E4166" t="s">
         <v>4017</v>
       </c>
     </row>
-    <row r="4129" spans="4:5">
-      <c r="E4129" t="s">
+    <row r="4167" spans="4:5">
+      <c r="E4167" t="s">
         <v>4018</v>
       </c>
     </row>
-    <row r="4130" spans="4:5">
-      <c r="E4130" t="s">
+    <row r="4168" spans="4:5">
+      <c r="E4168" t="s">
         <v>4019</v>
       </c>
     </row>
-    <row r="4131" spans="4:5">
-      <c r="E4131" t="s">
+    <row r="4169" spans="4:5">
+      <c r="E4169" t="s">
         <v>4020</v>
       </c>
     </row>
-    <row r="4132" spans="4:5">
-      <c r="E4132" t="s">
+    <row r="4170" spans="4:5">
+      <c r="E4170" t="s">
         <v>4021</v>
       </c>
     </row>
-    <row r="4133" spans="4:5">
-      <c r="E4133" t="s">
+    <row r="4171" spans="4:5">
+      <c r="E4171" t="s">
         <v>4022</v>
       </c>
     </row>
-    <row r="4134" spans="4:5">
-      <c r="E4134" t="s">
+    <row r="4172" spans="4:5">
+      <c r="E4172" t="s">
         <v>4023</v>
       </c>
     </row>
-    <row r="4135" spans="4:5">
-      <c r="D4135" t="s">
+    <row r="4173" spans="4:5">
+      <c r="D4173" t="s">
         <v>4024</v>
       </c>
     </row>
-    <row r="4136" spans="4:5">
-      <c r="E4136" t="s">
+    <row r="4174" spans="4:5">
+      <c r="E4174" t="s">
         <v>4025</v>
       </c>
     </row>
-    <row r="4137" spans="4:5">
-      <c r="E4137" t="s">
+    <row r="4175" spans="4:5">
+      <c r="E4175" t="s">
         <v>4026</v>
       </c>
     </row>
-    <row r="4138" spans="4:5">
-      <c r="E4138" t="s">
+    <row r="4176" spans="4:5">
+      <c r="E4176" t="s">
         <v>4027</v>
       </c>
     </row>
-    <row r="4139" spans="4:5">
-      <c r="E4139" t="s">
+    <row r="4177" spans="4:5">
+      <c r="E4177" t="s">
         <v>4028</v>
       </c>
     </row>
-    <row r="4140" spans="4:5">
-      <c r="E4140" t="s">
+    <row r="4178" spans="4:5">
+      <c r="E4178" t="s">
         <v>4029</v>
       </c>
     </row>
-    <row r="4141" spans="4:5">
-      <c r="E4141" t="s">
+    <row r="4179" spans="4:5">
+      <c r="E4179" t="s">
         <v>4030</v>
       </c>
     </row>
-    <row r="4142" spans="4:5">
-      <c r="E4142" t="s">
+    <row r="4180" spans="4:5">
+      <c r="E4180" t="s">
         <v>4031</v>
       </c>
     </row>
-    <row r="4143" spans="4:5">
-      <c r="E4143" t="s">
+    <row r="4181" spans="4:5">
+      <c r="E4181" t="s">
         <v>4032</v>
       </c>
     </row>
-    <row r="4144" spans="4:5">
-      <c r="D4144" t="s">
+    <row r="4182" spans="4:5">
+      <c r="D4182" t="s">
         <v>4033</v>
       </c>
     </row>
-    <row r="4145" spans="5:5">
-      <c r="E4145" t="s">
+    <row r="4183" spans="4:5">
+      <c r="E4183" t="s">
         <v>4034</v>
       </c>
     </row>
-    <row r="4146" spans="5:5">
-      <c r="E4146" t="s">
+    <row r="4184" spans="4:5">
+      <c r="E4184" t="s">
         <v>4035</v>
       </c>
     </row>
-    <row r="4147" spans="5:5">
-      <c r="E4147" t="s">
+    <row r="4185" spans="4:5">
+      <c r="E4185" t="s">
         <v>4036</v>
       </c>
     </row>
-    <row r="4148" spans="5:5">
-      <c r="E4148" t="s">
+    <row r="4186" spans="4:5">
+      <c r="E4186" t="s">
         <v>4037</v>
       </c>
     </row>
-    <row r="4149" spans="5:5">
-      <c r="E4149" t="s">
+    <row r="4187" spans="4:5">
+      <c r="E4187" t="s">
         <v>4038</v>
       </c>
     </row>
-    <row r="4150" spans="5:5">
-      <c r="E4150" t="s">
+    <row r="4188" spans="4:5">
+      <c r="E4188" t="s">
         <v>4039</v>
       </c>
     </row>
-    <row r="4151" spans="5:5">
-      <c r="E4151" t="s">
+    <row r="4189" spans="4:5">
+      <c r="E4189" t="s">
         <v>4040</v>
       </c>
     </row>
-    <row r="4152" spans="5:5">
-      <c r="E4152" t="s">
+    <row r="4190" spans="4:5">
+      <c r="E4190" t="s">
         <v>4041</v>
       </c>
     </row>
-    <row r="4153" spans="5:5">
-      <c r="E4153" t="s">
+    <row r="4191" spans="4:5">
+      <c r="E4191" t="s">
         <v>4042</v>
       </c>
     </row>
-    <row r="4154" spans="5:5">
-      <c r="E4154" t="s">
+    <row r="4192" spans="4:5">
+      <c r="E4192" t="s">
         <v>4043</v>
       </c>
     </row>
-    <row r="4155" spans="5:5">
-      <c r="E4155" t="s">
+    <row r="4193" spans="5:5">
+      <c r="E4193" t="s">
         <v>4044</v>
       </c>
     </row>
-    <row r="4156" spans="5:5">
-      <c r="E4156" t="s">
+    <row r="4194" spans="5:5">
+      <c r="E4194" t="s">
         <v>4045</v>
       </c>
     </row>
-    <row r="4157" spans="5:5">
-      <c r="E4157" t="s">
+    <row r="4195" spans="5:5">
+      <c r="E4195" t="s">
         <v>4046</v>
       </c>
     </row>
-    <row r="4158" spans="5:5">
-      <c r="E4158" t="s">
+    <row r="4196" spans="5:5">
+      <c r="E4196" t="s">
         <v>4047</v>
       </c>
     </row>
-    <row r="4159" spans="5:5">
-      <c r="E4159" t="s">
+    <row r="4197" spans="5:5">
+      <c r="E4197" t="s">
         <v>4048</v>
       </c>
     </row>
-    <row r="4160" spans="5:5">
-      <c r="E4160" t="s">
+    <row r="4198" spans="5:5">
+      <c r="E4198" t="s">
         <v>4049</v>
       </c>
     </row>
-    <row r="4161" spans="5:5">
-      <c r="E4161" t="s">
+    <row r="4199" spans="5:5">
+      <c r="E4199" t="s">
         <v>4050</v>
       </c>
     </row>
-    <row r="4162" spans="5:5">
-      <c r="E4162" t="s">
+    <row r="4200" spans="5:5">
+      <c r="E4200" t="s">
         <v>4051</v>
       </c>
     </row>
-    <row r="4163" spans="5:5">
-      <c r="E4163" t="s">
+    <row r="4201" spans="5:5">
+      <c r="E4201" t="s">
         <v>4052</v>
       </c>
     </row>
-    <row r="4164" spans="5:5">
-      <c r="E4164" t="s">
+    <row r="4202" spans="5:5">
+      <c r="E4202" t="s">
         <v>4053</v>
       </c>
     </row>
-    <row r="4165" spans="5:5">
-      <c r="E4165" t="s">
+    <row r="4203" spans="5:5">
+      <c r="E4203" t="s">
         <v>4054</v>
       </c>
     </row>
-    <row r="4166" spans="5:5">
-      <c r="E4166" t="s">
+    <row r="4204" spans="5:5">
+      <c r="E4204" t="s">
         <v>4055</v>
       </c>
     </row>
-    <row r="4167" spans="5:5">
-      <c r="E4167" t="s">
+    <row r="4205" spans="5:5">
+      <c r="E4205" t="s">
         <v>4056</v>
       </c>
     </row>
-    <row r="4168" spans="5:5">
-      <c r="E4168" t="s">
+    <row r="4206" spans="5:5">
+      <c r="E4206" t="s">
         <v>4057</v>
       </c>
     </row>
-    <row r="4169" spans="5:5">
-      <c r="E4169" t="s">
+    <row r="4207" spans="5:5">
+      <c r="E4207" t="s">
         <v>4058</v>
       </c>
     </row>
-    <row r="4170" spans="5:5">
-      <c r="E4170" t="s">
+    <row r="4208" spans="5:5">
+      <c r="E4208" t="s">
         <v>4059</v>
       </c>
     </row>
-    <row r="4171" spans="5:5">
-      <c r="E4171" t="s">
+    <row r="4209" spans="3:5">
+      <c r="E4209" t="s">
         <v>4060</v>
       </c>
     </row>
-    <row r="4172" spans="5:5">
-      <c r="E4172" t="s">
+    <row r="4210" spans="3:5">
+      <c r="E4210" t="s">
         <v>4061</v>
       </c>
     </row>
-    <row r="4173" spans="5:5">
-      <c r="E4173" t="s">
+    <row r="4211" spans="3:5">
+      <c r="E4211" t="s">
         <v>4062</v>
       </c>
     </row>
-    <row r="4174" spans="5:5">
-      <c r="E4174" t="s">
+    <row r="4212" spans="3:5">
+      <c r="E4212" t="s">
         <v>4063</v>
       </c>
     </row>
-    <row r="4175" spans="5:5">
-      <c r="E4175" t="s">
+    <row r="4213" spans="3:5">
+      <c r="E4213" t="s">
         <v>4064</v>
       </c>
     </row>
-    <row r="4176" spans="5:5">
-      <c r="E4176" t="s">
+    <row r="4214" spans="3:5">
+      <c r="E4214" t="s">
         <v>4065</v>
       </c>
     </row>
-    <row r="4177" spans="3:5">
-      <c r="E4177" t="s">
+    <row r="4215" spans="3:5">
+      <c r="E4215" t="s">
         <v>4066</v>
       </c>
     </row>
-    <row r="4178" spans="3:5">
-      <c r="E4178" t="s">
+    <row r="4216" spans="3:5">
+      <c r="E4216" t="s">
         <v>4067</v>
       </c>
     </row>
-    <row r="4179" spans="3:5">
-      <c r="E4179" t="s">
+    <row r="4217" spans="3:5">
+      <c r="E4217" t="s">
         <v>4068</v>
       </c>
     </row>
-    <row r="4180" spans="3:5">
-      <c r="E4180" t="s">
+    <row r="4218" spans="3:5">
+      <c r="E4218" t="s">
         <v>4069</v>
       </c>
     </row>
-    <row r="4181" spans="3:5">
-      <c r="E4181" t="s">
+    <row r="4219" spans="3:5">
+      <c r="E4219" t="s">
         <v>4070</v>
       </c>
     </row>
-    <row r="4182" spans="3:5">
-      <c r="E4182" t="s">
+    <row r="4220" spans="3:5">
+      <c r="E4220" t="s">
         <v>4071</v>
       </c>
     </row>
-    <row r="4183" spans="3:5">
-      <c r="C4183" t="s">
+    <row r="4221" spans="3:5">
+      <c r="C4221" t="s">
         <v>4072</v>
       </c>
     </row>
-    <row r="4184" spans="3:5">
-      <c r="D4184" t="s">
+    <row r="4222" spans="3:5">
+      <c r="D4222" t="s">
         <v>3968</v>
       </c>
     </row>
-    <row r="4185" spans="3:5">
-      <c r="D4185" t="s">
+    <row r="4223" spans="3:5">
+      <c r="D4223" t="s">
         <v>3969</v>
       </c>
     </row>
-    <row r="4186" spans="3:5">
-      <c r="D4186" t="s">
+    <row r="4224" spans="3:5">
+      <c r="D4224" t="s">
         <v>3970</v>
-      </c>
-    </row>
-    <row r="4187" spans="3:5">
-      <c r="D4187" t="s">
-        <v>3971</v>
-      </c>
-    </row>
-    <row r="4188" spans="3:5">
-      <c r="D4188" t="s">
-        <v>3972</v>
-      </c>
-    </row>
-    <row r="4189" spans="3:5">
-      <c r="D4189" t="s">
-        <v>3973</v>
-      </c>
-    </row>
-    <row r="4190" spans="3:5">
-      <c r="D4190" t="s">
-        <v>3974</v>
-      </c>
-    </row>
-    <row r="4191" spans="3:5">
-      <c r="D4191" t="s">
-        <v>3975</v>
-      </c>
-    </row>
-    <row r="4192" spans="3:5">
-      <c r="D4192" t="s">
-        <v>3976</v>
-      </c>
-    </row>
-    <row r="4193" spans="4:4">
-      <c r="D4193" t="s">
-        <v>3977</v>
-      </c>
-    </row>
-    <row r="4194" spans="4:4">
-      <c r="D4194" t="s">
-        <v>3978</v>
-      </c>
-    </row>
-    <row r="4195" spans="4:4">
-      <c r="D4195" t="s">
-        <v>3979</v>
-      </c>
-    </row>
-    <row r="4196" spans="4:4">
-      <c r="D4196" t="s">
-        <v>3980</v>
-      </c>
-    </row>
-    <row r="4197" spans="4:4">
-      <c r="D4197" t="s">
-        <v>3981</v>
-      </c>
-    </row>
-    <row r="4198" spans="4:4">
-      <c r="D4198" t="s">
-        <v>3982</v>
-      </c>
-    </row>
-    <row r="4199" spans="4:4">
-      <c r="D4199" t="s">
-        <v>3983</v>
-      </c>
-    </row>
-    <row r="4200" spans="4:4">
-      <c r="D4200" t="s">
-        <v>3984</v>
-      </c>
-    </row>
-    <row r="4201" spans="4:4">
-      <c r="D4201" t="s">
-        <v>3985</v>
-      </c>
-    </row>
-    <row r="4202" spans="4:4">
-      <c r="D4202" t="s">
-        <v>3986</v>
-      </c>
-    </row>
-    <row r="4203" spans="4:4">
-      <c r="D4203" t="s">
-        <v>3987</v>
-      </c>
-    </row>
-    <row r="4204" spans="4:4">
-      <c r="D4204" t="s">
-        <v>3988</v>
-      </c>
-    </row>
-    <row r="4205" spans="4:4">
-      <c r="D4205" t="s">
-        <v>3989</v>
-      </c>
-    </row>
-    <row r="4206" spans="4:4">
-      <c r="D4206" t="s">
-        <v>3990</v>
-      </c>
-    </row>
-    <row r="4207" spans="4:4">
-      <c r="D4207" t="s">
-        <v>3991</v>
-      </c>
-    </row>
-    <row r="4208" spans="4:4">
-      <c r="D4208" t="s">
-        <v>3992</v>
-      </c>
-    </row>
-    <row r="4209" spans="4:4">
-      <c r="D4209" t="s">
-        <v>3993</v>
-      </c>
-    </row>
-    <row r="4210" spans="4:4">
-      <c r="D4210" t="s">
-        <v>3994</v>
-      </c>
-    </row>
-    <row r="4211" spans="4:4">
-      <c r="D4211" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="4212" spans="4:4">
-      <c r="D4212" t="s">
-        <v>3996</v>
-      </c>
-    </row>
-    <row r="4213" spans="4:4">
-      <c r="D4213" t="s">
-        <v>3997</v>
-      </c>
-    </row>
-    <row r="4214" spans="4:4">
-      <c r="D4214" t="s">
-        <v>3998</v>
-      </c>
-    </row>
-    <row r="4215" spans="4:4">
-      <c r="D4215" t="s">
-        <v>3999</v>
-      </c>
-    </row>
-    <row r="4216" spans="4:4">
-      <c r="D4216" t="s">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="4217" spans="4:4">
-      <c r="D4217" t="s">
-        <v>4002</v>
-      </c>
-    </row>
-    <row r="4218" spans="4:4">
-      <c r="D4218" t="s">
-        <v>4003</v>
-      </c>
-    </row>
-    <row r="4219" spans="4:4">
-      <c r="D4219" t="s">
-        <v>4004</v>
-      </c>
-    </row>
-    <row r="4220" spans="4:4">
-      <c r="D4220" t="s">
-        <v>4016</v>
-      </c>
-    </row>
-    <row r="4221" spans="4:4">
-      <c r="D4221" t="s">
-        <v>4017</v>
-      </c>
-    </row>
-    <row r="4222" spans="4:4">
-      <c r="D4222" t="s">
-        <v>4018</v>
-      </c>
-    </row>
-    <row r="4223" spans="4:4">
-      <c r="D4223" t="s">
-        <v>4005</v>
-      </c>
-    </row>
-    <row r="4224" spans="4:4">
-      <c r="D4224" t="s">
-        <v>4006</v>
       </c>
     </row>
     <row r="4225" spans="4:4">
       <c r="D4225" t="s">
-        <v>4019</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="4226" spans="4:4">
       <c r="D4226" t="s">
-        <v>4007</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="4227" spans="4:4">
       <c r="D4227" t="s">
-        <v>4008</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="4228" spans="4:4">
       <c r="D4228" t="s">
-        <v>4009</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="4229" spans="4:4">
       <c r="D4229" t="s">
-        <v>4010</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="4230" spans="4:4">
       <c r="D4230" t="s">
-        <v>4011</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="4231" spans="4:4">
       <c r="D4231" t="s">
-        <v>4012</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="4232" spans="4:4">
       <c r="D4232" t="s">
-        <v>4020</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="4233" spans="4:4">
       <c r="D4233" t="s">
-        <v>4021</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="4234" spans="4:4">
       <c r="D4234" t="s">
-        <v>4022</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="4235" spans="4:4">
       <c r="D4235" t="s">
-        <v>4013</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="4236" spans="4:4">
       <c r="D4236" t="s">
-        <v>4014</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="4237" spans="4:4">
       <c r="D4237" t="s">
-        <v>4023</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="4238" spans="4:4">
       <c r="D4238" t="s">
-        <v>4034</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="4239" spans="4:4">
       <c r="D4239" t="s">
-        <v>4035</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="4240" spans="4:4">
       <c r="D4240" t="s">
-        <v>4036</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="4241" spans="4:4">
       <c r="D4241" t="s">
-        <v>4037</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="4242" spans="4:4">
       <c r="D4242" t="s">
-        <v>4038</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="4243" spans="4:4">
       <c r="D4243" t="s">
-        <v>4039</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="4244" spans="4:4">
       <c r="D4244" t="s">
-        <v>4040</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="4245" spans="4:4">
       <c r="D4245" t="s">
-        <v>4041</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="4246" spans="4:4">
       <c r="D4246" t="s">
-        <v>4042</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="4247" spans="4:4">
       <c r="D4247" t="s">
-        <v>4025</v>
+        <v>3993</v>
       </c>
     </row>
     <row r="4248" spans="4:4">
       <c r="D4248" t="s">
-        <v>4043</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="4249" spans="4:4">
       <c r="D4249" t="s">
-        <v>4044</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="4250" spans="4:4">
       <c r="D4250" t="s">
-        <v>4045</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="4251" spans="4:4">
       <c r="D4251" t="s">
-        <v>4046</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="4252" spans="4:4">
       <c r="D4252" t="s">
-        <v>4047</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="4253" spans="4:4">
       <c r="D4253" t="s">
-        <v>4026</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="4254" spans="4:4">
       <c r="D4254" t="s">
-        <v>4048</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="4255" spans="4:4">
       <c r="D4255" t="s">
-        <v>4049</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="4256" spans="4:4">
       <c r="D4256" t="s">
-        <v>4050</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="4257" spans="4:4">
       <c r="D4257" t="s">
-        <v>4027</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="4258" spans="4:4">
       <c r="D4258" t="s">
-        <v>4051</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="4259" spans="4:4">
       <c r="D4259" t="s">
-        <v>4052</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="4260" spans="4:4">
       <c r="D4260" t="s">
-        <v>4053</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="4261" spans="4:4">
       <c r="D4261" t="s">
-        <v>4054</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="4262" spans="4:4">
       <c r="D4262" t="s">
-        <v>4055</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="4263" spans="4:4">
       <c r="D4263" t="s">
-        <v>4056</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="4264" spans="4:4">
       <c r="D4264" t="s">
-        <v>4028</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="4265" spans="4:4">
       <c r="D4265" t="s">
-        <v>4029</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="4266" spans="4:4">
       <c r="D4266" t="s">
-        <v>4030</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="4267" spans="4:4">
       <c r="D4267" t="s">
-        <v>4057</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="4268" spans="4:4">
       <c r="D4268" t="s">
-        <v>4058</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="4269" spans="4:4">
       <c r="D4269" t="s">
-        <v>4059</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="4270" spans="4:4">
       <c r="D4270" t="s">
-        <v>4060</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="4271" spans="4:4">
       <c r="D4271" t="s">
-        <v>4061</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="4272" spans="4:4">
       <c r="D4272" t="s">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="4273" spans="4:4">
+      <c r="D4273" t="s">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="4274" spans="4:4">
+      <c r="D4274" t="s">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="4275" spans="4:4">
+      <c r="D4275" t="s">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="4276" spans="4:4">
+      <c r="D4276" t="s">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="4277" spans="4:4">
+      <c r="D4277" t="s">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="4278" spans="4:4">
+      <c r="D4278" t="s">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="4279" spans="4:4">
+      <c r="D4279" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="4280" spans="4:4">
+      <c r="D4280" t="s">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="4281" spans="4:4">
+      <c r="D4281" t="s">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="4282" spans="4:4">
+      <c r="D4282" t="s">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="4283" spans="4:4">
+      <c r="D4283" t="s">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="4284" spans="4:4">
+      <c r="D4284" t="s">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="4285" spans="4:4">
+      <c r="D4285" t="s">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="4286" spans="4:4">
+      <c r="D4286" t="s">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="4287" spans="4:4">
+      <c r="D4287" t="s">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="4288" spans="4:4">
+      <c r="D4288" t="s">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="4289" spans="4:4">
+      <c r="D4289" t="s">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="4290" spans="4:4">
+      <c r="D4290" t="s">
+        <v>4047</v>
+      </c>
+    </row>
+    <row r="4291" spans="4:4">
+      <c r="D4291" t="s">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="4292" spans="4:4">
+      <c r="D4292" t="s">
+        <v>4048</v>
+      </c>
+    </row>
+    <row r="4293" spans="4:4">
+      <c r="D4293" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="4294" spans="4:4">
+      <c r="D4294" t="s">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="4295" spans="4:4">
+      <c r="D4295" t="s">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="4296" spans="4:4">
+      <c r="D4296" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="4297" spans="4:4">
+      <c r="D4297" t="s">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="4298" spans="4:4">
+      <c r="D4298" t="s">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="4299" spans="4:4">
+      <c r="D4299" t="s">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="4300" spans="4:4">
+      <c r="D4300" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="4301" spans="4:4">
+      <c r="D4301" t="s">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="4302" spans="4:4">
+      <c r="D4302" t="s">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="4303" spans="4:4">
+      <c r="D4303" t="s">
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="4304" spans="4:4">
+      <c r="D4304" t="s">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="4305" spans="4:4">
+      <c r="D4305" t="s">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="4306" spans="4:4">
+      <c r="D4306" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="4307" spans="4:4">
+      <c r="D4307" t="s">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="4308" spans="4:4">
+      <c r="D4308" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="4309" spans="4:4">
+      <c r="D4309" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="4310" spans="4:4">
+      <c r="D4310" t="s">
         <v>4062</v>
       </c>
     </row>
-    <row r="4273" spans="2:4">
-      <c r="D4273" t="s">
+    <row r="4311" spans="4:4">
+      <c r="D4311" t="s">
         <v>4063</v>
       </c>
     </row>
-    <row r="4274" spans="2:4">
-      <c r="D4274" t="s">
+    <row r="4312" spans="4:4">
+      <c r="D4312" t="s">
         <v>4064</v>
       </c>
     </row>
-    <row r="4275" spans="2:4">
-      <c r="D4275" t="s">
+    <row r="4313" spans="4:4">
+      <c r="D4313" t="s">
         <v>4065</v>
       </c>
     </row>
-    <row r="4276" spans="2:4">
-      <c r="D4276" t="s">
+    <row r="4314" spans="4:4">
+      <c r="D4314" t="s">
         <v>4066</v>
       </c>
     </row>
-    <row r="4277" spans="2:4">
-      <c r="D4277" t="s">
+    <row r="4315" spans="4:4">
+      <c r="D4315" t="s">
         <v>4067</v>
       </c>
     </row>
-    <row r="4278" spans="2:4">
-      <c r="D4278" t="s">
+    <row r="4316" spans="4:4">
+      <c r="D4316" t="s">
         <v>4068</v>
       </c>
     </row>
-    <row r="4279" spans="2:4">
-      <c r="D4279" t="s">
+    <row r="4317" spans="4:4">
+      <c r="D4317" t="s">
         <v>4069</v>
       </c>
     </row>
-    <row r="4280" spans="2:4">
-      <c r="D4280" t="s">
+    <row r="4318" spans="4:4">
+      <c r="D4318" t="s">
         <v>4031</v>
       </c>
     </row>
-    <row r="4281" spans="2:4">
-      <c r="D4281" t="s">
+    <row r="4319" spans="4:4">
+      <c r="D4319" t="s">
         <v>4070</v>
       </c>
     </row>
-    <row r="4282" spans="2:4">
-      <c r="D4282" t="s">
+    <row r="4320" spans="4:4">
+      <c r="D4320" t="s">
         <v>4032</v>
       </c>
     </row>
-    <row r="4283" spans="2:4">
-      <c r="D4283" t="s">
+    <row r="4321" spans="2:4">
+      <c r="D4321" t="s">
         <v>4071</v>
       </c>
     </row>
-    <row r="4284" spans="2:4">
-      <c r="B4284" t="s">
+    <row r="4322" spans="2:4">
+      <c r="B4322" t="s">
         <v>4073</v>
       </c>
     </row>
-    <row r="4285" spans="2:4">
-      <c r="C4285" t="s">
+    <row r="4323" spans="2:4">
+      <c r="C4323" t="s">
         <v>4074</v>
       </c>
     </row>
-    <row r="4286" spans="2:4">
-      <c r="C4286" t="s">
+    <row r="4324" spans="2:4">
+      <c r="C4324" t="s">
         <v>4075</v>
       </c>
     </row>
-    <row r="4287" spans="2:4">
-      <c r="C4287" t="s">
+    <row r="4325" spans="2:4">
+      <c r="C4325" t="s">
         <v>4076</v>
       </c>
     </row>
-    <row r="4288" spans="2:4">
-      <c r="D4288" t="s">
+    <row r="4326" spans="2:4">
+      <c r="D4326" t="s">
         <v>4077</v>
       </c>
     </row>
-    <row r="4289" spans="3:4">
-      <c r="C4289" t="s">
+    <row r="4327" spans="2:4">
+      <c r="C4327" t="s">
         <v>4078</v>
       </c>
     </row>
-    <row r="4290" spans="3:4">
-      <c r="D4290" t="s">
+    <row r="4328" spans="2:4">
+      <c r="D4328" t="s">
         <v>4079</v>
       </c>
     </row>
-    <row r="4291" spans="3:4">
-      <c r="D4291" t="s">
+    <row r="4329" spans="2:4">
+      <c r="D4329" t="s">
         <v>4080</v>
       </c>
     </row>
-    <row r="4292" spans="3:4">
-      <c r="C4292" t="s">
+    <row r="4330" spans="2:4">
+      <c r="C4330" t="s">
         <v>2465</v>
       </c>
     </row>
-    <row r="4293" spans="3:4">
-      <c r="D4293" t="s">
+    <row r="4331" spans="2:4">
+      <c r="D4331" t="s">
         <v>4081</v>
       </c>
     </row>
-    <row r="4294" spans="3:4">
-      <c r="D4294" t="s">
+    <row r="4332" spans="2:4">
+      <c r="D4332" t="s">
         <v>4239</v>
       </c>
     </row>
-    <row r="4295" spans="3:4">
-      <c r="D4295" t="s">
+    <row r="4333" spans="2:4">
+      <c r="D4333" t="s">
         <v>4240</v>
       </c>
     </row>
-    <row r="4296" spans="3:4">
-      <c r="D4296" t="s">
+    <row r="4334" spans="2:4">
+      <c r="D4334" t="s">
         <v>4241</v>
       </c>
     </row>
-    <row r="4297" spans="3:4">
-      <c r="D4297" t="s">
+    <row r="4335" spans="2:4">
+      <c r="D4335" t="s">
         <v>4242</v>
       </c>
     </row>
-    <row r="4298" spans="3:4">
-      <c r="D4298" t="s">
+    <row r="4336" spans="2:4">
+      <c r="D4336" t="s">
         <v>4243</v>
-      </c>
-    </row>
-    <row r="4299" spans="3:4">
-      <c r="D4299" t="s">
-        <v>4244</v>
-      </c>
-    </row>
-    <row r="4300" spans="3:4">
-      <c r="D4300" t="s">
-        <v>4245</v>
-      </c>
-    </row>
-    <row r="4301" spans="3:4">
-      <c r="C4301" t="s">
-        <v>2474</v>
-      </c>
-    </row>
-    <row r="4302" spans="3:4">
-      <c r="D4302" t="s">
-        <v>4082</v>
-      </c>
-    </row>
-    <row r="4303" spans="3:4">
-      <c r="D4303" t="s">
-        <v>4246</v>
-      </c>
-    </row>
-    <row r="4304" spans="3:4">
-      <c r="D4304" t="s">
-        <v>4247</v>
-      </c>
-    </row>
-    <row r="4305" spans="3:4">
-      <c r="D4305" t="s">
-        <v>4248</v>
-      </c>
-    </row>
-    <row r="4306" spans="3:4">
-      <c r="D4306" t="s">
-        <v>4249</v>
-      </c>
-    </row>
-    <row r="4307" spans="3:4">
-      <c r="D4307" t="s">
-        <v>4250</v>
-      </c>
-    </row>
-    <row r="4308" spans="3:4">
-      <c r="D4308" t="s">
-        <v>4251</v>
-      </c>
-    </row>
-    <row r="4309" spans="3:4">
-      <c r="D4309" t="s">
-        <v>4252</v>
-      </c>
-    </row>
-    <row r="4310" spans="3:4">
-      <c r="D4310" t="s">
-        <v>4253</v>
-      </c>
-    </row>
-    <row r="4311" spans="3:4">
-      <c r="D4311" t="s">
-        <v>4254</v>
-      </c>
-    </row>
-    <row r="4312" spans="3:4">
-      <c r="D4312" t="s">
-        <v>4255</v>
-      </c>
-    </row>
-    <row r="4313" spans="3:4">
-      <c r="D4313" t="s">
-        <v>4256</v>
-      </c>
-    </row>
-    <row r="4314" spans="3:4">
-      <c r="D4314" t="s">
-        <v>4257</v>
-      </c>
-    </row>
-    <row r="4315" spans="3:4">
-      <c r="D4315" t="s">
-        <v>4258</v>
-      </c>
-    </row>
-    <row r="4316" spans="3:4">
-      <c r="D4316" t="s">
-        <v>4259</v>
-      </c>
-    </row>
-    <row r="4317" spans="3:4">
-      <c r="D4317" t="s">
-        <v>4260</v>
-      </c>
-    </row>
-    <row r="4318" spans="3:4">
-      <c r="D4318" t="s">
-        <v>4261</v>
-      </c>
-    </row>
-    <row r="4319" spans="3:4">
-      <c r="C4319" t="s">
-        <v>2492</v>
-      </c>
-    </row>
-    <row r="4320" spans="3:4">
-      <c r="D4320" t="s">
-        <v>4083</v>
-      </c>
-    </row>
-    <row r="4321" spans="3:4">
-      <c r="D4321" t="s">
-        <v>4262</v>
-      </c>
-    </row>
-    <row r="4322" spans="3:4">
-      <c r="D4322" t="s">
-        <v>4263</v>
-      </c>
-    </row>
-    <row r="4323" spans="3:4">
-      <c r="D4323" t="s">
-        <v>4264</v>
-      </c>
-    </row>
-    <row r="4324" spans="3:4">
-      <c r="D4324" t="s">
-        <v>4265</v>
-      </c>
-    </row>
-    <row r="4325" spans="3:4">
-      <c r="C4325" t="s">
-        <v>2516</v>
-      </c>
-    </row>
-    <row r="4326" spans="3:4">
-      <c r="D4326" t="s">
-        <v>4084</v>
-      </c>
-    </row>
-    <row r="4327" spans="3:4">
-      <c r="D4327" t="s">
-        <v>4266</v>
-      </c>
-    </row>
-    <row r="4328" spans="3:4">
-      <c r="D4328" t="s">
-        <v>4267</v>
-      </c>
-    </row>
-    <row r="4329" spans="3:4">
-      <c r="D4329" t="s">
-        <v>4268</v>
-      </c>
-    </row>
-    <row r="4330" spans="3:4">
-      <c r="D4330" t="s">
-        <v>4269</v>
-      </c>
-    </row>
-    <row r="4331" spans="3:4">
-      <c r="D4331" t="s">
-        <v>4270</v>
-      </c>
-    </row>
-    <row r="4332" spans="3:4">
-      <c r="D4332" t="s">
-        <v>4271</v>
-      </c>
-    </row>
-    <row r="4333" spans="3:4">
-      <c r="D4333" t="s">
-        <v>4272</v>
-      </c>
-    </row>
-    <row r="4334" spans="3:4">
-      <c r="D4334" t="s">
-        <v>4273</v>
-      </c>
-    </row>
-    <row r="4335" spans="3:4">
-      <c r="D4335" t="s">
-        <v>4274</v>
-      </c>
-    </row>
-    <row r="4336" spans="3:4">
-      <c r="D4336" t="s">
-        <v>4275</v>
       </c>
     </row>
     <row r="4337" spans="3:4">
       <c r="D4337" t="s">
-        <v>4276</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="4338" spans="3:4">
       <c r="D4338" t="s">
-        <v>4277</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="4339" spans="3:4">
-      <c r="D4339" t="s">
-        <v>4278</v>
+      <c r="C4339" t="s">
+        <v>2474</v>
       </c>
     </row>
     <row r="4340" spans="3:4">
       <c r="D4340" t="s">
-        <v>4279</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="4341" spans="3:4">
       <c r="D4341" t="s">
-        <v>4280</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="4342" spans="3:4">
       <c r="D4342" t="s">
-        <v>4281</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="4343" spans="3:4">
       <c r="D4343" t="s">
-        <v>4282</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="4344" spans="3:4">
       <c r="D4344" t="s">
-        <v>4283</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="4345" spans="3:4">
-      <c r="C4345" t="s">
-        <v>2556</v>
+      <c r="D4345" t="s">
+        <v>4250</v>
       </c>
     </row>
     <row r="4346" spans="3:4">
       <c r="D4346" t="s">
-        <v>4085</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="4347" spans="3:4">
       <c r="D4347" t="s">
-        <v>4284</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="4348" spans="3:4">
       <c r="D4348" t="s">
-        <v>4285</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="4349" spans="3:4">
       <c r="D4349" t="s">
-        <v>4286</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="4350" spans="3:4">
       <c r="D4350" t="s">
-        <v>4287</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="4351" spans="3:4">
       <c r="D4351" t="s">
-        <v>4288</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="4352" spans="3:4">
       <c r="D4352" t="s">
-        <v>4289</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="4353" spans="3:4">
       <c r="D4353" t="s">
-        <v>4290</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="4354" spans="3:4">
       <c r="D4354" t="s">
-        <v>4291</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="4355" spans="3:4">
       <c r="D4355" t="s">
-        <v>4292</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="4356" spans="3:4">
       <c r="D4356" t="s">
-        <v>4293</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="4357" spans="3:4">
-      <c r="D4357" t="s">
-        <v>4294</v>
+      <c r="C4357" t="s">
+        <v>2492</v>
       </c>
     </row>
     <row r="4358" spans="3:4">
       <c r="D4358" t="s">
-        <v>4295</v>
+        <v>4083</v>
       </c>
     </row>
     <row r="4359" spans="3:4">
       <c r="D4359" t="s">
-        <v>4296</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="4360" spans="3:4">
       <c r="D4360" t="s">
-        <v>4297</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="4361" spans="3:4">
       <c r="D4361" t="s">
-        <v>4298</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="4362" spans="3:4">
       <c r="D4362" t="s">
-        <v>4299</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="4363" spans="3:4">
-      <c r="D4363" t="s">
-        <v>4300</v>
+      <c r="C4363" t="s">
+        <v>2516</v>
       </c>
     </row>
     <row r="4364" spans="3:4">
       <c r="D4364" t="s">
-        <v>4301</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="4365" spans="3:4">
       <c r="D4365" t="s">
-        <v>4302</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="4366" spans="3:4">
       <c r="D4366" t="s">
-        <v>4303</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="4367" spans="3:4">
       <c r="D4367" t="s">
-        <v>4304</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="4368" spans="3:4">
-      <c r="C4368" t="s">
-        <v>4086</v>
+      <c r="D4368" t="s">
+        <v>4269</v>
       </c>
     </row>
     <row r="4369" spans="3:4">
       <c r="D4369" t="s">
-        <v>4087</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="4370" spans="3:4">
       <c r="D4370" t="s">
-        <v>4305</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="4371" spans="3:4">
       <c r="D4371" t="s">
-        <v>4306</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="4372" spans="3:4">
       <c r="D4372" t="s">
-        <v>4307</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="4373" spans="3:4">
       <c r="D4373" t="s">
-        <v>4308</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="4374" spans="3:4">
       <c r="D4374" t="s">
-        <v>4309</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="4375" spans="3:4">
       <c r="D4375" t="s">
-        <v>4310</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="4376" spans="3:4">
       <c r="D4376" t="s">
-        <v>4311</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="4377" spans="3:4">
       <c r="D4377" t="s">
-        <v>4312</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="4378" spans="3:4">
-      <c r="C4378" t="s">
-        <v>4088</v>
+      <c r="D4378" t="s">
+        <v>4279</v>
       </c>
     </row>
     <row r="4379" spans="3:4">
       <c r="D4379" t="s">
-        <v>4089</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="4380" spans="3:4">
       <c r="D4380" t="s">
-        <v>4313</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="4381" spans="3:4">
       <c r="D4381" t="s">
-        <v>4314</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="4382" spans="3:4">
-      <c r="C4382" t="s">
-        <v>2568</v>
+      <c r="D4382" t="s">
+        <v>4283</v>
       </c>
     </row>
     <row r="4383" spans="3:4">
-      <c r="D4383" t="s">
-        <v>4090</v>
+      <c r="C4383" t="s">
+        <v>2556</v>
       </c>
     </row>
     <row r="4384" spans="3:4">
       <c r="D4384" t="s">
-        <v>4315</v>
-      </c>
-    </row>
-    <row r="4385" spans="3:5">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="4385" spans="4:4">
       <c r="D4385" t="s">
-        <v>4484</v>
-      </c>
-    </row>
-    <row r="4386" spans="3:5">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="4386" spans="4:4">
       <c r="D4386" t="s">
-        <v>4316</v>
-      </c>
-    </row>
-    <row r="4387" spans="3:5">
-      <c r="C4387" t="s">
-        <v>2571</v>
-      </c>
-    </row>
-    <row r="4388" spans="3:5">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="4387" spans="4:4">
+      <c r="D4387" t="s">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="4388" spans="4:4">
       <c r="D4388" t="s">
-        <v>4091</v>
-      </c>
-    </row>
-    <row r="4389" spans="3:5">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="4389" spans="4:4">
       <c r="D4389" t="s">
-        <v>4317</v>
-      </c>
-    </row>
-    <row r="4390" spans="3:5">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="4390" spans="4:4">
       <c r="D4390" t="s">
-        <v>4318</v>
-      </c>
-    </row>
-    <row r="4391" spans="3:5">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="4391" spans="4:4">
       <c r="D4391" t="s">
-        <v>4092</v>
-      </c>
-    </row>
-    <row r="4392" spans="3:5">
-      <c r="E4392" t="s">
-        <v>2826</v>
-      </c>
-    </row>
-    <row r="4393" spans="3:5">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="4392" spans="4:4">
+      <c r="D4392" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="4393" spans="4:4">
       <c r="D4393" t="s">
-        <v>4319</v>
-      </c>
-    </row>
-    <row r="4394" spans="3:5">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="4394" spans="4:4">
       <c r="D4394" t="s">
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="4395" spans="3:5">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="4395" spans="4:4">
       <c r="D4395" t="s">
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="4396" spans="3:5">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="4396" spans="4:4">
       <c r="D4396" t="s">
-        <v>4322</v>
-      </c>
-    </row>
-    <row r="4397" spans="3:5">
-      <c r="C4397" t="s">
-        <v>4093</v>
-      </c>
-    </row>
-    <row r="4398" spans="3:5">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="4397" spans="4:4">
+      <c r="D4397" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="4398" spans="4:4">
       <c r="D4398" t="s">
-        <v>4094</v>
-      </c>
-    </row>
-    <row r="4399" spans="3:5">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="4399" spans="4:4">
       <c r="D4399" t="s">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="4400" spans="3:5">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="4400" spans="4:4">
       <c r="D4400" t="s">
-        <v>4096</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="4401" spans="3:4">
-      <c r="C4401" t="s">
-        <v>2608</v>
+      <c r="D4401" t="s">
+        <v>4300</v>
       </c>
     </row>
     <row r="4402" spans="3:4">
       <c r="D4402" t="s">
-        <v>4097</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="4403" spans="3:4">
       <c r="D4403" t="s">
-        <v>4323</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="4404" spans="3:4">
       <c r="D4404" t="s">
-        <v>4324</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="4405" spans="3:4">
       <c r="D4405" t="s">
-        <v>4325</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="4406" spans="3:4">
-      <c r="D4406" t="s">
-        <v>4326</v>
+      <c r="C4406" t="s">
+        <v>4086</v>
       </c>
     </row>
     <row r="4407" spans="3:4">
       <c r="D4407" t="s">
-        <v>4327</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="4408" spans="3:4">
       <c r="D4408" t="s">
-        <v>4328</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="4409" spans="3:4">
-      <c r="C4409" t="s">
-        <v>2618</v>
+      <c r="D4409" t="s">
+        <v>4306</v>
       </c>
     </row>
     <row r="4410" spans="3:4">
       <c r="D4410" t="s">
-        <v>4098</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="4411" spans="3:4">
       <c r="D4411" t="s">
-        <v>4329</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="4412" spans="3:4">
       <c r="D4412" t="s">
-        <v>4330</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="4413" spans="3:4">
       <c r="D4413" t="s">
-        <v>4331</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="4414" spans="3:4">
       <c r="D4414" t="s">
-        <v>4332</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="4415" spans="3:4">
       <c r="D4415" t="s">
-        <v>4333</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="4416" spans="3:4">
-      <c r="D4416" t="s">
-        <v>4099</v>
+      <c r="C4416" t="s">
+        <v>4088</v>
       </c>
     </row>
     <row r="4417" spans="3:5">
-      <c r="E4417" t="s">
-        <v>4100</v>
+      <c r="D4417" t="s">
+        <v>4089</v>
       </c>
     </row>
     <row r="4418" spans="3:5">
       <c r="D4418" t="s">
-        <v>4334</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="4419" spans="3:5">
       <c r="D4419" t="s">
-        <v>4101</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="4420" spans="3:5">
-      <c r="E4420" t="s">
-        <v>2778</v>
+      <c r="C4420" t="s">
+        <v>2568</v>
       </c>
     </row>
     <row r="4421" spans="3:5">
-      <c r="C4421" t="s">
-        <v>2638</v>
+      <c r="D4421" t="s">
+        <v>4090</v>
       </c>
     </row>
     <row r="4422" spans="3:5">
       <c r="D4422" t="s">
-        <v>4102</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="4423" spans="3:5">
       <c r="D4423" t="s">
-        <v>4103</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="4424" spans="3:5">
       <c r="D4424" t="s">
-        <v>4335</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="4425" spans="3:5">
       <c r="C4425" t="s">
-        <v>2751</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="4426" spans="3:5">
       <c r="D4426" t="s">
-        <v>4104</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="4427" spans="3:5">
       <c r="D4427" t="s">
-        <v>4105</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="4428" spans="3:5">
-      <c r="E4428" t="s">
-        <v>2469</v>
+      <c r="D4428" t="s">
+        <v>4318</v>
       </c>
     </row>
     <row r="4429" spans="3:5">
       <c r="D4429" t="s">
-        <v>4106</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="4430" spans="3:5">
       <c r="E4430" t="s">
-        <v>2788</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="4431" spans="3:5">
       <c r="D4431" t="s">
-        <v>4107</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="4432" spans="3:5">
-      <c r="E4432" t="s">
-        <v>2789</v>
-      </c>
-    </row>
-    <row r="4433" spans="3:5">
+      <c r="D4432" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="4433" spans="3:4">
       <c r="D4433" t="s">
-        <v>4108</v>
-      </c>
-    </row>
-    <row r="4434" spans="3:5">
-      <c r="E4434" t="s">
-        <v>2791</v>
-      </c>
-    </row>
-    <row r="4435" spans="3:5">
-      <c r="D4435" t="s">
-        <v>4109</v>
-      </c>
-    </row>
-    <row r="4436" spans="3:5">
-      <c r="E4436" t="s">
-        <v>2793</v>
-      </c>
-    </row>
-    <row r="4437" spans="3:5">
-      <c r="C4437" t="s">
-        <v>2802</v>
-      </c>
-    </row>
-    <row r="4438" spans="3:5">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="4434" spans="3:4">
+      <c r="D4434" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="4435" spans="3:4">
+      <c r="C4435" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="4436" spans="3:4">
+      <c r="D4436" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="4437" spans="3:4">
+      <c r="D4437" t="s">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="4438" spans="3:4">
       <c r="D4438" t="s">
-        <v>4110</v>
-      </c>
-    </row>
-    <row r="4439" spans="3:5">
-      <c r="D4439" t="s">
-        <v>4111</v>
-      </c>
-    </row>
-    <row r="4440" spans="3:5">
-      <c r="E4440" t="s">
-        <v>2863</v>
-      </c>
-    </row>
-    <row r="4441" spans="3:5">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="4439" spans="3:4">
+      <c r="C4439" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="4440" spans="3:4">
+      <c r="D4440" t="s">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="4441" spans="3:4">
       <c r="D4441" t="s">
-        <v>4112</v>
-      </c>
-    </row>
-    <row r="4442" spans="3:5">
-      <c r="E4442" t="s">
-        <v>2843</v>
-      </c>
-    </row>
-    <row r="4443" spans="3:5">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="4442" spans="3:4">
+      <c r="D4442" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="4443" spans="3:4">
       <c r="D4443" t="s">
-        <v>4113</v>
-      </c>
-    </row>
-    <row r="4444" spans="3:5">
-      <c r="E4444" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="4445" spans="3:5">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="4444" spans="3:4">
+      <c r="D4444" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="4445" spans="3:4">
       <c r="D4445" t="s">
-        <v>4114</v>
-      </c>
-    </row>
-    <row r="4446" spans="3:5">
-      <c r="E4446" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="4447" spans="3:5">
-      <c r="D4447" t="s">
-        <v>4115</v>
-      </c>
-    </row>
-    <row r="4448" spans="3:5">
-      <c r="E4448" t="s">
-        <v>3113</v>
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="4446" spans="3:4">
+      <c r="D4446" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="4447" spans="3:4">
+      <c r="C4447" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="4448" spans="3:4">
+      <c r="D4448" t="s">
+        <v>4098</v>
       </c>
     </row>
     <row r="4449" spans="3:5">
       <c r="D4449" t="s">
-        <v>4116</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="4450" spans="3:5">
-      <c r="E4450" t="s">
-        <v>3117</v>
+      <c r="D4450" t="s">
+        <v>4330</v>
       </c>
     </row>
     <row r="4451" spans="3:5">
       <c r="D4451" t="s">
-        <v>4117</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="4452" spans="3:5">
-      <c r="E4452" t="s">
-        <v>3118</v>
+      <c r="D4452" t="s">
+        <v>4332</v>
       </c>
     </row>
     <row r="4453" spans="3:5">
       <c r="D4453" t="s">
-        <v>4336</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="4454" spans="3:5">
-      <c r="C4454" t="s">
-        <v>2815</v>
+      <c r="D4454" t="s">
+        <v>4099</v>
       </c>
     </row>
     <row r="4455" spans="3:5">
-      <c r="D4455" t="s">
-        <v>4118</v>
+      <c r="E4455" t="s">
+        <v>4100</v>
       </c>
     </row>
     <row r="4456" spans="3:5">
       <c r="D4456" t="s">
-        <v>4337</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="4457" spans="3:5">
       <c r="D4457" t="s">
-        <v>4338</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="4458" spans="3:5">
-      <c r="D4458" t="s">
-        <v>4339</v>
+      <c r="E4458" t="s">
+        <v>2778</v>
       </c>
     </row>
     <row r="4459" spans="3:5">
       <c r="C4459" t="s">
-        <v>2825</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="4460" spans="3:5">
       <c r="D4460" t="s">
-        <v>4119</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="4461" spans="3:5">
       <c r="D4461" t="s">
-        <v>4120</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="4462" spans="3:5">
-      <c r="E4462" t="s">
-        <v>4121</v>
+      <c r="D4462" t="s">
+        <v>4335</v>
       </c>
     </row>
     <row r="4463" spans="3:5">
-      <c r="D4463" t="s">
-        <v>4122</v>
+      <c r="C4463" t="s">
+        <v>2751</v>
       </c>
     </row>
     <row r="4464" spans="3:5">
-      <c r="E4464" t="s">
-        <v>4123</v>
-      </c>
-    </row>
-    <row r="4465" spans="4:5">
+      <c r="D4464" t="s">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="4465" spans="3:5">
       <c r="D4465" t="s">
-        <v>4124</v>
-      </c>
-    </row>
-    <row r="4466" spans="4:5">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="4466" spans="3:5">
       <c r="E4466" t="s">
-        <v>4125</v>
-      </c>
-    </row>
-    <row r="4467" spans="4:5">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="4467" spans="3:5">
       <c r="D4467" t="s">
-        <v>4126</v>
-      </c>
-    </row>
-    <row r="4468" spans="4:5">
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="4468" spans="3:5">
       <c r="E4468" t="s">
-        <v>4127</v>
-      </c>
-    </row>
-    <row r="4469" spans="4:5">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="4469" spans="3:5">
       <c r="D4469" t="s">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="4470" spans="4:5">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="4470" spans="3:5">
       <c r="E4470" t="s">
-        <v>4129</v>
-      </c>
-    </row>
-    <row r="4471" spans="4:5">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="4471" spans="3:5">
       <c r="D4471" t="s">
-        <v>4130</v>
-      </c>
-    </row>
-    <row r="4472" spans="4:5">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="4472" spans="3:5">
       <c r="E4472" t="s">
-        <v>4131</v>
-      </c>
-    </row>
-    <row r="4473" spans="4:5">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="4473" spans="3:5">
       <c r="D4473" t="s">
-        <v>4132</v>
-      </c>
-    </row>
-    <row r="4474" spans="4:5">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="4474" spans="3:5">
       <c r="E4474" t="s">
-        <v>4133</v>
-      </c>
-    </row>
-    <row r="4475" spans="4:5">
-      <c r="D4475" t="s">
-        <v>4134</v>
-      </c>
-    </row>
-    <row r="4476" spans="4:5">
-      <c r="E4476" t="s">
-        <v>4135</v>
-      </c>
-    </row>
-    <row r="4477" spans="4:5">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="4475" spans="3:5">
+      <c r="C4475" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="4476" spans="3:5">
+      <c r="D4476" t="s">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="4477" spans="3:5">
       <c r="D4477" t="s">
-        <v>4136</v>
-      </c>
-    </row>
-    <row r="4478" spans="4:5">
+        <v>4111</v>
+      </c>
+    </row>
+    <row r="4478" spans="3:5">
       <c r="E4478" t="s">
-        <v>4137</v>
-      </c>
-    </row>
-    <row r="4479" spans="4:5">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="4479" spans="3:5">
       <c r="D4479" t="s">
-        <v>4138</v>
-      </c>
-    </row>
-    <row r="4480" spans="4:5">
+        <v>4112</v>
+      </c>
+    </row>
+    <row r="4480" spans="3:5">
       <c r="E4480" t="s">
-        <v>4139</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="4481" spans="3:5">
       <c r="D4481" t="s">
-        <v>4140</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="4482" spans="3:5">
       <c r="E4482" t="s">
-        <v>3194</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="4483" spans="3:5">
-      <c r="E4483" t="s">
-        <v>2829</v>
+      <c r="D4483" t="s">
+        <v>4114</v>
       </c>
     </row>
     <row r="4484" spans="3:5">
       <c r="E4484" t="s">
-        <v>2828</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="4485" spans="3:5">
-      <c r="E4485" t="s">
-        <v>4141</v>
+      <c r="D4485" t="s">
+        <v>4115</v>
       </c>
     </row>
     <row r="4486" spans="3:5">
-      <c r="C4486" t="s">
-        <v>2864</v>
+      <c r="E4486" t="s">
+        <v>3113</v>
       </c>
     </row>
     <row r="4487" spans="3:5">
       <c r="D4487" t="s">
-        <v>4142</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="4488" spans="3:5">
-      <c r="D4488" t="s">
-        <v>4340</v>
+      <c r="E4488" t="s">
+        <v>3117</v>
       </c>
     </row>
     <row r="4489" spans="3:5">
       <c r="D4489" t="s">
-        <v>4341</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="4490" spans="3:5">
-      <c r="D4490" t="s">
-        <v>4342</v>
+      <c r="E4490" t="s">
+        <v>3118</v>
       </c>
     </row>
     <row r="4491" spans="3:5">
       <c r="D4491" t="s">
-        <v>4143</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="4492" spans="3:5">
-      <c r="E4492" t="s">
-        <v>2829</v>
+      <c r="C4492" t="s">
+        <v>2815</v>
       </c>
     </row>
     <row r="4493" spans="3:5">
-      <c r="E4493" t="s">
-        <v>4144</v>
+      <c r="D4493" t="s">
+        <v>4118</v>
       </c>
     </row>
     <row r="4494" spans="3:5">
-      <c r="E4494" t="s">
-        <v>4145</v>
+      <c r="D4494" t="s">
+        <v>4337</v>
       </c>
     </row>
     <row r="4495" spans="3:5">
       <c r="D4495" t="s">
-        <v>4343</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="4496" spans="3:5">
       <c r="D4496" t="s">
-        <v>4344</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="4497" spans="3:5">
-      <c r="D4497" t="s">
-        <v>4345</v>
+      <c r="C4497" t="s">
+        <v>2825</v>
       </c>
     </row>
     <row r="4498" spans="3:5">
       <c r="D4498" t="s">
-        <v>4146</v>
+        <v>4119</v>
       </c>
     </row>
     <row r="4499" spans="3:5">
-      <c r="E4499" t="s">
-        <v>4346</v>
+      <c r="D4499" t="s">
+        <v>4120</v>
       </c>
     </row>
     <row r="4500" spans="3:5">
-      <c r="D4500" t="s">
-        <v>4347</v>
+      <c r="E4500" t="s">
+        <v>4121</v>
       </c>
     </row>
     <row r="4501" spans="3:5">
       <c r="D4501" t="s">
-        <v>4348</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="4502" spans="3:5">
-      <c r="D4502" t="s">
-        <v>4349</v>
+      <c r="E4502" t="s">
+        <v>4123</v>
       </c>
     </row>
     <row r="4503" spans="3:5">
-      <c r="C4503" t="s">
-        <v>2896</v>
+      <c r="D4503" t="s">
+        <v>4124</v>
       </c>
     </row>
     <row r="4504" spans="3:5">
-      <c r="D4504" t="s">
-        <v>4147</v>
+      <c r="E4504" t="s">
+        <v>4125</v>
       </c>
     </row>
     <row r="4505" spans="3:5">
       <c r="D4505" t="s">
-        <v>4350</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="4506" spans="3:5">
-      <c r="D4506" t="s">
-        <v>4351</v>
+      <c r="E4506" t="s">
+        <v>4127</v>
       </c>
     </row>
     <row r="4507" spans="3:5">
       <c r="D4507" t="s">
-        <v>4352</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="4508" spans="3:5">
-      <c r="D4508" t="s">
-        <v>4353</v>
+      <c r="E4508" t="s">
+        <v>4129</v>
       </c>
     </row>
     <row r="4509" spans="3:5">
-      <c r="C4509" t="s">
-        <v>2933</v>
+      <c r="D4509" t="s">
+        <v>4130</v>
       </c>
     </row>
     <row r="4510" spans="3:5">
-      <c r="D4510" t="s">
-        <v>4148</v>
+      <c r="E4510" t="s">
+        <v>4131</v>
       </c>
     </row>
     <row r="4511" spans="3:5">
       <c r="D4511" t="s">
-        <v>4354</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="4512" spans="3:5">
-      <c r="D4512" t="s">
-        <v>4355</v>
+      <c r="E4512" t="s">
+        <v>4133</v>
       </c>
     </row>
     <row r="4513" spans="3:5">
       <c r="D4513" t="s">
-        <v>4356</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="4514" spans="3:5">
-      <c r="D4514" t="s">
-        <v>4357</v>
+      <c r="E4514" t="s">
+        <v>4135</v>
       </c>
     </row>
     <row r="4515" spans="3:5">
       <c r="D4515" t="s">
-        <v>4149</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="4516" spans="3:5">
       <c r="E4516" t="s">
-        <v>2779</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="4517" spans="3:5">
-      <c r="E4517" t="s">
-        <v>4150</v>
+      <c r="D4517" t="s">
+        <v>4138</v>
       </c>
     </row>
     <row r="4518" spans="3:5">
-      <c r="C4518" t="s">
-        <v>2947</v>
+      <c r="E4518" t="s">
+        <v>4139</v>
       </c>
     </row>
     <row r="4519" spans="3:5">
       <c r="D4519" t="s">
-        <v>4151</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="4520" spans="3:5">
-      <c r="D4520" t="s">
-        <v>4358</v>
+      <c r="E4520" t="s">
+        <v>3194</v>
       </c>
     </row>
     <row r="4521" spans="3:5">
-      <c r="D4521" t="s">
-        <v>4359</v>
+      <c r="E4521" t="s">
+        <v>2829</v>
       </c>
     </row>
     <row r="4522" spans="3:5">
-      <c r="D4522" t="s">
-        <v>4360</v>
+      <c r="E4522" t="s">
+        <v>2828</v>
       </c>
     </row>
     <row r="4523" spans="3:5">
-      <c r="C4523" t="s">
-        <v>2963</v>
+      <c r="E4523" t="s">
+        <v>4141</v>
       </c>
     </row>
     <row r="4524" spans="3:5">
-      <c r="D4524" t="s">
-        <v>4152</v>
+      <c r="C4524" t="s">
+        <v>2864</v>
       </c>
     </row>
     <row r="4525" spans="3:5">
       <c r="D4525" t="s">
-        <v>4153</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="4526" spans="3:5">
-      <c r="E4526" t="s">
-        <v>2812</v>
+      <c r="D4526" t="s">
+        <v>4340</v>
       </c>
     </row>
     <row r="4527" spans="3:5">
       <c r="D4527" t="s">
-        <v>4361</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="4528" spans="3:5">
       <c r="D4528" t="s">
-        <v>4362</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="4529" spans="3:5">
       <c r="D4529" t="s">
-        <v>4363</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="4530" spans="3:5">
-      <c r="D4530" t="s">
-        <v>4364</v>
+      <c r="E4530" t="s">
+        <v>2829</v>
       </c>
     </row>
     <row r="4531" spans="3:5">
-      <c r="D4531" t="s">
-        <v>4365</v>
+      <c r="E4531" t="s">
+        <v>4144</v>
       </c>
     </row>
     <row r="4532" spans="3:5">
-      <c r="C4532" t="s">
-        <v>2994</v>
+      <c r="E4532" t="s">
+        <v>4145</v>
       </c>
     </row>
     <row r="4533" spans="3:5">
       <c r="D4533" t="s">
-        <v>4154</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="4534" spans="3:5">
       <c r="D4534" t="s">
-        <v>4366</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="4535" spans="3:5">
       <c r="D4535" t="s">
-        <v>4367</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="4536" spans="3:5">
       <c r="D4536" t="s">
-        <v>4155</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="4537" spans="3:5">
       <c r="E4537" t="s">
-        <v>4156</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="4538" spans="3:5">
-      <c r="C4538" t="s">
-        <v>3026</v>
+      <c r="D4538" t="s">
+        <v>4347</v>
       </c>
     </row>
     <row r="4539" spans="3:5">
       <c r="D4539" t="s">
-        <v>4157</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="4540" spans="3:5">
       <c r="D4540" t="s">
-        <v>4368</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="4541" spans="3:5">
-      <c r="D4541" t="s">
-        <v>4158</v>
+      <c r="C4541" t="s">
+        <v>2896</v>
       </c>
     </row>
     <row r="4542" spans="3:5">
-      <c r="E4542" t="s">
-        <v>4159</v>
+      <c r="D4542" t="s">
+        <v>4147</v>
       </c>
     </row>
     <row r="4543" spans="3:5">
       <c r="D4543" t="s">
-        <v>4160</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="4544" spans="3:5">
-      <c r="E4544" t="s">
-        <v>4161</v>
+      <c r="D4544" t="s">
+        <v>4351</v>
       </c>
     </row>
     <row r="4545" spans="3:5">
       <c r="D4545" t="s">
-        <v>4162</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="4546" spans="3:5">
-      <c r="E4546" t="s">
-        <v>4163</v>
+      <c r="D4546" t="s">
+        <v>4353</v>
       </c>
     </row>
     <row r="4547" spans="3:5">
-      <c r="D4547" t="s">
-        <v>4164</v>
+      <c r="C4547" t="s">
+        <v>2933</v>
       </c>
     </row>
     <row r="4548" spans="3:5">
-      <c r="E4548" t="s">
-        <v>4165</v>
+      <c r="D4548" t="s">
+        <v>4148</v>
       </c>
     </row>
     <row r="4549" spans="3:5">
       <c r="D4549" t="s">
-        <v>4166</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="4550" spans="3:5">
-      <c r="E4550" t="s">
-        <v>4167</v>
+      <c r="D4550" t="s">
+        <v>4355</v>
       </c>
     </row>
     <row r="4551" spans="3:5">
-      <c r="C4551" t="s">
-        <v>3047</v>
+      <c r="D4551" t="s">
+        <v>4356</v>
       </c>
     </row>
     <row r="4552" spans="3:5">
       <c r="D4552" t="s">
-        <v>4168</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="4553" spans="3:5">
       <c r="D4553" t="s">
-        <v>4369</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="4554" spans="3:5">
-      <c r="D4554" t="s">
-        <v>4370</v>
+      <c r="E4554" t="s">
+        <v>2779</v>
       </c>
     </row>
     <row r="4555" spans="3:5">
-      <c r="C4555" t="s">
-        <v>3063</v>
+      <c r="E4555" t="s">
+        <v>4150</v>
       </c>
     </row>
     <row r="4556" spans="3:5">
-      <c r="D4556" t="s">
-        <v>4169</v>
+      <c r="C4556" t="s">
+        <v>2947</v>
       </c>
     </row>
     <row r="4557" spans="3:5">
       <c r="D4557" t="s">
-        <v>4371</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="4558" spans="3:5">
       <c r="D4558" t="s">
-        <v>4372</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="4559" spans="3:5">
       <c r="D4559" t="s">
-        <v>4373</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="4560" spans="3:5">
       <c r="D4560" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="4561" spans="3:5">
+      <c r="C4561" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="4562" spans="3:5">
+      <c r="D4562" t="s">
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="4563" spans="3:5">
+      <c r="D4563" t="s">
+        <v>4153</v>
+      </c>
+    </row>
+    <row r="4564" spans="3:5">
+      <c r="E4564" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="4565" spans="3:5">
+      <c r="D4565" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="4566" spans="3:5">
+      <c r="D4566" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="4567" spans="3:5">
+      <c r="D4567" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="4568" spans="3:5">
+      <c r="D4568" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="4569" spans="3:5">
+      <c r="D4569" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="4570" spans="3:5">
+      <c r="C4570" t="s">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="4571" spans="3:5">
+      <c r="D4571" t="s">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="4572" spans="3:5">
+      <c r="D4572" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="4573" spans="3:5">
+      <c r="D4573" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="4574" spans="3:5">
+      <c r="D4574" t="s">
+        <v>4155</v>
+      </c>
+    </row>
+    <row r="4575" spans="3:5">
+      <c r="E4575" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="4576" spans="3:5">
+      <c r="C4576" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="4577" spans="3:5">
+      <c r="D4577" t="s">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="4578" spans="3:5">
+      <c r="D4578" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="4579" spans="3:5">
+      <c r="D4579" t="s">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="4580" spans="3:5">
+      <c r="E4580" t="s">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="4581" spans="3:5">
+      <c r="D4581" t="s">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="4582" spans="3:5">
+      <c r="E4582" t="s">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="4583" spans="3:5">
+      <c r="D4583" t="s">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="4584" spans="3:5">
+      <c r="E4584" t="s">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="4585" spans="3:5">
+      <c r="D4585" t="s">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="4586" spans="3:5">
+      <c r="E4586" t="s">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="4587" spans="3:5">
+      <c r="D4587" t="s">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="4588" spans="3:5">
+      <c r="E4588" t="s">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="4589" spans="3:5">
+      <c r="C4589" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="4590" spans="3:5">
+      <c r="D4590" t="s">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="4591" spans="3:5">
+      <c r="D4591" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="4592" spans="3:5">
+      <c r="D4592" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="4593" spans="3:4">
+      <c r="C4593" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="4594" spans="3:4">
+      <c r="D4594" t="s">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="4595" spans="3:4">
+      <c r="D4595" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="4596" spans="3:4">
+      <c r="D4596" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="4597" spans="3:4">
+      <c r="D4597" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="4598" spans="3:4">
+      <c r="D4598" t="s">
         <v>4374</v>
       </c>
     </row>
-    <row r="4561" spans="4:5">
-      <c r="D4561" t="s">
+    <row r="4599" spans="3:4">
+      <c r="D4599" t="s">
         <v>4375</v>
       </c>
     </row>
-    <row r="4562" spans="4:5">
-      <c r="D4562" t="s">
+    <row r="4600" spans="3:4">
+      <c r="D4600" t="s">
         <v>4376</v>
       </c>
     </row>
-    <row r="4563" spans="4:5">
-      <c r="D4563" t="s">
+    <row r="4601" spans="3:4">
+      <c r="D4601" t="s">
         <v>4377</v>
       </c>
     </row>
-    <row r="4564" spans="4:5">
-      <c r="D4564" t="s">
+    <row r="4602" spans="3:4">
+      <c r="D4602" t="s">
         <v>4378</v>
       </c>
     </row>
-    <row r="4565" spans="4:5">
-      <c r="D4565" t="s">
+    <row r="4603" spans="3:4">
+      <c r="D4603" t="s">
         <v>4379</v>
       </c>
     </row>
-    <row r="4566" spans="4:5">
-      <c r="D4566" t="s">
+    <row r="4604" spans="3:4">
+      <c r="D4604" t="s">
         <v>4380</v>
       </c>
     </row>
-    <row r="4567" spans="4:5">
-      <c r="D4567" t="s">
+    <row r="4605" spans="3:4">
+      <c r="D4605" t="s">
         <v>4381</v>
       </c>
     </row>
-    <row r="4568" spans="4:5">
-      <c r="D4568" t="s">
+    <row r="4606" spans="3:4">
+      <c r="D4606" t="s">
         <v>4382</v>
       </c>
     </row>
-    <row r="4569" spans="4:5">
-      <c r="D4569" t="s">
+    <row r="4607" spans="3:4">
+      <c r="D4607" t="s">
         <v>4383</v>
       </c>
     </row>
-    <row r="4570" spans="4:5">
-      <c r="D4570" t="s">
+    <row r="4608" spans="3:4">
+      <c r="D4608" t="s">
         <v>4384</v>
       </c>
     </row>
-    <row r="4571" spans="4:5">
-      <c r="D4571" t="s">
+    <row r="4609" spans="3:5">
+      <c r="D4609" t="s">
         <v>4385</v>
       </c>
     </row>
-    <row r="4572" spans="4:5">
-      <c r="D4572" t="s">
+    <row r="4610" spans="3:5">
+      <c r="D4610" t="s">
         <v>4386</v>
       </c>
     </row>
-    <row r="4573" spans="4:5">
-      <c r="D4573" t="s">
+    <row r="4611" spans="3:5">
+      <c r="D4611" t="s">
         <v>4387</v>
       </c>
     </row>
-    <row r="4574" spans="4:5">
-      <c r="D4574" t="s">
+    <row r="4612" spans="3:5">
+      <c r="D4612" t="s">
         <v>4170</v>
       </c>
     </row>
-    <row r="4575" spans="4:5">
-      <c r="E4575" t="s">
+    <row r="4613" spans="3:5">
+      <c r="E4613" t="s">
         <v>4171</v>
       </c>
     </row>
-    <row r="4576" spans="4:5">
-      <c r="D4576" t="s">
+    <row r="4614" spans="3:5">
+      <c r="D4614" t="s">
         <v>4388</v>
       </c>
     </row>
-    <row r="4577" spans="3:4">
-      <c r="D4577" t="s">
+    <row r="4615" spans="3:5">
+      <c r="D4615" t="s">
         <v>4389</v>
       </c>
     </row>
-    <row r="4578" spans="3:4">
-      <c r="D4578" t="s">
+    <row r="4616" spans="3:5">
+      <c r="D4616" t="s">
         <v>4390</v>
       </c>
     </row>
-    <row r="4579" spans="3:4">
-      <c r="C4579" t="s">
+    <row r="4617" spans="3:5">
+      <c r="C4617" t="s">
         <v>3071</v>
       </c>
     </row>
-    <row r="4580" spans="3:4">
-      <c r="D4580" t="s">
+    <row r="4618" spans="3:5">
+      <c r="D4618" t="s">
         <v>4172</v>
       </c>
     </row>
-    <row r="4581" spans="3:4">
-      <c r="D4581" t="s">
+    <row r="4619" spans="3:5">
+      <c r="D4619" t="s">
         <v>4391</v>
       </c>
     </row>
-    <row r="4582" spans="3:4">
-      <c r="C4582" t="s">
+    <row r="4620" spans="3:5">
+      <c r="C4620" t="s">
         <v>3112</v>
       </c>
     </row>
-    <row r="4583" spans="3:4">
-      <c r="D4583" t="s">
+    <row r="4621" spans="3:5">
+      <c r="D4621" t="s">
         <v>4173</v>
       </c>
     </row>
-    <row r="4584" spans="3:4">
-      <c r="D4584" t="s">
+    <row r="4622" spans="3:5">
+      <c r="D4622" t="s">
         <v>4174</v>
       </c>
     </row>
-    <row r="4585" spans="3:4">
-      <c r="D4585" t="s">
+    <row r="4623" spans="3:5">
+      <c r="D4623" t="s">
         <v>4392</v>
       </c>
     </row>
-    <row r="4586" spans="3:4">
-      <c r="C4586" t="s">
+    <row r="4624" spans="3:5">
+      <c r="C4624" t="s">
         <v>3135</v>
       </c>
     </row>
-    <row r="4587" spans="3:4">
-      <c r="D4587" t="s">
+    <row r="4625" spans="2:4">
+      <c r="D4625" t="s">
         <v>4175</v>
       </c>
     </row>
-    <row r="4588" spans="3:4">
-      <c r="D4588" t="s">
+    <row r="4626" spans="2:4">
+      <c r="D4626" t="s">
         <v>4393</v>
       </c>
     </row>
-    <row r="4589" spans="3:4">
-      <c r="D4589" t="s">
+    <row r="4627" spans="2:4">
+      <c r="D4627" t="s">
         <v>4394</v>
       </c>
     </row>
-    <row r="4590" spans="3:4">
-      <c r="D4590" t="s">
+    <row r="4628" spans="2:4">
+      <c r="D4628" t="s">
         <v>4395</v>
       </c>
     </row>
-    <row r="4591" spans="3:4">
-      <c r="C4591" t="s">
+    <row r="4629" spans="2:4">
+      <c r="C4629" t="s">
         <v>3186</v>
       </c>
     </row>
-    <row r="4592" spans="3:4">
-      <c r="D4592" t="s">
+    <row r="4630" spans="2:4">
+      <c r="D4630" t="s">
         <v>4176</v>
       </c>
     </row>
-    <row r="4593" spans="2:4">
-      <c r="D4593" t="s">
+    <row r="4631" spans="2:4">
+      <c r="D4631" t="s">
         <v>4396</v>
       </c>
     </row>
-    <row r="4594" spans="2:4">
-      <c r="D4594" t="s">
+    <row r="4632" spans="2:4">
+      <c r="D4632" t="s">
         <v>4397</v>
       </c>
     </row>
-    <row r="4595" spans="2:4">
-      <c r="B4595" t="s">
+    <row r="4633" spans="2:4">
+      <c r="B4633" t="s">
         <v>4177</v>
       </c>
     </row>
-    <row r="4596" spans="2:4">
-      <c r="C4596" t="s">
+    <row r="4634" spans="2:4">
+      <c r="C4634" t="s">
         <v>4178</v>
       </c>
     </row>
-    <row r="4597" spans="2:4">
-      <c r="C4597" t="s">
+    <row r="4635" spans="2:4">
+      <c r="C4635" t="s">
         <v>4179</v>
       </c>
     </row>
-    <row r="4598" spans="2:4">
-      <c r="D4598" t="s">
+    <row r="4636" spans="2:4">
+      <c r="D4636" t="s">
         <v>4180</v>
       </c>
     </row>
-    <row r="4599" spans="2:4">
-      <c r="D4599" t="s">
+    <row r="4637" spans="2:4">
+      <c r="D4637" t="s">
         <v>4398</v>
       </c>
     </row>
-    <row r="4600" spans="2:4">
-      <c r="D4600" t="s">
+    <row r="4638" spans="2:4">
+      <c r="D4638" t="s">
         <v>4181</v>
       </c>
     </row>
-    <row r="4601" spans="2:4">
-      <c r="D4601" t="s">
+    <row r="4639" spans="2:4">
+      <c r="D4639" t="s">
         <v>4399</v>
       </c>
     </row>
-    <row r="4602" spans="2:4">
-      <c r="D4602" t="s">
+    <row r="4640" spans="2:4">
+      <c r="D4640" t="s">
         <v>4182</v>
       </c>
     </row>
-    <row r="4603" spans="2:4">
-      <c r="D4603" t="s">
+    <row r="4641" spans="4:4">
+      <c r="D4641" t="s">
         <v>4400</v>
       </c>
     </row>
-    <row r="4604" spans="2:4">
-      <c r="D4604" t="s">
+    <row r="4642" spans="4:4">
+      <c r="D4642" t="s">
         <v>4183</v>
       </c>
     </row>
-    <row r="4605" spans="2:4">
-      <c r="D4605" t="s">
+    <row r="4643" spans="4:4">
+      <c r="D4643" t="s">
         <v>4401</v>
       </c>
     </row>
-    <row r="4606" spans="2:4">
-      <c r="D4606" t="s">
+    <row r="4644" spans="4:4">
+      <c r="D4644" t="s">
         <v>4184</v>
       </c>
     </row>
-    <row r="4607" spans="2:4">
-      <c r="D4607" t="s">
+    <row r="4645" spans="4:4">
+      <c r="D4645" t="s">
         <v>4402</v>
       </c>
     </row>
-    <row r="4608" spans="2:4">
-      <c r="D4608" t="s">
+    <row r="4646" spans="4:4">
+      <c r="D4646" t="s">
         <v>4185</v>
       </c>
     </row>
-    <row r="4609" spans="4:4">
-      <c r="D4609" t="s">
+    <row r="4647" spans="4:4">
+      <c r="D4647" t="s">
         <v>4403</v>
       </c>
     </row>
-    <row r="4610" spans="4:4">
-      <c r="D4610" t="s">
+    <row r="4648" spans="4:4">
+      <c r="D4648" t="s">
         <v>4186</v>
       </c>
     </row>
-    <row r="4611" spans="4:4">
-      <c r="D4611" t="s">
+    <row r="4649" spans="4:4">
+      <c r="D4649" t="s">
         <v>4187</v>
       </c>
     </row>
-    <row r="4612" spans="4:4">
-      <c r="D4612" t="s">
+    <row r="4650" spans="4:4">
+      <c r="D4650" t="s">
         <v>4188</v>
       </c>
     </row>
-    <row r="4613" spans="4:4">
-      <c r="D4613" t="s">
+    <row r="4651" spans="4:4">
+      <c r="D4651" t="s">
         <v>4404</v>
       </c>
     </row>
-    <row r="4614" spans="4:4">
-      <c r="D4614" t="s">
+    <row r="4652" spans="4:4">
+      <c r="D4652" t="s">
         <v>4189</v>
       </c>
     </row>
-    <row r="4615" spans="4:4">
-      <c r="D4615" t="s">
+    <row r="4653" spans="4:4">
+      <c r="D4653" t="s">
         <v>4190</v>
       </c>
     </row>
-    <row r="4616" spans="4:4">
-      <c r="D4616" t="s">
+    <row r="4654" spans="4:4">
+      <c r="D4654" t="s">
         <v>4191</v>
       </c>
     </row>
-    <row r="4617" spans="4:4">
-      <c r="D4617" t="s">
+    <row r="4655" spans="4:4">
+      <c r="D4655" t="s">
         <v>4405</v>
       </c>
     </row>
-    <row r="4618" spans="4:4">
-      <c r="D4618" t="s">
+    <row r="4656" spans="4:4">
+      <c r="D4656" t="s">
         <v>4192</v>
       </c>
     </row>
-    <row r="4619" spans="4:4">
-      <c r="D4619" t="s">
+    <row r="4657" spans="4:4">
+      <c r="D4657" t="s">
         <v>4406</v>
       </c>
     </row>
-    <row r="4620" spans="4:4">
-      <c r="D4620" t="s">
+    <row r="4658" spans="4:4">
+      <c r="D4658" t="s">
         <v>4193</v>
       </c>
     </row>
-    <row r="4621" spans="4:4">
-      <c r="D4621" t="s">
+    <row r="4659" spans="4:4">
+      <c r="D4659" t="s">
         <v>4407</v>
       </c>
     </row>
-    <row r="4622" spans="4:4">
-      <c r="D4622" t="s">
+    <row r="4660" spans="4:4">
+      <c r="D4660" t="s">
         <v>4194</v>
       </c>
     </row>
-    <row r="4623" spans="4:4">
-      <c r="D4623" t="s">
+    <row r="4661" spans="4:4">
+      <c r="D4661" t="s">
         <v>4408</v>
       </c>
     </row>
-    <row r="4624" spans="4:4">
-      <c r="D4624" t="s">
+    <row r="4662" spans="4:4">
+      <c r="D4662" t="s">
         <v>4409</v>
       </c>
     </row>
-    <row r="4625" spans="4:4">
-      <c r="D4625" t="s">
+    <row r="4663" spans="4:4">
+      <c r="D4663" t="s">
         <v>4410</v>
       </c>
     </row>
-    <row r="4626" spans="4:4">
-      <c r="D4626" t="s">
+    <row r="4664" spans="4:4">
+      <c r="D4664" t="s">
         <v>4411</v>
       </c>
     </row>
-    <row r="4627" spans="4:4">
-      <c r="D4627" t="s">
+    <row r="4665" spans="4:4">
+      <c r="D4665" t="s">
         <v>4412</v>
       </c>
     </row>
-    <row r="4628" spans="4:4">
-      <c r="D4628" t="s">
+    <row r="4666" spans="4:4">
+      <c r="D4666" t="s">
         <v>4413</v>
       </c>
     </row>
-    <row r="4629" spans="4:4">
-      <c r="D4629" t="s">
+    <row r="4667" spans="4:4">
+      <c r="D4667" t="s">
         <v>4414</v>
       </c>
     </row>
-    <row r="4630" spans="4:4">
-      <c r="D4630" t="s">
+    <row r="4668" spans="4:4">
+      <c r="D4668" t="s">
         <v>4415</v>
       </c>
     </row>
-    <row r="4631" spans="4:4">
-      <c r="D4631" t="s">
+    <row r="4669" spans="4:4">
+      <c r="D4669" t="s">
         <v>4416</v>
       </c>
     </row>
-    <row r="4632" spans="4:4">
-      <c r="D4632" t="s">
+    <row r="4670" spans="4:4">
+      <c r="D4670" t="s">
         <v>4417</v>
       </c>
     </row>
-    <row r="4633" spans="4:4">
-      <c r="D4633" t="s">
+    <row r="4671" spans="4:4">
+      <c r="D4671" t="s">
         <v>4418</v>
       </c>
     </row>
-    <row r="4634" spans="4:4">
-      <c r="D4634" t="s">
+    <row r="4672" spans="4:4">
+      <c r="D4672" t="s">
         <v>4419</v>
       </c>
     </row>
-    <row r="4635" spans="4:4">
-      <c r="D4635" t="s">
+    <row r="4673" spans="3:4">
+      <c r="D4673" t="s">
         <v>4420</v>
       </c>
     </row>
-    <row r="4636" spans="4:4">
-      <c r="D4636" t="s">
+    <row r="4674" spans="3:4">
+      <c r="D4674" t="s">
         <v>4195</v>
       </c>
     </row>
-    <row r="4637" spans="4:4">
-      <c r="D4637" t="s">
+    <row r="4675" spans="3:4">
+      <c r="D4675" t="s">
         <v>4196</v>
       </c>
     </row>
-    <row r="4638" spans="4:4">
-      <c r="D4638" t="s">
+    <row r="4676" spans="3:4">
+      <c r="D4676" t="s">
         <v>4421</v>
       </c>
     </row>
-    <row r="4639" spans="4:4">
-      <c r="D4639" t="s">
+    <row r="4677" spans="3:4">
+      <c r="D4677" t="s">
         <v>4197</v>
       </c>
     </row>
-    <row r="4640" spans="4:4">
-      <c r="D4640" t="s">
+    <row r="4678" spans="3:4">
+      <c r="D4678" t="s">
         <v>4422</v>
       </c>
     </row>
-    <row r="4641" spans="2:5">
-      <c r="D4641" t="s">
+    <row r="4679" spans="3:4">
+      <c r="D4679" t="s">
         <v>4198</v>
       </c>
     </row>
-    <row r="4642" spans="2:5">
-      <c r="D4642" t="s">
+    <row r="4680" spans="3:4">
+      <c r="D4680" t="s">
         <v>4423</v>
       </c>
     </row>
-    <row r="4643" spans="2:5">
-      <c r="D4643" t="s">
+    <row r="4681" spans="3:4">
+      <c r="D4681" t="s">
         <v>4424</v>
       </c>
     </row>
-    <row r="4644" spans="2:5">
-      <c r="D4644" t="s">
+    <row r="4682" spans="3:4">
+      <c r="D4682" t="s">
         <v>4425</v>
       </c>
     </row>
-    <row r="4645" spans="2:5">
-      <c r="D4645" t="s">
+    <row r="4683" spans="3:4">
+      <c r="D4683" t="s">
         <v>4426</v>
       </c>
     </row>
-    <row r="4646" spans="2:5">
-      <c r="D4646" t="s">
+    <row r="4684" spans="3:4">
+      <c r="D4684" t="s">
         <v>4199</v>
       </c>
     </row>
-    <row r="4647" spans="2:5">
-      <c r="D4647" t="s">
+    <row r="4685" spans="3:4">
+      <c r="D4685" t="s">
         <v>4427</v>
       </c>
     </row>
-    <row r="4648" spans="2:5">
-      <c r="D4648" t="s">
+    <row r="4686" spans="3:4">
+      <c r="D4686" t="s">
         <v>4200</v>
       </c>
     </row>
-    <row r="4649" spans="2:5">
-      <c r="C4649" t="s">
+    <row r="4687" spans="3:4">
+      <c r="C4687" t="s">
         <v>4201</v>
       </c>
     </row>
-    <row r="4650" spans="2:5">
-      <c r="D4650" t="s">
+    <row r="4688" spans="3:4">
+      <c r="D4688" t="s">
         <v>4202</v>
       </c>
     </row>
-    <row r="4651" spans="2:5">
-      <c r="D4651" t="s">
+    <row r="4689" spans="2:5">
+      <c r="D4689" t="s">
         <v>4474</v>
       </c>
     </row>
-    <row r="4652" spans="2:5">
-      <c r="B4652" t="s">
+    <row r="4690" spans="2:5">
+      <c r="B4690" t="s">
         <v>4475</v>
       </c>
     </row>
-    <row r="4653" spans="2:5">
-      <c r="C4653" t="s">
+    <row r="4691" spans="2:5">
+      <c r="C4691" t="s">
         <v>4203</v>
       </c>
     </row>
-    <row r="4654" spans="2:5">
-      <c r="D4654" t="s">
+    <row r="4692" spans="2:5">
+      <c r="D4692" t="s">
         <v>4471</v>
       </c>
     </row>
-    <row r="4655" spans="2:5">
-      <c r="E4655" t="s">
+    <row r="4693" spans="2:5">
+      <c r="E4693" t="s">
         <v>4428</v>
       </c>
     </row>
-    <row r="4656" spans="2:5">
-      <c r="E4656" t="s">
+    <row r="4694" spans="2:5">
+      <c r="E4694" t="s">
         <v>4429</v>
       </c>
     </row>
-    <row r="4657" spans="4:5">
-      <c r="E4657" t="s">
+    <row r="4695" spans="2:5">
+      <c r="E4695" t="s">
         <v>4430</v>
       </c>
     </row>
-    <row r="4658" spans="4:5">
-      <c r="E4658" t="s">
+    <row r="4696" spans="2:5">
+      <c r="E4696" t="s">
         <v>4431</v>
       </c>
     </row>
-    <row r="4659" spans="4:5">
-      <c r="E4659" t="s">
+    <row r="4697" spans="2:5">
+      <c r="E4697" t="s">
         <v>4432</v>
       </c>
     </row>
-    <row r="4660" spans="4:5">
-      <c r="E4660" t="s">
+    <row r="4698" spans="2:5">
+      <c r="E4698" t="s">
         <v>4433</v>
       </c>
     </row>
-    <row r="4661" spans="4:5">
-      <c r="E4661" t="s">
+    <row r="4699" spans="2:5">
+      <c r="E4699" t="s">
         <v>4434</v>
       </c>
     </row>
-    <row r="4662" spans="4:5">
-      <c r="D4662" t="s">
+    <row r="4700" spans="2:5">
+      <c r="D4700" t="s">
         <v>4472</v>
       </c>
     </row>
-    <row r="4663" spans="4:5">
-      <c r="E4663" t="s">
+    <row r="4701" spans="2:5">
+      <c r="E4701" t="s">
         <v>4435</v>
       </c>
     </row>
-    <row r="4664" spans="4:5">
-      <c r="E4664" t="s">
+    <row r="4702" spans="2:5">
+      <c r="E4702" t="s">
         <v>4436</v>
       </c>
     </row>
-    <row r="4665" spans="4:5">
-      <c r="E4665" t="s">
+    <row r="4703" spans="2:5">
+      <c r="E4703" t="s">
         <v>4437</v>
       </c>
     </row>
-    <row r="4666" spans="4:5">
-      <c r="E4666" t="s">
+    <row r="4704" spans="2:5">
+      <c r="E4704" t="s">
         <v>4438</v>
       </c>
     </row>
-    <row r="4667" spans="4:5">
-      <c r="E4667" t="s">
+    <row r="4705" spans="4:5">
+      <c r="E4705" t="s">
         <v>4439</v>
       </c>
     </row>
-    <row r="4668" spans="4:5">
-      <c r="E4668" t="s">
+    <row r="4706" spans="4:5">
+      <c r="E4706" t="s">
         <v>4440</v>
       </c>
     </row>
-    <row r="4669" spans="4:5">
-      <c r="E4669" t="s">
+    <row r="4707" spans="4:5">
+      <c r="E4707" t="s">
         <v>4441</v>
       </c>
     </row>
-    <row r="4670" spans="4:5">
-      <c r="D4670" t="s">
+    <row r="4708" spans="4:5">
+      <c r="D4708" t="s">
         <v>4473</v>
       </c>
     </row>
-    <row r="4671" spans="4:5">
-      <c r="E4671" t="s">
+    <row r="4709" spans="4:5">
+      <c r="E4709" t="s">
         <v>4442</v>
       </c>
     </row>
-    <row r="4672" spans="4:5">
-      <c r="E4672" t="s">
+    <row r="4710" spans="4:5">
+      <c r="E4710" t="s">
         <v>4443</v>
       </c>
     </row>
-    <row r="4673" spans="3:5">
-      <c r="E4673" t="s">
+    <row r="4711" spans="4:5">
+      <c r="E4711" t="s">
         <v>4444</v>
       </c>
     </row>
-    <row r="4674" spans="3:5">
-      <c r="E4674" t="s">
+    <row r="4712" spans="4:5">
+      <c r="E4712" t="s">
         <v>4445</v>
       </c>
     </row>
-    <row r="4675" spans="3:5">
-      <c r="E4675" t="s">
+    <row r="4713" spans="4:5">
+      <c r="E4713" t="s">
         <v>4446</v>
       </c>
     </row>
-    <row r="4676" spans="3:5">
-      <c r="E4676" t="s">
+    <row r="4714" spans="4:5">
+      <c r="E4714" t="s">
         <v>4447</v>
       </c>
     </row>
-    <row r="4677" spans="3:5">
-      <c r="E4677" t="s">
+    <row r="4715" spans="4:5">
+      <c r="E4715" t="s">
         <v>4448</v>
       </c>
     </row>
-    <row r="4678" spans="3:5">
-      <c r="E4678" t="s">
+    <row r="4716" spans="4:5">
+      <c r="E4716" t="s">
         <v>4449</v>
       </c>
     </row>
-    <row r="4679" spans="3:5">
-      <c r="E4679" t="s">
+    <row r="4717" spans="4:5">
+      <c r="E4717" t="s">
         <v>4450</v>
       </c>
     </row>
-    <row r="4680" spans="3:5">
-      <c r="E4680" t="s">
+    <row r="4718" spans="4:5">
+      <c r="E4718" t="s">
         <v>4451</v>
       </c>
     </row>
-    <row r="4681" spans="3:5">
-      <c r="E4681" t="s">
+    <row r="4719" spans="4:5">
+      <c r="E4719" t="s">
         <v>4452</v>
       </c>
     </row>
-    <row r="4682" spans="3:5">
-      <c r="E4682" t="s">
+    <row r="4720" spans="4:5">
+      <c r="E4720" t="s">
         <v>4453</v>
       </c>
     </row>
-    <row r="4683" spans="3:5">
-      <c r="C4683" t="s">
+    <row r="4721" spans="3:4">
+      <c r="C4721" t="s">
         <v>4204</v>
       </c>
     </row>
-    <row r="4684" spans="3:5">
-      <c r="D4684" t="s">
+    <row r="4722" spans="3:4">
+      <c r="D4722" t="s">
         <v>4454</v>
       </c>
     </row>
-    <row r="4685" spans="3:5">
-      <c r="D4685" t="s">
+    <row r="4723" spans="3:4">
+      <c r="D4723" t="s">
         <v>4455</v>
       </c>
     </row>
-    <row r="4686" spans="3:5">
-      <c r="D4686" t="s">
+    <row r="4724" spans="3:4">
+      <c r="D4724" t="s">
         <v>4456</v>
       </c>
     </row>
-    <row r="4687" spans="3:5">
-      <c r="D4687" t="s">
+    <row r="4725" spans="3:4">
+      <c r="D4725" t="s">
         <v>4457</v>
       </c>
     </row>
-    <row r="4688" spans="3:5">
-      <c r="D4688" t="s">
+    <row r="4726" spans="3:4">
+      <c r="D4726" t="s">
         <v>4458</v>
       </c>
     </row>
-    <row r="4689" spans="3:4">
-      <c r="C4689" t="s">
+    <row r="4727" spans="3:4">
+      <c r="C4727" t="s">
         <v>4205</v>
       </c>
     </row>
-    <row r="4690" spans="3:4">
-      <c r="D4690" t="s">
+    <row r="4728" spans="3:4">
+      <c r="D4728" t="s">
         <v>4459</v>
       </c>
     </row>
-    <row r="4691" spans="3:4">
-      <c r="D4691" t="s">
+    <row r="4729" spans="3:4">
+      <c r="D4729" t="s">
         <v>4460</v>
       </c>
     </row>
-    <row r="4692" spans="3:4">
-      <c r="D4692" t="s">
+    <row r="4730" spans="3:4">
+      <c r="D4730" t="s">
         <v>4461</v>
       </c>
     </row>
-    <row r="4693" spans="3:4">
-      <c r="D4693" t="s">
+    <row r="4731" spans="3:4">
+      <c r="D4731" t="s">
         <v>4462</v>
       </c>
     </row>
-    <row r="4694" spans="3:4">
-      <c r="D4694" t="s">
+    <row r="4732" spans="3:4">
+      <c r="D4732" t="s">
         <v>4463</v>
       </c>
     </row>
-    <row r="4695" spans="3:4">
-      <c r="D4695" t="s">
+    <row r="4733" spans="3:4">
+      <c r="D4733" t="s">
         <v>4464</v>
       </c>
     </row>
-    <row r="4696" spans="3:4">
-      <c r="D4696" t="s">
+    <row r="4734" spans="3:4">
+      <c r="D4734" t="s">
         <v>4476</v>
       </c>
     </row>
-    <row r="4697" spans="3:4">
-      <c r="D4697" t="s">
+    <row r="4735" spans="3:4">
+      <c r="D4735" t="s">
         <v>4477</v>
       </c>
     </row>
-    <row r="4698" spans="3:4">
-      <c r="D4698" t="s">
+    <row r="4736" spans="3:4">
+      <c r="D4736" t="s">
         <v>4465</v>
       </c>
     </row>
-    <row r="4699" spans="3:4">
-      <c r="D4699" t="s">
+    <row r="4737" spans="2:4">
+      <c r="D4737" t="s">
         <v>4478</v>
       </c>
     </row>
-    <row r="4700" spans="3:4">
-      <c r="D4700" t="s">
+    <row r="4738" spans="2:4">
+      <c r="D4738" t="s">
         <v>4479</v>
       </c>
     </row>
-    <row r="4701" spans="3:4">
-      <c r="D4701" t="s">
+    <row r="4739" spans="2:4">
+      <c r="D4739" t="s">
         <v>4466</v>
       </c>
     </row>
-    <row r="4702" spans="3:4">
-      <c r="D4702" t="s">
+    <row r="4740" spans="2:4">
+      <c r="D4740" t="s">
         <v>4480</v>
       </c>
     </row>
-    <row r="4703" spans="3:4">
-      <c r="D4703" t="s">
+    <row r="4741" spans="2:4">
+      <c r="D4741" t="s">
         <v>4481</v>
       </c>
     </row>
-    <row r="4704" spans="3:4">
-      <c r="D4704" t="s">
+    <row r="4742" spans="2:4">
+      <c r="D4742" t="s">
         <v>4467</v>
       </c>
     </row>
-    <row r="4705" spans="2:4">
-      <c r="D4705" t="s">
+    <row r="4743" spans="2:4">
+      <c r="D4743" t="s">
         <v>4468</v>
       </c>
     </row>
-    <row r="4706" spans="2:4">
-      <c r="D4706" t="s">
+    <row r="4744" spans="2:4">
+      <c r="D4744" t="s">
         <v>4469</v>
       </c>
     </row>
-    <row r="4707" spans="2:4">
-      <c r="C4707" t="s">
+    <row r="4745" spans="2:4">
+      <c r="C4745" t="s">
         <v>4206</v>
       </c>
     </row>
-    <row r="4708" spans="2:4">
-      <c r="D4708" t="s">
+    <row r="4746" spans="2:4">
+      <c r="D4746" t="s">
         <v>4207</v>
       </c>
     </row>
-    <row r="4709" spans="2:4">
-      <c r="D4709" t="s">
+    <row r="4747" spans="2:4">
+      <c r="D4747" t="s">
         <v>4208</v>
       </c>
     </row>
-    <row r="4710" spans="2:4">
-      <c r="D4710" t="s">
+    <row r="4748" spans="2:4">
+      <c r="D4748" t="s">
         <v>4209</v>
       </c>
     </row>
-    <row r="4711" spans="2:4">
-      <c r="D4711" t="s">
+    <row r="4749" spans="2:4">
+      <c r="D4749" t="s">
         <v>4210</v>
       </c>
     </row>
-    <row r="4712" spans="2:4">
-      <c r="B4712" t="s">
+    <row r="4750" spans="2:4">
+      <c r="B4750" t="s">
         <v>4482</v>
       </c>
     </row>
-    <row r="4713" spans="2:4">
-      <c r="C4713" t="s">
+    <row r="4751" spans="2:4">
+      <c r="C4751" t="s">
         <v>4483</v>
       </c>
     </row>

--- a/cbreader2X/nav/simple_nav.xlsx
+++ b/cbreader2X/nav/simple_nav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cbwork\bin\cbreader2X\nav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BD582C-2141-4D21-8B06-4CC927F0CCA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2512A999-F7A0-415C-ABE8-3541D1D04ADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4788" yWindow="1248" windowWidth="21516" windowHeight="11136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4751" uniqueCount="4541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4705" uniqueCount="4505">
   <si>
     <t>大正新脩大藏經</t>
   </si>
@@ -11239,27 +11239,6 @@
     <t>第一輯</t>
   </si>
   <si>
-    <t>help/other/ZW01/ZW01a.htm 緣起</t>
-  </si>
-  <si>
-    <t>卷首語</t>
-  </si>
-  <si>
-    <t>help/other/ZW01/ZW01b-1.htm 中文</t>
-  </si>
-  <si>
-    <t>help/other/ZW01/ZW01b-2.htm 英文</t>
-  </si>
-  <si>
-    <t>help/other/ZW01/ZW01b-3.htm 日文</t>
-  </si>
-  <si>
-    <t>help/other/ZW01/ZW01c.htm 目錄</t>
-  </si>
-  <si>
-    <t>help/other/ZW01/ZW01d.htm 錄文校勘體例</t>
-  </si>
-  <si>
     <t>敦煌禪籍</t>
   </si>
   <si>
@@ -11338,72 +11317,9 @@
     <t>ZW0016 關於《禪藏》與敦煌禪籍的若干問題</t>
   </si>
   <si>
-    <t>help/other/ZW01/ZW01e.htm 徵稿啟事</t>
-  </si>
-  <si>
-    <t>help/other/ZW01/ZW01f.htm 《藏外佛教文獻》編委會啟事</t>
-  </si>
-  <si>
     <t>第二輯</t>
   </si>
   <si>
-    <t>help/other/ZW02/ZW02a-1.htm 中文</t>
-  </si>
-  <si>
-    <t>help/other/ZW02/ZW02a-2.htm 英文</t>
-  </si>
-  <si>
-    <t>help/other/ZW02/ZW02a-3.htm 日文</t>
-  </si>
-  <si>
-    <t>help/other/ZW02/ZW02b.htm 目錄</t>
-  </si>
-  <si>
-    <t>help/other/ZW02/ZW02c.htm 錄文校勘體例</t>
-  </si>
-  <si>
-    <t>大藏經編纂及電腦化研討會論文特集</t>
-  </si>
-  <si>
-    <t>help/other/ZW02/ZW02d-1.htm 在大藏經編纂及電腦化研討會上的發言　葉小文</t>
-  </si>
-  <si>
-    <t>help/other/ZW02/ZW02d-2.htm 關於新編漢文大藏經的意見　吳立民</t>
-  </si>
-  <si>
-    <t>help/other/ZW02/ZW02d-3.htm 編譯南傳大藏經緣起　吳立民</t>
-  </si>
-  <si>
-    <t>help/other/ZW02/ZW02d-4.htm 大藏經及其光電版編纂芻議　方廣錩</t>
-  </si>
-  <si>
-    <t>help/other/ZW02/ZW02d-5.htm 關於製作大藏經電子文庫的工程技術方案　中國綜合開發研究院古籍電子化課題組</t>
-  </si>
-  <si>
-    <t>help/other/ZW02/ZW02d-6.htm 電腦化大藏經工程意義重大勢在必行　王志遠</t>
-  </si>
-  <si>
-    <t>help/other/ZW02/ZW02d-7.htm 關於製作大藏經電子文庫的技術經濟背景概述　中國綜合開發研究院古籍電子化課題組</t>
-  </si>
-  <si>
-    <t>help/other/ZW02/ZW02d-8.htm 日本近代以來的大藏經編印事業　楊曾文</t>
-  </si>
-  <si>
-    <t>help/other/ZW02/ZW02d-9.htm 《中華大藏經》編輯工作的一些情況和經驗教訓　李富華</t>
-  </si>
-  <si>
-    <t>help/other/ZW02/ZW02d-10.htm 臺灣編印《中華大藏經》始末　張新鷹</t>
-  </si>
-  <si>
-    <t>help/other/ZW02/ZW02d-11.htm 海外大藏經編輯及光電版大藏經的情況　方廣錩</t>
-  </si>
-  <si>
-    <t>help/other/ZW02/ZW02d-12.htm 大藏經編纂及電腦化研討會發言摘要</t>
-  </si>
-  <si>
-    <t>help/other/ZW02/ZW02d-13.htm 大藏經編纂及電腦化研討會紀要</t>
-  </si>
-  <si>
     <t>ZW0017 七祖法寶記下卷</t>
   </si>
   <si>
@@ -11431,30 +11347,9 @@
     <t>ZW0022 《瑜伽師地論》披尋記敘</t>
   </si>
   <si>
-    <t>help/other/ZW02/ZW02e.htm 徵稿啟事</t>
-  </si>
-  <si>
-    <t>help/other/ZW02/ZW02f.htm 徵訂啟事</t>
-  </si>
-  <si>
     <t>第三輯</t>
   </si>
   <si>
-    <t>help/other/ZW03/ZW03a-1.htm 中文</t>
-  </si>
-  <si>
-    <t>help/other/ZW03/ZW03a-2.htm 英文</t>
-  </si>
-  <si>
-    <t>help/other/ZW03/ZW03a-3.htm 日文</t>
-  </si>
-  <si>
-    <t>help/other/ZW03/ZW03b.htm 目錄</t>
-  </si>
-  <si>
-    <t>help/other/ZW03/ZW03c.htm 錄文校勘體例</t>
-  </si>
-  <si>
     <t>ZW0023 菩薩總持法</t>
   </si>
   <si>
@@ -11497,42 +11392,9 @@
     <t>ZW0032 《金藏》新資料考</t>
   </si>
   <si>
-    <t>help/other/ZW03/ZW03d.htm 《藏外佛教文獻》第一、二輯要目</t>
-  </si>
-  <si>
-    <t>help/other/ZW03/ZW03e.htm 徵稿啟事</t>
-  </si>
-  <si>
-    <t>編委會名單</t>
-  </si>
-  <si>
-    <t>help/other/ZW03/ZW03f-1.htm 中文</t>
-  </si>
-  <si>
-    <t>help/other/ZW03/ZW03f-2.htm 英文</t>
-  </si>
-  <si>
-    <t>help/other/ZW03/ZW03g.htm 鳴謝</t>
-  </si>
-  <si>
     <t>第四輯</t>
   </si>
   <si>
-    <t>help/other/ZW04/ZW04a-1.htm 中文</t>
-  </si>
-  <si>
-    <t>help/other/ZW04/ZW04a-2.htm 英文</t>
-  </si>
-  <si>
-    <t>help/other/ZW04/ZW04a-3.htm 日文</t>
-  </si>
-  <si>
-    <t>help/other/ZW04/ZW04b.htm 目錄</t>
-  </si>
-  <si>
-    <t>help/other/ZW04/ZW04c.htm 錄文校勘體例</t>
-  </si>
-  <si>
     <t>漢譯藏文佛典</t>
   </si>
   <si>
@@ -11581,39 +11443,9 @@
     <t>ZW0044 傳善無畏所譯三部密教儀軌出處及年代考</t>
   </si>
   <si>
-    <t>help/other/ZW04/ZW04d.htm 「中國社會科學院佛教研究中心成立暨佛教研究與新時期的文化建設研討會」紀要 學迅</t>
-  </si>
-  <si>
-    <t>help/other/ZW04/ZW04e.htm 《藏外佛教文獻》第一～六輯要目</t>
-  </si>
-  <si>
-    <t>help/other/ZW04/ZW04f.htm 徵稿啟事</t>
-  </si>
-  <si>
-    <t>help/other/ZW04/ZW04g-1.htm 中文</t>
-  </si>
-  <si>
-    <t>help/other/ZW04/ZW04g-2.htm 英文</t>
-  </si>
-  <si>
     <t>第五輯</t>
   </si>
   <si>
-    <t>help/other/ZW05/ZW05a-1.htm 中文</t>
-  </si>
-  <si>
-    <t>help/other/ZW05/ZW05a-2.htm 英文</t>
-  </si>
-  <si>
-    <t>help/other/ZW05/ZW05a-3.htm 日文</t>
-  </si>
-  <si>
-    <t>help/other/ZW05/ZW05b.htm 目錄</t>
-  </si>
-  <si>
-    <t>help/other/ZW05/ZW05c.htm 錄文校勘體例</t>
-  </si>
-  <si>
     <t>南傳佛典</t>
   </si>
   <si>
@@ -11635,36 +11467,9 @@
     <t>ZW0050 天台教典入藏考</t>
   </si>
   <si>
-    <t>help/other/ZW05/ZW05d.htm 《藏外佛教文獻》第一～六輯要目</t>
-  </si>
-  <si>
-    <t>help/other/ZW05/ZW05e.htm 徵稿啟事</t>
-  </si>
-  <si>
-    <t>help/other/ZW05/ZW05f-1.htm 中文</t>
-  </si>
-  <si>
-    <t>help/other/ZW05/ZW05f-2.htm 英文</t>
-  </si>
-  <si>
     <t>第六輯</t>
   </si>
   <si>
-    <t>help/other/ZW06/ZW06a-1.htm 中文</t>
-  </si>
-  <si>
-    <t>help/other/ZW06/ZW06a-2.htm 英文</t>
-  </si>
-  <si>
-    <t>help/other/ZW06/ZW06a-3.htm 日文</t>
-  </si>
-  <si>
-    <t>help/other/ZW06/ZW06b.htm 目錄</t>
-  </si>
-  <si>
-    <t>help/other/ZW06/ZW06c.htm 錄文校勘體例</t>
-  </si>
-  <si>
     <t>阿吒力教典籍</t>
   </si>
   <si>
@@ -11692,36 +11497,9 @@
     <t>ZW0057 雲南阿吒力教經典及其在中國佛教研究中的價值</t>
   </si>
   <si>
-    <t>help/other/ZW06/ZW06d.htm 《藏外佛教文獻》第一～六輯要目</t>
-  </si>
-  <si>
-    <t>help/other/ZW06/ZW06e.htm 徵稿啟事</t>
-  </si>
-  <si>
-    <t>help/other/ZW06/ZW06f-1.htm 中文</t>
-  </si>
-  <si>
-    <t>help/other/ZW06/ZW06f-2.htm 英文</t>
-  </si>
-  <si>
     <t>第七輯</t>
   </si>
   <si>
-    <t>help/other/ZW07/ZW07a-1.htm 中文</t>
-  </si>
-  <si>
-    <t>help/other/ZW07/ZW07a-2.htm 英文</t>
-  </si>
-  <si>
-    <t>help/other/ZW07/ZW07a-3.htm 日文</t>
-  </si>
-  <si>
-    <t>help/other/ZW07/ZW07b.htm 目錄</t>
-  </si>
-  <si>
-    <t>help/other/ZW07/ZW07c.htm 錄文校勘體例</t>
-  </si>
-  <si>
     <t>ZW0058 注心要法門</t>
   </si>
   <si>
@@ -11779,30 +11557,9 @@
     <t>ZW0066 日本佛教目錄學的形成——以《東域傳燈錄》為中心</t>
   </si>
   <si>
-    <t>help/other/ZW07/ZW07d.htm 《藏外佛教文獻要目》</t>
-  </si>
-  <si>
-    <t>help/other/ZW07/ZW07e.htm 徵稿啟事</t>
-  </si>
-  <si>
     <t>第八輯</t>
   </si>
   <si>
-    <t>help/other/ZW08/ZW08a.htm 卷首語</t>
-  </si>
-  <si>
-    <t>help/other/ZW08/ZW08b.htm 目錄</t>
-  </si>
-  <si>
-    <t>錄文校勘體例</t>
-  </si>
-  <si>
-    <t>help/other/ZW08/ZW08c-1.htm 錄文校勘體例</t>
-  </si>
-  <si>
-    <t>help/other/ZW08/ZW08c-2.htm 附：一般組字法基本規則</t>
-  </si>
-  <si>
     <t>ZW0067 華嚴略疏卷第一</t>
   </si>
   <si>
@@ -11818,30 +11575,9 @@
     <t>ZW0071 《慧琳音義》與唐代大藏經</t>
   </si>
   <si>
-    <t>help/other/ZW08/ZW08d.htm 《藏外佛教文獻》要目</t>
-  </si>
-  <si>
-    <t>help/other/ZW08/ZW08e.htm 徵稿啟事</t>
-  </si>
-  <si>
-    <t>help/other/ZW08/ZW08f.htm 鳴謝</t>
-  </si>
-  <si>
     <t>第九輯</t>
   </si>
   <si>
-    <t>help/other/ZW09/ZW09a.htm 卷首語</t>
-  </si>
-  <si>
-    <t>help/other/ZW09/ZW09b.htm 目錄</t>
-  </si>
-  <si>
-    <t>help/other/ZW09/ZW09c-1.htm 錄文校勘體例</t>
-  </si>
-  <si>
-    <t>help/other/ZW09/ZW09c-2.htm 附：一般組字法基本規則</t>
-  </si>
-  <si>
     <t>ZW0072 佛性觀修善法</t>
   </si>
   <si>
@@ -11884,40 +11620,13 @@
     <t>ZW0077 關於江泌女子僧法誦出經</t>
   </si>
   <si>
-    <t>help/other/ZW09/ZW09d.htm 談當前數字圖書館的幾個問題</t>
-  </si>
-  <si>
-    <t>help/other/ZW09/ZW09e.htm 《藏外佛教文獻》要目</t>
-  </si>
-  <si>
-    <t>help/other/ZW09/ZW09f.htm 徵稿啟事</t>
-  </si>
-  <si>
-    <t>help/other/ZW09/ZW09g.htm 鳴謝</t>
-  </si>
-  <si>
     <t>正史佛教資料類編</t>
   </si>
   <si>
-    <t>help/other/ZS01/ZS01a.htm 緣起</t>
-  </si>
-  <si>
-    <t>help/other/ZS01/ZS01b.htm 前言</t>
-  </si>
-  <si>
-    <t>help/other/ZS01/ZS01c.htm 說明</t>
-  </si>
-  <si>
-    <t>help/other/ZS01/ZS01d.htm 目錄</t>
-  </si>
-  <si>
     <t>ZS0001 正史佛教資料類編</t>
   </si>
   <si>
     <t>北朝佛教石刻拓片百品</t>
-  </si>
-  <si>
-    <t>help/other/I01/I01.htm 說明</t>
   </si>
   <si>
     <t>朝代</t>
@@ -13582,22 +13291,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ZWa074 鳴謝</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZWa075 目錄</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZWa076 卷首語</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZWa077 錄文校勘體例</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ZW0089 讚禮地藏菩薩懺悔發願法</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -13630,18 +13323,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ZWa078 徵稿啟事</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZWa079 《藏外佛教文獻》總目錄（第一輯～第十二輯）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZWa080 鳴謝</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>第十一輯</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -13658,18 +13339,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ZWa081 目錄</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZWa082 卷首語</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZWa083 錄文校勘體例</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>三藏論疏</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -13702,11 +13371,295 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ZWa084 徵稿啟事</t>
+    <t>ZWa001 緣起</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ZWa085 《藏外佛教文獻》總目錄（第一輯～第十二輯）</t>
+    <t>ZWa002 卷首語</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa003 目錄</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa004 錄文校勘體例</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa005 徵稿啟事</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa006 《藏外佛教文獻》編委會啟事</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa007 卷首語</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa008 目錄</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa009 錄文校勘體例</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa010 大藏經編纂及電腦化研討會論文特集</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa011 徵稿啟事</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa012 徵訂啟事</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa013 卷首語</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa014 目錄</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa015 錄文校勘體例</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa016 《藏外佛教文獻》第一、二輯要目</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa017 徵稿啟事</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa018 編委會名單</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa019 鳴謝</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa020 卷首語</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa021 目錄</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa022 錄文校勘體例</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa023 「中國社會科學院佛教研究中心成立暨佛教研究與新時期的文化建設研討會」紀要 學迅</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa024 《藏外佛教文獻》第一～六輯要目</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa025 徵稿啟事</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa026 編委會名單</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa027 卷首語</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa028 目錄</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa029 錄文校勘體例</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa030 《藏外佛教文獻》第一～六輯要目</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa031 徵稿啟事</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa032 編委會名單</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa033 卷首語</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa034 目錄</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa035 錄文校勘體例</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa036 《藏外佛教文獻》第一～六輯要目</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa037 徵稿啟事</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa038 編委會名單</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa039 卷首語</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa040 目錄</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa041 錄文校勘體例</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa042 《藏外佛教文獻要目》</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa043 徵稿啟事</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa044 卷首語</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa045 目錄</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa046 錄文校勘體例</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa047 《藏外佛教文獻》要目</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa048 徵稿啟事</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa049 鳴謝</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa050 卷首語</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa051 目錄</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa052 錄文校勘體例</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa053 談當前數字圖書館的幾個問題</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa054 《藏外佛教文獻》要目</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa055 徵稿啟事</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa056 鳴謝</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa057 目錄</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa058 卷首語</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa059 錄文校勘體例</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa060 徵稿啟事</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa061 《藏外佛教文獻》總目錄（第一輯～第十二輯）</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa062 鳴謝</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa063 目錄</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa064 卷首語</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa065 錄文校勘體例</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa066 徵稿啟事</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa067 《藏外佛教文獻》總目錄（第一輯～第十二輯）</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWa068 鳴謝</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZSa001 緣起</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZSa002 前言</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZSa003 說明</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZSa004 目錄</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ia001 說明</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -14708,10 +14661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4751"/>
+  <dimension ref="A1:F4705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4081" workbookViewId="0">
-      <selection activeCell="A4089" sqref="A4089:XFD4106"/>
+    <sheetView tabSelected="1" topLeftCell="A4051" workbookViewId="0">
+      <selection activeCell="C4068" sqref="C4068"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -14728,7 +14681,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="C3" t="s">
-        <v>4211</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -14738,7 +14691,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="C5" t="s">
-        <v>4212</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -14748,7 +14701,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="C7" t="s">
-        <v>4213</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -14758,7 +14711,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="C9" t="s">
-        <v>4214</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -14768,7 +14721,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="C11" t="s">
-        <v>4215</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -14783,7 +14736,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="C14" t="s">
-        <v>4216</v>
+        <v>4119</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -14793,7 +14746,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="C16" t="s">
-        <v>4217</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -14813,7 +14766,7 @@
     </row>
     <row r="20" spans="2:3">
       <c r="C20" t="s">
-        <v>4218</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -14823,7 +14776,7 @@
     </row>
     <row r="22" spans="2:3">
       <c r="C22" t="s">
-        <v>4219</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -14833,7 +14786,7 @@
     </row>
     <row r="24" spans="2:3">
       <c r="C24" t="s">
-        <v>4220</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -14848,7 +14801,7 @@
     </row>
     <row r="27" spans="2:3">
       <c r="C27" t="s">
-        <v>4221</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -14858,12 +14811,12 @@
     </row>
     <row r="29" spans="2:3">
       <c r="C29" t="s">
-        <v>4222</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="C30" t="s">
-        <v>4223</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -14873,7 +14826,7 @@
     </row>
     <row r="32" spans="2:3">
       <c r="C32" t="s">
-        <v>4224</v>
+        <v>4127</v>
       </c>
     </row>
     <row r="33" spans="2:3">
@@ -14883,7 +14836,7 @@
     </row>
     <row r="34" spans="2:3">
       <c r="C34" t="s">
-        <v>4225</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -14908,7 +14861,7 @@
     </row>
     <row r="39" spans="2:3">
       <c r="C39" t="s">
-        <v>4226</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="40" spans="2:3">
@@ -14918,7 +14871,7 @@
     </row>
     <row r="41" spans="2:3">
       <c r="C41" t="s">
-        <v>4227</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="42" spans="2:3">
@@ -14928,17 +14881,17 @@
     </row>
     <row r="43" spans="2:3">
       <c r="C43" t="s">
-        <v>4228</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="C44" t="s">
-        <v>4229</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="C45" t="s">
-        <v>4230</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="46" spans="2:3">
@@ -14953,12 +14906,12 @@
     </row>
     <row r="48" spans="2:3">
       <c r="C48" t="s">
-        <v>4231</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="C49" t="s">
-        <v>4232</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="50" spans="2:3">
@@ -14973,7 +14926,7 @@
     </row>
     <row r="52" spans="2:3">
       <c r="C52" t="s">
-        <v>4233</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="53" spans="2:3">
@@ -14983,7 +14936,7 @@
     </row>
     <row r="54" spans="2:3">
       <c r="C54" t="s">
-        <v>4234</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="55" spans="2:3">
@@ -14998,7 +14951,7 @@
     </row>
     <row r="57" spans="2:3">
       <c r="C57" t="s">
-        <v>4235</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="58" spans="2:3">
@@ -15008,7 +14961,7 @@
     </row>
     <row r="59" spans="2:3">
       <c r="C59" t="s">
-        <v>4236</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="60" spans="2:3">
@@ -15028,7 +14981,7 @@
     </row>
     <row r="63" spans="2:3">
       <c r="C63" t="s">
-        <v>4237</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="64" spans="2:3">
@@ -15038,7 +14991,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="C65" t="s">
-        <v>4238</v>
+        <v>4141</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -31888,7 +31841,7 @@
     </row>
     <row r="3435" spans="1:5">
       <c r="A3435" t="s">
-        <v>4470</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="3436" spans="1:5">
@@ -33673,4844 +33626,4622 @@
     </row>
     <row r="3792" spans="1:4">
       <c r="D3792" t="s">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="3793" spans="4:5">
+      <c r="D3793" s="1" t="s">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="3794" spans="4:5">
+      <c r="D3794" t="s">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="3795" spans="4:5">
+      <c r="D3795" t="s">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="3796" spans="4:5">
+      <c r="D3796" t="s">
         <v>3739</v>
       </c>
     </row>
-    <row r="3793" spans="4:5">
-      <c r="D3793" t="s">
+    <row r="3797" spans="4:5">
+      <c r="E3797" t="s">
         <v>3740</v>
       </c>
     </row>
-    <row r="3794" spans="4:5">
-      <c r="E3794" t="s">
+    <row r="3798" spans="4:5">
+      <c r="E3798" t="s">
         <v>3741</v>
       </c>
     </row>
-    <row r="3795" spans="4:5">
-      <c r="E3795" t="s">
+    <row r="3799" spans="4:5">
+      <c r="E3799" t="s">
         <v>3742</v>
       </c>
     </row>
-    <row r="3796" spans="4:5">
-      <c r="E3796" t="s">
+    <row r="3800" spans="4:5">
+      <c r="D3800" t="s">
         <v>3743</v>
-      </c>
-    </row>
-    <row r="3797" spans="4:5">
-      <c r="D3797" t="s">
-        <v>3744</v>
-      </c>
-    </row>
-    <row r="3798" spans="4:5">
-      <c r="D3798" t="s">
-        <v>3745</v>
-      </c>
-    </row>
-    <row r="3799" spans="4:5">
-      <c r="D3799" t="s">
-        <v>3746</v>
-      </c>
-    </row>
-    <row r="3800" spans="4:5">
-      <c r="E3800" t="s">
-        <v>3747</v>
       </c>
     </row>
     <row r="3801" spans="4:5">
       <c r="E3801" t="s">
-        <v>3748</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="3802" spans="4:5">
-      <c r="E3802" t="s">
-        <v>3749</v>
+      <c r="D3802" t="s">
+        <v>3745</v>
       </c>
     </row>
     <row r="3803" spans="4:5">
-      <c r="D3803" t="s">
-        <v>3750</v>
+      <c r="E3803" t="s">
+        <v>3746</v>
       </c>
     </row>
     <row r="3804" spans="4:5">
       <c r="E3804" t="s">
-        <v>3751</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="3805" spans="4:5">
-      <c r="D3805" t="s">
-        <v>3752</v>
+      <c r="E3805" t="s">
+        <v>3748</v>
       </c>
     </row>
     <row r="3806" spans="4:5">
-      <c r="E3806" t="s">
-        <v>3753</v>
+      <c r="D3806" t="s">
+        <v>3749</v>
       </c>
     </row>
     <row r="3807" spans="4:5">
       <c r="E3807" t="s">
-        <v>3754</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="3808" spans="4:5">
       <c r="E3808" t="s">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="3809" spans="3:5">
+      <c r="E3809" t="s">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="3810" spans="3:5">
+      <c r="E3810" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="3811" spans="3:5">
+      <c r="E3811" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="3812" spans="3:5">
+      <c r="E3812" t="s">
         <v>3755</v>
       </c>
     </row>
-    <row r="3809" spans="4:5">
-      <c r="D3809" t="s">
+    <row r="3813" spans="3:5">
+      <c r="E3813" t="s">
         <v>3756</v>
       </c>
     </row>
-    <row r="3810" spans="4:5">
-      <c r="E3810" t="s">
+    <row r="3814" spans="3:5">
+      <c r="E3814" t="s">
         <v>3757</v>
       </c>
     </row>
-    <row r="3811" spans="4:5">
-      <c r="E3811" t="s">
+    <row r="3815" spans="3:5">
+      <c r="E3815" t="s">
         <v>3758</v>
       </c>
     </row>
-    <row r="3812" spans="4:5">
-      <c r="E3812" t="s">
+    <row r="3816" spans="3:5">
+      <c r="E3816" t="s">
         <v>3759</v>
       </c>
     </row>
-    <row r="3813" spans="4:5">
-      <c r="E3813" t="s">
+    <row r="3817" spans="3:5">
+      <c r="E3817" t="s">
         <v>3760</v>
       </c>
     </row>
-    <row r="3814" spans="4:5">
-      <c r="E3814" t="s">
+    <row r="3818" spans="3:5">
+      <c r="E3818" t="s">
         <v>3761</v>
       </c>
     </row>
-    <row r="3815" spans="4:5">
-      <c r="E3815" t="s">
+    <row r="3819" spans="3:5">
+      <c r="E3819" t="s">
         <v>3762</v>
       </c>
     </row>
-    <row r="3816" spans="4:5">
-      <c r="E3816" t="s">
+    <row r="3820" spans="3:5">
+      <c r="D3820" t="s">
         <v>3763</v>
       </c>
     </row>
-    <row r="3817" spans="4:5">
-      <c r="E3817" t="s">
+    <row r="3821" spans="3:5">
+      <c r="E3821" t="s">
         <v>3764</v>
       </c>
     </row>
-    <row r="3818" spans="4:5">
-      <c r="E3818" t="s">
+    <row r="3822" spans="3:5">
+      <c r="D3822" t="s">
+        <v>4436</v>
+      </c>
+    </row>
+    <row r="3823" spans="3:5">
+      <c r="D3823" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="3824" spans="3:5">
+      <c r="C3824" t="s">
         <v>3765</v>
       </c>
-    </row>
-    <row r="3819" spans="4:5">
-      <c r="E3819" t="s">
+      <c r="D3824" s="1"/>
+    </row>
+    <row r="3825" spans="4:5">
+      <c r="D3825" s="1" t="s">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="3826" spans="4:5">
+      <c r="D3826" t="s">
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="3827" spans="4:5">
+      <c r="D3827" t="s">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="3828" spans="4:5">
+      <c r="D3828" s="1" t="s">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="3829" spans="4:5">
+      <c r="D3829" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="3830" spans="4:5">
+      <c r="E3830" t="s">
         <v>3766</v>
       </c>
     </row>
-    <row r="3820" spans="4:5">
-      <c r="E3820" t="s">
+    <row r="3831" spans="4:5">
+      <c r="E3831" t="s">
         <v>3767</v>
       </c>
     </row>
-    <row r="3821" spans="4:5">
-      <c r="E3821" t="s">
+    <row r="3832" spans="4:5">
+      <c r="E3832" t="s">
         <v>3768</v>
       </c>
     </row>
-    <row r="3822" spans="4:5">
-      <c r="E3822" t="s">
+    <row r="3833" spans="4:5">
+      <c r="D3833" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="3834" spans="4:5">
+      <c r="E3834" t="s">
         <v>3769</v>
       </c>
     </row>
-    <row r="3823" spans="4:5">
-      <c r="D3823" t="s">
+    <row r="3835" spans="4:5">
+      <c r="E3835" t="s">
         <v>3770</v>
       </c>
     </row>
-    <row r="3824" spans="4:5">
-      <c r="E3824" t="s">
+    <row r="3836" spans="4:5">
+      <c r="D3836" t="s">
         <v>3771</v>
       </c>
     </row>
-    <row r="3825" spans="3:5">
-      <c r="D3825" t="s">
+    <row r="3837" spans="4:5">
+      <c r="E3837" t="s">
         <v>3772</v>
       </c>
     </row>
-    <row r="3826" spans="3:5">
-      <c r="D3826" t="s">
+    <row r="3838" spans="4:5">
+      <c r="D3838" t="s">
         <v>3773</v>
       </c>
     </row>
-    <row r="3827" spans="3:5">
-      <c r="C3827" t="s">
+    <row r="3839" spans="4:5">
+      <c r="E3839" t="s">
         <v>3774</v>
       </c>
     </row>
-    <row r="3828" spans="3:5">
-      <c r="D3828" t="s">
-        <v>3740</v>
-      </c>
-    </row>
-    <row r="3829" spans="3:5">
-      <c r="E3829" t="s">
+    <row r="3840" spans="4:5">
+      <c r="D3840" t="s">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="3841" spans="3:5">
+      <c r="D3841" t="s">
+        <v>4443</v>
+      </c>
+    </row>
+    <row r="3842" spans="3:5">
+      <c r="C3842" t="s">
         <v>3775</v>
       </c>
-    </row>
-    <row r="3830" spans="3:5">
-      <c r="E3830" t="s">
+      <c r="D3842" s="1"/>
+    </row>
+    <row r="3843" spans="3:5">
+      <c r="D3843" s="1" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="3844" spans="3:5">
+      <c r="D3844" t="s">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="3845" spans="3:5">
+      <c r="D3845" t="s">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="3846" spans="3:5">
+      <c r="D3846" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="3847" spans="3:5">
+      <c r="E3847" t="s">
         <v>3776</v>
       </c>
     </row>
-    <row r="3831" spans="3:5">
-      <c r="E3831" t="s">
+    <row r="3848" spans="3:5">
+      <c r="E3848" t="s">
         <v>3777</v>
       </c>
     </row>
-    <row r="3832" spans="3:5">
-      <c r="D3832" t="s">
+    <row r="3849" spans="3:5">
+      <c r="D3849" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="3850" spans="3:5">
+      <c r="E3850" t="s">
         <v>3778</v>
       </c>
     </row>
-    <row r="3833" spans="3:5">
-      <c r="D3833" t="s">
+    <row r="3851" spans="3:5">
+      <c r="E3851" t="s">
         <v>3779</v>
       </c>
     </row>
-    <row r="3834" spans="3:5">
-      <c r="D3834" t="s">
+    <row r="3852" spans="3:5">
+      <c r="E3852" t="s">
         <v>3780</v>
       </c>
     </row>
-    <row r="3835" spans="3:5">
-      <c r="E3835" t="s">
+    <row r="3853" spans="3:5">
+      <c r="E3853" t="s">
         <v>3781</v>
       </c>
     </row>
-    <row r="3836" spans="3:5">
-      <c r="E3836" t="s">
+    <row r="3854" spans="3:5">
+      <c r="E3854" t="s">
         <v>3782</v>
       </c>
     </row>
-    <row r="3837" spans="3:5">
-      <c r="E3837" t="s">
+    <row r="3855" spans="3:5">
+      <c r="E3855" t="s">
         <v>3783</v>
       </c>
     </row>
-    <row r="3838" spans="3:5">
-      <c r="E3838" t="s">
+    <row r="3856" spans="3:5">
+      <c r="D3856" t="s">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="3857" spans="3:5">
+      <c r="E3857" t="s">
         <v>3784</v>
-      </c>
-    </row>
-    <row r="3839" spans="3:5">
-      <c r="E3839" t="s">
-        <v>3785</v>
-      </c>
-    </row>
-    <row r="3840" spans="3:5">
-      <c r="E3840" t="s">
-        <v>3786</v>
-      </c>
-    </row>
-    <row r="3841" spans="4:5">
-      <c r="E3841" t="s">
-        <v>3787</v>
-      </c>
-    </row>
-    <row r="3842" spans="4:5">
-      <c r="E3842" t="s">
-        <v>3788</v>
-      </c>
-    </row>
-    <row r="3843" spans="4:5">
-      <c r="E3843" t="s">
-        <v>3789</v>
-      </c>
-    </row>
-    <row r="3844" spans="4:5">
-      <c r="E3844" t="s">
-        <v>3790</v>
-      </c>
-    </row>
-    <row r="3845" spans="4:5">
-      <c r="E3845" t="s">
-        <v>3791</v>
-      </c>
-    </row>
-    <row r="3846" spans="4:5">
-      <c r="E3846" t="s">
-        <v>3792</v>
-      </c>
-    </row>
-    <row r="3847" spans="4:5">
-      <c r="E3847" t="s">
-        <v>3793</v>
-      </c>
-    </row>
-    <row r="3848" spans="4:5">
-      <c r="D3848" t="s">
-        <v>3746</v>
-      </c>
-    </row>
-    <row r="3849" spans="4:5">
-      <c r="E3849" t="s">
-        <v>3794</v>
-      </c>
-    </row>
-    <row r="3850" spans="4:5">
-      <c r="E3850" t="s">
-        <v>3795</v>
-      </c>
-    </row>
-    <row r="3851" spans="4:5">
-      <c r="E3851" t="s">
-        <v>3796</v>
-      </c>
-    </row>
-    <row r="3852" spans="4:5">
-      <c r="D3852" t="s">
-        <v>3752</v>
-      </c>
-    </row>
-    <row r="3853" spans="4:5">
-      <c r="E3853" t="s">
-        <v>3797</v>
-      </c>
-    </row>
-    <row r="3854" spans="4:5">
-      <c r="E3854" t="s">
-        <v>3798</v>
-      </c>
-    </row>
-    <row r="3855" spans="4:5">
-      <c r="D3855" t="s">
-        <v>3799</v>
-      </c>
-    </row>
-    <row r="3856" spans="4:5">
-      <c r="E3856" t="s">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="3857" spans="3:5">
-      <c r="D3857" t="s">
-        <v>3801</v>
       </c>
     </row>
     <row r="3858" spans="3:5">
       <c r="E3858" t="s">
-        <v>3802</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="3859" spans="3:5">
-      <c r="D3859" t="s">
-        <v>3803</v>
+      <c r="E3859" t="s">
+        <v>3786</v>
       </c>
     </row>
     <row r="3860" spans="3:5">
-      <c r="D3860" t="s">
-        <v>3804</v>
+      <c r="E3860" t="s">
+        <v>3787</v>
       </c>
     </row>
     <row r="3861" spans="3:5">
-      <c r="C3861" t="s">
-        <v>3805</v>
+      <c r="E3861" t="s">
+        <v>3788</v>
       </c>
     </row>
     <row r="3862" spans="3:5">
       <c r="D3862" t="s">
-        <v>3740</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="3863" spans="3:5">
       <c r="E3863" t="s">
-        <v>3806</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="3864" spans="3:5">
-      <c r="E3864" t="s">
-        <v>3807</v>
+      <c r="D3864" t="s">
+        <v>4447</v>
       </c>
     </row>
     <row r="3865" spans="3:5">
-      <c r="E3865" t="s">
-        <v>3808</v>
+      <c r="D3865" t="s">
+        <v>4448</v>
       </c>
     </row>
     <row r="3866" spans="3:5">
-      <c r="D3866" t="s">
-        <v>3809</v>
+      <c r="D3866" s="1" t="s">
+        <v>4449</v>
       </c>
     </row>
     <row r="3867" spans="3:5">
       <c r="D3867" t="s">
-        <v>3810</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="3868" spans="3:5">
-      <c r="D3868" t="s">
-        <v>3746</v>
-      </c>
+      <c r="C3868" t="s">
+        <v>3790</v>
+      </c>
+      <c r="D3868" s="1"/>
     </row>
     <row r="3869" spans="3:5">
-      <c r="E3869" t="s">
-        <v>3811</v>
+      <c r="D3869" s="1" t="s">
+        <v>4451</v>
       </c>
     </row>
     <row r="3870" spans="3:5">
-      <c r="E3870" t="s">
-        <v>3812</v>
+      <c r="D3870" s="2" t="s">
+        <v>4452</v>
       </c>
     </row>
     <row r="3871" spans="3:5">
-      <c r="D3871" t="s">
-        <v>3752</v>
+      <c r="D3871" s="2" t="s">
+        <v>4453</v>
       </c>
     </row>
     <row r="3872" spans="3:5">
-      <c r="E3872" t="s">
-        <v>3813</v>
+      <c r="D3872" t="s">
+        <v>3791</v>
       </c>
     </row>
     <row r="3873" spans="4:5">
       <c r="E3873" t="s">
-        <v>3814</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="3874" spans="4:5">
-      <c r="E3874" t="s">
-        <v>3815</v>
+      <c r="D3874" t="s">
+        <v>3793</v>
       </c>
     </row>
     <row r="3875" spans="4:5">
       <c r="E3875" t="s">
-        <v>3816</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="3876" spans="4:5">
       <c r="E3876" t="s">
-        <v>3817</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="3877" spans="4:5">
       <c r="E3877" t="s">
-        <v>3818</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="3878" spans="4:5">
-      <c r="D3878" t="s">
-        <v>3756</v>
+      <c r="E3878" t="s">
+        <v>3797</v>
       </c>
     </row>
     <row r="3879" spans="4:5">
       <c r="E3879" t="s">
-        <v>3819</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="3880" spans="4:5">
       <c r="E3880" t="s">
-        <v>3820</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="3881" spans="4:5">
       <c r="E3881" t="s">
-        <v>3821</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="3882" spans="4:5">
-      <c r="E3882" t="s">
-        <v>3822</v>
+      <c r="D3882" t="s">
+        <v>3801</v>
       </c>
     </row>
     <row r="3883" spans="4:5">
       <c r="E3883" t="s">
-        <v>3823</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="3884" spans="4:5">
-      <c r="D3884" t="s">
-        <v>3770</v>
+      <c r="E3884" t="s">
+        <v>3803</v>
       </c>
     </row>
     <row r="3885" spans="4:5">
-      <c r="E3885" t="s">
-        <v>3824</v>
+      <c r="D3885" t="s">
+        <v>3749</v>
       </c>
     </row>
     <row r="3886" spans="4:5">
-      <c r="D3886" t="s">
-        <v>3825</v>
+      <c r="E3886" t="s">
+        <v>3804</v>
       </c>
     </row>
     <row r="3887" spans="4:5">
-      <c r="D3887" t="s">
-        <v>3826</v>
+      <c r="E3887" t="s">
+        <v>3805</v>
       </c>
     </row>
     <row r="3888" spans="4:5">
       <c r="D3888" t="s">
-        <v>3827</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="3889" spans="3:5">
       <c r="E3889" t="s">
-        <v>3828</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="3890" spans="3:5">
-      <c r="E3890" t="s">
-        <v>3829</v>
+      <c r="D3890" s="2" t="s">
+        <v>4454</v>
       </c>
     </row>
     <row r="3891" spans="3:5">
-      <c r="D3891" t="s">
-        <v>3830</v>
+      <c r="D3891" s="2" t="s">
+        <v>4455</v>
       </c>
     </row>
     <row r="3892" spans="3:5">
-      <c r="C3892" t="s">
-        <v>3831</v>
+      <c r="D3892" s="2" t="s">
+        <v>4456</v>
       </c>
     </row>
     <row r="3893" spans="3:5">
-      <c r="D3893" t="s">
-        <v>3740</v>
+      <c r="D3893" s="2" t="s">
+        <v>4457</v>
       </c>
     </row>
     <row r="3894" spans="3:5">
-      <c r="E3894" t="s">
-        <v>3832</v>
-      </c>
+      <c r="C3894" t="s">
+        <v>3807</v>
+      </c>
+      <c r="D3894" s="1"/>
     </row>
     <row r="3895" spans="3:5">
-      <c r="E3895" t="s">
-        <v>3833</v>
+      <c r="D3895" s="1" t="s">
+        <v>4458</v>
       </c>
     </row>
     <row r="3896" spans="3:5">
-      <c r="E3896" t="s">
-        <v>3834</v>
+      <c r="D3896" s="2" t="s">
+        <v>4459</v>
       </c>
     </row>
     <row r="3897" spans="3:5">
-      <c r="D3897" t="s">
-        <v>3835</v>
+      <c r="D3897" s="2" t="s">
+        <v>4460</v>
       </c>
     </row>
     <row r="3898" spans="3:5">
       <c r="D3898" t="s">
-        <v>3836</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="3899" spans="3:5">
-      <c r="D3899" t="s">
-        <v>3837</v>
+      <c r="E3899" t="s">
+        <v>3809</v>
       </c>
     </row>
     <row r="3900" spans="3:5">
       <c r="E3900" t="s">
-        <v>3838</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="3901" spans="3:5">
-      <c r="D3901" t="s">
-        <v>3839</v>
+      <c r="E3901" t="s">
+        <v>3811</v>
       </c>
     </row>
     <row r="3902" spans="3:5">
       <c r="E3902" t="s">
-        <v>3840</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="3903" spans="3:5">
-      <c r="E3903" t="s">
-        <v>3841</v>
+      <c r="D3903" t="s">
+        <v>3745</v>
       </c>
     </row>
     <row r="3904" spans="3:5">
       <c r="E3904" t="s">
-        <v>3842</v>
-      </c>
-    </row>
-    <row r="3905" spans="4:5">
-      <c r="E3905" t="s">
-        <v>3843</v>
-      </c>
-    </row>
-    <row r="3906" spans="4:5">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="3905" spans="3:5">
+      <c r="D3905" t="s">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="3906" spans="3:5">
       <c r="E3906" t="s">
-        <v>3844</v>
-      </c>
-    </row>
-    <row r="3907" spans="4:5">
-      <c r="E3907" t="s">
-        <v>3845</v>
-      </c>
-    </row>
-    <row r="3908" spans="4:5">
-      <c r="E3908" t="s">
-        <v>3846</v>
-      </c>
-    </row>
-    <row r="3909" spans="4:5">
-      <c r="D3909" t="s">
-        <v>3847</v>
-      </c>
-    </row>
-    <row r="3910" spans="4:5">
-      <c r="E3910" t="s">
-        <v>3848</v>
-      </c>
-    </row>
-    <row r="3911" spans="4:5">
-      <c r="E3911" t="s">
-        <v>3849</v>
-      </c>
-    </row>
-    <row r="3912" spans="4:5">
-      <c r="D3912" t="s">
-        <v>3756</v>
-      </c>
-    </row>
-    <row r="3913" spans="4:5">
-      <c r="E3913" t="s">
-        <v>3850</v>
-      </c>
-    </row>
-    <row r="3914" spans="4:5">
-      <c r="E3914" t="s">
-        <v>3851</v>
-      </c>
-    </row>
-    <row r="3915" spans="4:5">
-      <c r="D3915" t="s">
-        <v>3770</v>
-      </c>
-    </row>
-    <row r="3916" spans="4:5">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="3907" spans="3:5">
+      <c r="D3907" s="2" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="3908" spans="3:5">
+      <c r="D3908" s="2" t="s">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="3909" spans="3:5">
+      <c r="D3909" s="2" t="s">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="3910" spans="3:5">
+      <c r="C3910" t="s">
+        <v>3815</v>
+      </c>
+      <c r="D3910" s="1"/>
+    </row>
+    <row r="3911" spans="3:5">
+      <c r="D3911" s="1" t="s">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="3912" spans="3:5">
+      <c r="D3912" s="2" t="s">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="3913" spans="3:5">
+      <c r="D3913" s="2" t="s">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="3914" spans="3:5">
+      <c r="D3914" t="s">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="3915" spans="3:5">
+      <c r="E3915" t="s">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="3916" spans="3:5">
       <c r="E3916" t="s">
-        <v>3852</v>
-      </c>
-    </row>
-    <row r="3917" spans="4:5">
-      <c r="D3917" t="s">
-        <v>3853</v>
-      </c>
-    </row>
-    <row r="3918" spans="4:5">
-      <c r="D3918" t="s">
-        <v>3854</v>
-      </c>
-    </row>
-    <row r="3919" spans="4:5">
-      <c r="D3919" t="s">
-        <v>3855</v>
-      </c>
-    </row>
-    <row r="3920" spans="4:5">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="3917" spans="3:5">
+      <c r="E3917" t="s">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="3918" spans="3:5">
+      <c r="E3918" t="s">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="3919" spans="3:5">
+      <c r="E3919" t="s">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="3920" spans="3:5">
       <c r="D3920" t="s">
-        <v>3827</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="3921" spans="3:5">
       <c r="E3921" t="s">
-        <v>3856</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="3922" spans="3:5">
-      <c r="E3922" t="s">
-        <v>3857</v>
+      <c r="D3922" t="s">
+        <v>3763</v>
       </c>
     </row>
     <row r="3923" spans="3:5">
-      <c r="C3923" t="s">
-        <v>3858</v>
+      <c r="E3923" t="s">
+        <v>3824</v>
       </c>
     </row>
     <row r="3924" spans="3:5">
-      <c r="D3924" t="s">
-        <v>3740</v>
+      <c r="D3924" s="2" t="s">
+        <v>4467</v>
       </c>
     </row>
     <row r="3925" spans="3:5">
-      <c r="E3925" t="s">
-        <v>3859</v>
+      <c r="D3925" s="2" t="s">
+        <v>4468</v>
       </c>
     </row>
     <row r="3926" spans="3:5">
-      <c r="E3926" t="s">
-        <v>3860</v>
+      <c r="D3926" s="2" t="s">
+        <v>4469</v>
       </c>
     </row>
     <row r="3927" spans="3:5">
-      <c r="E3927" t="s">
-        <v>3861</v>
-      </c>
+      <c r="C3927" t="s">
+        <v>3825</v>
+      </c>
+      <c r="D3927" s="1"/>
     </row>
     <row r="3928" spans="3:5">
-      <c r="D3928" t="s">
-        <v>3862</v>
+      <c r="D3928" s="1" t="s">
+        <v>4470</v>
       </c>
     </row>
     <row r="3929" spans="3:5">
-      <c r="D3929" t="s">
-        <v>3863</v>
+      <c r="D3929" s="2" t="s">
+        <v>4471</v>
       </c>
     </row>
     <row r="3930" spans="3:5">
-      <c r="D3930" t="s">
-        <v>3864</v>
+      <c r="D3930" s="2" t="s">
+        <v>4472</v>
       </c>
     </row>
     <row r="3931" spans="3:5">
-      <c r="E3931" t="s">
-        <v>3865</v>
+      <c r="D3931" t="s">
+        <v>3745</v>
       </c>
     </row>
     <row r="3932" spans="3:5">
       <c r="E3932" t="s">
-        <v>3866</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="3933" spans="3:5">
-      <c r="E3933" t="s">
-        <v>3867</v>
+      <c r="D3933" t="s">
+        <v>3827</v>
       </c>
     </row>
     <row r="3934" spans="3:5">
       <c r="E3934" t="s">
-        <v>3868</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="3935" spans="3:5">
-      <c r="D3935" t="s">
-        <v>3752</v>
+      <c r="E3935" t="s">
+        <v>3829</v>
       </c>
     </row>
     <row r="3936" spans="3:5">
       <c r="E3936" t="s">
-        <v>3869</v>
-      </c>
-    </row>
-    <row r="3937" spans="3:5">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="3937" spans="4:5">
       <c r="D3937" t="s">
-        <v>3770</v>
-      </c>
-    </row>
-    <row r="3938" spans="3:5">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="3938" spans="4:5">
       <c r="E3938" t="s">
-        <v>3870</v>
-      </c>
-    </row>
-    <row r="3939" spans="3:5">
-      <c r="D3939" t="s">
-        <v>3871</v>
-      </c>
-    </row>
-    <row r="3940" spans="3:5">
+        <v>3831</v>
+      </c>
+    </row>
+    <row r="3939" spans="4:5">
+      <c r="E3939" t="s">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="3940" spans="4:5">
       <c r="D3940" t="s">
-        <v>3872</v>
-      </c>
-    </row>
-    <row r="3941" spans="3:5">
-      <c r="D3941" t="s">
-        <v>3827</v>
-      </c>
-    </row>
-    <row r="3942" spans="3:5">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="3941" spans="4:5">
+      <c r="E3941" t="s">
+        <v>3833</v>
+      </c>
+    </row>
+    <row r="3942" spans="4:5">
       <c r="E3942" t="s">
-        <v>3873</v>
-      </c>
-    </row>
-    <row r="3943" spans="3:5">
+        <v>3834</v>
+      </c>
+    </row>
+    <row r="3943" spans="4:5">
       <c r="E3943" t="s">
-        <v>3874</v>
-      </c>
-    </row>
-    <row r="3944" spans="3:5">
-      <c r="C3944" t="s">
-        <v>3875</v>
-      </c>
-    </row>
-    <row r="3945" spans="3:5">
-      <c r="D3945" t="s">
-        <v>3740</v>
-      </c>
-    </row>
-    <row r="3946" spans="3:5">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="3944" spans="4:5">
+      <c r="E3944" t="s">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="3945" spans="4:5">
+      <c r="E3945" t="s">
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="3946" spans="4:5">
       <c r="E3946" t="s">
-        <v>3876</v>
-      </c>
-    </row>
-    <row r="3947" spans="3:5">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="3947" spans="4:5">
       <c r="E3947" t="s">
-        <v>3877</v>
-      </c>
-    </row>
-    <row r="3948" spans="3:5">
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="3948" spans="4:5">
       <c r="E3948" t="s">
-        <v>3878</v>
-      </c>
-    </row>
-    <row r="3949" spans="3:5">
-      <c r="D3949" t="s">
-        <v>3879</v>
-      </c>
-    </row>
-    <row r="3950" spans="3:5">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="3949" spans="4:5">
+      <c r="E3949" t="s">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="3950" spans="4:5">
       <c r="D3950" t="s">
-        <v>3880</v>
-      </c>
-    </row>
-    <row r="3951" spans="3:5">
-      <c r="D3951" t="s">
-        <v>3881</v>
-      </c>
-    </row>
-    <row r="3952" spans="3:5">
-      <c r="E3952" t="s">
-        <v>3882</v>
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="3951" spans="4:5">
+      <c r="E3951" t="s">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="3952" spans="4:5">
+      <c r="D3952" t="s">
+        <v>3763</v>
       </c>
     </row>
     <row r="3953" spans="3:5">
       <c r="E3953" t="s">
-        <v>3883</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="3954" spans="3:5">
-      <c r="E3954" t="s">
-        <v>3884</v>
+      <c r="D3954" s="2" t="s">
+        <v>4473</v>
       </c>
     </row>
     <row r="3955" spans="3:5">
-      <c r="E3955" t="s">
-        <v>3885</v>
+      <c r="D3955" s="2" t="s">
+        <v>4474</v>
       </c>
     </row>
     <row r="3956" spans="3:5">
-      <c r="E3956" t="s">
-        <v>3886</v>
-      </c>
+      <c r="C3956" t="s">
+        <v>3845</v>
+      </c>
+      <c r="D3956" s="1"/>
     </row>
     <row r="3957" spans="3:5">
-      <c r="D3957" t="s">
-        <v>3887</v>
+      <c r="D3957" s="2" t="s">
+        <v>4475</v>
       </c>
     </row>
     <row r="3958" spans="3:5">
-      <c r="E3958" t="s">
-        <v>3888</v>
+      <c r="D3958" s="2" t="s">
+        <v>4476</v>
       </c>
     </row>
     <row r="3959" spans="3:5">
-      <c r="D3959" t="s">
-        <v>3770</v>
+      <c r="D3959" s="1" t="s">
+        <v>4477</v>
       </c>
     </row>
     <row r="3960" spans="3:5">
-      <c r="E3960" t="s">
-        <v>3889</v>
+      <c r="D3960" t="s">
+        <v>3745</v>
       </c>
     </row>
     <row r="3961" spans="3:5">
-      <c r="D3961" t="s">
-        <v>3890</v>
+      <c r="E3961" t="s">
+        <v>3846</v>
       </c>
     </row>
     <row r="3962" spans="3:5">
       <c r="D3962" t="s">
-        <v>3891</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="3963" spans="3:5">
-      <c r="D3963" t="s">
-        <v>3827</v>
+      <c r="E3963" t="s">
+        <v>3847</v>
       </c>
     </row>
     <row r="3964" spans="3:5">
-      <c r="E3964" t="s">
-        <v>3892</v>
+      <c r="D3964" t="s">
+        <v>3749</v>
       </c>
     </row>
     <row r="3965" spans="3:5">
       <c r="E3965" t="s">
-        <v>3893</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="3966" spans="3:5">
-      <c r="C3966" t="s">
-        <v>3894</v>
+      <c r="D3966" t="s">
+        <v>3763</v>
       </c>
     </row>
     <row r="3967" spans="3:5">
-      <c r="D3967" t="s">
-        <v>3740</v>
+      <c r="E3967" t="s">
+        <v>3849</v>
       </c>
     </row>
     <row r="3968" spans="3:5">
       <c r="E3968" t="s">
-        <v>3895</v>
-      </c>
-    </row>
-    <row r="3969" spans="4:5">
-      <c r="E3969" t="s">
-        <v>3896</v>
-      </c>
-    </row>
-    <row r="3970" spans="4:5">
-      <c r="E3970" t="s">
-        <v>3897</v>
-      </c>
-    </row>
-    <row r="3971" spans="4:5">
-      <c r="D3971" t="s">
-        <v>3898</v>
-      </c>
-    </row>
-    <row r="3972" spans="4:5">
-      <c r="D3972" t="s">
-        <v>3899</v>
-      </c>
-    </row>
-    <row r="3973" spans="4:5">
-      <c r="D3973" t="s">
-        <v>3752</v>
-      </c>
-    </row>
-    <row r="3974" spans="4:5">
-      <c r="E3974" t="s">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="3975" spans="4:5">
-      <c r="D3975" t="s">
-        <v>3901</v>
-      </c>
-    </row>
-    <row r="3976" spans="4:5">
-      <c r="E3976" t="s">
-        <v>3902</v>
-      </c>
-    </row>
-    <row r="3977" spans="4:5">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="3969" spans="3:5">
+      <c r="D3969" s="2" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="3970" spans="3:5">
+      <c r="D3970" s="2" t="s">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="3971" spans="3:5">
+      <c r="D3971" s="2" t="s">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="3972" spans="3:5">
+      <c r="C3972" t="s">
+        <v>3851</v>
+      </c>
+      <c r="D3972" s="1"/>
+    </row>
+    <row r="3973" spans="3:5">
+      <c r="D3973" s="2" t="s">
+        <v>4481</v>
+      </c>
+    </row>
+    <row r="3974" spans="3:5">
+      <c r="D3974" s="2" t="s">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="3975" spans="3:5">
+      <c r="D3975" s="2" t="s">
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="3976" spans="3:5">
+      <c r="D3976" t="s">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="3977" spans="3:5">
       <c r="E3977" t="s">
-        <v>3903</v>
-      </c>
-    </row>
-    <row r="3978" spans="4:5">
-      <c r="E3978" t="s">
-        <v>3904</v>
-      </c>
-    </row>
-    <row r="3979" spans="4:5">
-      <c r="D3979" t="s">
-        <v>3881</v>
-      </c>
-    </row>
-    <row r="3980" spans="4:5">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="3978" spans="3:5">
+      <c r="D3978" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="3979" spans="3:5">
+      <c r="E3979" t="s">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="3980" spans="3:5">
       <c r="E3980" t="s">
-        <v>3905</v>
-      </c>
-    </row>
-    <row r="3981" spans="4:5">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="3981" spans="3:5">
       <c r="E3981" t="s">
-        <v>3906</v>
-      </c>
-    </row>
-    <row r="3982" spans="4:5">
-      <c r="D3982" t="s">
-        <v>3756</v>
-      </c>
-    </row>
-    <row r="3983" spans="4:5">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="3982" spans="3:5">
+      <c r="E3982" t="s">
+        <v>3856</v>
+      </c>
+    </row>
+    <row r="3983" spans="3:5">
       <c r="E3983" t="s">
-        <v>3907</v>
-      </c>
-    </row>
-    <row r="3984" spans="4:5">
+        <v>3857</v>
+      </c>
+    </row>
+    <row r="3984" spans="3:5">
       <c r="E3984" t="s">
-        <v>3908</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="3985" spans="3:5">
       <c r="E3985" t="s">
-        <v>3909</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="3986" spans="3:5">
       <c r="E3986" t="s">
-        <v>3910</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="3987" spans="3:5">
-      <c r="E3987" t="s">
-        <v>3911</v>
+      <c r="D3987" t="s">
+        <v>3861</v>
       </c>
     </row>
     <row r="3988" spans="3:5">
       <c r="E3988" t="s">
-        <v>3912</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="3989" spans="3:5">
       <c r="E3989" t="s">
-        <v>3913</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="3990" spans="3:5">
-      <c r="E3990" t="s">
-        <v>3914</v>
+      <c r="D3990" t="s">
+        <v>3763</v>
       </c>
     </row>
     <row r="3991" spans="3:5">
       <c r="E3991" t="s">
-        <v>3915</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="3992" spans="3:5">
-      <c r="D3992" t="s">
-        <v>3916</v>
+      <c r="E3992" t="s">
+        <v>3865</v>
       </c>
     </row>
     <row r="3993" spans="3:5">
-      <c r="E3993" t="s">
-        <v>3917</v>
+      <c r="D3993" s="2" t="s">
+        <v>4484</v>
       </c>
     </row>
     <row r="3994" spans="3:5">
-      <c r="D3994" t="s">
-        <v>3770</v>
+      <c r="D3994" s="2" t="s">
+        <v>4485</v>
       </c>
     </row>
     <row r="3995" spans="3:5">
-      <c r="E3995" t="s">
-        <v>3918</v>
+      <c r="D3995" s="2" t="s">
+        <v>4486</v>
       </c>
     </row>
     <row r="3996" spans="3:5">
-      <c r="D3996" t="s">
-        <v>3919</v>
-      </c>
-    </row>
-    <row r="3997" spans="3:5">
-      <c r="D3997" t="s">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="3998" spans="3:5">
-      <c r="C3998" t="s">
-        <v>3921</v>
-      </c>
-    </row>
-    <row r="3999" spans="3:5">
-      <c r="D3999" t="s">
-        <v>3922</v>
-      </c>
-    </row>
-    <row r="4000" spans="3:5">
-      <c r="D4000" t="s">
-        <v>3923</v>
-      </c>
-    </row>
-    <row r="4001" spans="3:5">
-      <c r="D4001" t="s">
-        <v>3924</v>
-      </c>
-    </row>
-    <row r="4002" spans="3:5">
-      <c r="E4002" t="s">
-        <v>3925</v>
-      </c>
-    </row>
-    <row r="4003" spans="3:5">
-      <c r="E4003" t="s">
-        <v>3926</v>
-      </c>
-    </row>
-    <row r="4004" spans="3:5">
-      <c r="D4004" t="s">
-        <v>3752</v>
-      </c>
-    </row>
-    <row r="4005" spans="3:5">
-      <c r="E4005" t="s">
-        <v>3927</v>
-      </c>
-    </row>
-    <row r="4006" spans="3:5">
-      <c r="D4006" t="s">
-        <v>3881</v>
-      </c>
-    </row>
-    <row r="4007" spans="3:5">
-      <c r="E4007" t="s">
-        <v>3928</v>
-      </c>
-    </row>
-    <row r="4008" spans="3:5">
-      <c r="D4008" t="s">
-        <v>3756</v>
-      </c>
-    </row>
-    <row r="4009" spans="3:5">
-      <c r="E4009" t="s">
-        <v>3929</v>
-      </c>
-    </row>
-    <row r="4010" spans="3:5">
-      <c r="D4010" t="s">
-        <v>3770</v>
-      </c>
-    </row>
-    <row r="4011" spans="3:5">
-      <c r="E4011" t="s">
-        <v>3930</v>
-      </c>
-    </row>
-    <row r="4012" spans="3:5">
-      <c r="E4012" t="s">
-        <v>3931</v>
-      </c>
-    </row>
-    <row r="4013" spans="3:5">
-      <c r="D4013" t="s">
-        <v>3932</v>
-      </c>
-    </row>
-    <row r="4014" spans="3:5">
-      <c r="D4014" t="s">
-        <v>3933</v>
-      </c>
-    </row>
-    <row r="4015" spans="3:5">
-      <c r="D4015" t="s">
-        <v>3934</v>
-      </c>
-    </row>
-    <row r="4016" spans="3:5">
-      <c r="C4016" t="s">
-        <v>3935</v>
-      </c>
-    </row>
-    <row r="4017" spans="4:5">
-      <c r="D4017" t="s">
-        <v>3936</v>
-      </c>
-    </row>
-    <row r="4018" spans="4:5">
-      <c r="D4018" t="s">
-        <v>3937</v>
-      </c>
-    </row>
-    <row r="4019" spans="4:5">
-      <c r="D4019" t="s">
-        <v>3924</v>
-      </c>
-    </row>
-    <row r="4020" spans="4:5">
-      <c r="E4020" t="s">
-        <v>3938</v>
-      </c>
-    </row>
-    <row r="4021" spans="4:5">
-      <c r="E4021" t="s">
-        <v>3939</v>
-      </c>
-    </row>
-    <row r="4022" spans="4:5">
-      <c r="D4022" t="s">
-        <v>3847</v>
-      </c>
-    </row>
-    <row r="4023" spans="4:5">
-      <c r="E4023" t="s">
-        <v>3940</v>
-      </c>
-    </row>
-    <row r="4024" spans="4:5">
-      <c r="D4024" t="s">
-        <v>3752</v>
-      </c>
-    </row>
-    <row r="4025" spans="4:5">
-      <c r="E4025" t="s">
-        <v>3941</v>
-      </c>
-    </row>
-    <row r="4026" spans="4:5">
-      <c r="E4026" t="s">
-        <v>3942</v>
-      </c>
-    </row>
-    <row r="4027" spans="4:5">
-      <c r="E4027" t="s">
-        <v>3943</v>
-      </c>
-    </row>
-    <row r="4028" spans="4:5">
-      <c r="E4028" t="s">
-        <v>3944</v>
-      </c>
-    </row>
-    <row r="4029" spans="4:5">
-      <c r="E4029" t="s">
-        <v>3945</v>
-      </c>
-    </row>
-    <row r="4030" spans="4:5">
-      <c r="E4030" t="s">
-        <v>3946</v>
-      </c>
-    </row>
-    <row r="4031" spans="4:5">
-      <c r="E4031" t="s">
-        <v>3947</v>
-      </c>
-    </row>
-    <row r="4032" spans="4:5">
-      <c r="E4032" t="s">
-        <v>3948</v>
-      </c>
-    </row>
-    <row r="4033" spans="3:5">
-      <c r="D4033" t="s">
-        <v>3949</v>
-      </c>
-    </row>
-    <row r="4034" spans="3:5">
-      <c r="E4034" t="s">
-        <v>3950</v>
-      </c>
-    </row>
-    <row r="4035" spans="3:5">
-      <c r="E4035" t="s">
-        <v>3951</v>
-      </c>
-    </row>
-    <row r="4036" spans="3:5">
-      <c r="D4036" t="s">
-        <v>3770</v>
-      </c>
-    </row>
-    <row r="4037" spans="3:5">
-      <c r="E4037" t="s">
-        <v>3952</v>
-      </c>
-    </row>
-    <row r="4038" spans="3:5">
-      <c r="E4038" t="s">
-        <v>3953</v>
-      </c>
-    </row>
-    <row r="4039" spans="3:5">
-      <c r="D4039" t="s">
-        <v>3954</v>
-      </c>
-    </row>
-    <row r="4040" spans="3:5">
-      <c r="D4040" t="s">
-        <v>3955</v>
-      </c>
-    </row>
-    <row r="4041" spans="3:5">
-      <c r="D4041" t="s">
-        <v>3956</v>
-      </c>
-    </row>
-    <row r="4042" spans="3:5">
-      <c r="D4042" t="s">
-        <v>3957</v>
-      </c>
+      <c r="D3996" s="2" t="s">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="3997" spans="3:5" s="1" customFormat="1">
+      <c r="C3997" s="1" t="s">
+        <v>4388</v>
+      </c>
+      <c r="D3997" s="2"/>
+    </row>
+    <row r="3998" spans="3:5" s="1" customFormat="1">
+      <c r="D3998" s="2" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="3999" spans="3:5" s="1" customFormat="1">
+      <c r="D3999" s="2" t="s">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="4000" spans="3:5" s="1" customFormat="1">
+      <c r="D4000" s="2" t="s">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="4001" spans="4:5" s="1" customFormat="1">
+      <c r="D4001" s="2" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4002" spans="4:5" s="1" customFormat="1">
+      <c r="D4002" s="2"/>
+      <c r="E4002" s="1" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="4003" spans="4:5" s="1" customFormat="1">
+      <c r="D4003" s="2" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="4004" spans="4:5" s="1" customFormat="1">
+      <c r="D4004" s="2"/>
+      <c r="E4004" s="1" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="4005" spans="4:5" s="1" customFormat="1">
+      <c r="D4005" s="2" t="s">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="4006" spans="4:5" s="1" customFormat="1">
+      <c r="D4006" s="2"/>
+      <c r="E4006" s="1" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="4007" spans="4:5" s="1" customFormat="1">
+      <c r="D4007" s="2" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="4008" spans="4:5" s="1" customFormat="1">
+      <c r="D4008" s="2"/>
+      <c r="E4008" s="1" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="4009" spans="4:5" s="1" customFormat="1">
+      <c r="D4009" s="2"/>
+      <c r="E4009" s="1" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="4010" spans="4:5" s="1" customFormat="1">
+      <c r="D4010" s="2" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="4011" spans="4:5" s="1" customFormat="1">
+      <c r="D4011" s="2"/>
+      <c r="E4011" s="1" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="4012" spans="4:5" s="1" customFormat="1">
+      <c r="D4012" s="2" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="4013" spans="4:5" s="1" customFormat="1">
+      <c r="D4013" s="2"/>
+      <c r="E4013" s="1" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="4014" spans="4:5" s="1" customFormat="1">
+      <c r="D4014" s="2"/>
+      <c r="E4014" s="1" t="s">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="4015" spans="4:5" s="1" customFormat="1">
+      <c r="D4015" s="2" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="4016" spans="4:5" s="1" customFormat="1">
+      <c r="D4016" s="2"/>
+      <c r="E4016" s="1" t="s">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="4017" spans="3:5" s="1" customFormat="1">
+      <c r="D4017" s="2" t="s">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="4018" spans="3:5" s="1" customFormat="1">
+      <c r="D4018" s="2"/>
+      <c r="E4018" s="1" t="s">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="4019" spans="3:5" s="1" customFormat="1">
+      <c r="D4019" s="2"/>
+      <c r="E4019" s="1" t="s">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="4020" spans="3:5" s="1" customFormat="1">
+      <c r="D4020" s="2" t="s">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="4021" spans="3:5" s="1" customFormat="1">
+      <c r="D4021" s="2" t="s">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="4022" spans="3:5" s="1" customFormat="1">
+      <c r="D4022" s="2" t="s">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="4023" spans="3:5" s="1" customFormat="1">
+      <c r="C4023" t="s">
+        <v>4420</v>
+      </c>
+      <c r="D4023" s="2"/>
+    </row>
+    <row r="4024" spans="3:5" s="1" customFormat="1">
+      <c r="D4024" s="2" t="s">
+        <v>4494</v>
+      </c>
+      <c r="E4024" s="2"/>
+    </row>
+    <row r="4025" spans="3:5" s="1" customFormat="1">
+      <c r="D4025" s="2" t="s">
+        <v>4495</v>
+      </c>
+      <c r="E4025" s="2"/>
+    </row>
+    <row r="4026" spans="3:5" s="1" customFormat="1">
+      <c r="D4026" s="2" t="s">
+        <v>4496</v>
+      </c>
+      <c r="E4026" s="2"/>
+    </row>
+    <row r="4027" spans="3:5" s="1" customFormat="1">
+      <c r="D4027" s="2" t="s">
+        <v>4421</v>
+      </c>
+      <c r="E4027" s="2"/>
+    </row>
+    <row r="4028" spans="3:5" s="1" customFormat="1">
+      <c r="E4028" s="2" t="s">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="4029" spans="3:5" s="1" customFormat="1">
+      <c r="D4029" s="2" t="s">
+        <v>4401</v>
+      </c>
+      <c r="E4029" s="2"/>
+    </row>
+    <row r="4030" spans="3:5" s="1" customFormat="1">
+      <c r="E4030" s="2" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="4031" spans="3:5" s="1" customFormat="1">
+      <c r="E4031" s="2" t="s">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="4032" spans="3:5" s="1" customFormat="1">
+      <c r="E4032" s="2" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="4033" spans="3:5" s="1" customFormat="1">
+      <c r="D4033" s="2" t="s">
+        <v>4403</v>
+      </c>
+      <c r="E4033" s="2"/>
+    </row>
+    <row r="4034" spans="3:5" s="1" customFormat="1">
+      <c r="E4034" s="2" t="s">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="4035" spans="3:5" s="1" customFormat="1">
+      <c r="D4035" s="2" t="s">
+        <v>4406</v>
+      </c>
+      <c r="E4035" s="2"/>
+    </row>
+    <row r="4036" spans="3:5" s="1" customFormat="1">
+      <c r="E4036" s="2" t="s">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="4037" spans="3:5" s="1" customFormat="1">
+      <c r="D4037" s="2" t="s">
+        <v>4408</v>
+      </c>
+      <c r="E4037" s="2"/>
+    </row>
+    <row r="4038" spans="3:5" s="1" customFormat="1">
+      <c r="E4038" s="2" t="s">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="4039" spans="3:5" s="1" customFormat="1">
+      <c r="E4039" s="2" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="4040" spans="3:5" s="1" customFormat="1">
+      <c r="D4040" s="2" t="s">
+        <v>4497</v>
+      </c>
+      <c r="E4040" s="2"/>
+    </row>
+    <row r="4041" spans="3:5" s="1" customFormat="1">
+      <c r="D4041" s="2" t="s">
+        <v>4498</v>
+      </c>
+      <c r="E4041" s="2"/>
+    </row>
+    <row r="4042" spans="3:5" s="1" customFormat="1">
+      <c r="D4042" s="2" t="s">
+        <v>4499</v>
+      </c>
+      <c r="E4042" s="2"/>
     </row>
     <row r="4043" spans="3:5" s="1" customFormat="1">
-      <c r="C4043" s="1" t="s">
-        <v>4485</v>
+      <c r="C4043" t="s">
+        <v>4423</v>
       </c>
       <c r="D4043" s="2"/>
     </row>
     <row r="4044" spans="3:5" s="1" customFormat="1">
       <c r="D4044" s="2" t="s">
-        <v>4486</v>
-      </c>
+        <v>4389</v>
+      </c>
+      <c r="E4044" s="2"/>
     </row>
     <row r="4045" spans="3:5" s="1" customFormat="1">
       <c r="D4045" s="2" t="s">
-        <v>4487</v>
-      </c>
+        <v>4390</v>
+      </c>
+      <c r="E4045" s="2"/>
     </row>
     <row r="4046" spans="3:5" s="1" customFormat="1">
       <c r="D4046" s="2" t="s">
-        <v>4488</v>
-      </c>
+        <v>4391</v>
+      </c>
+      <c r="E4046" s="2"/>
     </row>
     <row r="4047" spans="3:5" s="1" customFormat="1">
       <c r="D4047" s="2" t="s">
-        <v>4489</v>
-      </c>
+        <v>4424</v>
+      </c>
+      <c r="E4047" s="2"/>
     </row>
     <row r="4048" spans="3:5" s="1" customFormat="1">
       <c r="D4048" s="2"/>
-      <c r="E4048" s="1" t="s">
-        <v>4490</v>
-      </c>
-    </row>
-    <row r="4049" spans="4:5" s="1" customFormat="1">
+      <c r="E4048" s="2" t="s">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="4049" spans="2:5" s="1" customFormat="1">
       <c r="D4049" s="2" t="s">
-        <v>4491</v>
-      </c>
-    </row>
-    <row r="4050" spans="4:5" s="1" customFormat="1">
+        <v>4401</v>
+      </c>
+      <c r="E4049" s="2"/>
+    </row>
+    <row r="4050" spans="2:5" s="1" customFormat="1">
       <c r="D4050" s="2"/>
-      <c r="E4050" s="1" t="s">
-        <v>4492</v>
-      </c>
-    </row>
-    <row r="4051" spans="4:5" s="1" customFormat="1">
+      <c r="E4050" s="2" t="s">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="4051" spans="2:5" s="1" customFormat="1">
       <c r="D4051" s="2" t="s">
-        <v>4493</v>
-      </c>
-    </row>
-    <row r="4052" spans="4:5" s="1" customFormat="1">
+        <v>4403</v>
+      </c>
+      <c r="E4051" s="2"/>
+    </row>
+    <row r="4052" spans="2:5" s="1" customFormat="1">
       <c r="D4052" s="2"/>
-      <c r="E4052" s="1" t="s">
-        <v>4494</v>
-      </c>
-    </row>
-    <row r="4053" spans="4:5" s="1" customFormat="1">
+      <c r="E4052" s="2" t="s">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="4053" spans="2:5" s="1" customFormat="1">
       <c r="D4053" s="2" t="s">
-        <v>4495</v>
-      </c>
-    </row>
-    <row r="4054" spans="4:5" s="1" customFormat="1">
+        <v>4406</v>
+      </c>
+      <c r="E4053" s="2"/>
+    </row>
+    <row r="4054" spans="2:5" s="1" customFormat="1">
       <c r="D4054" s="2"/>
-      <c r="E4054" s="1" t="s">
-        <v>4496</v>
-      </c>
-    </row>
-    <row r="4055" spans="4:5" s="1" customFormat="1">
-      <c r="D4055" s="2"/>
-      <c r="E4055" s="1" t="s">
-        <v>4497</v>
-      </c>
-    </row>
-    <row r="4056" spans="4:5" s="1" customFormat="1">
-      <c r="D4056" s="2" t="s">
-        <v>4498</v>
-      </c>
-    </row>
-    <row r="4057" spans="4:5" s="1" customFormat="1">
+      <c r="E4054" s="2" t="s">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="4055" spans="2:5" s="1" customFormat="1">
+      <c r="D4055" s="2" t="s">
+        <v>4408</v>
+      </c>
+      <c r="E4055" s="2"/>
+    </row>
+    <row r="4056" spans="2:5" s="1" customFormat="1">
+      <c r="D4056" s="2"/>
+      <c r="E4056" s="2" t="s">
+        <v>4429</v>
+      </c>
+    </row>
+    <row r="4057" spans="2:5" s="1" customFormat="1">
       <c r="D4057" s="2"/>
-      <c r="E4057" s="1" t="s">
-        <v>4499</v>
-      </c>
-    </row>
-    <row r="4058" spans="4:5" s="1" customFormat="1">
-      <c r="D4058" s="2" t="s">
+      <c r="E4057" s="2" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="4058" spans="2:5" s="1" customFormat="1">
+      <c r="D4058" s="2"/>
+      <c r="E4058" s="2" t="s">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="4059" spans="2:5" s="1" customFormat="1">
+      <c r="D4059" s="2" t="s">
+        <v>4422</v>
+      </c>
+      <c r="E4059" s="2"/>
+    </row>
+    <row r="4060" spans="2:5" s="1" customFormat="1">
+      <c r="D4060" s="2" t="s">
+        <v>4411</v>
+      </c>
+      <c r="E4060" s="2"/>
+    </row>
+    <row r="4061" spans="2:5">
+      <c r="B4061" t="s">
+        <v>3866</v>
+      </c>
+    </row>
+    <row r="4062" spans="2:5">
+      <c r="C4062" t="s">
         <v>4500</v>
       </c>
     </row>
-    <row r="4059" spans="4:5" s="1" customFormat="1">
-      <c r="D4059" s="2"/>
-      <c r="E4059" s="1" t="s">
+    <row r="4063" spans="2:5">
+      <c r="C4063" t="s">
         <v>4501</v>
       </c>
     </row>
-    <row r="4060" spans="4:5" s="1" customFormat="1">
-      <c r="D4060" s="2"/>
-      <c r="E4060" s="1" t="s">
+    <row r="4064" spans="2:5">
+      <c r="C4064" t="s">
         <v>4502</v>
       </c>
     </row>
-    <row r="4061" spans="4:5" s="1" customFormat="1">
-      <c r="D4061" s="2" t="s">
+    <row r="4065" spans="2:5">
+      <c r="C4065" t="s">
         <v>4503</v>
       </c>
     </row>
-    <row r="4062" spans="4:5" s="1" customFormat="1">
-      <c r="D4062" s="2"/>
-      <c r="E4062" s="1" t="s">
+    <row r="4066" spans="2:5">
+      <c r="C4066" t="s">
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="4067" spans="2:5">
+      <c r="B4067" t="s">
+        <v>3868</v>
+      </c>
+    </row>
+    <row r="4068" spans="2:5">
+      <c r="C4068" t="s">
         <v>4504</v>
       </c>
     </row>
-    <row r="4063" spans="4:5" s="1" customFormat="1">
-      <c r="D4063" s="2" t="s">
-        <v>4505</v>
-      </c>
-    </row>
-    <row r="4064" spans="4:5" s="1" customFormat="1">
-      <c r="D4064" s="2"/>
-      <c r="E4064" s="1" t="s">
-        <v>4506</v>
-      </c>
-    </row>
-    <row r="4065" spans="3:5" s="1" customFormat="1">
-      <c r="D4065" s="2"/>
-      <c r="E4065" s="1" t="s">
-        <v>4507</v>
-      </c>
-    </row>
-    <row r="4066" spans="3:5" s="1" customFormat="1">
-      <c r="D4066" s="2" t="s">
-        <v>4526</v>
-      </c>
-    </row>
-    <row r="4067" spans="3:5" s="1" customFormat="1">
-      <c r="D4067" s="2" t="s">
-        <v>4508</v>
-      </c>
-    </row>
-    <row r="4068" spans="3:5" s="1" customFormat="1">
-      <c r="D4068" s="2" t="s">
-        <v>4509</v>
-      </c>
-    </row>
-    <row r="4069" spans="3:5" s="1" customFormat="1">
+    <row r="4069" spans="2:5">
       <c r="C4069" t="s">
-        <v>4524</v>
-      </c>
-      <c r="D4069" s="2"/>
-    </row>
-    <row r="4070" spans="3:5" s="1" customFormat="1">
-      <c r="D4070" s="2" t="s">
-        <v>4510</v>
-      </c>
-      <c r="E4070" s="2"/>
-    </row>
-    <row r="4071" spans="3:5" s="1" customFormat="1">
-      <c r="D4071" s="2" t="s">
-        <v>4511</v>
-      </c>
-      <c r="E4071" s="2"/>
-    </row>
-    <row r="4072" spans="3:5" s="1" customFormat="1">
-      <c r="D4072" s="2" t="s">
-        <v>4512</v>
-      </c>
-      <c r="E4072" s="2"/>
-    </row>
-    <row r="4073" spans="3:5" s="1" customFormat="1">
-      <c r="D4073" s="2" t="s">
-        <v>4525</v>
-      </c>
-      <c r="E4073" s="2"/>
-    </row>
-    <row r="4074" spans="3:5" s="1" customFormat="1">
-      <c r="E4074" s="2" t="s">
-        <v>4513</v>
-      </c>
-    </row>
-    <row r="4075" spans="3:5" s="1" customFormat="1">
-      <c r="D4075" s="2" t="s">
-        <v>4498</v>
-      </c>
-      <c r="E4075" s="2"/>
-    </row>
-    <row r="4076" spans="3:5" s="1" customFormat="1">
-      <c r="E4076" s="2" t="s">
-        <v>4514</v>
-      </c>
-    </row>
-    <row r="4077" spans="3:5" s="1" customFormat="1">
-      <c r="E4077" s="2" t="s">
-        <v>4515</v>
-      </c>
-    </row>
-    <row r="4078" spans="3:5" s="1" customFormat="1">
-      <c r="E4078" s="2" t="s">
-        <v>4516</v>
-      </c>
-    </row>
-    <row r="4079" spans="3:5" s="1" customFormat="1">
-      <c r="D4079" s="2" t="s">
-        <v>4500</v>
-      </c>
-      <c r="E4079" s="2"/>
-    </row>
-    <row r="4080" spans="3:5" s="1" customFormat="1">
-      <c r="E4080" s="2" t="s">
-        <v>4517</v>
-      </c>
-    </row>
-    <row r="4081" spans="3:5" s="1" customFormat="1">
-      <c r="D4081" s="2" t="s">
-        <v>4503</v>
-      </c>
-      <c r="E4081" s="2"/>
-    </row>
-    <row r="4082" spans="3:5" s="1" customFormat="1">
-      <c r="E4082" s="2" t="s">
-        <v>4518</v>
-      </c>
-    </row>
-    <row r="4083" spans="3:5" s="1" customFormat="1">
-      <c r="D4083" s="2" t="s">
-        <v>4505</v>
-      </c>
-      <c r="E4083" s="2"/>
-    </row>
-    <row r="4084" spans="3:5" s="1" customFormat="1">
-      <c r="E4084" s="2" t="s">
-        <v>4519</v>
-      </c>
-    </row>
-    <row r="4085" spans="3:5" s="1" customFormat="1">
-      <c r="E4085" s="2" t="s">
-        <v>4520</v>
-      </c>
-    </row>
-    <row r="4086" spans="3:5" s="1" customFormat="1">
-      <c r="D4086" s="2" t="s">
-        <v>4521</v>
-      </c>
-      <c r="E4086" s="2"/>
-    </row>
-    <row r="4087" spans="3:5" s="1" customFormat="1">
-      <c r="D4087" s="2" t="s">
-        <v>4522</v>
-      </c>
-      <c r="E4087" s="2"/>
-    </row>
-    <row r="4088" spans="3:5" s="1" customFormat="1">
-      <c r="D4088" s="2" t="s">
-        <v>4523</v>
-      </c>
-      <c r="E4088" s="2"/>
-    </row>
-    <row r="4089" spans="3:5" s="1" customFormat="1">
-      <c r="C4089" t="s">
-        <v>4527</v>
-      </c>
-      <c r="D4089" s="2"/>
-    </row>
-    <row r="4090" spans="3:5" s="1" customFormat="1">
-      <c r="D4090" s="2" t="s">
-        <v>4528</v>
-      </c>
-      <c r="E4090" s="2"/>
-    </row>
-    <row r="4091" spans="3:5" s="1" customFormat="1">
-      <c r="D4091" s="2" t="s">
-        <v>4529</v>
-      </c>
-      <c r="E4091" s="2"/>
-    </row>
-    <row r="4092" spans="3:5" s="1" customFormat="1">
-      <c r="D4092" s="2" t="s">
-        <v>4530</v>
-      </c>
-      <c r="E4092" s="2"/>
-    </row>
-    <row r="4093" spans="3:5" s="1" customFormat="1">
-      <c r="D4093" s="2" t="s">
-        <v>4531</v>
-      </c>
-      <c r="E4093" s="2"/>
-    </row>
-    <row r="4094" spans="3:5" s="1" customFormat="1">
-      <c r="D4094" s="2"/>
-      <c r="E4094" s="2" t="s">
-        <v>4532</v>
-      </c>
-    </row>
-    <row r="4095" spans="3:5" s="1" customFormat="1">
-      <c r="D4095" s="2" t="s">
-        <v>4498</v>
-      </c>
-      <c r="E4095" s="2"/>
-    </row>
-    <row r="4096" spans="3:5" s="1" customFormat="1">
-      <c r="D4096" s="2"/>
-      <c r="E4096" s="2" t="s">
-        <v>4533</v>
-      </c>
-    </row>
-    <row r="4097" spans="2:5" s="1" customFormat="1">
-      <c r="D4097" s="2" t="s">
-        <v>4500</v>
-      </c>
-      <c r="E4097" s="2"/>
-    </row>
-    <row r="4098" spans="2:5" s="1" customFormat="1">
-      <c r="D4098" s="2"/>
-      <c r="E4098" s="2" t="s">
-        <v>4534</v>
-      </c>
-    </row>
-    <row r="4099" spans="2:5" s="1" customFormat="1">
-      <c r="D4099" s="2" t="s">
-        <v>4503</v>
-      </c>
-      <c r="E4099" s="2"/>
-    </row>
-    <row r="4100" spans="2:5" s="1" customFormat="1">
-      <c r="D4100" s="2"/>
-      <c r="E4100" s="2" t="s">
-        <v>4535</v>
-      </c>
-    </row>
-    <row r="4101" spans="2:5" s="1" customFormat="1">
-      <c r="D4101" s="2" t="s">
-        <v>4505</v>
-      </c>
-      <c r="E4101" s="2"/>
-    </row>
-    <row r="4102" spans="2:5" s="1" customFormat="1">
-      <c r="D4102" s="2"/>
-      <c r="E4102" s="2" t="s">
-        <v>4536</v>
-      </c>
-    </row>
-    <row r="4103" spans="2:5" s="1" customFormat="1">
-      <c r="D4103" s="2"/>
-      <c r="E4103" s="2" t="s">
-        <v>4537</v>
-      </c>
-    </row>
-    <row r="4104" spans="2:5" s="1" customFormat="1">
-      <c r="D4104" s="2"/>
-      <c r="E4104" s="2" t="s">
-        <v>4538</v>
-      </c>
-    </row>
-    <row r="4105" spans="2:5" s="1" customFormat="1">
-      <c r="D4105" s="2" t="s">
-        <v>4539</v>
-      </c>
-      <c r="E4105" s="2"/>
-    </row>
-    <row r="4106" spans="2:5" s="1" customFormat="1">
-      <c r="D4106" s="2" t="s">
-        <v>4540</v>
-      </c>
-      <c r="E4106" s="2"/>
-    </row>
-    <row r="4107" spans="2:5">
-      <c r="B4107" t="s">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="4070" spans="2:5">
+      <c r="D4070" t="s">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="4071" spans="2:5">
+      <c r="E4071" t="s">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="4072" spans="2:5">
+      <c r="E4072" t="s">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="4073" spans="2:5">
+      <c r="E4073" t="s">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="4074" spans="2:5">
+      <c r="E4074" t="s">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="4075" spans="2:5">
+      <c r="E4075" t="s">
+        <v>3875</v>
+      </c>
+    </row>
+    <row r="4076" spans="2:5">
+      <c r="E4076" t="s">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="4077" spans="2:5">
+      <c r="E4077" t="s">
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="4078" spans="2:5">
+      <c r="E4078" t="s">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="4079" spans="2:5">
+      <c r="E4079" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="4080" spans="2:5">
+      <c r="E4080" t="s">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="4081" spans="5:5">
+      <c r="E4081" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="4082" spans="5:5">
+      <c r="E4082" t="s">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="4083" spans="5:5">
+      <c r="E4083" t="s">
+        <v>3883</v>
+      </c>
+    </row>
+    <row r="4084" spans="5:5">
+      <c r="E4084" t="s">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="4085" spans="5:5">
+      <c r="E4085" t="s">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="4086" spans="5:5">
+      <c r="E4086" t="s">
+        <v>3886</v>
+      </c>
+    </row>
+    <row r="4087" spans="5:5">
+      <c r="E4087" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="4088" spans="5:5">
+      <c r="E4088" t="s">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="4089" spans="5:5">
+      <c r="E4089" t="s">
+        <v>3889</v>
+      </c>
+    </row>
+    <row r="4090" spans="5:5">
+      <c r="E4090" t="s">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="4091" spans="5:5">
+      <c r="E4091" t="s">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="4092" spans="5:5">
+      <c r="E4092" t="s">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="4093" spans="5:5">
+      <c r="E4093" t="s">
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="4094" spans="5:5">
+      <c r="E4094" t="s">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="4095" spans="5:5">
+      <c r="E4095" t="s">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="4096" spans="5:5">
+      <c r="E4096" t="s">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="4097" spans="4:5">
+      <c r="E4097" t="s">
+        <v>3897</v>
+      </c>
+    </row>
+    <row r="4098" spans="4:5">
+      <c r="E4098" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="4099" spans="4:5">
+      <c r="E4099" t="s">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="4100" spans="4:5">
+      <c r="E4100" t="s">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="4101" spans="4:5">
+      <c r="E4101" t="s">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="4102" spans="4:5">
+      <c r="E4102" t="s">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="4103" spans="4:5">
+      <c r="E4103" t="s">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="4104" spans="4:5">
+      <c r="D4104" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="4105" spans="4:5">
+      <c r="E4105" t="s">
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="4106" spans="4:5">
+      <c r="E4106" t="s">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="4107" spans="4:5">
+      <c r="E4107" t="s">
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="4108" spans="4:5">
+      <c r="E4108" t="s">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="4109" spans="4:5">
+      <c r="E4109" t="s">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="4110" spans="4:5">
+      <c r="E4110" t="s">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="4111" spans="4:5">
+      <c r="E4111" t="s">
+        <v>3911</v>
+      </c>
+    </row>
+    <row r="4112" spans="4:5">
+      <c r="E4112" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="4113" spans="4:5">
+      <c r="E4113" t="s">
+        <v>3913</v>
+      </c>
+    </row>
+    <row r="4114" spans="4:5">
+      <c r="E4114" t="s">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="4115" spans="4:5">
+      <c r="E4115" t="s">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="4116" spans="4:5">
+      <c r="E4116" t="s">
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="4117" spans="4:5">
+      <c r="E4117" t="s">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="4118" spans="4:5">
+      <c r="D4118" t="s">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="4119" spans="4:5">
+      <c r="E4119" t="s">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="4120" spans="4:5">
+      <c r="E4120" t="s">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="4121" spans="4:5">
+      <c r="E4121" t="s">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="4122" spans="4:5">
+      <c r="E4122" t="s">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="4123" spans="4:5">
+      <c r="E4123" t="s">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="4124" spans="4:5">
+      <c r="E4124" t="s">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="4125" spans="4:5">
+      <c r="E4125" t="s">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="4126" spans="4:5">
+      <c r="E4126" t="s">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="4127" spans="4:5">
+      <c r="D4127" t="s">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="4128" spans="4:5">
+      <c r="E4128" t="s">
+        <v>3928</v>
+      </c>
+    </row>
+    <row r="4129" spans="4:5">
+      <c r="E4129" t="s">
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="4130" spans="4:5">
+      <c r="E4130" t="s">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="4131" spans="4:5">
+      <c r="E4131" t="s">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="4132" spans="4:5">
+      <c r="E4132" t="s">
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="4133" spans="4:5">
+      <c r="E4133" t="s">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="4134" spans="4:5">
+      <c r="E4134" t="s">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="4135" spans="4:5">
+      <c r="E4135" t="s">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="4136" spans="4:5">
+      <c r="D4136" t="s">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="4137" spans="4:5">
+      <c r="E4137" t="s">
+        <v>3937</v>
+      </c>
+    </row>
+    <row r="4138" spans="4:5">
+      <c r="E4138" t="s">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="4139" spans="4:5">
+      <c r="E4139" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="4140" spans="4:5">
+      <c r="E4140" t="s">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="4141" spans="4:5">
+      <c r="E4141" t="s">
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="4142" spans="4:5">
+      <c r="E4142" t="s">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="4143" spans="4:5">
+      <c r="E4143" t="s">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="4144" spans="4:5">
+      <c r="E4144" t="s">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="4145" spans="5:5">
+      <c r="E4145" t="s">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="4146" spans="5:5">
+      <c r="E4146" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="4147" spans="5:5">
+      <c r="E4147" t="s">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="4148" spans="5:5">
+      <c r="E4148" t="s">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="4149" spans="5:5">
+      <c r="E4149" t="s">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="4150" spans="5:5">
+      <c r="E4150" t="s">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="4151" spans="5:5">
+      <c r="E4151" t="s">
+        <v>3951</v>
+      </c>
+    </row>
+    <row r="4152" spans="5:5">
+      <c r="E4152" t="s">
+        <v>3952</v>
+      </c>
+    </row>
+    <row r="4153" spans="5:5">
+      <c r="E4153" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="4154" spans="5:5">
+      <c r="E4154" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="4155" spans="5:5">
+      <c r="E4155" t="s">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="4156" spans="5:5">
+      <c r="E4156" t="s">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="4157" spans="5:5">
+      <c r="E4157" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="4158" spans="5:5">
+      <c r="E4158" t="s">
         <v>3958</v>
       </c>
     </row>
-    <row r="4108" spans="2:5">
-      <c r="C4108" t="s">
+    <row r="4159" spans="5:5">
+      <c r="E4159" t="s">
         <v>3959</v>
       </c>
     </row>
-    <row r="4109" spans="2:5">
-      <c r="C4109" t="s">
+    <row r="4160" spans="5:5">
+      <c r="E4160" t="s">
         <v>3960</v>
       </c>
     </row>
-    <row r="4110" spans="2:5">
-      <c r="C4110" t="s">
+    <row r="4161" spans="3:5">
+      <c r="E4161" t="s">
         <v>3961</v>
       </c>
     </row>
-    <row r="4111" spans="2:5">
-      <c r="C4111" t="s">
+    <row r="4162" spans="3:5">
+      <c r="E4162" t="s">
         <v>3962</v>
       </c>
     </row>
-    <row r="4112" spans="2:5">
-      <c r="C4112" t="s">
+    <row r="4163" spans="3:5">
+      <c r="E4163" t="s">
         <v>3963</v>
       </c>
     </row>
-    <row r="4113" spans="2:5">
-      <c r="B4113" t="s">
+    <row r="4164" spans="3:5">
+      <c r="E4164" t="s">
         <v>3964</v>
       </c>
     </row>
-    <row r="4114" spans="2:5">
-      <c r="C4114" t="s">
+    <row r="4165" spans="3:5">
+      <c r="E4165" t="s">
         <v>3965</v>
       </c>
     </row>
-    <row r="4115" spans="2:5">
-      <c r="C4115" t="s">
+    <row r="4166" spans="3:5">
+      <c r="E4166" t="s">
         <v>3966</v>
       </c>
     </row>
-    <row r="4116" spans="2:5">
-      <c r="D4116" t="s">
+    <row r="4167" spans="3:5">
+      <c r="E4167" t="s">
         <v>3967</v>
       </c>
     </row>
-    <row r="4117" spans="2:5">
-      <c r="E4117" t="s">
+    <row r="4168" spans="3:5">
+      <c r="E4168" t="s">
         <v>3968</v>
       </c>
     </row>
-    <row r="4118" spans="2:5">
-      <c r="E4118" t="s">
+    <row r="4169" spans="3:5">
+      <c r="E4169" t="s">
         <v>3969</v>
       </c>
     </row>
-    <row r="4119" spans="2:5">
-      <c r="E4119" t="s">
+    <row r="4170" spans="3:5">
+      <c r="E4170" t="s">
         <v>3970</v>
       </c>
     </row>
-    <row r="4120" spans="2:5">
-      <c r="E4120" t="s">
+    <row r="4171" spans="3:5">
+      <c r="E4171" t="s">
         <v>3971</v>
       </c>
     </row>
-    <row r="4121" spans="2:5">
-      <c r="E4121" t="s">
+    <row r="4172" spans="3:5">
+      <c r="E4172" t="s">
         <v>3972</v>
       </c>
     </row>
-    <row r="4122" spans="2:5">
-      <c r="E4122" t="s">
+    <row r="4173" spans="3:5">
+      <c r="E4173" t="s">
         <v>3973</v>
       </c>
     </row>
-    <row r="4123" spans="2:5">
-      <c r="E4123" t="s">
+    <row r="4174" spans="3:5">
+      <c r="E4174" t="s">
         <v>3974</v>
       </c>
     </row>
-    <row r="4124" spans="2:5">
-      <c r="E4124" t="s">
+    <row r="4175" spans="3:5">
+      <c r="C4175" t="s">
         <v>3975</v>
       </c>
     </row>
-    <row r="4125" spans="2:5">
-      <c r="E4125" t="s">
-        <v>3976</v>
-      </c>
-    </row>
-    <row r="4126" spans="2:5">
-      <c r="E4126" t="s">
-        <v>3977</v>
-      </c>
-    </row>
-    <row r="4127" spans="2:5">
-      <c r="E4127" t="s">
-        <v>3978</v>
-      </c>
-    </row>
-    <row r="4128" spans="2:5">
-      <c r="E4128" t="s">
-        <v>3979</v>
-      </c>
-    </row>
-    <row r="4129" spans="5:5">
-      <c r="E4129" t="s">
-        <v>3980</v>
-      </c>
-    </row>
-    <row r="4130" spans="5:5">
-      <c r="E4130" t="s">
-        <v>3981</v>
-      </c>
-    </row>
-    <row r="4131" spans="5:5">
-      <c r="E4131" t="s">
-        <v>3982</v>
-      </c>
-    </row>
-    <row r="4132" spans="5:5">
-      <c r="E4132" t="s">
-        <v>3983</v>
-      </c>
-    </row>
-    <row r="4133" spans="5:5">
-      <c r="E4133" t="s">
-        <v>3984</v>
-      </c>
-    </row>
-    <row r="4134" spans="5:5">
-      <c r="E4134" t="s">
-        <v>3985</v>
-      </c>
-    </row>
-    <row r="4135" spans="5:5">
-      <c r="E4135" t="s">
-        <v>3986</v>
-      </c>
-    </row>
-    <row r="4136" spans="5:5">
-      <c r="E4136" t="s">
-        <v>3987</v>
-      </c>
-    </row>
-    <row r="4137" spans="5:5">
-      <c r="E4137" t="s">
-        <v>3988</v>
-      </c>
-    </row>
-    <row r="4138" spans="5:5">
-      <c r="E4138" t="s">
-        <v>3989</v>
-      </c>
-    </row>
-    <row r="4139" spans="5:5">
-      <c r="E4139" t="s">
-        <v>3990</v>
-      </c>
-    </row>
-    <row r="4140" spans="5:5">
-      <c r="E4140" t="s">
-        <v>3991</v>
-      </c>
-    </row>
-    <row r="4141" spans="5:5">
-      <c r="E4141" t="s">
-        <v>3992</v>
-      </c>
-    </row>
-    <row r="4142" spans="5:5">
-      <c r="E4142" t="s">
-        <v>3993</v>
-      </c>
-    </row>
-    <row r="4143" spans="5:5">
-      <c r="E4143" t="s">
-        <v>3994</v>
-      </c>
-    </row>
-    <row r="4144" spans="5:5">
-      <c r="E4144" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="4145" spans="4:5">
-      <c r="E4145" t="s">
-        <v>3996</v>
-      </c>
-    </row>
-    <row r="4146" spans="4:5">
-      <c r="E4146" t="s">
-        <v>3997</v>
-      </c>
-    </row>
-    <row r="4147" spans="4:5">
-      <c r="E4147" t="s">
-        <v>3998</v>
-      </c>
-    </row>
-    <row r="4148" spans="4:5">
-      <c r="E4148" t="s">
-        <v>3999</v>
-      </c>
-    </row>
-    <row r="4149" spans="4:5">
-      <c r="E4149" t="s">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="4150" spans="4:5">
-      <c r="D4150" t="s">
-        <v>4001</v>
-      </c>
-    </row>
-    <row r="4151" spans="4:5">
-      <c r="E4151" t="s">
-        <v>4002</v>
-      </c>
-    </row>
-    <row r="4152" spans="4:5">
-      <c r="E4152" t="s">
-        <v>4003</v>
-      </c>
-    </row>
-    <row r="4153" spans="4:5">
-      <c r="E4153" t="s">
-        <v>4004</v>
-      </c>
-    </row>
-    <row r="4154" spans="4:5">
-      <c r="E4154" t="s">
-        <v>4005</v>
-      </c>
-    </row>
-    <row r="4155" spans="4:5">
-      <c r="E4155" t="s">
-        <v>4006</v>
-      </c>
-    </row>
-    <row r="4156" spans="4:5">
-      <c r="E4156" t="s">
-        <v>4007</v>
-      </c>
-    </row>
-    <row r="4157" spans="4:5">
-      <c r="E4157" t="s">
-        <v>4008</v>
-      </c>
-    </row>
-    <row r="4158" spans="4:5">
-      <c r="E4158" t="s">
-        <v>4009</v>
-      </c>
-    </row>
-    <row r="4159" spans="4:5">
-      <c r="E4159" t="s">
-        <v>4010</v>
-      </c>
-    </row>
-    <row r="4160" spans="4:5">
-      <c r="E4160" t="s">
-        <v>4011</v>
-      </c>
-    </row>
-    <row r="4161" spans="4:5">
-      <c r="E4161" t="s">
-        <v>4012</v>
-      </c>
-    </row>
-    <row r="4162" spans="4:5">
-      <c r="E4162" t="s">
-        <v>4013</v>
-      </c>
-    </row>
-    <row r="4163" spans="4:5">
-      <c r="E4163" t="s">
-        <v>4014</v>
-      </c>
-    </row>
-    <row r="4164" spans="4:5">
-      <c r="D4164" t="s">
-        <v>4015</v>
-      </c>
-    </row>
-    <row r="4165" spans="4:5">
-      <c r="E4165" t="s">
-        <v>4016</v>
-      </c>
-    </row>
-    <row r="4166" spans="4:5">
-      <c r="E4166" t="s">
-        <v>4017</v>
-      </c>
-    </row>
-    <row r="4167" spans="4:5">
-      <c r="E4167" t="s">
-        <v>4018</v>
-      </c>
-    </row>
-    <row r="4168" spans="4:5">
-      <c r="E4168" t="s">
-        <v>4019</v>
-      </c>
-    </row>
-    <row r="4169" spans="4:5">
-      <c r="E4169" t="s">
-        <v>4020</v>
-      </c>
-    </row>
-    <row r="4170" spans="4:5">
-      <c r="E4170" t="s">
-        <v>4021</v>
-      </c>
-    </row>
-    <row r="4171" spans="4:5">
-      <c r="E4171" t="s">
-        <v>4022</v>
-      </c>
-    </row>
-    <row r="4172" spans="4:5">
-      <c r="E4172" t="s">
-        <v>4023</v>
-      </c>
-    </row>
-    <row r="4173" spans="4:5">
-      <c r="D4173" t="s">
-        <v>4024</v>
-      </c>
-    </row>
-    <row r="4174" spans="4:5">
-      <c r="E4174" t="s">
-        <v>4025</v>
-      </c>
-    </row>
-    <row r="4175" spans="4:5">
-      <c r="E4175" t="s">
-        <v>4026</v>
-      </c>
-    </row>
-    <row r="4176" spans="4:5">
-      <c r="E4176" t="s">
-        <v>4027</v>
-      </c>
-    </row>
-    <row r="4177" spans="4:5">
-      <c r="E4177" t="s">
-        <v>4028</v>
-      </c>
-    </row>
-    <row r="4178" spans="4:5">
-      <c r="E4178" t="s">
-        <v>4029</v>
-      </c>
-    </row>
-    <row r="4179" spans="4:5">
-      <c r="E4179" t="s">
-        <v>4030</v>
-      </c>
-    </row>
-    <row r="4180" spans="4:5">
-      <c r="E4180" t="s">
-        <v>4031</v>
-      </c>
-    </row>
-    <row r="4181" spans="4:5">
-      <c r="E4181" t="s">
-        <v>4032</v>
-      </c>
-    </row>
-    <row r="4182" spans="4:5">
+    <row r="4176" spans="3:5">
+      <c r="D4176" t="s">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="4177" spans="4:4">
+      <c r="D4177" t="s">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="4178" spans="4:4">
+      <c r="D4178" t="s">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="4179" spans="4:4">
+      <c r="D4179" t="s">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="4180" spans="4:4">
+      <c r="D4180" t="s">
+        <v>3875</v>
+      </c>
+    </row>
+    <row r="4181" spans="4:4">
+      <c r="D4181" t="s">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="4182" spans="4:4">
       <c r="D4182" t="s">
-        <v>4033</v>
-      </c>
-    </row>
-    <row r="4183" spans="4:5">
-      <c r="E4183" t="s">
-        <v>4034</v>
-      </c>
-    </row>
-    <row r="4184" spans="4:5">
-      <c r="E4184" t="s">
-        <v>4035</v>
-      </c>
-    </row>
-    <row r="4185" spans="4:5">
-      <c r="E4185" t="s">
-        <v>4036</v>
-      </c>
-    </row>
-    <row r="4186" spans="4:5">
-      <c r="E4186" t="s">
-        <v>4037</v>
-      </c>
-    </row>
-    <row r="4187" spans="4:5">
-      <c r="E4187" t="s">
-        <v>4038</v>
-      </c>
-    </row>
-    <row r="4188" spans="4:5">
-      <c r="E4188" t="s">
-        <v>4039</v>
-      </c>
-    </row>
-    <row r="4189" spans="4:5">
-      <c r="E4189" t="s">
-        <v>4040</v>
-      </c>
-    </row>
-    <row r="4190" spans="4:5">
-      <c r="E4190" t="s">
-        <v>4041</v>
-      </c>
-    </row>
-    <row r="4191" spans="4:5">
-      <c r="E4191" t="s">
-        <v>4042</v>
-      </c>
-    </row>
-    <row r="4192" spans="4:5">
-      <c r="E4192" t="s">
-        <v>4043</v>
-      </c>
-    </row>
-    <row r="4193" spans="5:5">
-      <c r="E4193" t="s">
-        <v>4044</v>
-      </c>
-    </row>
-    <row r="4194" spans="5:5">
-      <c r="E4194" t="s">
-        <v>4045</v>
-      </c>
-    </row>
-    <row r="4195" spans="5:5">
-      <c r="E4195" t="s">
-        <v>4046</v>
-      </c>
-    </row>
-    <row r="4196" spans="5:5">
-      <c r="E4196" t="s">
-        <v>4047</v>
-      </c>
-    </row>
-    <row r="4197" spans="5:5">
-      <c r="E4197" t="s">
-        <v>4048</v>
-      </c>
-    </row>
-    <row r="4198" spans="5:5">
-      <c r="E4198" t="s">
-        <v>4049</v>
-      </c>
-    </row>
-    <row r="4199" spans="5:5">
-      <c r="E4199" t="s">
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="4200" spans="5:5">
-      <c r="E4200" t="s">
-        <v>4051</v>
-      </c>
-    </row>
-    <row r="4201" spans="5:5">
-      <c r="E4201" t="s">
-        <v>4052</v>
-      </c>
-    </row>
-    <row r="4202" spans="5:5">
-      <c r="E4202" t="s">
-        <v>4053</v>
-      </c>
-    </row>
-    <row r="4203" spans="5:5">
-      <c r="E4203" t="s">
-        <v>4054</v>
-      </c>
-    </row>
-    <row r="4204" spans="5:5">
-      <c r="E4204" t="s">
-        <v>4055</v>
-      </c>
-    </row>
-    <row r="4205" spans="5:5">
-      <c r="E4205" t="s">
-        <v>4056</v>
-      </c>
-    </row>
-    <row r="4206" spans="5:5">
-      <c r="E4206" t="s">
-        <v>4057</v>
-      </c>
-    </row>
-    <row r="4207" spans="5:5">
-      <c r="E4207" t="s">
-        <v>4058</v>
-      </c>
-    </row>
-    <row r="4208" spans="5:5">
-      <c r="E4208" t="s">
-        <v>4059</v>
-      </c>
-    </row>
-    <row r="4209" spans="3:5">
-      <c r="E4209" t="s">
-        <v>4060</v>
-      </c>
-    </row>
-    <row r="4210" spans="3:5">
-      <c r="E4210" t="s">
-        <v>4061</v>
-      </c>
-    </row>
-    <row r="4211" spans="3:5">
-      <c r="E4211" t="s">
-        <v>4062</v>
-      </c>
-    </row>
-    <row r="4212" spans="3:5">
-      <c r="E4212" t="s">
-        <v>4063</v>
-      </c>
-    </row>
-    <row r="4213" spans="3:5">
-      <c r="E4213" t="s">
-        <v>4064</v>
-      </c>
-    </row>
-    <row r="4214" spans="3:5">
-      <c r="E4214" t="s">
-        <v>4065</v>
-      </c>
-    </row>
-    <row r="4215" spans="3:5">
-      <c r="E4215" t="s">
-        <v>4066</v>
-      </c>
-    </row>
-    <row r="4216" spans="3:5">
-      <c r="E4216" t="s">
-        <v>4067</v>
-      </c>
-    </row>
-    <row r="4217" spans="3:5">
-      <c r="E4217" t="s">
-        <v>4068</v>
-      </c>
-    </row>
-    <row r="4218" spans="3:5">
-      <c r="E4218" t="s">
-        <v>4069</v>
-      </c>
-    </row>
-    <row r="4219" spans="3:5">
-      <c r="E4219" t="s">
-        <v>4070</v>
-      </c>
-    </row>
-    <row r="4220" spans="3:5">
-      <c r="E4220" t="s">
-        <v>4071</v>
-      </c>
-    </row>
-    <row r="4221" spans="3:5">
-      <c r="C4221" t="s">
-        <v>4072</v>
-      </c>
-    </row>
-    <row r="4222" spans="3:5">
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="4183" spans="4:4">
+      <c r="D4183" t="s">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="4184" spans="4:4">
+      <c r="D4184" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="4185" spans="4:4">
+      <c r="D4185" t="s">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="4186" spans="4:4">
+      <c r="D4186" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="4187" spans="4:4">
+      <c r="D4187" t="s">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="4188" spans="4:4">
+      <c r="D4188" t="s">
+        <v>3883</v>
+      </c>
+    </row>
+    <row r="4189" spans="4:4">
+      <c r="D4189" t="s">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="4190" spans="4:4">
+      <c r="D4190" t="s">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="4191" spans="4:4">
+      <c r="D4191" t="s">
+        <v>3886</v>
+      </c>
+    </row>
+    <row r="4192" spans="4:4">
+      <c r="D4192" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="4193" spans="4:4">
+      <c r="D4193" t="s">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="4194" spans="4:4">
+      <c r="D4194" t="s">
+        <v>3889</v>
+      </c>
+    </row>
+    <row r="4195" spans="4:4">
+      <c r="D4195" t="s">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="4196" spans="4:4">
+      <c r="D4196" t="s">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="4197" spans="4:4">
+      <c r="D4197" t="s">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="4198" spans="4:4">
+      <c r="D4198" t="s">
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="4199" spans="4:4">
+      <c r="D4199" t="s">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="4200" spans="4:4">
+      <c r="D4200" t="s">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="4201" spans="4:4">
+      <c r="D4201" t="s">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="4202" spans="4:4">
+      <c r="D4202" t="s">
+        <v>3897</v>
+      </c>
+    </row>
+    <row r="4203" spans="4:4">
+      <c r="D4203" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="4204" spans="4:4">
+      <c r="D4204" t="s">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="4205" spans="4:4">
+      <c r="D4205" t="s">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="4206" spans="4:4">
+      <c r="D4206" t="s">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="4207" spans="4:4">
+      <c r="D4207" t="s">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="4208" spans="4:4">
+      <c r="D4208" t="s">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="4209" spans="4:4">
+      <c r="D4209" t="s">
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="4210" spans="4:4">
+      <c r="D4210" t="s">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="4211" spans="4:4">
+      <c r="D4211" t="s">
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="4212" spans="4:4">
+      <c r="D4212" t="s">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="4213" spans="4:4">
+      <c r="D4213" t="s">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="4214" spans="4:4">
+      <c r="D4214" t="s">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="4215" spans="4:4">
+      <c r="D4215" t="s">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="4216" spans="4:4">
+      <c r="D4216" t="s">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="4217" spans="4:4">
+      <c r="D4217" t="s">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="4218" spans="4:4">
+      <c r="D4218" t="s">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="4219" spans="4:4">
+      <c r="D4219" t="s">
+        <v>3911</v>
+      </c>
+    </row>
+    <row r="4220" spans="4:4">
+      <c r="D4220" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="4221" spans="4:4">
+      <c r="D4221" t="s">
+        <v>3913</v>
+      </c>
+    </row>
+    <row r="4222" spans="4:4">
       <c r="D4222" t="s">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="4223" spans="3:5">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="4223" spans="4:4">
       <c r="D4223" t="s">
-        <v>3969</v>
-      </c>
-    </row>
-    <row r="4224" spans="3:5">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="4224" spans="4:4">
       <c r="D4224" t="s">
-        <v>3970</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="4225" spans="4:4">
       <c r="D4225" t="s">
-        <v>3971</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="4226" spans="4:4">
       <c r="D4226" t="s">
-        <v>3972</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="4227" spans="4:4">
       <c r="D4227" t="s">
-        <v>3973</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="4228" spans="4:4">
       <c r="D4228" t="s">
-        <v>3974</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="4229" spans="4:4">
       <c r="D4229" t="s">
-        <v>3975</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="4230" spans="4:4">
       <c r="D4230" t="s">
-        <v>3976</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="4231" spans="4:4">
       <c r="D4231" t="s">
-        <v>3977</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="4232" spans="4:4">
       <c r="D4232" t="s">
-        <v>3978</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="4233" spans="4:4">
       <c r="D4233" t="s">
-        <v>3979</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="4234" spans="4:4">
       <c r="D4234" t="s">
-        <v>3980</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="4235" spans="4:4">
       <c r="D4235" t="s">
-        <v>3981</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="4236" spans="4:4">
       <c r="D4236" t="s">
-        <v>3982</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="4237" spans="4:4">
       <c r="D4237" t="s">
-        <v>3983</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="4238" spans="4:4">
       <c r="D4238" t="s">
-        <v>3984</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="4239" spans="4:4">
       <c r="D4239" t="s">
-        <v>3985</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="4240" spans="4:4">
       <c r="D4240" t="s">
-        <v>3986</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="4241" spans="4:4">
       <c r="D4241" t="s">
-        <v>3987</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="4242" spans="4:4">
       <c r="D4242" t="s">
-        <v>3988</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="4243" spans="4:4">
       <c r="D4243" t="s">
-        <v>3989</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="4244" spans="4:4">
       <c r="D4244" t="s">
-        <v>3990</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="4245" spans="4:4">
       <c r="D4245" t="s">
-        <v>3991</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="4246" spans="4:4">
       <c r="D4246" t="s">
-        <v>3992</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="4247" spans="4:4">
       <c r="D4247" t="s">
-        <v>3993</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="4248" spans="4:4">
       <c r="D4248" t="s">
-        <v>3994</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="4249" spans="4:4">
       <c r="D4249" t="s">
-        <v>3995</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="4250" spans="4:4">
       <c r="D4250" t="s">
-        <v>3996</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="4251" spans="4:4">
       <c r="D4251" t="s">
-        <v>3997</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="4252" spans="4:4">
       <c r="D4252" t="s">
-        <v>3998</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="4253" spans="4:4">
       <c r="D4253" t="s">
-        <v>3999</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="4254" spans="4:4">
       <c r="D4254" t="s">
-        <v>4000</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="4255" spans="4:4">
       <c r="D4255" t="s">
-        <v>4002</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="4256" spans="4:4">
       <c r="D4256" t="s">
-        <v>4003</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="4257" spans="4:4">
       <c r="D4257" t="s">
-        <v>4004</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="4258" spans="4:4">
       <c r="D4258" t="s">
-        <v>4016</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="4259" spans="4:4">
       <c r="D4259" t="s">
-        <v>4017</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="4260" spans="4:4">
       <c r="D4260" t="s">
-        <v>4018</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="4261" spans="4:4">
       <c r="D4261" t="s">
-        <v>4005</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="4262" spans="4:4">
       <c r="D4262" t="s">
-        <v>4006</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="4263" spans="4:4">
       <c r="D4263" t="s">
-        <v>4019</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="4264" spans="4:4">
       <c r="D4264" t="s">
-        <v>4007</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="4265" spans="4:4">
       <c r="D4265" t="s">
-        <v>4008</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="4266" spans="4:4">
       <c r="D4266" t="s">
-        <v>4009</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="4267" spans="4:4">
       <c r="D4267" t="s">
-        <v>4010</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="4268" spans="4:4">
       <c r="D4268" t="s">
-        <v>4011</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="4269" spans="4:4">
       <c r="D4269" t="s">
-        <v>4012</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="4270" spans="4:4">
       <c r="D4270" t="s">
-        <v>4020</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="4271" spans="4:4">
       <c r="D4271" t="s">
-        <v>4021</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="4272" spans="4:4">
       <c r="D4272" t="s">
-        <v>4022</v>
-      </c>
-    </row>
-    <row r="4273" spans="4:4">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="4273" spans="2:4">
       <c r="D4273" t="s">
-        <v>4013</v>
-      </c>
-    </row>
-    <row r="4274" spans="4:4">
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="4274" spans="2:4">
       <c r="D4274" t="s">
-        <v>4014</v>
-      </c>
-    </row>
-    <row r="4275" spans="4:4">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="4275" spans="2:4">
       <c r="D4275" t="s">
-        <v>4023</v>
-      </c>
-    </row>
-    <row r="4276" spans="4:4">
-      <c r="D4276" t="s">
-        <v>4034</v>
-      </c>
-    </row>
-    <row r="4277" spans="4:4">
-      <c r="D4277" t="s">
-        <v>4035</v>
-      </c>
-    </row>
-    <row r="4278" spans="4:4">
-      <c r="D4278" t="s">
-        <v>4036</v>
-      </c>
-    </row>
-    <row r="4279" spans="4:4">
-      <c r="D4279" t="s">
-        <v>4037</v>
-      </c>
-    </row>
-    <row r="4280" spans="4:4">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="4276" spans="2:4">
+      <c r="B4276" t="s">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="4277" spans="2:4">
+      <c r="C4277" t="s">
+        <v>3977</v>
+      </c>
+    </row>
+    <row r="4278" spans="2:4">
+      <c r="C4278" t="s">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="4279" spans="2:4">
+      <c r="C4279" t="s">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="4280" spans="2:4">
       <c r="D4280" t="s">
-        <v>4038</v>
-      </c>
-    </row>
-    <row r="4281" spans="4:4">
-      <c r="D4281" t="s">
-        <v>4039</v>
-      </c>
-    </row>
-    <row r="4282" spans="4:4">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="4281" spans="2:4">
+      <c r="C4281" t="s">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="4282" spans="2:4">
       <c r="D4282" t="s">
-        <v>4040</v>
-      </c>
-    </row>
-    <row r="4283" spans="4:4">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="4283" spans="2:4">
       <c r="D4283" t="s">
-        <v>4041</v>
-      </c>
-    </row>
-    <row r="4284" spans="4:4">
-      <c r="D4284" t="s">
-        <v>4042</v>
-      </c>
-    </row>
-    <row r="4285" spans="4:4">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="4284" spans="2:4">
+      <c r="C4284" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="4285" spans="2:4">
       <c r="D4285" t="s">
-        <v>4025</v>
-      </c>
-    </row>
-    <row r="4286" spans="4:4">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="4286" spans="2:4">
       <c r="D4286" t="s">
-        <v>4043</v>
-      </c>
-    </row>
-    <row r="4287" spans="4:4">
+        <v>4142</v>
+      </c>
+    </row>
+    <row r="4287" spans="2:4">
       <c r="D4287" t="s">
-        <v>4044</v>
-      </c>
-    </row>
-    <row r="4288" spans="4:4">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="4288" spans="2:4">
       <c r="D4288" t="s">
-        <v>4045</v>
-      </c>
-    </row>
-    <row r="4289" spans="4:4">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="4289" spans="3:4">
       <c r="D4289" t="s">
-        <v>4046</v>
-      </c>
-    </row>
-    <row r="4290" spans="4:4">
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="4290" spans="3:4">
       <c r="D4290" t="s">
-        <v>4047</v>
-      </c>
-    </row>
-    <row r="4291" spans="4:4">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="4291" spans="3:4">
       <c r="D4291" t="s">
-        <v>4026</v>
-      </c>
-    </row>
-    <row r="4292" spans="4:4">
+        <v>4147</v>
+      </c>
+    </row>
+    <row r="4292" spans="3:4">
       <c r="D4292" t="s">
-        <v>4048</v>
-      </c>
-    </row>
-    <row r="4293" spans="4:4">
-      <c r="D4293" t="s">
-        <v>4049</v>
-      </c>
-    </row>
-    <row r="4294" spans="4:4">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="4293" spans="3:4">
+      <c r="C4293" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="4294" spans="3:4">
       <c r="D4294" t="s">
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="4295" spans="4:4">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="4295" spans="3:4">
       <c r="D4295" t="s">
-        <v>4027</v>
-      </c>
-    </row>
-    <row r="4296" spans="4:4">
+        <v>4149</v>
+      </c>
+    </row>
+    <row r="4296" spans="3:4">
       <c r="D4296" t="s">
-        <v>4051</v>
-      </c>
-    </row>
-    <row r="4297" spans="4:4">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="4297" spans="3:4">
       <c r="D4297" t="s">
-        <v>4052</v>
-      </c>
-    </row>
-    <row r="4298" spans="4:4">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="4298" spans="3:4">
       <c r="D4298" t="s">
-        <v>4053</v>
-      </c>
-    </row>
-    <row r="4299" spans="4:4">
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="4299" spans="3:4">
       <c r="D4299" t="s">
-        <v>4054</v>
-      </c>
-    </row>
-    <row r="4300" spans="4:4">
+        <v>4153</v>
+      </c>
+    </row>
+    <row r="4300" spans="3:4">
       <c r="D4300" t="s">
-        <v>4055</v>
-      </c>
-    </row>
-    <row r="4301" spans="4:4">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="4301" spans="3:4">
       <c r="D4301" t="s">
-        <v>4056</v>
-      </c>
-    </row>
-    <row r="4302" spans="4:4">
+        <v>4155</v>
+      </c>
+    </row>
+    <row r="4302" spans="3:4">
       <c r="D4302" t="s">
-        <v>4028</v>
-      </c>
-    </row>
-    <row r="4303" spans="4:4">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="4303" spans="3:4">
       <c r="D4303" t="s">
-        <v>4029</v>
-      </c>
-    </row>
-    <row r="4304" spans="4:4">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="4304" spans="3:4">
       <c r="D4304" t="s">
-        <v>4030</v>
-      </c>
-    </row>
-    <row r="4305" spans="4:4">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="4305" spans="3:4">
       <c r="D4305" t="s">
-        <v>4057</v>
-      </c>
-    </row>
-    <row r="4306" spans="4:4">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="4306" spans="3:4">
       <c r="D4306" t="s">
-        <v>4058</v>
-      </c>
-    </row>
-    <row r="4307" spans="4:4">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="4307" spans="3:4">
       <c r="D4307" t="s">
-        <v>4059</v>
-      </c>
-    </row>
-    <row r="4308" spans="4:4">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="4308" spans="3:4">
       <c r="D4308" t="s">
-        <v>4060</v>
-      </c>
-    </row>
-    <row r="4309" spans="4:4">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="4309" spans="3:4">
       <c r="D4309" t="s">
-        <v>4061</v>
-      </c>
-    </row>
-    <row r="4310" spans="4:4">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="4310" spans="3:4">
       <c r="D4310" t="s">
-        <v>4062</v>
-      </c>
-    </row>
-    <row r="4311" spans="4:4">
-      <c r="D4311" t="s">
-        <v>4063</v>
-      </c>
-    </row>
-    <row r="4312" spans="4:4">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="4311" spans="3:4">
+      <c r="C4311" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="4312" spans="3:4">
       <c r="D4312" t="s">
-        <v>4064</v>
-      </c>
-    </row>
-    <row r="4313" spans="4:4">
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="4313" spans="3:4">
       <c r="D4313" t="s">
-        <v>4065</v>
-      </c>
-    </row>
-    <row r="4314" spans="4:4">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="4314" spans="3:4">
       <c r="D4314" t="s">
-        <v>4066</v>
-      </c>
-    </row>
-    <row r="4315" spans="4:4">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="4315" spans="3:4">
       <c r="D4315" t="s">
-        <v>4067</v>
-      </c>
-    </row>
-    <row r="4316" spans="4:4">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="4316" spans="3:4">
       <c r="D4316" t="s">
-        <v>4068</v>
-      </c>
-    </row>
-    <row r="4317" spans="4:4">
-      <c r="D4317" t="s">
-        <v>4069</v>
-      </c>
-    </row>
-    <row r="4318" spans="4:4">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="4317" spans="3:4">
+      <c r="C4317" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="4318" spans="3:4">
       <c r="D4318" t="s">
-        <v>4031</v>
-      </c>
-    </row>
-    <row r="4319" spans="4:4">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="4319" spans="3:4">
       <c r="D4319" t="s">
-        <v>4070</v>
-      </c>
-    </row>
-    <row r="4320" spans="4:4">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="4320" spans="3:4">
       <c r="D4320" t="s">
-        <v>4032</v>
-      </c>
-    </row>
-    <row r="4321" spans="2:4">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="4321" spans="4:4">
       <c r="D4321" t="s">
-        <v>4071</v>
-      </c>
-    </row>
-    <row r="4322" spans="2:4">
-      <c r="B4322" t="s">
-        <v>4073</v>
-      </c>
-    </row>
-    <row r="4323" spans="2:4">
-      <c r="C4323" t="s">
-        <v>4074</v>
-      </c>
-    </row>
-    <row r="4324" spans="2:4">
-      <c r="C4324" t="s">
-        <v>4075</v>
-      </c>
-    </row>
-    <row r="4325" spans="2:4">
-      <c r="C4325" t="s">
-        <v>4076</v>
-      </c>
-    </row>
-    <row r="4326" spans="2:4">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="4322" spans="4:4">
+      <c r="D4322" t="s">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="4323" spans="4:4">
+      <c r="D4323" t="s">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="4324" spans="4:4">
+      <c r="D4324" t="s">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="4325" spans="4:4">
+      <c r="D4325" t="s">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="4326" spans="4:4">
       <c r="D4326" t="s">
-        <v>4077</v>
-      </c>
-    </row>
-    <row r="4327" spans="2:4">
-      <c r="C4327" t="s">
-        <v>4078</v>
-      </c>
-    </row>
-    <row r="4328" spans="2:4">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="4327" spans="4:4">
+      <c r="D4327" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="4328" spans="4:4">
       <c r="D4328" t="s">
-        <v>4079</v>
-      </c>
-    </row>
-    <row r="4329" spans="2:4">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="4329" spans="4:4">
       <c r="D4329" t="s">
-        <v>4080</v>
-      </c>
-    </row>
-    <row r="4330" spans="2:4">
-      <c r="C4330" t="s">
-        <v>2465</v>
-      </c>
-    </row>
-    <row r="4331" spans="2:4">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="4330" spans="4:4">
+      <c r="D4330" t="s">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="4331" spans="4:4">
       <c r="D4331" t="s">
-        <v>4081</v>
-      </c>
-    </row>
-    <row r="4332" spans="2:4">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="4332" spans="4:4">
       <c r="D4332" t="s">
-        <v>4239</v>
-      </c>
-    </row>
-    <row r="4333" spans="2:4">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="4333" spans="4:4">
       <c r="D4333" t="s">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="4334" spans="2:4">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="4334" spans="4:4">
       <c r="D4334" t="s">
-        <v>4241</v>
-      </c>
-    </row>
-    <row r="4335" spans="2:4">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="4335" spans="4:4">
       <c r="D4335" t="s">
-        <v>4242</v>
-      </c>
-    </row>
-    <row r="4336" spans="2:4">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="4336" spans="4:4">
       <c r="D4336" t="s">
-        <v>4243</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="4337" spans="3:4">
-      <c r="D4337" t="s">
-        <v>4244</v>
+      <c r="C4337" t="s">
+        <v>2556</v>
       </c>
     </row>
     <row r="4338" spans="3:4">
       <c r="D4338" t="s">
-        <v>4245</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="4339" spans="3:4">
-      <c r="C4339" t="s">
-        <v>2474</v>
+      <c r="D4339" t="s">
+        <v>4187</v>
       </c>
     </row>
     <row r="4340" spans="3:4">
       <c r="D4340" t="s">
-        <v>4082</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="4341" spans="3:4">
       <c r="D4341" t="s">
-        <v>4246</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="4342" spans="3:4">
       <c r="D4342" t="s">
-        <v>4247</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="4343" spans="3:4">
       <c r="D4343" t="s">
-        <v>4248</v>
+        <v>4191</v>
       </c>
     </row>
     <row r="4344" spans="3:4">
       <c r="D4344" t="s">
-        <v>4249</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="4345" spans="3:4">
       <c r="D4345" t="s">
-        <v>4250</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="4346" spans="3:4">
       <c r="D4346" t="s">
-        <v>4251</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="4347" spans="3:4">
       <c r="D4347" t="s">
-        <v>4252</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="4348" spans="3:4">
       <c r="D4348" t="s">
-        <v>4253</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="4349" spans="3:4">
       <c r="D4349" t="s">
-        <v>4254</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="4350" spans="3:4">
       <c r="D4350" t="s">
-        <v>4255</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="4351" spans="3:4">
       <c r="D4351" t="s">
-        <v>4256</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="4352" spans="3:4">
       <c r="D4352" t="s">
-        <v>4257</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="4353" spans="3:4">
       <c r="D4353" t="s">
-        <v>4258</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="4354" spans="3:4">
       <c r="D4354" t="s">
-        <v>4259</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="4355" spans="3:4">
       <c r="D4355" t="s">
-        <v>4260</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="4356" spans="3:4">
       <c r="D4356" t="s">
-        <v>4261</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="4357" spans="3:4">
-      <c r="C4357" t="s">
-        <v>2492</v>
+      <c r="D4357" t="s">
+        <v>4205</v>
       </c>
     </row>
     <row r="4358" spans="3:4">
       <c r="D4358" t="s">
-        <v>4083</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="4359" spans="3:4">
       <c r="D4359" t="s">
-        <v>4262</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="4360" spans="3:4">
-      <c r="D4360" t="s">
-        <v>4263</v>
+      <c r="C4360" t="s">
+        <v>3989</v>
       </c>
     </row>
     <row r="4361" spans="3:4">
       <c r="D4361" t="s">
-        <v>4264</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="4362" spans="3:4">
       <c r="D4362" t="s">
-        <v>4265</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="4363" spans="3:4">
-      <c r="C4363" t="s">
-        <v>2516</v>
+      <c r="D4363" t="s">
+        <v>4209</v>
       </c>
     </row>
     <row r="4364" spans="3:4">
       <c r="D4364" t="s">
-        <v>4084</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="4365" spans="3:4">
       <c r="D4365" t="s">
-        <v>4266</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="4366" spans="3:4">
       <c r="D4366" t="s">
-        <v>4267</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="4367" spans="3:4">
       <c r="D4367" t="s">
-        <v>4268</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="4368" spans="3:4">
       <c r="D4368" t="s">
-        <v>4269</v>
-      </c>
-    </row>
-    <row r="4369" spans="3:4">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="4369" spans="3:5">
       <c r="D4369" t="s">
-        <v>4270</v>
-      </c>
-    </row>
-    <row r="4370" spans="3:4">
-      <c r="D4370" t="s">
-        <v>4271</v>
-      </c>
-    </row>
-    <row r="4371" spans="3:4">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="4370" spans="3:5">
+      <c r="C4370" t="s">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="4371" spans="3:5">
       <c r="D4371" t="s">
-        <v>4272</v>
-      </c>
-    </row>
-    <row r="4372" spans="3:4">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="4372" spans="3:5">
       <c r="D4372" t="s">
-        <v>4273</v>
-      </c>
-    </row>
-    <row r="4373" spans="3:4">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="4373" spans="3:5">
       <c r="D4373" t="s">
-        <v>4274</v>
-      </c>
-    </row>
-    <row r="4374" spans="3:4">
-      <c r="D4374" t="s">
-        <v>4275</v>
-      </c>
-    </row>
-    <row r="4375" spans="3:4">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="4374" spans="3:5">
+      <c r="C4374" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="4375" spans="3:5">
       <c r="D4375" t="s">
-        <v>4276</v>
-      </c>
-    </row>
-    <row r="4376" spans="3:4">
+        <v>3993</v>
+      </c>
+    </row>
+    <row r="4376" spans="3:5">
       <c r="D4376" t="s">
-        <v>4277</v>
-      </c>
-    </row>
-    <row r="4377" spans="3:4">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="4377" spans="3:5">
       <c r="D4377" t="s">
-        <v>4278</v>
-      </c>
-    </row>
-    <row r="4378" spans="3:4">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="4378" spans="3:5">
       <c r="D4378" t="s">
-        <v>4279</v>
-      </c>
-    </row>
-    <row r="4379" spans="3:4">
-      <c r="D4379" t="s">
-        <v>4280</v>
-      </c>
-    </row>
-    <row r="4380" spans="3:4">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="4379" spans="3:5">
+      <c r="C4379" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="4380" spans="3:5">
       <c r="D4380" t="s">
-        <v>4281</v>
-      </c>
-    </row>
-    <row r="4381" spans="3:4">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="4381" spans="3:5">
       <c r="D4381" t="s">
-        <v>4282</v>
-      </c>
-    </row>
-    <row r="4382" spans="3:4">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="4382" spans="3:5">
       <c r="D4382" t="s">
-        <v>4283</v>
-      </c>
-    </row>
-    <row r="4383" spans="3:4">
-      <c r="C4383" t="s">
-        <v>2556</v>
-      </c>
-    </row>
-    <row r="4384" spans="3:4">
-      <c r="D4384" t="s">
-        <v>4085</v>
-      </c>
-    </row>
-    <row r="4385" spans="4:4">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="4383" spans="3:5">
+      <c r="D4383" t="s">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="4384" spans="3:5">
+      <c r="E4384" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="4385" spans="3:4">
       <c r="D4385" t="s">
-        <v>4284</v>
-      </c>
-    </row>
-    <row r="4386" spans="4:4">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="4386" spans="3:4">
       <c r="D4386" t="s">
-        <v>4285</v>
-      </c>
-    </row>
-    <row r="4387" spans="4:4">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="4387" spans="3:4">
       <c r="D4387" t="s">
-        <v>4286</v>
-      </c>
-    </row>
-    <row r="4388" spans="4:4">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="4388" spans="3:4">
       <c r="D4388" t="s">
-        <v>4287</v>
-      </c>
-    </row>
-    <row r="4389" spans="4:4">
-      <c r="D4389" t="s">
-        <v>4288</v>
-      </c>
-    </row>
-    <row r="4390" spans="4:4">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="4389" spans="3:4">
+      <c r="C4389" t="s">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="4390" spans="3:4">
       <c r="D4390" t="s">
-        <v>4289</v>
-      </c>
-    </row>
-    <row r="4391" spans="4:4">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="4391" spans="3:4">
       <c r="D4391" t="s">
-        <v>4290</v>
-      </c>
-    </row>
-    <row r="4392" spans="4:4">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="4392" spans="3:4">
       <c r="D4392" t="s">
-        <v>4291</v>
-      </c>
-    </row>
-    <row r="4393" spans="4:4">
-      <c r="D4393" t="s">
-        <v>4292</v>
-      </c>
-    </row>
-    <row r="4394" spans="4:4">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="4393" spans="3:4">
+      <c r="C4393" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="4394" spans="3:4">
       <c r="D4394" t="s">
-        <v>4293</v>
-      </c>
-    </row>
-    <row r="4395" spans="4:4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4395" spans="3:4">
       <c r="D4395" t="s">
-        <v>4294</v>
-      </c>
-    </row>
-    <row r="4396" spans="4:4">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="4396" spans="3:4">
       <c r="D4396" t="s">
-        <v>4295</v>
-      </c>
-    </row>
-    <row r="4397" spans="4:4">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="4397" spans="3:4">
       <c r="D4397" t="s">
-        <v>4296</v>
-      </c>
-    </row>
-    <row r="4398" spans="4:4">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="4398" spans="3:4">
       <c r="D4398" t="s">
-        <v>4297</v>
-      </c>
-    </row>
-    <row r="4399" spans="4:4">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="4399" spans="3:4">
       <c r="D4399" t="s">
-        <v>4298</v>
-      </c>
-    </row>
-    <row r="4400" spans="4:4">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="4400" spans="3:4">
       <c r="D4400" t="s">
-        <v>4299</v>
-      </c>
-    </row>
-    <row r="4401" spans="3:4">
-      <c r="D4401" t="s">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="4402" spans="3:4">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="4401" spans="3:5">
+      <c r="C4401" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="4402" spans="3:5">
       <c r="D4402" t="s">
-        <v>4301</v>
-      </c>
-    </row>
-    <row r="4403" spans="3:4">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="4403" spans="3:5">
       <c r="D4403" t="s">
-        <v>4302</v>
-      </c>
-    </row>
-    <row r="4404" spans="3:4">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="4404" spans="3:5">
       <c r="D4404" t="s">
-        <v>4303</v>
-      </c>
-    </row>
-    <row r="4405" spans="3:4">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="4405" spans="3:5">
       <c r="D4405" t="s">
-        <v>4304</v>
-      </c>
-    </row>
-    <row r="4406" spans="3:4">
-      <c r="C4406" t="s">
-        <v>4086</v>
-      </c>
-    </row>
-    <row r="4407" spans="3:4">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="4406" spans="3:5">
+      <c r="D4406" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="4407" spans="3:5">
       <c r="D4407" t="s">
-        <v>4087</v>
-      </c>
-    </row>
-    <row r="4408" spans="3:4">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="4408" spans="3:5">
       <c r="D4408" t="s">
-        <v>4305</v>
-      </c>
-    </row>
-    <row r="4409" spans="3:4">
-      <c r="D4409" t="s">
-        <v>4306</v>
-      </c>
-    </row>
-    <row r="4410" spans="3:4">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="4409" spans="3:5">
+      <c r="E4409" t="s">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="4410" spans="3:5">
       <c r="D4410" t="s">
-        <v>4307</v>
-      </c>
-    </row>
-    <row r="4411" spans="3:4">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="4411" spans="3:5">
       <c r="D4411" t="s">
-        <v>4308</v>
-      </c>
-    </row>
-    <row r="4412" spans="3:4">
-      <c r="D4412" t="s">
-        <v>4309</v>
-      </c>
-    </row>
-    <row r="4413" spans="3:4">
-      <c r="D4413" t="s">
-        <v>4310</v>
-      </c>
-    </row>
-    <row r="4414" spans="3:4">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="4412" spans="3:5">
+      <c r="E4412" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="4413" spans="3:5">
+      <c r="C4413" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="4414" spans="3:5">
       <c r="D4414" t="s">
-        <v>4311</v>
-      </c>
-    </row>
-    <row r="4415" spans="3:4">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="4415" spans="3:5">
       <c r="D4415" t="s">
-        <v>4312</v>
-      </c>
-    </row>
-    <row r="4416" spans="3:4">
-      <c r="C4416" t="s">
-        <v>4088</v>
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="4416" spans="3:5">
+      <c r="D4416" t="s">
+        <v>4238</v>
       </c>
     </row>
     <row r="4417" spans="3:5">
-      <c r="D4417" t="s">
-        <v>4089</v>
+      <c r="C4417" t="s">
+        <v>2751</v>
       </c>
     </row>
     <row r="4418" spans="3:5">
       <c r="D4418" t="s">
-        <v>4313</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="4419" spans="3:5">
       <c r="D4419" t="s">
-        <v>4314</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="4420" spans="3:5">
-      <c r="C4420" t="s">
-        <v>2568</v>
+      <c r="E4420" t="s">
+        <v>2469</v>
       </c>
     </row>
     <row r="4421" spans="3:5">
       <c r="D4421" t="s">
-        <v>4090</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="4422" spans="3:5">
-      <c r="D4422" t="s">
-        <v>4315</v>
+      <c r="E4422" t="s">
+        <v>2788</v>
       </c>
     </row>
     <row r="4423" spans="3:5">
       <c r="D4423" t="s">
-        <v>4484</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="4424" spans="3:5">
-      <c r="D4424" t="s">
-        <v>4316</v>
+      <c r="E4424" t="s">
+        <v>2789</v>
       </c>
     </row>
     <row r="4425" spans="3:5">
-      <c r="C4425" t="s">
-        <v>2571</v>
+      <c r="D4425" t="s">
+        <v>4011</v>
       </c>
     </row>
     <row r="4426" spans="3:5">
-      <c r="D4426" t="s">
-        <v>4091</v>
+      <c r="E4426" t="s">
+        <v>2791</v>
       </c>
     </row>
     <row r="4427" spans="3:5">
       <c r="D4427" t="s">
-        <v>4317</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="4428" spans="3:5">
-      <c r="D4428" t="s">
-        <v>4318</v>
+      <c r="E4428" t="s">
+        <v>2793</v>
       </c>
     </row>
     <row r="4429" spans="3:5">
-      <c r="D4429" t="s">
-        <v>4092</v>
+      <c r="C4429" t="s">
+        <v>2802</v>
       </c>
     </row>
     <row r="4430" spans="3:5">
-      <c r="E4430" t="s">
-        <v>2826</v>
+      <c r="D4430" t="s">
+        <v>4013</v>
       </c>
     </row>
     <row r="4431" spans="3:5">
       <c r="D4431" t="s">
-        <v>4319</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="4432" spans="3:5">
-      <c r="D4432" t="s">
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="4433" spans="3:4">
+      <c r="E4432" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="4433" spans="3:5">
       <c r="D4433" t="s">
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="4434" spans="3:4">
-      <c r="D4434" t="s">
-        <v>4322</v>
-      </c>
-    </row>
-    <row r="4435" spans="3:4">
-      <c r="C4435" t="s">
-        <v>4093</v>
-      </c>
-    </row>
-    <row r="4436" spans="3:4">
-      <c r="D4436" t="s">
-        <v>4094</v>
-      </c>
-    </row>
-    <row r="4437" spans="3:4">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="4434" spans="3:5">
+      <c r="E4434" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="4435" spans="3:5">
+      <c r="D4435" t="s">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="4436" spans="3:5">
+      <c r="E4436" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="4437" spans="3:5">
       <c r="D4437" t="s">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="4438" spans="3:4">
-      <c r="D4438" t="s">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="4439" spans="3:4">
-      <c r="C4439" t="s">
-        <v>2608</v>
-      </c>
-    </row>
-    <row r="4440" spans="3:4">
-      <c r="D4440" t="s">
-        <v>4097</v>
-      </c>
-    </row>
-    <row r="4441" spans="3:4">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="4438" spans="3:5">
+      <c r="E4438" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="4439" spans="3:5">
+      <c r="D4439" t="s">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="4440" spans="3:5">
+      <c r="E4440" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="4441" spans="3:5">
       <c r="D4441" t="s">
-        <v>4323</v>
-      </c>
-    </row>
-    <row r="4442" spans="3:4">
-      <c r="D4442" t="s">
-        <v>4324</v>
-      </c>
-    </row>
-    <row r="4443" spans="3:4">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="4442" spans="3:5">
+      <c r="E4442" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="4443" spans="3:5">
       <c r="D4443" t="s">
-        <v>4325</v>
-      </c>
-    </row>
-    <row r="4444" spans="3:4">
-      <c r="D4444" t="s">
-        <v>4326</v>
-      </c>
-    </row>
-    <row r="4445" spans="3:4">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="4444" spans="3:5">
+      <c r="E4444" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="4445" spans="3:5">
       <c r="D4445" t="s">
-        <v>4327</v>
-      </c>
-    </row>
-    <row r="4446" spans="3:4">
-      <c r="D4446" t="s">
-        <v>4328</v>
-      </c>
-    </row>
-    <row r="4447" spans="3:4">
-      <c r="C4447" t="s">
-        <v>2618</v>
-      </c>
-    </row>
-    <row r="4448" spans="3:4">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="4446" spans="3:5">
+      <c r="C4446" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="4447" spans="3:5">
+      <c r="D4447" t="s">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="4448" spans="3:5">
       <c r="D4448" t="s">
-        <v>4098</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="4449" spans="3:5">
       <c r="D4449" t="s">
-        <v>4329</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="4450" spans="3:5">
       <c r="D4450" t="s">
-        <v>4330</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="4451" spans="3:5">
-      <c r="D4451" t="s">
-        <v>4331</v>
+      <c r="C4451" t="s">
+        <v>2825</v>
       </c>
     </row>
     <row r="4452" spans="3:5">
       <c r="D4452" t="s">
-        <v>4332</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="4453" spans="3:5">
       <c r="D4453" t="s">
-        <v>4333</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="4454" spans="3:5">
-      <c r="D4454" t="s">
-        <v>4099</v>
+      <c r="E4454" t="s">
+        <v>4024</v>
       </c>
     </row>
     <row r="4455" spans="3:5">
-      <c r="E4455" t="s">
-        <v>4100</v>
+      <c r="D4455" t="s">
+        <v>4025</v>
       </c>
     </row>
     <row r="4456" spans="3:5">
-      <c r="D4456" t="s">
-        <v>4334</v>
+      <c r="E4456" t="s">
+        <v>4026</v>
       </c>
     </row>
     <row r="4457" spans="3:5">
       <c r="D4457" t="s">
-        <v>4101</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="4458" spans="3:5">
       <c r="E4458" t="s">
-        <v>2778</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="4459" spans="3:5">
-      <c r="C4459" t="s">
-        <v>2638</v>
+      <c r="D4459" t="s">
+        <v>4029</v>
       </c>
     </row>
     <row r="4460" spans="3:5">
-      <c r="D4460" t="s">
-        <v>4102</v>
+      <c r="E4460" t="s">
+        <v>4030</v>
       </c>
     </row>
     <row r="4461" spans="3:5">
       <c r="D4461" t="s">
-        <v>4103</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="4462" spans="3:5">
-      <c r="D4462" t="s">
-        <v>4335</v>
+      <c r="E4462" t="s">
+        <v>4032</v>
       </c>
     </row>
     <row r="4463" spans="3:5">
-      <c r="C4463" t="s">
-        <v>2751</v>
+      <c r="D4463" t="s">
+        <v>4033</v>
       </c>
     </row>
     <row r="4464" spans="3:5">
-      <c r="D4464" t="s">
-        <v>4104</v>
+      <c r="E4464" t="s">
+        <v>4034</v>
       </c>
     </row>
     <row r="4465" spans="3:5">
       <c r="D4465" t="s">
-        <v>4105</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="4466" spans="3:5">
       <c r="E4466" t="s">
-        <v>2469</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="4467" spans="3:5">
       <c r="D4467" t="s">
-        <v>4106</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="4468" spans="3:5">
       <c r="E4468" t="s">
-        <v>2788</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="4469" spans="3:5">
       <c r="D4469" t="s">
-        <v>4107</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="4470" spans="3:5">
       <c r="E4470" t="s">
-        <v>2789</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="4471" spans="3:5">
       <c r="D4471" t="s">
-        <v>4108</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="4472" spans="3:5">
       <c r="E4472" t="s">
-        <v>2791</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="4473" spans="3:5">
       <c r="D4473" t="s">
-        <v>4109</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="4474" spans="3:5">
       <c r="E4474" t="s">
-        <v>2793</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="4475" spans="3:5">
-      <c r="C4475" t="s">
-        <v>2802</v>
+      <c r="E4475" t="s">
+        <v>2829</v>
       </c>
     </row>
     <row r="4476" spans="3:5">
-      <c r="D4476" t="s">
-        <v>4110</v>
+      <c r="E4476" t="s">
+        <v>2828</v>
       </c>
     </row>
     <row r="4477" spans="3:5">
-      <c r="D4477" t="s">
-        <v>4111</v>
+      <c r="E4477" t="s">
+        <v>4044</v>
       </c>
     </row>
     <row r="4478" spans="3:5">
-      <c r="E4478" t="s">
-        <v>2863</v>
+      <c r="C4478" t="s">
+        <v>2864</v>
       </c>
     </row>
     <row r="4479" spans="3:5">
       <c r="D4479" t="s">
-        <v>4112</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="4480" spans="3:5">
-      <c r="E4480" t="s">
-        <v>2843</v>
+      <c r="D4480" t="s">
+        <v>4243</v>
       </c>
     </row>
     <row r="4481" spans="3:5">
       <c r="D4481" t="s">
-        <v>4113</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="4482" spans="3:5">
-      <c r="E4482" t="s">
-        <v>2844</v>
+      <c r="D4482" t="s">
+        <v>4245</v>
       </c>
     </row>
     <row r="4483" spans="3:5">
       <c r="D4483" t="s">
-        <v>4114</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="4484" spans="3:5">
       <c r="E4484" t="s">
-        <v>2845</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="4485" spans="3:5">
-      <c r="D4485" t="s">
-        <v>4115</v>
+      <c r="E4485" t="s">
+        <v>4047</v>
       </c>
     </row>
     <row r="4486" spans="3:5">
       <c r="E4486" t="s">
-        <v>3113</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="4487" spans="3:5">
       <c r="D4487" t="s">
-        <v>4116</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="4488" spans="3:5">
-      <c r="E4488" t="s">
-        <v>3117</v>
+      <c r="D4488" t="s">
+        <v>4247</v>
       </c>
     </row>
     <row r="4489" spans="3:5">
       <c r="D4489" t="s">
-        <v>4117</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="4490" spans="3:5">
-      <c r="E4490" t="s">
-        <v>3118</v>
+      <c r="D4490" t="s">
+        <v>4049</v>
       </c>
     </row>
     <row r="4491" spans="3:5">
-      <c r="D4491" t="s">
-        <v>4336</v>
+      <c r="E4491" t="s">
+        <v>4249</v>
       </c>
     </row>
     <row r="4492" spans="3:5">
-      <c r="C4492" t="s">
-        <v>2815</v>
+      <c r="D4492" t="s">
+        <v>4250</v>
       </c>
     </row>
     <row r="4493" spans="3:5">
       <c r="D4493" t="s">
-        <v>4118</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="4494" spans="3:5">
       <c r="D4494" t="s">
-        <v>4337</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="4495" spans="3:5">
-      <c r="D4495" t="s">
-        <v>4338</v>
+      <c r="C4495" t="s">
+        <v>2896</v>
       </c>
     </row>
     <row r="4496" spans="3:5">
       <c r="D4496" t="s">
-        <v>4339</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="4497" spans="3:5">
-      <c r="C4497" t="s">
-        <v>2825</v>
+      <c r="D4497" t="s">
+        <v>4253</v>
       </c>
     </row>
     <row r="4498" spans="3:5">
       <c r="D4498" t="s">
-        <v>4119</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="4499" spans="3:5">
       <c r="D4499" t="s">
-        <v>4120</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="4500" spans="3:5">
-      <c r="E4500" t="s">
-        <v>4121</v>
+      <c r="D4500" t="s">
+        <v>4256</v>
       </c>
     </row>
     <row r="4501" spans="3:5">
-      <c r="D4501" t="s">
-        <v>4122</v>
+      <c r="C4501" t="s">
+        <v>2933</v>
       </c>
     </row>
     <row r="4502" spans="3:5">
-      <c r="E4502" t="s">
-        <v>4123</v>
+      <c r="D4502" t="s">
+        <v>4051</v>
       </c>
     </row>
     <row r="4503" spans="3:5">
       <c r="D4503" t="s">
-        <v>4124</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="4504" spans="3:5">
-      <c r="E4504" t="s">
-        <v>4125</v>
+      <c r="D4504" t="s">
+        <v>4258</v>
       </c>
     </row>
     <row r="4505" spans="3:5">
       <c r="D4505" t="s">
-        <v>4126</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="4506" spans="3:5">
-      <c r="E4506" t="s">
-        <v>4127</v>
+      <c r="D4506" t="s">
+        <v>4260</v>
       </c>
     </row>
     <row r="4507" spans="3:5">
       <c r="D4507" t="s">
-        <v>4128</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="4508" spans="3:5">
       <c r="E4508" t="s">
-        <v>4129</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="4509" spans="3:5">
-      <c r="D4509" t="s">
-        <v>4130</v>
+      <c r="E4509" t="s">
+        <v>4053</v>
       </c>
     </row>
     <row r="4510" spans="3:5">
-      <c r="E4510" t="s">
-        <v>4131</v>
+      <c r="C4510" t="s">
+        <v>2947</v>
       </c>
     </row>
     <row r="4511" spans="3:5">
       <c r="D4511" t="s">
-        <v>4132</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="4512" spans="3:5">
-      <c r="E4512" t="s">
-        <v>4133</v>
+      <c r="D4512" t="s">
+        <v>4261</v>
       </c>
     </row>
     <row r="4513" spans="3:5">
       <c r="D4513" t="s">
-        <v>4134</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="4514" spans="3:5">
-      <c r="E4514" t="s">
-        <v>4135</v>
+      <c r="D4514" t="s">
+        <v>4263</v>
       </c>
     </row>
     <row r="4515" spans="3:5">
-      <c r="D4515" t="s">
-        <v>4136</v>
+      <c r="C4515" t="s">
+        <v>2963</v>
       </c>
     </row>
     <row r="4516" spans="3:5">
-      <c r="E4516" t="s">
-        <v>4137</v>
+      <c r="D4516" t="s">
+        <v>4055</v>
       </c>
     </row>
     <row r="4517" spans="3:5">
       <c r="D4517" t="s">
-        <v>4138</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="4518" spans="3:5">
       <c r="E4518" t="s">
-        <v>4139</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="4519" spans="3:5">
       <c r="D4519" t="s">
-        <v>4140</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="4520" spans="3:5">
-      <c r="E4520" t="s">
-        <v>3194</v>
+      <c r="D4520" t="s">
+        <v>4265</v>
       </c>
     </row>
     <row r="4521" spans="3:5">
-      <c r="E4521" t="s">
-        <v>2829</v>
+      <c r="D4521" t="s">
+        <v>4266</v>
       </c>
     </row>
     <row r="4522" spans="3:5">
-      <c r="E4522" t="s">
-        <v>2828</v>
+      <c r="D4522" t="s">
+        <v>4267</v>
       </c>
     </row>
     <row r="4523" spans="3:5">
-      <c r="E4523" t="s">
-        <v>4141</v>
+      <c r="D4523" t="s">
+        <v>4268</v>
       </c>
     </row>
     <row r="4524" spans="3:5">
       <c r="C4524" t="s">
-        <v>2864</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="4525" spans="3:5">
       <c r="D4525" t="s">
-        <v>4142</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="4526" spans="3:5">
       <c r="D4526" t="s">
-        <v>4340</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="4527" spans="3:5">
       <c r="D4527" t="s">
-        <v>4341</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="4528" spans="3:5">
       <c r="D4528" t="s">
-        <v>4342</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="4529" spans="3:5">
-      <c r="D4529" t="s">
-        <v>4143</v>
+      <c r="E4529" t="s">
+        <v>4059</v>
       </c>
     </row>
     <row r="4530" spans="3:5">
-      <c r="E4530" t="s">
-        <v>2829</v>
+      <c r="C4530" t="s">
+        <v>3026</v>
       </c>
     </row>
     <row r="4531" spans="3:5">
-      <c r="E4531" t="s">
-        <v>4144</v>
+      <c r="D4531" t="s">
+        <v>4060</v>
       </c>
     </row>
     <row r="4532" spans="3:5">
-      <c r="E4532" t="s">
-        <v>4145</v>
+      <c r="D4532" t="s">
+        <v>4271</v>
       </c>
     </row>
     <row r="4533" spans="3:5">
       <c r="D4533" t="s">
-        <v>4343</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="4534" spans="3:5">
-      <c r="D4534" t="s">
-        <v>4344</v>
+      <c r="E4534" t="s">
+        <v>4062</v>
       </c>
     </row>
     <row r="4535" spans="3:5">
       <c r="D4535" t="s">
-        <v>4345</v>
+        <v>4063</v>
       </c>
     </row>
     <row r="4536" spans="3:5">
-      <c r="D4536" t="s">
-        <v>4146</v>
+      <c r="E4536" t="s">
+        <v>4064</v>
       </c>
     </row>
     <row r="4537" spans="3:5">
-      <c r="E4537" t="s">
-        <v>4346</v>
+      <c r="D4537" t="s">
+        <v>4065</v>
       </c>
     </row>
     <row r="4538" spans="3:5">
-      <c r="D4538" t="s">
-        <v>4347</v>
+      <c r="E4538" t="s">
+        <v>4066</v>
       </c>
     </row>
     <row r="4539" spans="3:5">
       <c r="D4539" t="s">
-        <v>4348</v>
+        <v>4067</v>
       </c>
     </row>
     <row r="4540" spans="3:5">
-      <c r="D4540" t="s">
-        <v>4349</v>
+      <c r="E4540" t="s">
+        <v>4068</v>
       </c>
     </row>
     <row r="4541" spans="3:5">
-      <c r="C4541" t="s">
-        <v>2896</v>
+      <c r="D4541" t="s">
+        <v>4069</v>
       </c>
     </row>
     <row r="4542" spans="3:5">
-      <c r="D4542" t="s">
-        <v>4147</v>
+      <c r="E4542" t="s">
+        <v>4070</v>
       </c>
     </row>
     <row r="4543" spans="3:5">
-      <c r="D4543" t="s">
-        <v>4350</v>
+      <c r="C4543" t="s">
+        <v>3047</v>
       </c>
     </row>
     <row r="4544" spans="3:5">
       <c r="D4544" t="s">
-        <v>4351</v>
-      </c>
-    </row>
-    <row r="4545" spans="3:5">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="4545" spans="3:4">
       <c r="D4545" t="s">
-        <v>4352</v>
-      </c>
-    </row>
-    <row r="4546" spans="3:5">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="4546" spans="3:4">
       <c r="D4546" t="s">
-        <v>4353</v>
-      </c>
-    </row>
-    <row r="4547" spans="3:5">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4547" spans="3:4">
       <c r="C4547" t="s">
-        <v>2933</v>
-      </c>
-    </row>
-    <row r="4548" spans="3:5">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="4548" spans="3:4">
       <c r="D4548" t="s">
-        <v>4148</v>
-      </c>
-    </row>
-    <row r="4549" spans="3:5">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="4549" spans="3:4">
       <c r="D4549" t="s">
-        <v>4354</v>
-      </c>
-    </row>
-    <row r="4550" spans="3:5">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="4550" spans="3:4">
       <c r="D4550" t="s">
-        <v>4355</v>
-      </c>
-    </row>
-    <row r="4551" spans="3:5">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="4551" spans="3:4">
       <c r="D4551" t="s">
-        <v>4356</v>
-      </c>
-    </row>
-    <row r="4552" spans="3:5">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="4552" spans="3:4">
       <c r="D4552" t="s">
-        <v>4357</v>
-      </c>
-    </row>
-    <row r="4553" spans="3:5">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="4553" spans="3:4">
       <c r="D4553" t="s">
-        <v>4149</v>
-      </c>
-    </row>
-    <row r="4554" spans="3:5">
-      <c r="E4554" t="s">
-        <v>2779</v>
-      </c>
-    </row>
-    <row r="4555" spans="3:5">
-      <c r="E4555" t="s">
-        <v>4150</v>
-      </c>
-    </row>
-    <row r="4556" spans="3:5">
-      <c r="C4556" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="4557" spans="3:5">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="4554" spans="3:4">
+      <c r="D4554" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="4555" spans="3:4">
+      <c r="D4555" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="4556" spans="3:4">
+      <c r="D4556" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="4557" spans="3:4">
       <c r="D4557" t="s">
-        <v>4151</v>
-      </c>
-    </row>
-    <row r="4558" spans="3:5">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="4558" spans="3:4">
       <c r="D4558" t="s">
-        <v>4358</v>
-      </c>
-    </row>
-    <row r="4559" spans="3:5">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="4559" spans="3:4">
       <c r="D4559" t="s">
-        <v>4359</v>
-      </c>
-    </row>
-    <row r="4560" spans="3:5">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="4560" spans="3:4">
       <c r="D4560" t="s">
-        <v>4360</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="4561" spans="3:5">
-      <c r="C4561" t="s">
-        <v>2963</v>
+      <c r="D4561" t="s">
+        <v>4286</v>
       </c>
     </row>
     <row r="4562" spans="3:5">
       <c r="D4562" t="s">
-        <v>4152</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="4563" spans="3:5">
       <c r="D4563" t="s">
-        <v>4153</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="4564" spans="3:5">
-      <c r="E4564" t="s">
-        <v>2812</v>
+      <c r="D4564" t="s">
+        <v>4289</v>
       </c>
     </row>
     <row r="4565" spans="3:5">
       <c r="D4565" t="s">
-        <v>4361</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="4566" spans="3:5">
       <c r="D4566" t="s">
-        <v>4362</v>
+        <v>4073</v>
       </c>
     </row>
     <row r="4567" spans="3:5">
-      <c r="D4567" t="s">
-        <v>4363</v>
+      <c r="E4567" t="s">
+        <v>4074</v>
       </c>
     </row>
     <row r="4568" spans="3:5">
       <c r="D4568" t="s">
-        <v>4364</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="4569" spans="3:5">
       <c r="D4569" t="s">
-        <v>4365</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="4570" spans="3:5">
-      <c r="C4570" t="s">
-        <v>2994</v>
+      <c r="D4570" t="s">
+        <v>4293</v>
       </c>
     </row>
     <row r="4571" spans="3:5">
-      <c r="D4571" t="s">
-        <v>4154</v>
+      <c r="C4571" t="s">
+        <v>3071</v>
       </c>
     </row>
     <row r="4572" spans="3:5">
       <c r="D4572" t="s">
-        <v>4366</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="4573" spans="3:5">
       <c r="D4573" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="4574" spans="3:5">
+      <c r="C4574" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="4575" spans="3:5">
+      <c r="D4575" t="s">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="4576" spans="3:5">
+      <c r="D4576" t="s">
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="4577" spans="2:4">
+      <c r="D4577" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="4578" spans="2:4">
+      <c r="C4578" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="4579" spans="2:4">
+      <c r="D4579" t="s">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="4580" spans="2:4">
+      <c r="D4580" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="4581" spans="2:4">
+      <c r="D4581" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="4582" spans="2:4">
+      <c r="D4582" t="s">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="4583" spans="2:4">
+      <c r="C4583" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="4584" spans="2:4">
+      <c r="D4584" t="s">
+        <v>4079</v>
+      </c>
+    </row>
+    <row r="4585" spans="2:4">
+      <c r="D4585" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="4586" spans="2:4">
+      <c r="D4586" t="s">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="4587" spans="2:4">
+      <c r="B4587" t="s">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="4588" spans="2:4">
+      <c r="C4588" t="s">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="4589" spans="2:4">
+      <c r="C4589" t="s">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="4590" spans="2:4">
+      <c r="D4590" t="s">
+        <v>4083</v>
+      </c>
+    </row>
+    <row r="4591" spans="2:4">
+      <c r="D4591" t="s">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="4592" spans="2:4">
+      <c r="D4592" t="s">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="4593" spans="4:4">
+      <c r="D4593" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="4594" spans="4:4">
+      <c r="D4594" t="s">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="4595" spans="4:4">
+      <c r="D4595" t="s">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="4596" spans="4:4">
+      <c r="D4596" t="s">
+        <v>4086</v>
+      </c>
+    </row>
+    <row r="4597" spans="4:4">
+      <c r="D4597" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="4598" spans="4:4">
+      <c r="D4598" t="s">
+        <v>4087</v>
+      </c>
+    </row>
+    <row r="4599" spans="4:4">
+      <c r="D4599" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="4600" spans="4:4">
+      <c r="D4600" t="s">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="4601" spans="4:4">
+      <c r="D4601" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="4602" spans="4:4">
+      <c r="D4602" t="s">
+        <v>4089</v>
+      </c>
+    </row>
+    <row r="4603" spans="4:4">
+      <c r="D4603" t="s">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="4604" spans="4:4">
+      <c r="D4604" t="s">
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="4605" spans="4:4">
+      <c r="D4605" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="4606" spans="4:4">
+      <c r="D4606" t="s">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="4607" spans="4:4">
+      <c r="D4607" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="4608" spans="4:4">
+      <c r="D4608" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="4609" spans="4:4">
+      <c r="D4609" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="4610" spans="4:4">
+      <c r="D4610" t="s">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="4611" spans="4:4">
+      <c r="D4611" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="4612" spans="4:4">
+      <c r="D4612" t="s">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="4613" spans="4:4">
+      <c r="D4613" t="s">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="4614" spans="4:4">
+      <c r="D4614" t="s">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="4615" spans="4:4">
+      <c r="D4615" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="4616" spans="4:4">
+      <c r="D4616" t="s">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="4617" spans="4:4">
+      <c r="D4617" t="s">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="4618" spans="4:4">
+      <c r="D4618" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="4619" spans="4:4">
+      <c r="D4619" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="4620" spans="4:4">
+      <c r="D4620" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="4621" spans="4:4">
+      <c r="D4621" t="s">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="4622" spans="4:4">
+      <c r="D4622" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="4623" spans="4:4">
+      <c r="D4623" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="4624" spans="4:4">
+      <c r="D4624" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="4625" spans="4:4">
+      <c r="D4625" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="4626" spans="4:4">
+      <c r="D4626" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="4627" spans="4:4">
+      <c r="D4627" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="4628" spans="4:4">
+      <c r="D4628" t="s">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="4629" spans="4:4">
+      <c r="D4629" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="4630" spans="4:4">
+      <c r="D4630" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="4631" spans="4:4">
+      <c r="D4631" t="s">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="4632" spans="4:4">
+      <c r="D4632" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="4633" spans="4:4">
+      <c r="D4633" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="4634" spans="4:4">
+      <c r="D4634" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="4635" spans="4:4">
+      <c r="D4635" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="4636" spans="4:4">
+      <c r="D4636" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="4637" spans="4:4">
+      <c r="D4637" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="4638" spans="4:4">
+      <c r="D4638" t="s">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="4639" spans="4:4">
+      <c r="D4639" t="s">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="4640" spans="4:4">
+      <c r="D4640" t="s">
+        <v>4103</v>
+      </c>
+    </row>
+    <row r="4641" spans="2:5">
+      <c r="C4641" t="s">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="4642" spans="2:5">
+      <c r="D4642" t="s">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="4643" spans="2:5">
+      <c r="D4643" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="4644" spans="2:5">
+      <c r="B4644" t="s">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="4645" spans="2:5">
+      <c r="C4645" t="s">
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="4646" spans="2:5">
+      <c r="D4646" t="s">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="4647" spans="2:5">
+      <c r="E4647" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="4648" spans="2:5">
+      <c r="E4648" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="4649" spans="2:5">
+      <c r="E4649" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="4650" spans="2:5">
+      <c r="E4650" t="s">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="4651" spans="2:5">
+      <c r="E4651" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="4652" spans="2:5">
+      <c r="E4652" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4653" spans="2:5">
+      <c r="E4653" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="4654" spans="2:5">
+      <c r="D4654" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="4655" spans="2:5">
+      <c r="E4655" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="4656" spans="2:5">
+      <c r="E4656" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="4657" spans="4:5">
+      <c r="E4657" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="4658" spans="4:5">
+      <c r="E4658" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="4659" spans="4:5">
+      <c r="E4659" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="4660" spans="4:5">
+      <c r="E4660" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="4661" spans="4:5">
+      <c r="E4661" t="s">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="4662" spans="4:5">
+      <c r="D4662" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="4663" spans="4:5">
+      <c r="E4663" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="4664" spans="4:5">
+      <c r="E4664" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="4665" spans="4:5">
+      <c r="E4665" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="4666" spans="4:5">
+      <c r="E4666" t="s">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="4667" spans="4:5">
+      <c r="E4667" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="4668" spans="4:5">
+      <c r="E4668" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="4669" spans="4:5">
+      <c r="E4669" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="4670" spans="4:5">
+      <c r="E4670" t="s">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="4671" spans="4:5">
+      <c r="E4671" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="4672" spans="4:5">
+      <c r="E4672" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4673" spans="3:5">
+      <c r="E4673" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="4674" spans="3:5">
+      <c r="E4674" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="4675" spans="3:5">
+      <c r="C4675" t="s">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="4676" spans="3:5">
+      <c r="D4676" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="4677" spans="3:5">
+      <c r="D4677" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4678" spans="3:5">
+      <c r="D4678" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="4679" spans="3:5">
+      <c r="D4679" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="4680" spans="3:5">
+      <c r="D4680" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="4681" spans="3:5">
+      <c r="C4681" t="s">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="4682" spans="3:5">
+      <c r="D4682" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="4683" spans="3:5">
+      <c r="D4683" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="4684" spans="3:5">
+      <c r="D4684" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="4685" spans="3:5">
+      <c r="D4685" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="4686" spans="3:5">
+      <c r="D4686" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="4687" spans="3:5">
+      <c r="D4687" t="s">
         <v>4367</v>
       </c>
     </row>
-    <row r="4574" spans="3:5">
-      <c r="D4574" t="s">
-        <v>4155</v>
-      </c>
-    </row>
-    <row r="4575" spans="3:5">
-      <c r="E4575" t="s">
-        <v>4156</v>
-      </c>
-    </row>
-    <row r="4576" spans="3:5">
-      <c r="C4576" t="s">
-        <v>3026</v>
-      </c>
-    </row>
-    <row r="4577" spans="3:5">
-      <c r="D4577" t="s">
-        <v>4157</v>
-      </c>
-    </row>
-    <row r="4578" spans="3:5">
-      <c r="D4578" t="s">
+    <row r="4688" spans="3:5">
+      <c r="D4688" t="s">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="4689" spans="2:4">
+      <c r="D4689" t="s">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="4690" spans="2:4">
+      <c r="D4690" t="s">
         <v>4368</v>
       </c>
     </row>
-    <row r="4579" spans="3:5">
-      <c r="D4579" t="s">
-        <v>4158</v>
-      </c>
-    </row>
-    <row r="4580" spans="3:5">
-      <c r="E4580" t="s">
-        <v>4159</v>
-      </c>
-    </row>
-    <row r="4581" spans="3:5">
-      <c r="D4581" t="s">
-        <v>4160</v>
-      </c>
-    </row>
-    <row r="4582" spans="3:5">
-      <c r="E4582" t="s">
-        <v>4161</v>
-      </c>
-    </row>
-    <row r="4583" spans="3:5">
-      <c r="D4583" t="s">
-        <v>4162</v>
-      </c>
-    </row>
-    <row r="4584" spans="3:5">
-      <c r="E4584" t="s">
-        <v>4163</v>
-      </c>
-    </row>
-    <row r="4585" spans="3:5">
-      <c r="D4585" t="s">
-        <v>4164</v>
-      </c>
-    </row>
-    <row r="4586" spans="3:5">
-      <c r="E4586" t="s">
-        <v>4165</v>
-      </c>
-    </row>
-    <row r="4587" spans="3:5">
-      <c r="D4587" t="s">
-        <v>4166</v>
-      </c>
-    </row>
-    <row r="4588" spans="3:5">
-      <c r="E4588" t="s">
-        <v>4167</v>
-      </c>
-    </row>
-    <row r="4589" spans="3:5">
-      <c r="C4589" t="s">
-        <v>3047</v>
-      </c>
-    </row>
-    <row r="4590" spans="3:5">
-      <c r="D4590" t="s">
-        <v>4168</v>
-      </c>
-    </row>
-    <row r="4591" spans="3:5">
-      <c r="D4591" t="s">
+    <row r="4691" spans="2:4">
+      <c r="D4691" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="4692" spans="2:4">
+      <c r="D4692" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="4693" spans="2:4">
+      <c r="D4693" t="s">
         <v>4369</v>
       </c>
     </row>
-    <row r="4592" spans="3:5">
-      <c r="D4592" t="s">
+    <row r="4694" spans="2:4">
+      <c r="D4694" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="4695" spans="2:4">
+      <c r="D4695" t="s">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="4696" spans="2:4">
+      <c r="D4696" t="s">
         <v>4370</v>
       </c>
     </row>
-    <row r="4593" spans="3:4">
-      <c r="C4593" t="s">
-        <v>3063</v>
-      </c>
-    </row>
-    <row r="4594" spans="3:4">
-      <c r="D4594" t="s">
-        <v>4169</v>
-      </c>
-    </row>
-    <row r="4595" spans="3:4">
-      <c r="D4595" t="s">
+    <row r="4697" spans="2:4">
+      <c r="D4697" t="s">
         <v>4371</v>
       </c>
     </row>
-    <row r="4596" spans="3:4">
-      <c r="D4596" t="s">
+    <row r="4698" spans="2:4">
+      <c r="D4698" t="s">
         <v>4372</v>
       </c>
     </row>
-    <row r="4597" spans="3:4">
-      <c r="D4597" t="s">
-        <v>4373</v>
-      </c>
-    </row>
-    <row r="4598" spans="3:4">
-      <c r="D4598" t="s">
-        <v>4374</v>
-      </c>
-    </row>
-    <row r="4599" spans="3:4">
-      <c r="D4599" t="s">
-        <v>4375</v>
-      </c>
-    </row>
-    <row r="4600" spans="3:4">
-      <c r="D4600" t="s">
-        <v>4376</v>
-      </c>
-    </row>
-    <row r="4601" spans="3:4">
-      <c r="D4601" t="s">
-        <v>4377</v>
-      </c>
-    </row>
-    <row r="4602" spans="3:4">
-      <c r="D4602" t="s">
-        <v>4378</v>
-      </c>
-    </row>
-    <row r="4603" spans="3:4">
-      <c r="D4603" t="s">
-        <v>4379</v>
-      </c>
-    </row>
-    <row r="4604" spans="3:4">
-      <c r="D4604" t="s">
-        <v>4380</v>
-      </c>
-    </row>
-    <row r="4605" spans="3:4">
-      <c r="D4605" t="s">
-        <v>4381</v>
-      </c>
-    </row>
-    <row r="4606" spans="3:4">
-      <c r="D4606" t="s">
-        <v>4382</v>
-      </c>
-    </row>
-    <row r="4607" spans="3:4">
-      <c r="D4607" t="s">
-        <v>4383</v>
-      </c>
-    </row>
-    <row r="4608" spans="3:4">
-      <c r="D4608" t="s">
-        <v>4384</v>
-      </c>
-    </row>
-    <row r="4609" spans="3:5">
-      <c r="D4609" t="s">
+    <row r="4699" spans="2:4">
+      <c r="C4699" t="s">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="4700" spans="2:4">
+      <c r="D4700" t="s">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="4701" spans="2:4">
+      <c r="D4701" t="s">
+        <v>4111</v>
+      </c>
+    </row>
+    <row r="4702" spans="2:4">
+      <c r="D4702" t="s">
+        <v>4112</v>
+      </c>
+    </row>
+    <row r="4703" spans="2:4">
+      <c r="D4703" t="s">
+        <v>4113</v>
+      </c>
+    </row>
+    <row r="4704" spans="2:4">
+      <c r="B4704" t="s">
         <v>4385</v>
       </c>
     </row>
-    <row r="4610" spans="3:5">
-      <c r="D4610" t="s">
+    <row r="4705" spans="3:3">
+      <c r="C4705" t="s">
         <v>4386</v>
-      </c>
-    </row>
-    <row r="4611" spans="3:5">
-      <c r="D4611" t="s">
-        <v>4387</v>
-      </c>
-    </row>
-    <row r="4612" spans="3:5">
-      <c r="D4612" t="s">
-        <v>4170</v>
-      </c>
-    </row>
-    <row r="4613" spans="3:5">
-      <c r="E4613" t="s">
-        <v>4171</v>
-      </c>
-    </row>
-    <row r="4614" spans="3:5">
-      <c r="D4614" t="s">
-        <v>4388</v>
-      </c>
-    </row>
-    <row r="4615" spans="3:5">
-      <c r="D4615" t="s">
-        <v>4389</v>
-      </c>
-    </row>
-    <row r="4616" spans="3:5">
-      <c r="D4616" t="s">
-        <v>4390</v>
-      </c>
-    </row>
-    <row r="4617" spans="3:5">
-      <c r="C4617" t="s">
-        <v>3071</v>
-      </c>
-    </row>
-    <row r="4618" spans="3:5">
-      <c r="D4618" t="s">
-        <v>4172</v>
-      </c>
-    </row>
-    <row r="4619" spans="3:5">
-      <c r="D4619" t="s">
-        <v>4391</v>
-      </c>
-    </row>
-    <row r="4620" spans="3:5">
-      <c r="C4620" t="s">
-        <v>3112</v>
-      </c>
-    </row>
-    <row r="4621" spans="3:5">
-      <c r="D4621" t="s">
-        <v>4173</v>
-      </c>
-    </row>
-    <row r="4622" spans="3:5">
-      <c r="D4622" t="s">
-        <v>4174</v>
-      </c>
-    </row>
-    <row r="4623" spans="3:5">
-      <c r="D4623" t="s">
-        <v>4392</v>
-      </c>
-    </row>
-    <row r="4624" spans="3:5">
-      <c r="C4624" t="s">
-        <v>3135</v>
-      </c>
-    </row>
-    <row r="4625" spans="2:4">
-      <c r="D4625" t="s">
-        <v>4175</v>
-      </c>
-    </row>
-    <row r="4626" spans="2:4">
-      <c r="D4626" t="s">
-        <v>4393</v>
-      </c>
-    </row>
-    <row r="4627" spans="2:4">
-      <c r="D4627" t="s">
-        <v>4394</v>
-      </c>
-    </row>
-    <row r="4628" spans="2:4">
-      <c r="D4628" t="s">
-        <v>4395</v>
-      </c>
-    </row>
-    <row r="4629" spans="2:4">
-      <c r="C4629" t="s">
-        <v>3186</v>
-      </c>
-    </row>
-    <row r="4630" spans="2:4">
-      <c r="D4630" t="s">
-        <v>4176</v>
-      </c>
-    </row>
-    <row r="4631" spans="2:4">
-      <c r="D4631" t="s">
-        <v>4396</v>
-      </c>
-    </row>
-    <row r="4632" spans="2:4">
-      <c r="D4632" t="s">
-        <v>4397</v>
-      </c>
-    </row>
-    <row r="4633" spans="2:4">
-      <c r="B4633" t="s">
-        <v>4177</v>
-      </c>
-    </row>
-    <row r="4634" spans="2:4">
-      <c r="C4634" t="s">
-        <v>4178</v>
-      </c>
-    </row>
-    <row r="4635" spans="2:4">
-      <c r="C4635" t="s">
-        <v>4179</v>
-      </c>
-    </row>
-    <row r="4636" spans="2:4">
-      <c r="D4636" t="s">
-        <v>4180</v>
-      </c>
-    </row>
-    <row r="4637" spans="2:4">
-      <c r="D4637" t="s">
-        <v>4398</v>
-      </c>
-    </row>
-    <row r="4638" spans="2:4">
-      <c r="D4638" t="s">
-        <v>4181</v>
-      </c>
-    </row>
-    <row r="4639" spans="2:4">
-      <c r="D4639" t="s">
-        <v>4399</v>
-      </c>
-    </row>
-    <row r="4640" spans="2:4">
-      <c r="D4640" t="s">
-        <v>4182</v>
-      </c>
-    </row>
-    <row r="4641" spans="4:4">
-      <c r="D4641" t="s">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="4642" spans="4:4">
-      <c r="D4642" t="s">
-        <v>4183</v>
-      </c>
-    </row>
-    <row r="4643" spans="4:4">
-      <c r="D4643" t="s">
-        <v>4401</v>
-      </c>
-    </row>
-    <row r="4644" spans="4:4">
-      <c r="D4644" t="s">
-        <v>4184</v>
-      </c>
-    </row>
-    <row r="4645" spans="4:4">
-      <c r="D4645" t="s">
-        <v>4402</v>
-      </c>
-    </row>
-    <row r="4646" spans="4:4">
-      <c r="D4646" t="s">
-        <v>4185</v>
-      </c>
-    </row>
-    <row r="4647" spans="4:4">
-      <c r="D4647" t="s">
-        <v>4403</v>
-      </c>
-    </row>
-    <row r="4648" spans="4:4">
-      <c r="D4648" t="s">
-        <v>4186</v>
-      </c>
-    </row>
-    <row r="4649" spans="4:4">
-      <c r="D4649" t="s">
-        <v>4187</v>
-      </c>
-    </row>
-    <row r="4650" spans="4:4">
-      <c r="D4650" t="s">
-        <v>4188</v>
-      </c>
-    </row>
-    <row r="4651" spans="4:4">
-      <c r="D4651" t="s">
-        <v>4404</v>
-      </c>
-    </row>
-    <row r="4652" spans="4:4">
-      <c r="D4652" t="s">
-        <v>4189</v>
-      </c>
-    </row>
-    <row r="4653" spans="4:4">
-      <c r="D4653" t="s">
-        <v>4190</v>
-      </c>
-    </row>
-    <row r="4654" spans="4:4">
-      <c r="D4654" t="s">
-        <v>4191</v>
-      </c>
-    </row>
-    <row r="4655" spans="4:4">
-      <c r="D4655" t="s">
-        <v>4405</v>
-      </c>
-    </row>
-    <row r="4656" spans="4:4">
-      <c r="D4656" t="s">
-        <v>4192</v>
-      </c>
-    </row>
-    <row r="4657" spans="4:4">
-      <c r="D4657" t="s">
-        <v>4406</v>
-      </c>
-    </row>
-    <row r="4658" spans="4:4">
-      <c r="D4658" t="s">
-        <v>4193</v>
-      </c>
-    </row>
-    <row r="4659" spans="4:4">
-      <c r="D4659" t="s">
-        <v>4407</v>
-      </c>
-    </row>
-    <row r="4660" spans="4:4">
-      <c r="D4660" t="s">
-        <v>4194</v>
-      </c>
-    </row>
-    <row r="4661" spans="4:4">
-      <c r="D4661" t="s">
-        <v>4408</v>
-      </c>
-    </row>
-    <row r="4662" spans="4:4">
-      <c r="D4662" t="s">
-        <v>4409</v>
-      </c>
-    </row>
-    <row r="4663" spans="4:4">
-      <c r="D4663" t="s">
-        <v>4410</v>
-      </c>
-    </row>
-    <row r="4664" spans="4:4">
-      <c r="D4664" t="s">
-        <v>4411</v>
-      </c>
-    </row>
-    <row r="4665" spans="4:4">
-      <c r="D4665" t="s">
-        <v>4412</v>
-      </c>
-    </row>
-    <row r="4666" spans="4:4">
-      <c r="D4666" t="s">
-        <v>4413</v>
-      </c>
-    </row>
-    <row r="4667" spans="4:4">
-      <c r="D4667" t="s">
-        <v>4414</v>
-      </c>
-    </row>
-    <row r="4668" spans="4:4">
-      <c r="D4668" t="s">
-        <v>4415</v>
-      </c>
-    </row>
-    <row r="4669" spans="4:4">
-      <c r="D4669" t="s">
-        <v>4416</v>
-      </c>
-    </row>
-    <row r="4670" spans="4:4">
-      <c r="D4670" t="s">
-        <v>4417</v>
-      </c>
-    </row>
-    <row r="4671" spans="4:4">
-      <c r="D4671" t="s">
-        <v>4418</v>
-      </c>
-    </row>
-    <row r="4672" spans="4:4">
-      <c r="D4672" t="s">
-        <v>4419</v>
-      </c>
-    </row>
-    <row r="4673" spans="3:4">
-      <c r="D4673" t="s">
-        <v>4420</v>
-      </c>
-    </row>
-    <row r="4674" spans="3:4">
-      <c r="D4674" t="s">
-        <v>4195</v>
-      </c>
-    </row>
-    <row r="4675" spans="3:4">
-      <c r="D4675" t="s">
-        <v>4196</v>
-      </c>
-    </row>
-    <row r="4676" spans="3:4">
-      <c r="D4676" t="s">
-        <v>4421</v>
-      </c>
-    </row>
-    <row r="4677" spans="3:4">
-      <c r="D4677" t="s">
-        <v>4197</v>
-      </c>
-    </row>
-    <row r="4678" spans="3:4">
-      <c r="D4678" t="s">
-        <v>4422</v>
-      </c>
-    </row>
-    <row r="4679" spans="3:4">
-      <c r="D4679" t="s">
-        <v>4198</v>
-      </c>
-    </row>
-    <row r="4680" spans="3:4">
-      <c r="D4680" t="s">
-        <v>4423</v>
-      </c>
-    </row>
-    <row r="4681" spans="3:4">
-      <c r="D4681" t="s">
-        <v>4424</v>
-      </c>
-    </row>
-    <row r="4682" spans="3:4">
-      <c r="D4682" t="s">
-        <v>4425</v>
-      </c>
-    </row>
-    <row r="4683" spans="3:4">
-      <c r="D4683" t="s">
-        <v>4426</v>
-      </c>
-    </row>
-    <row r="4684" spans="3:4">
-      <c r="D4684" t="s">
-        <v>4199</v>
-      </c>
-    </row>
-    <row r="4685" spans="3:4">
-      <c r="D4685" t="s">
-        <v>4427</v>
-      </c>
-    </row>
-    <row r="4686" spans="3:4">
-      <c r="D4686" t="s">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="4687" spans="3:4">
-      <c r="C4687" t="s">
-        <v>4201</v>
-      </c>
-    </row>
-    <row r="4688" spans="3:4">
-      <c r="D4688" t="s">
-        <v>4202</v>
-      </c>
-    </row>
-    <row r="4689" spans="2:5">
-      <c r="D4689" t="s">
-        <v>4474</v>
-      </c>
-    </row>
-    <row r="4690" spans="2:5">
-      <c r="B4690" t="s">
-        <v>4475</v>
-      </c>
-    </row>
-    <row r="4691" spans="2:5">
-      <c r="C4691" t="s">
-        <v>4203</v>
-      </c>
-    </row>
-    <row r="4692" spans="2:5">
-      <c r="D4692" t="s">
-        <v>4471</v>
-      </c>
-    </row>
-    <row r="4693" spans="2:5">
-      <c r="E4693" t="s">
-        <v>4428</v>
-      </c>
-    </row>
-    <row r="4694" spans="2:5">
-      <c r="E4694" t="s">
-        <v>4429</v>
-      </c>
-    </row>
-    <row r="4695" spans="2:5">
-      <c r="E4695" t="s">
-        <v>4430</v>
-      </c>
-    </row>
-    <row r="4696" spans="2:5">
-      <c r="E4696" t="s">
-        <v>4431</v>
-      </c>
-    </row>
-    <row r="4697" spans="2:5">
-      <c r="E4697" t="s">
-        <v>4432</v>
-      </c>
-    </row>
-    <row r="4698" spans="2:5">
-      <c r="E4698" t="s">
-        <v>4433</v>
-      </c>
-    </row>
-    <row r="4699" spans="2:5">
-      <c r="E4699" t="s">
-        <v>4434</v>
-      </c>
-    </row>
-    <row r="4700" spans="2:5">
-      <c r="D4700" t="s">
-        <v>4472</v>
-      </c>
-    </row>
-    <row r="4701" spans="2:5">
-      <c r="E4701" t="s">
-        <v>4435</v>
-      </c>
-    </row>
-    <row r="4702" spans="2:5">
-      <c r="E4702" t="s">
-        <v>4436</v>
-      </c>
-    </row>
-    <row r="4703" spans="2:5">
-      <c r="E4703" t="s">
-        <v>4437</v>
-      </c>
-    </row>
-    <row r="4704" spans="2:5">
-      <c r="E4704" t="s">
-        <v>4438</v>
-      </c>
-    </row>
-    <row r="4705" spans="4:5">
-      <c r="E4705" t="s">
-        <v>4439</v>
-      </c>
-    </row>
-    <row r="4706" spans="4:5">
-      <c r="E4706" t="s">
-        <v>4440</v>
-      </c>
-    </row>
-    <row r="4707" spans="4:5">
-      <c r="E4707" t="s">
-        <v>4441</v>
-      </c>
-    </row>
-    <row r="4708" spans="4:5">
-      <c r="D4708" t="s">
-        <v>4473</v>
-      </c>
-    </row>
-    <row r="4709" spans="4:5">
-      <c r="E4709" t="s">
-        <v>4442</v>
-      </c>
-    </row>
-    <row r="4710" spans="4:5">
-      <c r="E4710" t="s">
-        <v>4443</v>
-      </c>
-    </row>
-    <row r="4711" spans="4:5">
-      <c r="E4711" t="s">
-        <v>4444</v>
-      </c>
-    </row>
-    <row r="4712" spans="4:5">
-      <c r="E4712" t="s">
-        <v>4445</v>
-      </c>
-    </row>
-    <row r="4713" spans="4:5">
-      <c r="E4713" t="s">
-        <v>4446</v>
-      </c>
-    </row>
-    <row r="4714" spans="4:5">
-      <c r="E4714" t="s">
-        <v>4447</v>
-      </c>
-    </row>
-    <row r="4715" spans="4:5">
-      <c r="E4715" t="s">
-        <v>4448</v>
-      </c>
-    </row>
-    <row r="4716" spans="4:5">
-      <c r="E4716" t="s">
-        <v>4449</v>
-      </c>
-    </row>
-    <row r="4717" spans="4:5">
-      <c r="E4717" t="s">
-        <v>4450</v>
-      </c>
-    </row>
-    <row r="4718" spans="4:5">
-      <c r="E4718" t="s">
-        <v>4451</v>
-      </c>
-    </row>
-    <row r="4719" spans="4:5">
-      <c r="E4719" t="s">
-        <v>4452</v>
-      </c>
-    </row>
-    <row r="4720" spans="4:5">
-      <c r="E4720" t="s">
-        <v>4453</v>
-      </c>
-    </row>
-    <row r="4721" spans="3:4">
-      <c r="C4721" t="s">
-        <v>4204</v>
-      </c>
-    </row>
-    <row r="4722" spans="3:4">
-      <c r="D4722" t="s">
-        <v>4454</v>
-      </c>
-    </row>
-    <row r="4723" spans="3:4">
-      <c r="D4723" t="s">
-        <v>4455</v>
-      </c>
-    </row>
-    <row r="4724" spans="3:4">
-      <c r="D4724" t="s">
-        <v>4456</v>
-      </c>
-    </row>
-    <row r="4725" spans="3:4">
-      <c r="D4725" t="s">
-        <v>4457</v>
-      </c>
-    </row>
-    <row r="4726" spans="3:4">
-      <c r="D4726" t="s">
-        <v>4458</v>
-      </c>
-    </row>
-    <row r="4727" spans="3:4">
-      <c r="C4727" t="s">
-        <v>4205</v>
-      </c>
-    </row>
-    <row r="4728" spans="3:4">
-      <c r="D4728" t="s">
-        <v>4459</v>
-      </c>
-    </row>
-    <row r="4729" spans="3:4">
-      <c r="D4729" t="s">
-        <v>4460</v>
-      </c>
-    </row>
-    <row r="4730" spans="3:4">
-      <c r="D4730" t="s">
-        <v>4461</v>
-      </c>
-    </row>
-    <row r="4731" spans="3:4">
-      <c r="D4731" t="s">
-        <v>4462</v>
-      </c>
-    </row>
-    <row r="4732" spans="3:4">
-      <c r="D4732" t="s">
-        <v>4463</v>
-      </c>
-    </row>
-    <row r="4733" spans="3:4">
-      <c r="D4733" t="s">
-        <v>4464</v>
-      </c>
-    </row>
-    <row r="4734" spans="3:4">
-      <c r="D4734" t="s">
-        <v>4476</v>
-      </c>
-    </row>
-    <row r="4735" spans="3:4">
-      <c r="D4735" t="s">
-        <v>4477</v>
-      </c>
-    </row>
-    <row r="4736" spans="3:4">
-      <c r="D4736" t="s">
-        <v>4465</v>
-      </c>
-    </row>
-    <row r="4737" spans="2:4">
-      <c r="D4737" t="s">
-        <v>4478</v>
-      </c>
-    </row>
-    <row r="4738" spans="2:4">
-      <c r="D4738" t="s">
-        <v>4479</v>
-      </c>
-    </row>
-    <row r="4739" spans="2:4">
-      <c r="D4739" t="s">
-        <v>4466</v>
-      </c>
-    </row>
-    <row r="4740" spans="2:4">
-      <c r="D4740" t="s">
-        <v>4480</v>
-      </c>
-    </row>
-    <row r="4741" spans="2:4">
-      <c r="D4741" t="s">
-        <v>4481</v>
-      </c>
-    </row>
-    <row r="4742" spans="2:4">
-      <c r="D4742" t="s">
-        <v>4467</v>
-      </c>
-    </row>
-    <row r="4743" spans="2:4">
-      <c r="D4743" t="s">
-        <v>4468</v>
-      </c>
-    </row>
-    <row r="4744" spans="2:4">
-      <c r="D4744" t="s">
-        <v>4469</v>
-      </c>
-    </row>
-    <row r="4745" spans="2:4">
-      <c r="C4745" t="s">
-        <v>4206</v>
-      </c>
-    </row>
-    <row r="4746" spans="2:4">
-      <c r="D4746" t="s">
-        <v>4207</v>
-      </c>
-    </row>
-    <row r="4747" spans="2:4">
-      <c r="D4747" t="s">
-        <v>4208</v>
-      </c>
-    </row>
-    <row r="4748" spans="2:4">
-      <c r="D4748" t="s">
-        <v>4209</v>
-      </c>
-    </row>
-    <row r="4749" spans="2:4">
-      <c r="D4749" t="s">
-        <v>4210</v>
-      </c>
-    </row>
-    <row r="4750" spans="2:4">
-      <c r="B4750" t="s">
-        <v>4482</v>
-      </c>
-    </row>
-    <row r="4751" spans="2:4">
-      <c r="C4751" t="s">
-        <v>4483</v>
       </c>
     </row>
   </sheetData>

--- a/cbreader2X/nav/simple_nav.xlsx
+++ b/cbreader2X/nav/simple_nav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cbwork\bin\cbreader2X\nav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05EDE05-97B0-452B-83E3-0E52DB7F1837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610F63BF-4AF2-4CC8-81B2-C7E900322431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="924" windowWidth="23040" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4676" uniqueCount="4476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4695" uniqueCount="4494">
   <si>
     <t>大正新脩大藏經</t>
   </si>
@@ -13604,12 +13604,75 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>TX</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>太虛大師全書（待續）</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXa001 編纂說明</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>法藏</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX0001 第一編　佛法總學</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX0002 第二編　五乘共學</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX0003 第三編　三乘共學</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX0004 第四編　大乘通學</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX0005 第五編　法性空慧學</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX0006 第六編　法相唯識學</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX0007 第七編　法界圓覺學</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>制藏</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX0008 第八編　律釋</t>
+  </si>
+  <si>
+    <t>TX0009 第九編　制議</t>
+  </si>
+  <si>
+    <t>TX0010 第十編　學行</t>
+  </si>
+  <si>
+    <t>TX0011 第十一編　宗依論</t>
+  </si>
+  <si>
+    <t>TX0012 第十二編　宗體論</t>
+  </si>
+  <si>
+    <t>TX0013 第十三編　宗用論</t>
+  </si>
+  <si>
+    <t>TX0014 第十四編　支論</t>
+  </si>
+  <si>
+    <t>雜藏</t>
+  </si>
+  <si>
+    <t>TX0015 第十五編　時論</t>
   </si>
 </sst>
 </file>
@@ -14610,10 +14673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4676"/>
+  <dimension ref="A1:F4695"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4661" workbookViewId="0">
-      <selection activeCell="B4675" sqref="B4675"/>
+    <sheetView tabSelected="1" topLeftCell="A4671" workbookViewId="0">
+      <selection activeCell="C4676" sqref="C4676:D4695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -38028,24 +38091,139 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="4673" spans="2:3">
+    <row r="4673" spans="2:4">
       <c r="B4673" t="s">
         <v>4320</v>
       </c>
     </row>
-    <row r="4674" spans="2:3">
+    <row r="4674" spans="2:4">
       <c r="C4674" t="s">
         <v>4321</v>
       </c>
     </row>
-    <row r="4675" spans="2:3">
+    <row r="4675" spans="2:4">
       <c r="B4675" t="s">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="4676" spans="2:4">
+      <c r="C4676" s="1" t="s">
         <v>4475</v>
       </c>
-    </row>
-    <row r="4676" spans="2:3">
-      <c r="C4676" t="s">
-        <v>4474</v>
+      <c r="D4676" s="1"/>
+    </row>
+    <row r="4677" spans="2:4">
+      <c r="C4677" t="s">
+        <v>4476</v>
+      </c>
+      <c r="D4677" s="1"/>
+    </row>
+    <row r="4678" spans="2:4">
+      <c r="C4678" s="1"/>
+      <c r="D4678" s="2" t="s">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="4679" spans="2:4">
+      <c r="C4679" s="1"/>
+      <c r="D4679" s="2" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="4680" spans="2:4">
+      <c r="C4680" s="1"/>
+      <c r="D4680" s="2" t="s">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="4681" spans="2:4">
+      <c r="C4681" s="1"/>
+      <c r="D4681" s="2" t="s">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="4682" spans="2:4">
+      <c r="C4682" s="1"/>
+      <c r="D4682" s="2" t="s">
+        <v>4481</v>
+      </c>
+    </row>
+    <row r="4683" spans="2:4">
+      <c r="C4683" s="1"/>
+      <c r="D4683" s="2" t="s">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="4684" spans="2:4">
+      <c r="C4684" s="1"/>
+      <c r="D4684" s="2" t="s">
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="4685" spans="2:4">
+      <c r="C4685" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D4685" s="1"/>
+    </row>
+    <row r="4686" spans="2:4">
+      <c r="C4686" s="1"/>
+      <c r="D4686" t="s">
+        <v>4485</v>
+      </c>
+    </row>
+    <row r="4687" spans="2:4">
+      <c r="C4687" s="1"/>
+      <c r="D4687" t="s">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="4688" spans="2:4">
+      <c r="C4688" s="1"/>
+      <c r="D4688" t="s">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="4689" spans="3:4">
+      <c r="C4689" t="s">
+        <v>3495</v>
+      </c>
+      <c r="D4689" s="1"/>
+    </row>
+    <row r="4690" spans="3:4">
+      <c r="C4690" s="1"/>
+      <c r="D4690" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="4691" spans="3:4">
+      <c r="C4691" s="1"/>
+      <c r="D4691" t="s">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="4692" spans="3:4">
+      <c r="C4692" s="1"/>
+      <c r="D4692" t="s">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="4693" spans="3:4">
+      <c r="C4693" s="1"/>
+      <c r="D4693" t="s">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="4694" spans="3:4">
+      <c r="C4694" t="s">
+        <v>4492</v>
+      </c>
+      <c r="D4694" s="1"/>
+    </row>
+    <row r="4695" spans="3:4">
+      <c r="C4695" s="1"/>
+      <c r="D4695" t="s">
+        <v>4493</v>
       </c>
     </row>
   </sheetData>

--- a/cbreader2X/nav/simple_nav.xlsx
+++ b/cbreader2X/nav/simple_nav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cbwork\bin\cbreader2X\nav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610F63BF-4AF2-4CC8-81B2-C7E900322431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2879084-EDA4-499D-8A8D-1C9728CC0E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="924" windowWidth="23040" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4695" uniqueCount="4494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4700" uniqueCount="4499">
   <si>
     <t>大正新脩大藏經</t>
   </si>
@@ -13604,10 +13604,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>太虛大師全書（待續）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>TXa001 編纂說明</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -13673,6 +13669,30 @@
   </si>
   <si>
     <t>TX0015 第十五編　時論</t>
+  </si>
+  <si>
+    <t>TX0016 第十六編　書評</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX0017 第十七編　酬對</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX0018 第十八編　講演</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX0019 第十九編　文叢</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX0020 第二十編　詩存</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>太虛大師全書</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -14673,10 +14693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4695"/>
+  <dimension ref="A1:F4700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4671" workbookViewId="0">
-      <selection activeCell="C4676" sqref="C4676:D4695"/>
+    <sheetView tabSelected="1" topLeftCell="A4659" workbookViewId="0">
+      <selection activeCell="B4675" sqref="B4675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -38103,85 +38123,85 @@
     </row>
     <row r="4675" spans="2:4">
       <c r="B4675" t="s">
-        <v>4474</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="4676" spans="2:4">
       <c r="C4676" s="1" t="s">
-        <v>4475</v>
+        <v>4474</v>
       </c>
       <c r="D4676" s="1"/>
     </row>
     <row r="4677" spans="2:4">
       <c r="C4677" t="s">
-        <v>4476</v>
+        <v>4475</v>
       </c>
       <c r="D4677" s="1"/>
     </row>
     <row r="4678" spans="2:4">
       <c r="C4678" s="1"/>
       <c r="D4678" s="2" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="4679" spans="2:4">
       <c r="C4679" s="1"/>
       <c r="D4679" s="2" t="s">
-        <v>4478</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="4680" spans="2:4">
       <c r="C4680" s="1"/>
       <c r="D4680" s="2" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="4681" spans="2:4">
       <c r="C4681" s="1"/>
       <c r="D4681" s="2" t="s">
-        <v>4480</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="4682" spans="2:4">
       <c r="C4682" s="1"/>
       <c r="D4682" s="2" t="s">
-        <v>4481</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="4683" spans="2:4">
       <c r="C4683" s="1"/>
       <c r="D4683" s="2" t="s">
-        <v>4482</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="4684" spans="2:4">
       <c r="C4684" s="1"/>
       <c r="D4684" s="2" t="s">
-        <v>4483</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="4685" spans="2:4">
       <c r="C4685" t="s">
-        <v>4484</v>
+        <v>4483</v>
       </c>
       <c r="D4685" s="1"/>
     </row>
     <row r="4686" spans="2:4">
       <c r="C4686" s="1"/>
       <c r="D4686" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="4687" spans="2:4">
       <c r="C4687" s="1"/>
       <c r="D4687" t="s">
-        <v>4486</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="4688" spans="2:4">
       <c r="C4688" s="1"/>
       <c r="D4688" t="s">
-        <v>4487</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="4689" spans="3:4">
@@ -38193,37 +38213,62 @@
     <row r="4690" spans="3:4">
       <c r="C4690" s="1"/>
       <c r="D4690" t="s">
-        <v>4488</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="4691" spans="3:4">
       <c r="C4691" s="1"/>
       <c r="D4691" t="s">
-        <v>4489</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="4692" spans="3:4">
       <c r="C4692" s="1"/>
       <c r="D4692" t="s">
-        <v>4490</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="4693" spans="3:4">
       <c r="C4693" s="1"/>
       <c r="D4693" t="s">
-        <v>4491</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="4694" spans="3:4">
       <c r="C4694" t="s">
-        <v>4492</v>
+        <v>4491</v>
       </c>
       <c r="D4694" s="1"/>
     </row>
     <row r="4695" spans="3:4">
       <c r="C4695" s="1"/>
       <c r="D4695" t="s">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="4696" spans="3:4">
+      <c r="D4696" t="s">
         <v>4493</v>
+      </c>
+    </row>
+    <row r="4697" spans="3:4">
+      <c r="D4697" t="s">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="4698" spans="3:4">
+      <c r="D4698" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="4699" spans="3:4">
+      <c r="D4699" t="s">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="4700" spans="3:4">
+      <c r="D4700" t="s">
+        <v>4497</v>
       </c>
     </row>
   </sheetData>

--- a/cbreader2X/nav/simple_nav.xlsx
+++ b/cbreader2X/nav/simple_nav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cbwork\bin\cbreader2X\nav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2879084-EDA4-499D-8A8D-1C9728CC0E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114B290E-DD52-41C3-83C6-A8D3E1DE1206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4700" uniqueCount="4499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4702" uniqueCount="4501">
   <si>
     <t>大正新脩大藏經</t>
   </si>
@@ -12641,9 +12641,6 @@
   </si>
   <si>
     <t>B0156 佛法金湯,卷,屠隆著</t>
-  </si>
-  <si>
-    <t>B0157 楊仁山居士遺書,卷,楊文會著</t>
   </si>
   <si>
     <t>B0158 陰騭文圖,卷,費丹旭繪圖　許光清集證</t>
@@ -13692,6 +13689,18 @@
   </si>
   <si>
     <t>太虛大師全書</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBETA 選集</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0001 續比丘尼傳</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0157 楊仁山居士遺著,卷,楊文會著</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -14373,9 +14382,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -14413,9 +14422,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14448,26 +14457,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14500,26 +14492,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -14693,10 +14668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4700"/>
+  <dimension ref="A1:F4702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4659" workbookViewId="0">
-      <selection activeCell="B4675" sqref="B4675"/>
+    <sheetView tabSelected="1" topLeftCell="A4679" workbookViewId="0">
+      <selection activeCell="G4703" sqref="G4703"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -31873,7 +31848,7 @@
     </row>
     <row r="3435" spans="1:5">
       <c r="A3435" t="s">
-        <v>4314</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="3436" spans="1:5">
@@ -33658,22 +33633,22 @@
     </row>
     <row r="3792" spans="1:4">
       <c r="D3792" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="3793" spans="4:5">
       <c r="D3793" s="1" t="s">
-        <v>4367</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="3794" spans="4:5">
       <c r="D3794" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="3795" spans="4:5">
       <c r="D3795" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="3796" spans="4:5">
@@ -33808,12 +33783,12 @@
     </row>
     <row r="3822" spans="3:5">
       <c r="D3822" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="3823" spans="3:5">
       <c r="D3823" t="s">
-        <v>4371</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="3824" spans="3:5">
@@ -33824,22 +33799,22 @@
     </row>
     <row r="3825" spans="4:5">
       <c r="D3825" s="1" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="3826" spans="4:5">
       <c r="D3826" t="s">
-        <v>4373</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="3827" spans="4:5">
       <c r="D3827" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="3828" spans="4:5">
       <c r="D3828" s="1" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="3829" spans="4:5">
@@ -33899,12 +33874,12 @@
     </row>
     <row r="3840" spans="4:5">
       <c r="D3840" t="s">
-        <v>4376</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="3841" spans="3:5">
       <c r="D3841" t="s">
-        <v>4377</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="3842" spans="3:5">
@@ -33915,17 +33890,17 @@
     </row>
     <row r="3843" spans="3:5">
       <c r="D3843" s="1" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="3844" spans="3:5">
       <c r="D3844" t="s">
-        <v>4379</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="3845" spans="3:5">
       <c r="D3845" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="3846" spans="3:5">
@@ -34020,22 +33995,22 @@
     </row>
     <row r="3864" spans="3:5">
       <c r="D3864" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="3865" spans="3:5">
       <c r="D3865" t="s">
-        <v>4382</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="3866" spans="3:5">
       <c r="D3866" s="1" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="3867" spans="3:5">
       <c r="D3867" t="s">
-        <v>4384</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="3868" spans="3:5">
@@ -34046,17 +34021,17 @@
     </row>
     <row r="3869" spans="3:5">
       <c r="D3869" s="1" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="3870" spans="3:5">
       <c r="D3870" s="2" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="3871" spans="3:5">
       <c r="D3871" s="2" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="3872" spans="3:5">
@@ -34151,22 +34126,22 @@
     </row>
     <row r="3890" spans="3:5">
       <c r="D3890" s="2" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="3891" spans="3:5">
       <c r="D3891" s="2" t="s">
-        <v>4389</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="3892" spans="3:5">
       <c r="D3892" s="2" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="3893" spans="3:5">
       <c r="D3893" s="2" t="s">
-        <v>4391</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="3894" spans="3:5">
@@ -34177,17 +34152,17 @@
     </row>
     <row r="3895" spans="3:5">
       <c r="D3895" s="1" t="s">
-        <v>4392</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="3896" spans="3:5">
       <c r="D3896" s="2" t="s">
-        <v>4393</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="3897" spans="3:5">
       <c r="D3897" s="2" t="s">
-        <v>4394</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="3898" spans="3:5">
@@ -34237,17 +34212,17 @@
     </row>
     <row r="3907" spans="3:5">
       <c r="D3907" s="2" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="3908" spans="3:5">
       <c r="D3908" s="2" t="s">
-        <v>4396</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="3909" spans="3:5">
       <c r="D3909" s="2" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="3910" spans="3:5">
@@ -34258,17 +34233,17 @@
     </row>
     <row r="3911" spans="3:5">
       <c r="D3911" s="1" t="s">
-        <v>4398</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="3912" spans="3:5">
       <c r="D3912" s="2" t="s">
-        <v>4399</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="3913" spans="3:5">
       <c r="D3913" s="2" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="3914" spans="3:5">
@@ -34323,17 +34298,17 @@
     </row>
     <row r="3924" spans="3:5">
       <c r="D3924" s="2" t="s">
-        <v>4401</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="3925" spans="3:5">
       <c r="D3925" s="2" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="3926" spans="3:5">
       <c r="D3926" s="2" t="s">
-        <v>4403</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="3927" spans="3:5">
@@ -34344,17 +34319,17 @@
     </row>
     <row r="3928" spans="3:5">
       <c r="D3928" s="1" t="s">
-        <v>4404</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="3929" spans="3:5">
       <c r="D3929" s="2" t="s">
-        <v>4405</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="3930" spans="3:5">
       <c r="D3930" s="2" t="s">
-        <v>4406</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="3931" spans="3:5">
@@ -34474,12 +34449,12 @@
     </row>
     <row r="3954" spans="3:5">
       <c r="D3954" s="2" t="s">
-        <v>4407</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="3955" spans="3:5">
       <c r="D3955" s="2" t="s">
-        <v>4408</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="3956" spans="3:5">
@@ -34490,17 +34465,17 @@
     </row>
     <row r="3957" spans="3:5">
       <c r="D3957" s="2" t="s">
-        <v>4409</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="3958" spans="3:5">
       <c r="D3958" s="2" t="s">
-        <v>4410</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="3959" spans="3:5">
       <c r="D3959" s="1" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="3960" spans="3:5">
@@ -34550,17 +34525,17 @@
     </row>
     <row r="3969" spans="3:5">
       <c r="D3969" s="2" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="3970" spans="3:5">
       <c r="D3970" s="2" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="3971" spans="3:5">
       <c r="D3971" s="2" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="3972" spans="3:5">
@@ -34571,17 +34546,17 @@
     </row>
     <row r="3973" spans="3:5">
       <c r="D3973" s="2" t="s">
-        <v>4415</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="3974" spans="3:5">
       <c r="D3974" s="2" t="s">
-        <v>4416</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="3975" spans="3:5">
       <c r="D3975" s="2" t="s">
-        <v>4417</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="3976" spans="3:5">
@@ -34671,383 +34646,383 @@
     </row>
     <row r="3993" spans="3:5">
       <c r="D3993" s="2" t="s">
-        <v>4418</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="3994" spans="3:5">
       <c r="D3994" s="2" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="3995" spans="3:5">
       <c r="D3995" s="2" t="s">
-        <v>4420</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="3996" spans="3:5">
       <c r="D3996" s="2" t="s">
-        <v>4421</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="3997" spans="3:5" s="1" customFormat="1">
       <c r="C3997" s="1" t="s">
-        <v>4322</v>
+        <v>4321</v>
       </c>
       <c r="D3997" s="2"/>
     </row>
     <row r="3998" spans="3:5" s="1" customFormat="1">
       <c r="D3998" s="2" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="3999" spans="3:5" s="1" customFormat="1">
       <c r="D3999" s="2" t="s">
-        <v>4423</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="4000" spans="3:5" s="1" customFormat="1">
       <c r="D4000" s="2" t="s">
-        <v>4424</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="4001" spans="4:5" s="1" customFormat="1">
       <c r="D4001" s="2" t="s">
-        <v>4326</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="4002" spans="4:5" s="1" customFormat="1">
       <c r="D4002" s="2"/>
       <c r="E4002" s="1" t="s">
-        <v>4327</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="4003" spans="4:5" s="1" customFormat="1">
       <c r="D4003" s="2" t="s">
-        <v>4328</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="4004" spans="4:5" s="1" customFormat="1">
       <c r="D4004" s="2"/>
       <c r="E4004" s="1" t="s">
-        <v>4329</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="4005" spans="4:5" s="1" customFormat="1">
       <c r="D4005" s="2" t="s">
-        <v>4330</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="4006" spans="4:5" s="1" customFormat="1">
       <c r="D4006" s="2"/>
       <c r="E4006" s="1" t="s">
-        <v>4331</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="4007" spans="4:5" s="1" customFormat="1">
       <c r="D4007" s="2" t="s">
-        <v>4332</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="4008" spans="4:5" s="1" customFormat="1">
       <c r="D4008" s="2"/>
       <c r="E4008" s="1" t="s">
-        <v>4333</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="4009" spans="4:5" s="1" customFormat="1">
       <c r="D4009" s="2"/>
       <c r="E4009" s="1" t="s">
-        <v>4334</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="4010" spans="4:5" s="1" customFormat="1">
       <c r="D4010" s="2" t="s">
-        <v>4335</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="4011" spans="4:5" s="1" customFormat="1">
       <c r="D4011" s="2"/>
       <c r="E4011" s="1" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="4012" spans="4:5" s="1" customFormat="1">
       <c r="D4012" s="2" t="s">
-        <v>4337</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="4013" spans="4:5" s="1" customFormat="1">
       <c r="D4013" s="2"/>
       <c r="E4013" s="1" t="s">
-        <v>4338</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="4014" spans="4:5" s="1" customFormat="1">
       <c r="D4014" s="2"/>
       <c r="E4014" s="1" t="s">
-        <v>4339</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="4015" spans="4:5" s="1" customFormat="1">
       <c r="D4015" s="2" t="s">
-        <v>4340</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="4016" spans="4:5" s="1" customFormat="1">
       <c r="D4016" s="2"/>
       <c r="E4016" s="1" t="s">
-        <v>4341</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="4017" spans="3:5" s="1" customFormat="1">
       <c r="D4017" s="2" t="s">
-        <v>4342</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="4018" spans="3:5" s="1" customFormat="1">
       <c r="D4018" s="2"/>
       <c r="E4018" s="1" t="s">
-        <v>4343</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="4019" spans="3:5" s="1" customFormat="1">
       <c r="D4019" s="2"/>
       <c r="E4019" s="1" t="s">
-        <v>4344</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="4020" spans="3:5" s="1" customFormat="1">
       <c r="D4020" s="2" t="s">
-        <v>4425</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="4021" spans="3:5" s="1" customFormat="1">
       <c r="D4021" s="2" t="s">
-        <v>4426</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="4022" spans="3:5" s="1" customFormat="1">
       <c r="D4022" s="2" t="s">
-        <v>4427</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="4023" spans="3:5" s="1" customFormat="1">
       <c r="C4023" t="s">
-        <v>4354</v>
+        <v>4353</v>
       </c>
       <c r="D4023" s="2"/>
     </row>
     <row r="4024" spans="3:5" s="1" customFormat="1">
       <c r="D4024" s="2" t="s">
-        <v>4428</v>
+        <v>4427</v>
       </c>
       <c r="E4024" s="2"/>
     </row>
     <row r="4025" spans="3:5" s="1" customFormat="1">
       <c r="D4025" s="2" t="s">
-        <v>4429</v>
+        <v>4428</v>
       </c>
       <c r="E4025" s="2"/>
     </row>
     <row r="4026" spans="3:5" s="1" customFormat="1">
       <c r="D4026" s="2" t="s">
-        <v>4430</v>
+        <v>4429</v>
       </c>
       <c r="E4026" s="2"/>
     </row>
     <row r="4027" spans="3:5" s="1" customFormat="1">
       <c r="D4027" s="2" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
       <c r="E4027" s="2"/>
     </row>
     <row r="4028" spans="3:5" s="1" customFormat="1">
       <c r="E4028" s="2" t="s">
-        <v>4346</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="4029" spans="3:5" s="1" customFormat="1">
       <c r="D4029" s="2" t="s">
-        <v>4335</v>
+        <v>4334</v>
       </c>
       <c r="E4029" s="2"/>
     </row>
     <row r="4030" spans="3:5" s="1" customFormat="1">
       <c r="E4030" s="2" t="s">
-        <v>4347</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="4031" spans="3:5" s="1" customFormat="1">
       <c r="E4031" s="2" t="s">
-        <v>4348</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="4032" spans="3:5" s="1" customFormat="1">
       <c r="E4032" s="2" t="s">
-        <v>4349</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="4033" spans="3:5" s="1" customFormat="1">
       <c r="D4033" s="2" t="s">
-        <v>4337</v>
+        <v>4336</v>
       </c>
       <c r="E4033" s="2"/>
     </row>
     <row r="4034" spans="3:5" s="1" customFormat="1">
       <c r="E4034" s="2" t="s">
-        <v>4350</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="4035" spans="3:5" s="1" customFormat="1">
       <c r="D4035" s="2" t="s">
-        <v>4340</v>
+        <v>4339</v>
       </c>
       <c r="E4035" s="2"/>
     </row>
     <row r="4036" spans="3:5" s="1" customFormat="1">
       <c r="E4036" s="2" t="s">
-        <v>4351</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="4037" spans="3:5" s="1" customFormat="1">
       <c r="D4037" s="2" t="s">
-        <v>4342</v>
+        <v>4341</v>
       </c>
       <c r="E4037" s="2"/>
     </row>
     <row r="4038" spans="3:5" s="1" customFormat="1">
       <c r="E4038" s="2" t="s">
-        <v>4352</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="4039" spans="3:5" s="1" customFormat="1">
       <c r="E4039" s="2" t="s">
-        <v>4353</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="4040" spans="3:5" s="1" customFormat="1">
       <c r="D4040" s="2" t="s">
-        <v>4431</v>
+        <v>4430</v>
       </c>
       <c r="E4040" s="2"/>
     </row>
     <row r="4041" spans="3:5" s="1" customFormat="1">
       <c r="D4041" s="2" t="s">
-        <v>4432</v>
+        <v>4431</v>
       </c>
       <c r="E4041" s="2"/>
     </row>
     <row r="4042" spans="3:5" s="1" customFormat="1">
       <c r="D4042" s="2" t="s">
-        <v>4433</v>
+        <v>4432</v>
       </c>
       <c r="E4042" s="2"/>
     </row>
     <row r="4043" spans="3:5" s="1" customFormat="1">
       <c r="C4043" t="s">
-        <v>4357</v>
+        <v>4356</v>
       </c>
       <c r="D4043" s="2"/>
     </row>
     <row r="4044" spans="3:5" s="1" customFormat="1">
       <c r="D4044" s="2" t="s">
-        <v>4323</v>
+        <v>4322</v>
       </c>
       <c r="E4044" s="2"/>
     </row>
     <row r="4045" spans="3:5" s="1" customFormat="1">
       <c r="D4045" s="2" t="s">
-        <v>4324</v>
+        <v>4323</v>
       </c>
       <c r="E4045" s="2"/>
     </row>
     <row r="4046" spans="3:5" s="1" customFormat="1">
       <c r="D4046" s="2" t="s">
-        <v>4325</v>
+        <v>4324</v>
       </c>
       <c r="E4046" s="2"/>
     </row>
     <row r="4047" spans="3:5" s="1" customFormat="1">
       <c r="D4047" s="2" t="s">
-        <v>4358</v>
+        <v>4357</v>
       </c>
       <c r="E4047" s="2"/>
     </row>
     <row r="4048" spans="3:5" s="1" customFormat="1">
       <c r="D4048" s="2"/>
       <c r="E4048" s="2" t="s">
-        <v>4359</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="4049" spans="2:5" s="1" customFormat="1">
       <c r="D4049" s="2" t="s">
-        <v>4335</v>
+        <v>4334</v>
       </c>
       <c r="E4049" s="2"/>
     </row>
     <row r="4050" spans="2:5" s="1" customFormat="1">
       <c r="D4050" s="2"/>
       <c r="E4050" s="2" t="s">
-        <v>4360</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="4051" spans="2:5" s="1" customFormat="1">
       <c r="D4051" s="2" t="s">
-        <v>4337</v>
+        <v>4336</v>
       </c>
       <c r="E4051" s="2"/>
     </row>
     <row r="4052" spans="2:5" s="1" customFormat="1">
       <c r="D4052" s="2"/>
       <c r="E4052" s="2" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="4053" spans="2:5" s="1" customFormat="1">
       <c r="D4053" s="2" t="s">
-        <v>4340</v>
+        <v>4339</v>
       </c>
       <c r="E4053" s="2"/>
     </row>
     <row r="4054" spans="2:5" s="1" customFormat="1">
       <c r="D4054" s="2"/>
       <c r="E4054" s="2" t="s">
-        <v>4362</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="4055" spans="2:5" s="1" customFormat="1">
       <c r="D4055" s="2" t="s">
-        <v>4342</v>
+        <v>4341</v>
       </c>
       <c r="E4055" s="2"/>
     </row>
     <row r="4056" spans="2:5" s="1" customFormat="1">
       <c r="D4056" s="2"/>
       <c r="E4056" s="2" t="s">
-        <v>4363</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="4057" spans="2:5" s="1" customFormat="1">
       <c r="D4057" s="2"/>
       <c r="E4057" s="2" t="s">
-        <v>4364</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="4058" spans="2:5" s="1" customFormat="1">
       <c r="D4058" s="2"/>
       <c r="E4058" s="2" t="s">
-        <v>4365</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="4059" spans="2:5" s="1" customFormat="1">
       <c r="D4059" s="2" t="s">
-        <v>4356</v>
+        <v>4355</v>
       </c>
       <c r="E4059" s="2"/>
     </row>
     <row r="4060" spans="2:5" s="1" customFormat="1">
       <c r="D4060" s="2" t="s">
-        <v>4345</v>
+        <v>4344</v>
       </c>
       <c r="E4060" s="2"/>
     </row>
@@ -35068,7 +35043,7 @@
     </row>
     <row r="4064" spans="2:5">
       <c r="C4064" t="s">
-        <v>4434</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="4065" spans="3:5">
@@ -36113,12 +36088,12 @@
     </row>
     <row r="4273" spans="3:4">
       <c r="C4273" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="4274" spans="3:4">
       <c r="C4274" t="s">
-        <v>4436</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="4275" spans="3:4">
@@ -36138,7 +36113,7 @@
     </row>
     <row r="4278" spans="3:4">
       <c r="D4278" t="s">
-        <v>4437</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="4279" spans="3:4">
@@ -36153,7 +36128,7 @@
     </row>
     <row r="4281" spans="3:4">
       <c r="D4281" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="4282" spans="3:4">
@@ -36198,7 +36173,7 @@
     </row>
     <row r="4290" spans="3:4">
       <c r="D4290" t="s">
-        <v>4439</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="4291" spans="3:4">
@@ -36288,7 +36263,7 @@
     </row>
     <row r="4308" spans="3:4">
       <c r="D4308" t="s">
-        <v>4440</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="4309" spans="3:4">
@@ -36318,7 +36293,7 @@
     </row>
     <row r="4314" spans="3:4">
       <c r="D4314" t="s">
-        <v>4441</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="4315" spans="3:4">
@@ -36418,7 +36393,7 @@
     </row>
     <row r="4334" spans="3:4">
       <c r="D4334" t="s">
-        <v>4442</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="4335" spans="3:4">
@@ -36533,7 +36508,7 @@
     </row>
     <row r="4357" spans="3:4">
       <c r="D4357" t="s">
-        <v>4443</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="4358" spans="3:4">
@@ -36583,7 +36558,7 @@
     </row>
     <row r="4367" spans="3:4">
       <c r="D4367" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="4368" spans="3:4">
@@ -36603,12 +36578,12 @@
     </row>
     <row r="4371" spans="3:5">
       <c r="D4371" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="4372" spans="3:5">
       <c r="D4372" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="4373" spans="3:5">
@@ -36628,7 +36603,7 @@
     </row>
     <row r="4376" spans="3:5">
       <c r="D4376" t="s">
-        <v>4447</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="4377" spans="3:5">
@@ -36678,12 +36653,12 @@
     </row>
     <row r="4386" spans="3:4">
       <c r="D4386" t="s">
-        <v>4448</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="4387" spans="3:4">
       <c r="D4387" t="s">
-        <v>4449</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="4388" spans="3:4">
@@ -36698,7 +36673,7 @@
     </row>
     <row r="4390" spans="3:4">
       <c r="D4390" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="4391" spans="3:4">
@@ -36738,7 +36713,7 @@
     </row>
     <row r="4398" spans="3:4">
       <c r="D4398" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="4399" spans="3:4">
@@ -36798,12 +36773,12 @@
     </row>
     <row r="4410" spans="3:5">
       <c r="D4410" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="4411" spans="3:5">
       <c r="D4411" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="4412" spans="3:5">
@@ -36818,7 +36793,7 @@
     </row>
     <row r="4414" spans="3:5">
       <c r="D4414" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="4415" spans="3:5">
@@ -36878,7 +36853,7 @@
     </row>
     <row r="4426" spans="3:5">
       <c r="D4426" t="s">
-        <v>4455</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="4427" spans="3:5">
@@ -36963,7 +36938,7 @@
     </row>
     <row r="4443" spans="3:5">
       <c r="D4443" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="4444" spans="3:5">
@@ -36988,7 +36963,7 @@
     </row>
     <row r="4448" spans="3:5">
       <c r="D4448" t="s">
-        <v>4457</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="4449" spans="4:5">
@@ -37123,7 +37098,7 @@
     </row>
     <row r="4475" spans="3:5">
       <c r="D4475" t="s">
-        <v>4458</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="4476" spans="3:5">
@@ -37208,7 +37183,7 @@
     </row>
     <row r="4492" spans="3:5">
       <c r="D4492" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="4493" spans="3:5">
@@ -37238,7 +37213,7 @@
     </row>
     <row r="4498" spans="3:5">
       <c r="D4498" t="s">
-        <v>4460</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="4499" spans="3:5">
@@ -37283,7 +37258,7 @@
     </row>
     <row r="4507" spans="3:5">
       <c r="D4507" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="4508" spans="3:5">
@@ -37308,7 +37283,7 @@
     </row>
     <row r="4512" spans="3:5">
       <c r="D4512" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="4513" spans="3:5">
@@ -37333,17 +37308,17 @@
     </row>
     <row r="4517" spans="3:5">
       <c r="D4517" t="s">
-        <v>4207</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="4518" spans="3:5">
       <c r="D4518" t="s">
-        <v>4208</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="4519" spans="3:5">
       <c r="D4519" t="s">
-        <v>4209</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="4520" spans="3:5">
@@ -37353,17 +37328,17 @@
     </row>
     <row r="4521" spans="3:5">
       <c r="D4521" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="4522" spans="3:5">
       <c r="D4522" t="s">
-        <v>4210</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="4523" spans="3:5">
       <c r="D4523" t="s">
-        <v>4211</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="4524" spans="3:5">
@@ -37383,12 +37358,12 @@
     </row>
     <row r="4527" spans="3:5">
       <c r="D4527" t="s">
-        <v>4464</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="4528" spans="3:5">
       <c r="D4528" t="s">
-        <v>4212</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="4529" spans="3:5">
@@ -37448,17 +37423,17 @@
     </row>
     <row r="4540" spans="3:5">
       <c r="D4540" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="4541" spans="3:5">
       <c r="D4541" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="4542" spans="3:5">
       <c r="D4542" t="s">
-        <v>4214</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="4543" spans="3:5">
@@ -37468,92 +37443,92 @@
     </row>
     <row r="4544" spans="3:5">
       <c r="D4544" t="s">
-        <v>4466</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="4545" spans="4:4">
       <c r="D4545" t="s">
-        <v>4215</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="4546" spans="4:4">
       <c r="D4546" t="s">
-        <v>4216</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="4547" spans="4:4">
       <c r="D4547" t="s">
-        <v>4217</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="4548" spans="4:4">
       <c r="D4548" t="s">
-        <v>4218</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="4549" spans="4:4">
       <c r="D4549" t="s">
-        <v>4219</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="4550" spans="4:4">
       <c r="D4550" t="s">
-        <v>4220</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="4551" spans="4:4">
       <c r="D4551" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="4552" spans="4:4">
       <c r="D4552" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="4553" spans="4:4">
       <c r="D4553" t="s">
-        <v>4223</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="4554" spans="4:4">
       <c r="D4554" t="s">
-        <v>4224</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="4555" spans="4:4">
       <c r="D4555" t="s">
-        <v>4225</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="4556" spans="4:4">
       <c r="D4556" t="s">
-        <v>4226</v>
+        <v>4225</v>
       </c>
     </row>
     <row r="4557" spans="4:4">
       <c r="D4557" t="s">
-        <v>4227</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="4558" spans="4:4">
       <c r="D4558" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="4559" spans="4:4">
       <c r="D4559" t="s">
-        <v>4229</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="4560" spans="4:4">
       <c r="D4560" t="s">
-        <v>4230</v>
+        <v>4229</v>
       </c>
     </row>
     <row r="4561" spans="3:5">
       <c r="D4561" t="s">
-        <v>4231</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="4562" spans="3:5">
@@ -37568,17 +37543,17 @@
     </row>
     <row r="4564" spans="3:5">
       <c r="D4564" t="s">
-        <v>4232</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="4565" spans="3:5">
       <c r="D4565" t="s">
-        <v>4233</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="4566" spans="3:5">
       <c r="D4566" t="s">
-        <v>4234</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="4567" spans="3:5">
@@ -37588,12 +37563,12 @@
     </row>
     <row r="4568" spans="3:5">
       <c r="D4568" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="4569" spans="3:5">
       <c r="D4569" t="s">
-        <v>4235</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="4570" spans="3:5">
@@ -37603,17 +37578,17 @@
     </row>
     <row r="4571" spans="3:5">
       <c r="D4571" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="4572" spans="3:5">
       <c r="D4572" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="4573" spans="3:5">
       <c r="D4573" t="s">
-        <v>4236</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="4574" spans="3:5">
@@ -37623,22 +37598,22 @@
     </row>
     <row r="4575" spans="3:5">
       <c r="D4575" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="4576" spans="3:5">
       <c r="D4576" t="s">
-        <v>4237</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="4577" spans="2:4">
       <c r="D4577" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="4578" spans="2:4">
       <c r="D4578" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="4579" spans="2:4">
@@ -37648,17 +37623,17 @@
     </row>
     <row r="4580" spans="2:4">
       <c r="D4580" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="4581" spans="2:4">
       <c r="D4581" t="s">
-        <v>4240</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="4582" spans="2:4">
       <c r="D4582" t="s">
-        <v>4241</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="4583" spans="2:4">
@@ -37673,37 +37648,37 @@
     </row>
     <row r="4585" spans="2:4">
       <c r="D4585" t="s">
-        <v>4472</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="4586" spans="2:4">
       <c r="D4586" t="s">
-        <v>4242</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="4587" spans="2:4">
       <c r="D4587" t="s">
-        <v>4243</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="4588" spans="2:4">
       <c r="D4588" t="s">
-        <v>4244</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="4589" spans="2:4">
       <c r="D4589" t="s">
-        <v>4245</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="4590" spans="2:4">
       <c r="D4590" t="s">
-        <v>4246</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="4591" spans="2:4">
       <c r="D4591" t="s">
-        <v>4247</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="4592" spans="2:4">
@@ -37713,7 +37688,7 @@
     </row>
     <row r="4593" spans="4:4">
       <c r="D4593" t="s">
-        <v>4248</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="4594" spans="4:4">
@@ -37723,82 +37698,82 @@
     </row>
     <row r="4595" spans="4:4">
       <c r="D4595" t="s">
-        <v>4249</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="4596" spans="4:4">
       <c r="D4596" t="s">
-        <v>4250</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="4597" spans="4:4">
       <c r="D4597" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="4598" spans="4:4">
       <c r="D4598" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="4599" spans="4:4">
       <c r="D4599" t="s">
-        <v>4253</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="4600" spans="4:4">
       <c r="D4600" t="s">
-        <v>4254</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="4601" spans="4:4">
       <c r="D4601" t="s">
-        <v>4255</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="4602" spans="4:4">
       <c r="D4602" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="4603" spans="4:4">
       <c r="D4603" t="s">
-        <v>4257</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="4604" spans="4:4">
       <c r="D4604" t="s">
-        <v>4258</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="4605" spans="4:4">
       <c r="D4605" t="s">
-        <v>4259</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="4606" spans="4:4">
       <c r="D4606" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="4607" spans="4:4">
       <c r="D4607" t="s">
-        <v>4261</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="4608" spans="4:4">
       <c r="D4608" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="4609" spans="2:4">
       <c r="D4609" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="4610" spans="2:4">
       <c r="D4610" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="4611" spans="2:4">
@@ -37808,32 +37783,32 @@
     </row>
     <row r="4612" spans="2:4">
       <c r="D4612" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="4613" spans="2:4">
       <c r="D4613" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="4614" spans="2:4">
       <c r="D4614" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="4615" spans="2:4">
       <c r="D4615" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="4616" spans="2:4">
       <c r="D4616" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="4617" spans="2:4">
       <c r="D4617" t="s">
-        <v>4270</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="4618" spans="2:4">
@@ -37843,7 +37818,7 @@
     </row>
     <row r="4619" spans="2:4">
       <c r="D4619" t="s">
-        <v>4271</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="4620" spans="2:4">
@@ -37858,17 +37833,17 @@
     </row>
     <row r="4622" spans="2:4">
       <c r="D4622" t="s">
-        <v>4473</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="4623" spans="2:4">
       <c r="D4623" t="s">
-        <v>4318</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="4624" spans="2:4">
       <c r="B4624" t="s">
-        <v>4319</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="4625" spans="3:5">
@@ -37878,147 +37853,147 @@
     </row>
     <row r="4626" spans="3:5">
       <c r="D4626" t="s">
-        <v>4315</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="4627" spans="3:5">
       <c r="E4627" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="4628" spans="3:5">
       <c r="E4628" t="s">
-        <v>4273</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="4629" spans="3:5">
       <c r="E4629" t="s">
-        <v>4274</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="4630" spans="3:5">
       <c r="E4630" t="s">
-        <v>4275</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="4631" spans="3:5">
       <c r="E4631" t="s">
-        <v>4276</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="4632" spans="3:5">
       <c r="E4632" t="s">
-        <v>4277</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="4633" spans="3:5">
       <c r="E4633" t="s">
-        <v>4278</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="4634" spans="3:5">
       <c r="D4634" t="s">
-        <v>4316</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="4635" spans="3:5">
       <c r="E4635" t="s">
-        <v>4279</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="4636" spans="3:5">
       <c r="E4636" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="4637" spans="3:5">
       <c r="E4637" t="s">
-        <v>4281</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="4638" spans="3:5">
       <c r="E4638" t="s">
-        <v>4282</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="4639" spans="3:5">
       <c r="E4639" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="4640" spans="3:5">
       <c r="E4640" t="s">
-        <v>4284</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="4641" spans="3:5">
       <c r="E4641" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="4642" spans="3:5">
       <c r="D4642" t="s">
-        <v>4317</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="4643" spans="3:5">
       <c r="E4643" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="4644" spans="3:5">
       <c r="E4644" t="s">
-        <v>4287</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="4645" spans="3:5">
       <c r="E4645" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="4646" spans="3:5">
       <c r="E4646" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="4647" spans="3:5">
       <c r="E4647" t="s">
-        <v>4290</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="4648" spans="3:5">
       <c r="E4648" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="4649" spans="3:5">
       <c r="E4649" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="4650" spans="3:5">
       <c r="E4650" t="s">
-        <v>4293</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="4651" spans="3:5">
       <c r="E4651" t="s">
-        <v>4294</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="4652" spans="3:5">
       <c r="E4652" t="s">
-        <v>4295</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="4653" spans="3:5">
       <c r="E4653" t="s">
-        <v>4296</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="4654" spans="3:5">
       <c r="E4654" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="4655" spans="3:5">
@@ -38028,27 +38003,27 @@
     </row>
     <row r="4656" spans="3:5">
       <c r="D4656" t="s">
-        <v>4298</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="4657" spans="3:4">
       <c r="D4657" t="s">
-        <v>4299</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="4658" spans="3:4">
       <c r="D4658" t="s">
-        <v>4300</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="4659" spans="3:4">
       <c r="D4659" t="s">
-        <v>4301</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="4660" spans="3:4">
       <c r="D4660" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="4661" spans="3:4">
@@ -38058,217 +38033,227 @@
     </row>
     <row r="4662" spans="3:4">
       <c r="D4662" t="s">
-        <v>4303</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="4663" spans="3:4">
       <c r="D4663" t="s">
-        <v>4304</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="4664" spans="3:4">
       <c r="D4664" t="s">
-        <v>4305</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="4665" spans="3:4">
       <c r="D4665" t="s">
-        <v>4306</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="4666" spans="3:4">
       <c r="D4666" t="s">
-        <v>4307</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="4667" spans="3:4">
       <c r="D4667" t="s">
-        <v>4308</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="4668" spans="3:4">
       <c r="D4668" t="s">
-        <v>4309</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="4669" spans="3:4">
       <c r="D4669" t="s">
-        <v>4310</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="4670" spans="3:4">
       <c r="D4670" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="4671" spans="3:4">
       <c r="D4671" t="s">
-        <v>4312</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="4672" spans="3:4">
       <c r="D4672" t="s">
-        <v>4313</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="4673" spans="2:4">
       <c r="B4673" t="s">
-        <v>4320</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="4674" spans="2:4">
       <c r="C4674" t="s">
-        <v>4321</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="4675" spans="2:4">
       <c r="B4675" t="s">
-        <v>4498</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="4676" spans="2:4">
       <c r="C4676" s="1" t="s">
-        <v>4474</v>
+        <v>4473</v>
       </c>
       <c r="D4676" s="1"/>
     </row>
     <row r="4677" spans="2:4">
       <c r="C4677" t="s">
-        <v>4475</v>
+        <v>4474</v>
       </c>
       <c r="D4677" s="1"/>
     </row>
     <row r="4678" spans="2:4">
       <c r="C4678" s="1"/>
       <c r="D4678" s="2" t="s">
-        <v>4476</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="4679" spans="2:4">
       <c r="C4679" s="1"/>
       <c r="D4679" s="2" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="4680" spans="2:4">
       <c r="C4680" s="1"/>
       <c r="D4680" s="2" t="s">
-        <v>4478</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="4681" spans="2:4">
       <c r="C4681" s="1"/>
       <c r="D4681" s="2" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="4682" spans="2:4">
       <c r="C4682" s="1"/>
       <c r="D4682" s="2" t="s">
-        <v>4480</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="4683" spans="2:4">
       <c r="C4683" s="1"/>
       <c r="D4683" s="2" t="s">
-        <v>4481</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="4684" spans="2:4">
       <c r="C4684" s="1"/>
       <c r="D4684" s="2" t="s">
-        <v>4482</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="4685" spans="2:4">
       <c r="C4685" t="s">
-        <v>4483</v>
+        <v>4482</v>
       </c>
       <c r="D4685" s="1"/>
     </row>
     <row r="4686" spans="2:4">
       <c r="C4686" s="1"/>
       <c r="D4686" t="s">
-        <v>4484</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="4687" spans="2:4">
       <c r="C4687" s="1"/>
       <c r="D4687" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="4688" spans="2:4">
       <c r="C4688" s="1"/>
       <c r="D4688" t="s">
-        <v>4486</v>
-      </c>
-    </row>
-    <row r="4689" spans="3:4">
+        <v>4485</v>
+      </c>
+    </row>
+    <row r="4689" spans="2:4">
       <c r="C4689" t="s">
         <v>3495</v>
       </c>
       <c r="D4689" s="1"/>
     </row>
-    <row r="4690" spans="3:4">
+    <row r="4690" spans="2:4">
       <c r="C4690" s="1"/>
       <c r="D4690" t="s">
-        <v>4487</v>
-      </c>
-    </row>
-    <row r="4691" spans="3:4">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="4691" spans="2:4">
       <c r="C4691" s="1"/>
       <c r="D4691" t="s">
-        <v>4488</v>
-      </c>
-    </row>
-    <row r="4692" spans="3:4">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="4692" spans="2:4">
       <c r="C4692" s="1"/>
       <c r="D4692" t="s">
-        <v>4489</v>
-      </c>
-    </row>
-    <row r="4693" spans="3:4">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="4693" spans="2:4">
       <c r="C4693" s="1"/>
       <c r="D4693" t="s">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="4694" spans="2:4">
+      <c r="C4694" t="s">
         <v>4490</v>
       </c>
-    </row>
-    <row r="4694" spans="3:4">
-      <c r="C4694" t="s">
-        <v>4491</v>
-      </c>
       <c r="D4694" s="1"/>
     </row>
-    <row r="4695" spans="3:4">
+    <row r="4695" spans="2:4">
       <c r="C4695" s="1"/>
       <c r="D4695" t="s">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="4696" spans="2:4">
+      <c r="D4696" t="s">
         <v>4492</v>
       </c>
     </row>
-    <row r="4696" spans="3:4">
-      <c r="D4696" t="s">
+    <row r="4697" spans="2:4">
+      <c r="D4697" t="s">
         <v>4493</v>
       </c>
     </row>
-    <row r="4697" spans="3:4">
-      <c r="D4697" t="s">
+    <row r="4698" spans="2:4">
+      <c r="D4698" t="s">
         <v>4494</v>
       </c>
     </row>
-    <row r="4698" spans="3:4">
-      <c r="D4698" t="s">
+    <row r="4699" spans="2:4">
+      <c r="D4699" t="s">
         <v>4495</v>
       </c>
     </row>
-    <row r="4699" spans="3:4">
-      <c r="D4699" t="s">
+    <row r="4700" spans="2:4">
+      <c r="D4700" t="s">
         <v>4496</v>
       </c>
     </row>
-    <row r="4700" spans="3:4">
-      <c r="D4700" t="s">
-        <v>4497</v>
+    <row r="4701" spans="2:4">
+      <c r="B4701" t="s">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="4702" spans="2:4">
+      <c r="C4702" s="1" t="s">
+        <v>4499</v>
       </c>
     </row>
   </sheetData>
